--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="449">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -952,6 +952,9 @@
     <t>['25', '32']</t>
   </si>
   <si>
+    <t>['36', '64', '81', '90+1']</t>
+  </si>
+  <si>
     <t>['73', '78']</t>
   </si>
   <si>
@@ -1719,7 +1722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP340"/>
+  <dimension ref="A1:BP341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2059,7 +2062,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2184,7 +2187,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q3">
         <v>2.85</v>
@@ -2802,7 +2805,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -3420,7 +3423,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q9">
         <v>1.67</v>
@@ -3910,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ11">
         <v>1.24</v>
@@ -4038,7 +4041,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4244,7 +4247,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -5068,7 +5071,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -5274,7 +5277,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q18">
         <v>2.8</v>
@@ -5480,7 +5483,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q19">
         <v>1.68</v>
@@ -5892,7 +5895,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -6304,7 +6307,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q23">
         <v>2.3</v>
@@ -6510,7 +6513,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -6797,7 +6800,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR25">
         <v>0.7</v>
@@ -7128,7 +7131,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q27">
         <v>2.85</v>
@@ -7206,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ27">
         <v>0.76</v>
@@ -7746,7 +7749,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -8364,7 +8367,7 @@
         <v>93</v>
       </c>
       <c r="P33" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -8982,7 +8985,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q36">
         <v>3.7</v>
@@ -9188,7 +9191,7 @@
         <v>93</v>
       </c>
       <c r="P37" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q37">
         <v>4.5</v>
@@ -9600,7 +9603,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q39">
         <v>2.55</v>
@@ -10012,7 +10015,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q41">
         <v>1.77</v>
@@ -10218,7 +10221,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q42">
         <v>1.9</v>
@@ -10299,7 +10302,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR42">
         <v>1.97</v>
@@ -10424,7 +10427,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q43">
         <v>3.6</v>
@@ -10836,7 +10839,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q45">
         <v>2.7</v>
@@ -11120,7 +11123,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ46">
         <v>0.65</v>
@@ -11248,7 +11251,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -12072,7 +12075,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q51">
         <v>4.33</v>
@@ -12690,7 +12693,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q54">
         <v>2.83</v>
@@ -13720,7 +13723,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -14132,7 +14135,7 @@
         <v>94</v>
       </c>
       <c r="P61" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q61">
         <v>2.8</v>
@@ -14544,7 +14547,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q63">
         <v>3.3</v>
@@ -14625,7 +14628,7 @@
         <v>0.53</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR63">
         <v>0.84</v>
@@ -15162,7 +15165,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q66">
         <v>2.9</v>
@@ -15240,7 +15243,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ66">
         <v>1.41</v>
@@ -15574,7 +15577,7 @@
         <v>93</v>
       </c>
       <c r="P68" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -16604,7 +16607,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -17222,7 +17225,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q76">
         <v>4.96</v>
@@ -18046,7 +18049,7 @@
         <v>93</v>
       </c>
       <c r="P80" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18252,7 +18255,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -18539,7 +18542,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR82">
         <v>1.46</v>
@@ -18664,7 +18667,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q83">
         <v>2.3</v>
@@ -18870,7 +18873,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q84">
         <v>2.2</v>
@@ -19694,7 +19697,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q88">
         <v>1.62</v>
@@ -20184,7 +20187,7 @@
         <v>0.67</v>
       </c>
       <c r="AP90">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ90">
         <v>0.59</v>
@@ -20312,7 +20315,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20518,7 +20521,7 @@
         <v>156</v>
       </c>
       <c r="P92" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q92">
         <v>2.3</v>
@@ -20724,7 +20727,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q93">
         <v>2.6</v>
@@ -21420,7 +21423,7 @@
         <v>0.75</v>
       </c>
       <c r="AP96">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ96">
         <v>1.59</v>
@@ -21960,7 +21963,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q99">
         <v>6.5</v>
@@ -22578,7 +22581,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q102">
         <v>2.85</v>
@@ -22990,7 +22993,7 @@
         <v>165</v>
       </c>
       <c r="P104" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q104">
         <v>1.79</v>
@@ -23196,7 +23199,7 @@
         <v>166</v>
       </c>
       <c r="P105" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -23402,7 +23405,7 @@
         <v>167</v>
       </c>
       <c r="P106" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q106">
         <v>2.9</v>
@@ -23814,7 +23817,7 @@
         <v>169</v>
       </c>
       <c r="P108" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q108">
         <v>3.72</v>
@@ -24432,7 +24435,7 @@
         <v>171</v>
       </c>
       <c r="P111" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24638,7 +24641,7 @@
         <v>172</v>
       </c>
       <c r="P112" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q112">
         <v>2.15</v>
@@ -24844,7 +24847,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -24925,7 +24928,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR113">
         <v>1.28</v>
@@ -25050,7 +25053,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q114">
         <v>2.8</v>
@@ -25256,7 +25259,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q115">
         <v>2.8</v>
@@ -25540,7 +25543,7 @@
         <v>2</v>
       </c>
       <c r="AP116">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ116">
         <v>1.29</v>
@@ -25668,7 +25671,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q117">
         <v>5.75</v>
@@ -27110,7 +27113,7 @@
         <v>93</v>
       </c>
       <c r="P124" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q124">
         <v>2.88</v>
@@ -27728,7 +27731,7 @@
         <v>183</v>
       </c>
       <c r="P127" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -28552,7 +28555,7 @@
         <v>186</v>
       </c>
       <c r="P131" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -28836,7 +28839,7 @@
         <v>0.17</v>
       </c>
       <c r="AP132">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ132">
         <v>0.59</v>
@@ -28964,7 +28967,7 @@
         <v>188</v>
       </c>
       <c r="P133" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q133">
         <v>3.42</v>
@@ -29045,7 +29048,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ133">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR133">
         <v>1.28</v>
@@ -29170,7 +29173,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q134">
         <v>2.88</v>
@@ -29376,7 +29379,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29582,7 +29585,7 @@
         <v>191</v>
       </c>
       <c r="P136" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q136">
         <v>2.05</v>
@@ -29788,7 +29791,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q137">
         <v>6.5</v>
@@ -29994,7 +29997,7 @@
         <v>192</v>
       </c>
       <c r="P138" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q138">
         <v>2.48</v>
@@ -30406,7 +30409,7 @@
         <v>193</v>
       </c>
       <c r="P140" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q140">
         <v>4.05</v>
@@ -30818,7 +30821,7 @@
         <v>195</v>
       </c>
       <c r="P142" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q142">
         <v>1.67</v>
@@ -31230,7 +31233,7 @@
         <v>197</v>
       </c>
       <c r="P144" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q144">
         <v>2.7</v>
@@ -31436,7 +31439,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -32260,7 +32263,7 @@
         <v>144</v>
       </c>
       <c r="P149" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q149">
         <v>3.6</v>
@@ -32466,7 +32469,7 @@
         <v>93</v>
       </c>
       <c r="P150" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q150">
         <v>2.48</v>
@@ -33084,7 +33087,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q153">
         <v>4.9</v>
@@ -33290,7 +33293,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q154">
         <v>3.41</v>
@@ -33496,7 +33499,7 @@
         <v>204</v>
       </c>
       <c r="P155" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q155">
         <v>5.5</v>
@@ -34732,7 +34735,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -35144,7 +35147,7 @@
         <v>93</v>
       </c>
       <c r="P163" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -35222,7 +35225,7 @@
         <v>0.75</v>
       </c>
       <c r="AP163">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ163">
         <v>0.82</v>
@@ -35843,7 +35846,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ166">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR166">
         <v>1.51</v>
@@ -36174,7 +36177,7 @@
         <v>210</v>
       </c>
       <c r="P168" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q168">
         <v>2.55</v>
@@ -36792,7 +36795,7 @@
         <v>144</v>
       </c>
       <c r="P171" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q171">
         <v>3.7</v>
@@ -36998,7 +37001,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q172">
         <v>2.6</v>
@@ -37410,7 +37413,7 @@
         <v>123</v>
       </c>
       <c r="P174" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q174">
         <v>2.05</v>
@@ -38440,7 +38443,7 @@
         <v>104</v>
       </c>
       <c r="P179" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q179">
         <v>2.6</v>
@@ -38646,7 +38649,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q180">
         <v>9</v>
@@ -39264,7 +39267,7 @@
         <v>93</v>
       </c>
       <c r="P183" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q183">
         <v>3.8</v>
@@ -39345,7 +39348,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ183">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR183">
         <v>1.08</v>
@@ -39470,7 +39473,7 @@
         <v>93</v>
       </c>
       <c r="P184" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39676,7 +39679,7 @@
         <v>93</v>
       </c>
       <c r="P185" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q185">
         <v>3.19</v>
@@ -39960,7 +39963,7 @@
         <v>1.38</v>
       </c>
       <c r="AP186">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ186">
         <v>1.12</v>
@@ -40294,7 +40297,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q188">
         <v>1.65</v>
@@ -40500,7 +40503,7 @@
         <v>221</v>
       </c>
       <c r="P189" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q189">
         <v>1.8</v>
@@ -41118,7 +41121,7 @@
         <v>176</v>
       </c>
       <c r="P192" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -41530,7 +41533,7 @@
         <v>224</v>
       </c>
       <c r="P194" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q194">
         <v>2.69</v>
@@ -42354,7 +42357,7 @@
         <v>155</v>
       </c>
       <c r="P198" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q198">
         <v>3.2</v>
@@ -42972,7 +42975,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q201">
         <v>1.68</v>
@@ -43384,7 +43387,7 @@
         <v>229</v>
       </c>
       <c r="P203" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43590,7 +43593,7 @@
         <v>230</v>
       </c>
       <c r="P204" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q204">
         <v>2.88</v>
@@ -43668,7 +43671,7 @@
         <v>0.9</v>
       </c>
       <c r="AP204">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ204">
         <v>1.29</v>
@@ -43796,7 +43799,7 @@
         <v>231</v>
       </c>
       <c r="P205" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q205">
         <v>2.7</v>
@@ -44208,7 +44211,7 @@
         <v>233</v>
       </c>
       <c r="P207" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q207">
         <v>2.55</v>
@@ -44414,7 +44417,7 @@
         <v>103</v>
       </c>
       <c r="P208" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q208">
         <v>1.66</v>
@@ -44620,7 +44623,7 @@
         <v>234</v>
       </c>
       <c r="P209" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q209">
         <v>3.63</v>
@@ -44701,7 +44704,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ209">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR209">
         <v>1.41</v>
@@ -44826,7 +44829,7 @@
         <v>235</v>
       </c>
       <c r="P210" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q210">
         <v>4.5</v>
@@ -45444,7 +45447,7 @@
         <v>236</v>
       </c>
       <c r="P213" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q213">
         <v>3.1</v>
@@ -46268,7 +46271,7 @@
         <v>239</v>
       </c>
       <c r="P217" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q217">
         <v>2.38</v>
@@ -46474,7 +46477,7 @@
         <v>93</v>
       </c>
       <c r="P218" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q218">
         <v>5.25</v>
@@ -46886,7 +46889,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q220">
         <v>1.5</v>
@@ -47710,7 +47713,7 @@
         <v>243</v>
       </c>
       <c r="P224" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q224">
         <v>3.1</v>
@@ -48200,7 +48203,7 @@
         <v>0.9</v>
       </c>
       <c r="AP226">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ226">
         <v>0.75</v>
@@ -48328,7 +48331,7 @@
         <v>246</v>
       </c>
       <c r="P227" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q227">
         <v>1.61</v>
@@ -48534,7 +48537,7 @@
         <v>153</v>
       </c>
       <c r="P228" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q228">
         <v>3.2</v>
@@ -48821,7 +48824,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ229">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR229">
         <v>1.44</v>
@@ -49152,7 +49155,7 @@
         <v>249</v>
       </c>
       <c r="P231" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q231">
         <v>2.2</v>
@@ -49770,7 +49773,7 @@
         <v>93</v>
       </c>
       <c r="P234" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q234">
         <v>4.6</v>
@@ -50594,7 +50597,7 @@
         <v>93</v>
       </c>
       <c r="P238" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q238">
         <v>4.5</v>
@@ -50800,7 +50803,7 @@
         <v>252</v>
       </c>
       <c r="P239" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q239">
         <v>2.5</v>
@@ -51006,7 +51009,7 @@
         <v>253</v>
       </c>
       <c r="P240" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q240">
         <v>2.62</v>
@@ -51418,7 +51421,7 @@
         <v>99</v>
       </c>
       <c r="P242" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q242">
         <v>2.73</v>
@@ -51702,7 +51705,7 @@
         <v>0.92</v>
       </c>
       <c r="AP243">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ243">
         <v>0.71</v>
@@ -52242,7 +52245,7 @@
         <v>244</v>
       </c>
       <c r="P246" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q246">
         <v>3.4</v>
@@ -52654,7 +52657,7 @@
         <v>259</v>
       </c>
       <c r="P248" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q248">
         <v>1.62</v>
@@ -53147,7 +53150,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ250">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR250">
         <v>1.45</v>
@@ -53684,7 +53687,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q253">
         <v>1.98</v>
@@ -54096,7 +54099,7 @@
         <v>264</v>
       </c>
       <c r="P255" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q255">
         <v>5.25</v>
@@ -54302,7 +54305,7 @@
         <v>265</v>
       </c>
       <c r="P256" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q256">
         <v>2.61</v>
@@ -54714,7 +54717,7 @@
         <v>93</v>
       </c>
       <c r="P258" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q258">
         <v>3.75</v>
@@ -54920,7 +54923,7 @@
         <v>93</v>
       </c>
       <c r="P259" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q259">
         <v>6.44</v>
@@ -55332,7 +55335,7 @@
         <v>268</v>
       </c>
       <c r="P261" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q261">
         <v>2.3</v>
@@ -55744,7 +55747,7 @@
         <v>270</v>
       </c>
       <c r="P263" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q263">
         <v>2.95</v>
@@ -55950,7 +55953,7 @@
         <v>93</v>
       </c>
       <c r="P264" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q264">
         <v>3.25</v>
@@ -56362,7 +56365,7 @@
         <v>272</v>
       </c>
       <c r="P266" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q266">
         <v>1.52</v>
@@ -57058,7 +57061,7 @@
         <v>0.85</v>
       </c>
       <c r="AP269">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ269">
         <v>1.24</v>
@@ -57186,7 +57189,7 @@
         <v>93</v>
       </c>
       <c r="P270" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q270">
         <v>5.5</v>
@@ -57392,7 +57395,7 @@
         <v>274</v>
       </c>
       <c r="P271" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q271">
         <v>1.73</v>
@@ -57473,7 +57476,7 @@
         <v>3</v>
       </c>
       <c r="AQ271">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR271">
         <v>2.23</v>
@@ -57804,7 +57807,7 @@
         <v>275</v>
       </c>
       <c r="P273" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q273">
         <v>2.11</v>
@@ -58216,7 +58219,7 @@
         <v>93</v>
       </c>
       <c r="P275" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q275">
         <v>8.25</v>
@@ -58422,7 +58425,7 @@
         <v>93</v>
       </c>
       <c r="P276" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q276">
         <v>2.88</v>
@@ -58834,7 +58837,7 @@
         <v>93</v>
       </c>
       <c r="P278" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q278">
         <v>3.9</v>
@@ -59658,7 +59661,7 @@
         <v>278</v>
       </c>
       <c r="P282" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q282">
         <v>1.63</v>
@@ -59864,7 +59867,7 @@
         <v>125</v>
       </c>
       <c r="P283" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q283">
         <v>3</v>
@@ -60070,7 +60073,7 @@
         <v>279</v>
       </c>
       <c r="P284" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q284">
         <v>2.95</v>
@@ -60563,7 +60566,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ286">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR286">
         <v>1.32</v>
@@ -60688,7 +60691,7 @@
         <v>282</v>
       </c>
       <c r="P287" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q287">
         <v>2.4</v>
@@ -60894,7 +60897,7 @@
         <v>183</v>
       </c>
       <c r="P288" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q288">
         <v>4.3</v>
@@ -61796,7 +61799,7 @@
         <v>0.87</v>
       </c>
       <c r="AP292">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ292">
         <v>0.9399999999999999</v>
@@ -62542,7 +62545,7 @@
         <v>288</v>
       </c>
       <c r="P296" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q296">
         <v>2.45</v>
@@ -62748,7 +62751,7 @@
         <v>289</v>
       </c>
       <c r="P297" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q297">
         <v>2.3</v>
@@ -62829,7 +62832,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ297">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR297">
         <v>1.58</v>
@@ -63366,7 +63369,7 @@
         <v>292</v>
       </c>
       <c r="P300" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q300">
         <v>5.4</v>
@@ -63572,7 +63575,7 @@
         <v>293</v>
       </c>
       <c r="P301" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q301">
         <v>4.75</v>
@@ -63778,7 +63781,7 @@
         <v>93</v>
       </c>
       <c r="P302" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q302">
         <v>3.6</v>
@@ -63984,7 +63987,7 @@
         <v>93</v>
       </c>
       <c r="P303" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q303">
         <v>3</v>
@@ -64808,7 +64811,7 @@
         <v>235</v>
       </c>
       <c r="P307" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q307">
         <v>4</v>
@@ -65014,7 +65017,7 @@
         <v>295</v>
       </c>
       <c r="P308" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q308">
         <v>1.67</v>
@@ -65220,7 +65223,7 @@
         <v>93</v>
       </c>
       <c r="P309" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q309">
         <v>2.75</v>
@@ -66044,7 +66047,7 @@
         <v>93</v>
       </c>
       <c r="P313" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q313">
         <v>2.6</v>
@@ -66868,7 +66871,7 @@
         <v>298</v>
       </c>
       <c r="P317" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q317">
         <v>3.24</v>
@@ -67074,7 +67077,7 @@
         <v>93</v>
       </c>
       <c r="P318" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q318">
         <v>1.95</v>
@@ -67361,7 +67364,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ319">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR319">
         <v>1.45</v>
@@ -67486,7 +67489,7 @@
         <v>110</v>
       </c>
       <c r="P320" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q320">
         <v>5.75</v>
@@ -67564,7 +67567,7 @@
         <v>2.87</v>
       </c>
       <c r="AP320">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AQ320">
         <v>2.76</v>
@@ -67692,7 +67695,7 @@
         <v>93</v>
       </c>
       <c r="P321" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q321">
         <v>5.3</v>
@@ -68104,7 +68107,7 @@
         <v>111</v>
       </c>
       <c r="P323" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q323">
         <v>5.44</v>
@@ -68310,7 +68313,7 @@
         <v>93</v>
       </c>
       <c r="P324" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q324">
         <v>2.59</v>
@@ -68516,7 +68519,7 @@
         <v>99</v>
       </c>
       <c r="P325" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q325">
         <v>3.5</v>
@@ -68722,7 +68725,7 @@
         <v>301</v>
       </c>
       <c r="P326" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q326">
         <v>2.75</v>
@@ -69752,7 +69755,7 @@
         <v>306</v>
       </c>
       <c r="P331" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q331">
         <v>6.5</v>
@@ -69958,7 +69961,7 @@
         <v>93</v>
       </c>
       <c r="P332" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q332">
         <v>5.02</v>
@@ -70576,7 +70579,7 @@
         <v>182</v>
       </c>
       <c r="P335" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q335">
         <v>3.3</v>
@@ -70988,7 +70991,7 @@
         <v>308</v>
       </c>
       <c r="P337" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q337">
         <v>2.6</v>
@@ -71400,7 +71403,7 @@
         <v>310</v>
       </c>
       <c r="P339" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q339">
         <v>1.93</v>
@@ -71606,7 +71609,7 @@
         <v>311</v>
       </c>
       <c r="P340" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q340">
         <v>2.65</v>
@@ -71763,6 +71766,212 @@
       </c>
       <c r="BP340">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="341" spans="1:68">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>6956817</v>
+      </c>
+      <c r="C341" t="s">
+        <v>68</v>
+      </c>
+      <c r="D341" t="s">
+        <v>69</v>
+      </c>
+      <c r="E341" s="2">
+        <v>45411.58333333334</v>
+      </c>
+      <c r="F341">
+        <v>34</v>
+      </c>
+      <c r="G341" t="s">
+        <v>79</v>
+      </c>
+      <c r="H341" t="s">
+        <v>80</v>
+      </c>
+      <c r="I341">
+        <v>1</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341">
+        <v>1</v>
+      </c>
+      <c r="L341">
+        <v>4</v>
+      </c>
+      <c r="M341">
+        <v>1</v>
+      </c>
+      <c r="N341">
+        <v>5</v>
+      </c>
+      <c r="O341" t="s">
+        <v>312</v>
+      </c>
+      <c r="P341" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q341">
+        <v>2.75</v>
+      </c>
+      <c r="R341">
+        <v>2.15</v>
+      </c>
+      <c r="S341">
+        <v>3.7</v>
+      </c>
+      <c r="T341">
+        <v>1.33</v>
+      </c>
+      <c r="U341">
+        <v>3</v>
+      </c>
+      <c r="V341">
+        <v>2.7</v>
+      </c>
+      <c r="W341">
+        <v>1.4</v>
+      </c>
+      <c r="X341">
+        <v>5.8</v>
+      </c>
+      <c r="Y341">
+        <v>1.09</v>
+      </c>
+      <c r="Z341">
+        <v>1.71</v>
+      </c>
+      <c r="AA341">
+        <v>4.06</v>
+      </c>
+      <c r="AB341">
+        <v>3.6</v>
+      </c>
+      <c r="AC341">
+        <v>1.01</v>
+      </c>
+      <c r="AD341">
+        <v>11.75</v>
+      </c>
+      <c r="AE341">
+        <v>1.27</v>
+      </c>
+      <c r="AF341">
+        <v>3.67</v>
+      </c>
+      <c r="AG341">
+        <v>1.73</v>
+      </c>
+      <c r="AH341">
+        <v>2.05</v>
+      </c>
+      <c r="AI341">
+        <v>1.7</v>
+      </c>
+      <c r="AJ341">
+        <v>2.05</v>
+      </c>
+      <c r="AK341">
+        <v>1.35</v>
+      </c>
+      <c r="AL341">
+        <v>1.31</v>
+      </c>
+      <c r="AM341">
+        <v>1.65</v>
+      </c>
+      <c r="AN341">
+        <v>1.5</v>
+      </c>
+      <c r="AO341">
+        <v>1</v>
+      </c>
+      <c r="AP341">
+        <v>1.59</v>
+      </c>
+      <c r="AQ341">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR341">
+        <v>1.3</v>
+      </c>
+      <c r="AS341">
+        <v>1.26</v>
+      </c>
+      <c r="AT341">
+        <v>2.56</v>
+      </c>
+      <c r="AU341">
+        <v>5</v>
+      </c>
+      <c r="AV341">
+        <v>3</v>
+      </c>
+      <c r="AW341">
+        <v>6</v>
+      </c>
+      <c r="AX341">
+        <v>3</v>
+      </c>
+      <c r="AY341">
+        <v>11</v>
+      </c>
+      <c r="AZ341">
+        <v>6</v>
+      </c>
+      <c r="BA341">
+        <v>1</v>
+      </c>
+      <c r="BB341">
+        <v>4</v>
+      </c>
+      <c r="BC341">
+        <v>5</v>
+      </c>
+      <c r="BD341">
+        <v>1.91</v>
+      </c>
+      <c r="BE341">
+        <v>8</v>
+      </c>
+      <c r="BF341">
+        <v>2.1</v>
+      </c>
+      <c r="BG341">
+        <v>1.25</v>
+      </c>
+      <c r="BH341">
+        <v>3.6</v>
+      </c>
+      <c r="BI341">
+        <v>1.38</v>
+      </c>
+      <c r="BJ341">
+        <v>2.9</v>
+      </c>
+      <c r="BK341">
+        <v>1.9</v>
+      </c>
+      <c r="BL341">
+        <v>1.9</v>
+      </c>
+      <c r="BM341">
+        <v>2.2</v>
+      </c>
+      <c r="BN341">
+        <v>1.62</v>
+      </c>
+      <c r="BO341">
+        <v>3</v>
+      </c>
+      <c r="BP341">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
@@ -71908,19 +71908,19 @@
         <v>2.56</v>
       </c>
       <c r="AU341">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV341">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW341">
         <v>6</v>
       </c>
       <c r="AX341">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY341">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ341">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="454">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -955,6 +955,15 @@
     <t>['36', '64', '81', '90+1']</t>
   </si>
   <si>
+    <t>['7', '65', '90+7']</t>
+  </si>
+  <si>
+    <t>['14', '28', '36']</t>
+  </si>
+  <si>
+    <t>['3', '64']</t>
+  </si>
+  <si>
     <t>['73', '78']</t>
   </si>
   <si>
@@ -1362,6 +1371,12 @@
   <si>
     <t>['56', '90+9']</t>
   </si>
+  <si>
+    <t>['5', '68']</t>
+  </si>
+  <si>
+    <t>['51', '60']</t>
+  </si>
 </sst>
 </file>
 
@@ -1722,7 +1737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP341"/>
+  <dimension ref="A1:BP346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2187,7 +2202,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q3">
         <v>2.85</v>
@@ -2677,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ5">
         <v>2.47</v>
@@ -2805,7 +2820,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -3298,7 +3313,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ8">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3423,7 +3438,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q9">
         <v>1.67</v>
@@ -4041,7 +4056,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4247,7 +4262,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -4325,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ13">
         <v>1.12</v>
@@ -4534,7 +4549,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ14">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4946,7 +4961,7 @@
         <v>3</v>
       </c>
       <c r="AQ16">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5071,7 +5086,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -5152,7 +5167,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ17">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5277,7 +5292,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q18">
         <v>2.8</v>
@@ -5483,7 +5498,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q19">
         <v>1.68</v>
@@ -5561,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ19">
         <v>0.71</v>
@@ -5767,10 +5782,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ20">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5895,7 +5910,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5973,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ21">
         <v>2.76</v>
@@ -6307,7 +6322,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q23">
         <v>2.3</v>
@@ -6513,7 +6528,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -6594,7 +6609,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ24">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR24">
         <v>1.38</v>
@@ -7003,7 +7018,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ26">
         <v>0.47</v>
@@ -7131,7 +7146,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q27">
         <v>2.85</v>
@@ -7624,7 +7639,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ29">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR29">
         <v>0.98</v>
@@ -7749,7 +7764,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7830,7 +7845,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ30">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR30">
         <v>1.6</v>
@@ -8242,7 +8257,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ32">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR32">
         <v>1.16</v>
@@ -8367,7 +8382,7 @@
         <v>93</v>
       </c>
       <c r="P33" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -8857,7 +8872,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ35">
         <v>1.29</v>
@@ -8985,7 +9000,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q36">
         <v>3.7</v>
@@ -9066,7 +9081,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ36">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR36">
         <v>1.22</v>
@@ -9191,7 +9206,7 @@
         <v>93</v>
       </c>
       <c r="P37" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q37">
         <v>4.5</v>
@@ -9269,7 +9284,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ37">
         <v>2.76</v>
@@ -9475,7 +9490,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ38">
         <v>0.82</v>
@@ -9603,7 +9618,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q39">
         <v>2.55</v>
@@ -9684,7 +9699,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ39">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR39">
         <v>1.86</v>
@@ -10015,7 +10030,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q41">
         <v>1.77</v>
@@ -10221,7 +10236,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q42">
         <v>1.9</v>
@@ -10427,7 +10442,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q43">
         <v>3.6</v>
@@ -10505,7 +10520,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ43">
         <v>1.29</v>
@@ -10839,7 +10854,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q45">
         <v>2.7</v>
@@ -11251,7 +11266,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11744,7 +11759,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ49">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR49">
         <v>1.21</v>
@@ -12075,7 +12090,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q51">
         <v>4.33</v>
@@ -12565,7 +12580,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ53">
         <v>1.12</v>
@@ -12693,7 +12708,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q54">
         <v>2.83</v>
@@ -12771,7 +12786,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ54">
         <v>0.9399999999999999</v>
@@ -13186,7 +13201,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ56">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR56">
         <v>1.76</v>
@@ -13392,7 +13407,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ57">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR57">
         <v>1.26</v>
@@ -13595,7 +13610,7 @@
         <v>2.33</v>
       </c>
       <c r="AP58">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ58">
         <v>2.47</v>
@@ -13723,7 +13738,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -14135,7 +14150,7 @@
         <v>94</v>
       </c>
       <c r="P61" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q61">
         <v>2.8</v>
@@ -14213,7 +14228,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ61">
         <v>0.82</v>
@@ -14547,7 +14562,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q63">
         <v>3.3</v>
@@ -14625,7 +14640,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ63">
         <v>0.9399999999999999</v>
@@ -15165,7 +15180,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q66">
         <v>2.9</v>
@@ -15452,7 +15467,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ67">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR67">
         <v>1.97</v>
@@ -15577,7 +15592,7 @@
         <v>93</v>
       </c>
       <c r="P68" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15864,7 +15879,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ69">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR69">
         <v>1.68</v>
@@ -16067,7 +16082,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ70">
         <v>1.29</v>
@@ -16276,7 +16291,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ71">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR71">
         <v>1.5</v>
@@ -16482,7 +16497,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ72">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR72">
         <v>1.72</v>
@@ -16607,7 +16622,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16891,7 +16906,7 @@
         <v>0.67</v>
       </c>
       <c r="AP74">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ74">
         <v>1.12</v>
@@ -17225,7 +17240,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q76">
         <v>4.96</v>
@@ -17715,7 +17730,7 @@
         <v>0.5</v>
       </c>
       <c r="AP78">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ78">
         <v>0.59</v>
@@ -18049,7 +18064,7 @@
         <v>93</v>
       </c>
       <c r="P80" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18255,7 +18270,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -18333,10 +18348,10 @@
         <v>1.5</v>
       </c>
       <c r="AP81">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ81">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR81">
         <v>1.23</v>
@@ -18667,7 +18682,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q83">
         <v>2.3</v>
@@ -18873,7 +18888,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q84">
         <v>2.2</v>
@@ -19363,7 +19378,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ86">
         <v>0.76</v>
@@ -19569,7 +19584,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ87">
         <v>1.29</v>
@@ -19697,7 +19712,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q88">
         <v>1.62</v>
@@ -19984,7 +19999,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ89">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR89">
         <v>1.39</v>
@@ -20190,7 +20205,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ90">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR90">
         <v>1.04</v>
@@ -20315,7 +20330,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20521,7 +20536,7 @@
         <v>156</v>
       </c>
       <c r="P92" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q92">
         <v>2.3</v>
@@ -20727,7 +20742,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q93">
         <v>2.6</v>
@@ -21426,7 +21441,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ96">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR96">
         <v>1.11</v>
@@ -21629,7 +21644,7 @@
         <v>0.2</v>
       </c>
       <c r="AP97">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ97">
         <v>0.47</v>
@@ -21963,7 +21978,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q99">
         <v>6.5</v>
@@ -22247,7 +22262,7 @@
         <v>0.6</v>
       </c>
       <c r="AP100">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ100">
         <v>0.82</v>
@@ -22581,7 +22596,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q102">
         <v>2.85</v>
@@ -22659,7 +22674,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ102">
         <v>0.71</v>
@@ -22865,7 +22880,7 @@
         <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ103">
         <v>0.65</v>
@@ -22993,7 +23008,7 @@
         <v>165</v>
       </c>
       <c r="P104" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q104">
         <v>1.79</v>
@@ -23074,7 +23089,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ104">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR104">
         <v>2.09</v>
@@ -23199,7 +23214,7 @@
         <v>166</v>
       </c>
       <c r="P105" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -23280,7 +23295,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ105">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR105">
         <v>1.35</v>
@@ -23405,7 +23420,7 @@
         <v>167</v>
       </c>
       <c r="P106" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q106">
         <v>2.9</v>
@@ -23692,7 +23707,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ107">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR107">
         <v>1.49</v>
@@ -23817,7 +23832,7 @@
         <v>169</v>
       </c>
       <c r="P108" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q108">
         <v>3.72</v>
@@ -24101,10 +24116,10 @@
         <v>0.5</v>
       </c>
       <c r="AP109">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ109">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR109">
         <v>1.36</v>
@@ -24310,7 +24325,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ110">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR110">
         <v>1.37</v>
@@ -24435,7 +24450,7 @@
         <v>171</v>
       </c>
       <c r="P111" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24513,7 +24528,7 @@
         <v>0.25</v>
       </c>
       <c r="AP111">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ111">
         <v>0.59</v>
@@ -24641,7 +24656,7 @@
         <v>172</v>
       </c>
       <c r="P112" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q112">
         <v>2.15</v>
@@ -24847,7 +24862,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -24925,7 +24940,7 @@
         <v>0.8</v>
       </c>
       <c r="AP113">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ113">
         <v>0.9399999999999999</v>
@@ -25053,7 +25068,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q114">
         <v>2.8</v>
@@ -25259,7 +25274,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q115">
         <v>2.8</v>
@@ -25671,7 +25686,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q117">
         <v>5.75</v>
@@ -26161,7 +26176,7 @@
         <v>0.83</v>
       </c>
       <c r="AP119">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ119">
         <v>1.29</v>
@@ -26779,7 +26794,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ122">
         <v>0.65</v>
@@ -27113,7 +27128,7 @@
         <v>93</v>
       </c>
       <c r="P124" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q124">
         <v>2.88</v>
@@ -27400,7 +27415,7 @@
         <v>3</v>
       </c>
       <c r="AQ125">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR125">
         <v>2.02</v>
@@ -27603,10 +27618,10 @@
         <v>0.6</v>
       </c>
       <c r="AP126">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ126">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR126">
         <v>1.37</v>
@@ -27731,7 +27746,7 @@
         <v>183</v>
       </c>
       <c r="P127" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27809,7 +27824,7 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ127">
         <v>1.24</v>
@@ -28018,7 +28033,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ128">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR128">
         <v>1.27</v>
@@ -28224,7 +28239,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ129">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR129">
         <v>1.98</v>
@@ -28555,7 +28570,7 @@
         <v>186</v>
       </c>
       <c r="P131" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -28636,7 +28651,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ131">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR131">
         <v>1.5</v>
@@ -28967,7 +28982,7 @@
         <v>188</v>
       </c>
       <c r="P133" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q133">
         <v>3.42</v>
@@ -29173,7 +29188,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q134">
         <v>2.88</v>
@@ -29379,7 +29394,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29585,7 +29600,7 @@
         <v>191</v>
       </c>
       <c r="P136" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q136">
         <v>2.05</v>
@@ -29791,7 +29806,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q137">
         <v>6.5</v>
@@ -29997,7 +30012,7 @@
         <v>192</v>
       </c>
       <c r="P138" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q138">
         <v>2.48</v>
@@ -30409,7 +30424,7 @@
         <v>193</v>
       </c>
       <c r="P140" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q140">
         <v>4.05</v>
@@ -30487,7 +30502,7 @@
         <v>1.29</v>
       </c>
       <c r="AP140">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ140">
         <v>1.24</v>
@@ -30821,7 +30836,7 @@
         <v>195</v>
       </c>
       <c r="P142" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q142">
         <v>1.67</v>
@@ -30902,7 +30917,7 @@
         <v>3</v>
       </c>
       <c r="AQ142">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR142">
         <v>2.18</v>
@@ -31108,7 +31123,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ143">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR143">
         <v>1.39</v>
@@ -31233,7 +31248,7 @@
         <v>197</v>
       </c>
       <c r="P144" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q144">
         <v>2.7</v>
@@ -31311,7 +31326,7 @@
         <v>1.33</v>
       </c>
       <c r="AP144">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ144">
         <v>1.41</v>
@@ -31439,7 +31454,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31517,7 +31532,7 @@
         <v>2.67</v>
       </c>
       <c r="AP145">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ145">
         <v>2.76</v>
@@ -31723,10 +31738,10 @@
         <v>0.33</v>
       </c>
       <c r="AP146">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ146">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR146">
         <v>1.12</v>
@@ -31929,7 +31944,7 @@
         <v>1.14</v>
       </c>
       <c r="AP147">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ147">
         <v>0.71</v>
@@ -32263,7 +32278,7 @@
         <v>144</v>
       </c>
       <c r="P149" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q149">
         <v>3.6</v>
@@ -32344,7 +32359,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ149">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR149">
         <v>1.32</v>
@@ -32469,7 +32484,7 @@
         <v>93</v>
       </c>
       <c r="P150" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q150">
         <v>2.48</v>
@@ -32753,10 +32768,10 @@
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ151">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR151">
         <v>1.22</v>
@@ -33087,7 +33102,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q153">
         <v>4.9</v>
@@ -33165,10 +33180,10 @@
         <v>1.38</v>
       </c>
       <c r="AP153">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ153">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR153">
         <v>1.11</v>
@@ -33293,7 +33308,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q154">
         <v>3.41</v>
@@ -33374,7 +33389,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ154">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR154">
         <v>1.3</v>
@@ -33499,7 +33514,7 @@
         <v>204</v>
       </c>
       <c r="P155" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q155">
         <v>5.5</v>
@@ -33577,7 +33592,7 @@
         <v>2.71</v>
       </c>
       <c r="AP155">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ155">
         <v>2.76</v>
@@ -33992,7 +34007,7 @@
         <v>3</v>
       </c>
       <c r="AQ157">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR157">
         <v>2.19</v>
@@ -34401,7 +34416,7 @@
         <v>0.86</v>
       </c>
       <c r="AP159">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ159">
         <v>0.9399999999999999</v>
@@ -34607,7 +34622,7 @@
         <v>0.75</v>
       </c>
       <c r="AP160">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ160">
         <v>0.65</v>
@@ -34735,7 +34750,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -34813,10 +34828,10 @@
         <v>0.71</v>
       </c>
       <c r="AP161">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ161">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR161">
         <v>1.71</v>
@@ -35147,7 +35162,7 @@
         <v>93</v>
       </c>
       <c r="P163" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -36177,7 +36192,7 @@
         <v>210</v>
       </c>
       <c r="P168" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q168">
         <v>2.55</v>
@@ -36258,7 +36273,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ168">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR168">
         <v>1.71</v>
@@ -36795,7 +36810,7 @@
         <v>144</v>
       </c>
       <c r="P171" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q171">
         <v>3.7</v>
@@ -37001,7 +37016,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q172">
         <v>2.6</v>
@@ -37288,7 +37303,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ173">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR173">
         <v>1.26</v>
@@ -37413,7 +37428,7 @@
         <v>123</v>
       </c>
       <c r="P174" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q174">
         <v>2.05</v>
@@ -37491,7 +37506,7 @@
         <v>1.13</v>
       </c>
       <c r="AP174">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ174">
         <v>1.41</v>
@@ -37906,7 +37921,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ176">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR176">
         <v>1.24</v>
@@ -38109,10 +38124,10 @@
         <v>0.63</v>
       </c>
       <c r="AP177">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ177">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR177">
         <v>1.37</v>
@@ -38315,10 +38330,10 @@
         <v>1.56</v>
       </c>
       <c r="AP178">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ178">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR178">
         <v>1.25</v>
@@ -38443,7 +38458,7 @@
         <v>104</v>
       </c>
       <c r="P179" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q179">
         <v>2.6</v>
@@ -38521,7 +38536,7 @@
         <v>1.44</v>
       </c>
       <c r="AP179">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ179">
         <v>1.29</v>
@@ -38649,7 +38664,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q180">
         <v>9</v>
@@ -38727,7 +38742,7 @@
         <v>2.75</v>
       </c>
       <c r="AP180">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ180">
         <v>2.76</v>
@@ -39267,7 +39282,7 @@
         <v>93</v>
       </c>
       <c r="P183" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q183">
         <v>3.8</v>
@@ -39473,7 +39488,7 @@
         <v>93</v>
       </c>
       <c r="P184" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39679,7 +39694,7 @@
         <v>93</v>
       </c>
       <c r="P185" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q185">
         <v>3.19</v>
@@ -40297,7 +40312,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q188">
         <v>1.65</v>
@@ -40503,7 +40518,7 @@
         <v>221</v>
       </c>
       <c r="P189" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q189">
         <v>1.8</v>
@@ -41121,7 +41136,7 @@
         <v>176</v>
       </c>
       <c r="P192" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -41405,7 +41420,7 @@
         <v>1.33</v>
       </c>
       <c r="AP193">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ193">
         <v>1.41</v>
@@ -41533,7 +41548,7 @@
         <v>224</v>
       </c>
       <c r="P194" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q194">
         <v>2.69</v>
@@ -41614,7 +41629,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ194">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR194">
         <v>1.24</v>
@@ -41820,7 +41835,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ195">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR195">
         <v>1.35</v>
@@ -42023,10 +42038,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP196">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ196">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR196">
         <v>1.6</v>
@@ -42229,7 +42244,7 @@
         <v>0.7</v>
       </c>
       <c r="AP197">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ197">
         <v>0.9399999999999999</v>
@@ -42357,7 +42372,7 @@
         <v>155</v>
       </c>
       <c r="P198" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q198">
         <v>3.2</v>
@@ -42438,7 +42453,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ198">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR198">
         <v>1.25</v>
@@ -42641,7 +42656,7 @@
         <v>1.6</v>
       </c>
       <c r="AP199">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ199">
         <v>1.29</v>
@@ -42975,7 +42990,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q201">
         <v>1.68</v>
@@ -43387,7 +43402,7 @@
         <v>229</v>
       </c>
       <c r="P203" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43468,7 +43483,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ203">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR203">
         <v>1.45</v>
@@ -43593,7 +43608,7 @@
         <v>230</v>
       </c>
       <c r="P204" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q204">
         <v>2.88</v>
@@ -43799,7 +43814,7 @@
         <v>231</v>
       </c>
       <c r="P205" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q205">
         <v>2.7</v>
@@ -44211,7 +44226,7 @@
         <v>233</v>
       </c>
       <c r="P207" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q207">
         <v>2.55</v>
@@ -44417,7 +44432,7 @@
         <v>103</v>
       </c>
       <c r="P208" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q208">
         <v>1.66</v>
@@ -44623,7 +44638,7 @@
         <v>234</v>
       </c>
       <c r="P209" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q209">
         <v>3.63</v>
@@ -44829,7 +44844,7 @@
         <v>235</v>
       </c>
       <c r="P210" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q210">
         <v>4.5</v>
@@ -45113,7 +45128,7 @@
         <v>0.22</v>
       </c>
       <c r="AP211">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ211">
         <v>0.59</v>
@@ -45322,7 +45337,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ212">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR212">
         <v>1.35</v>
@@ -45447,7 +45462,7 @@
         <v>236</v>
       </c>
       <c r="P213" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q213">
         <v>3.1</v>
@@ -45731,10 +45746,10 @@
         <v>0.6</v>
       </c>
       <c r="AP214">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ214">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR214">
         <v>1.62</v>
@@ -45937,10 +45952,10 @@
         <v>0.5</v>
       </c>
       <c r="AP215">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ215">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR215">
         <v>1.31</v>
@@ -46271,7 +46286,7 @@
         <v>239</v>
       </c>
       <c r="P217" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q217">
         <v>2.38</v>
@@ -46477,7 +46492,7 @@
         <v>93</v>
       </c>
       <c r="P218" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q218">
         <v>5.25</v>
@@ -46761,7 +46776,7 @@
         <v>1.1</v>
       </c>
       <c r="AP219">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ219">
         <v>1.12</v>
@@ -46889,7 +46904,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q220">
         <v>1.5</v>
@@ -47176,7 +47191,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ221">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR221">
         <v>1.36</v>
@@ -47713,7 +47728,7 @@
         <v>243</v>
       </c>
       <c r="P224" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q224">
         <v>3.1</v>
@@ -48206,7 +48221,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ226">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR226">
         <v>1.32</v>
@@ -48331,7 +48346,7 @@
         <v>246</v>
       </c>
       <c r="P227" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q227">
         <v>1.61</v>
@@ -48537,7 +48552,7 @@
         <v>153</v>
       </c>
       <c r="P228" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q228">
         <v>3.2</v>
@@ -48615,7 +48630,7 @@
         <v>0.45</v>
       </c>
       <c r="AP228">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ228">
         <v>0.47</v>
@@ -48821,7 +48836,7 @@
         <v>1.2</v>
       </c>
       <c r="AP229">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ229">
         <v>0.9399999999999999</v>
@@ -49155,7 +49170,7 @@
         <v>249</v>
       </c>
       <c r="P231" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q231">
         <v>2.2</v>
@@ -49439,7 +49454,7 @@
         <v>1.33</v>
       </c>
       <c r="AP232">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ232">
         <v>1.29</v>
@@ -49648,7 +49663,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ233">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR233">
         <v>1.28</v>
@@ -49773,7 +49788,7 @@
         <v>93</v>
       </c>
       <c r="P234" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q234">
         <v>4.6</v>
@@ -49851,7 +49866,7 @@
         <v>2.18</v>
       </c>
       <c r="AP234">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ234">
         <v>2.47</v>
@@ -50597,7 +50612,7 @@
         <v>93</v>
       </c>
       <c r="P238" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q238">
         <v>4.5</v>
@@ -50803,7 +50818,7 @@
         <v>252</v>
       </c>
       <c r="P239" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q239">
         <v>2.5</v>
@@ -50884,7 +50899,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ239">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR239">
         <v>1.16</v>
@@ -51009,7 +51024,7 @@
         <v>253</v>
       </c>
       <c r="P240" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q240">
         <v>2.62</v>
@@ -51090,7 +51105,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ240">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR240">
         <v>1.63</v>
@@ -51293,10 +51308,10 @@
         <v>1.5</v>
       </c>
       <c r="AP241">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ241">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR241">
         <v>1.65</v>
@@ -51421,7 +51436,7 @@
         <v>99</v>
       </c>
       <c r="P242" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q242">
         <v>2.73</v>
@@ -52120,7 +52135,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ245">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR245">
         <v>1.53</v>
@@ -52245,7 +52260,7 @@
         <v>244</v>
       </c>
       <c r="P246" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q246">
         <v>3.4</v>
@@ -52323,7 +52338,7 @@
         <v>0.92</v>
       </c>
       <c r="AP246">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ246">
         <v>0.82</v>
@@ -52657,7 +52672,7 @@
         <v>259</v>
       </c>
       <c r="P248" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q248">
         <v>1.62</v>
@@ -52738,7 +52753,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ248">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR248">
         <v>1.85</v>
@@ -53147,7 +53162,7 @@
         <v>1.18</v>
       </c>
       <c r="AP250">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ250">
         <v>0.9399999999999999</v>
@@ -53353,7 +53368,7 @@
         <v>1.33</v>
       </c>
       <c r="AP251">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ251">
         <v>1.24</v>
@@ -53562,7 +53577,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ252">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR252">
         <v>1.68</v>
@@ -53687,7 +53702,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q253">
         <v>1.98</v>
@@ -54099,7 +54114,7 @@
         <v>264</v>
       </c>
       <c r="P255" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q255">
         <v>5.25</v>
@@ -54305,7 +54320,7 @@
         <v>265</v>
       </c>
       <c r="P256" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="Q256">
         <v>2.61</v>
@@ -54386,7 +54401,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ256">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR256">
         <v>1.47</v>
@@ -54717,7 +54732,7 @@
         <v>93</v>
       </c>
       <c r="P258" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q258">
         <v>3.75</v>
@@ -54798,7 +54813,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ258">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR258">
         <v>1.2</v>
@@ -54923,7 +54938,7 @@
         <v>93</v>
       </c>
       <c r="P259" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="Q259">
         <v>6.44</v>
@@ -55001,7 +55016,7 @@
         <v>2.25</v>
       </c>
       <c r="AP259">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ259">
         <v>2.47</v>
@@ -55207,7 +55222,7 @@
         <v>0.77</v>
       </c>
       <c r="AP260">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ260">
         <v>0.9399999999999999</v>
@@ -55335,7 +55350,7 @@
         <v>268</v>
       </c>
       <c r="P261" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="Q261">
         <v>2.3</v>
@@ -55619,10 +55634,10 @@
         <v>0.75</v>
       </c>
       <c r="AP262">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ262">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR262">
         <v>1.45</v>
@@ -55747,7 +55762,7 @@
         <v>270</v>
       </c>
       <c r="P263" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q263">
         <v>2.95</v>
@@ -55825,7 +55840,7 @@
         <v>0.92</v>
       </c>
       <c r="AP263">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ263">
         <v>0.76</v>
@@ -55953,7 +55968,7 @@
         <v>93</v>
       </c>
       <c r="P264" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q264">
         <v>3.25</v>
@@ -56365,7 +56380,7 @@
         <v>272</v>
       </c>
       <c r="P266" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="Q266">
         <v>1.52</v>
@@ -56858,7 +56873,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ268">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR268">
         <v>1.59</v>
@@ -57064,7 +57079,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ269">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR269">
         <v>1.32</v>
@@ -57189,7 +57204,7 @@
         <v>93</v>
       </c>
       <c r="P270" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Q270">
         <v>5.5</v>
@@ -57267,7 +57282,7 @@
         <v>1.31</v>
       </c>
       <c r="AP270">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ270">
         <v>1.24</v>
@@ -57395,7 +57410,7 @@
         <v>274</v>
       </c>
       <c r="P271" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Q271">
         <v>1.73</v>
@@ -57807,7 +57822,7 @@
         <v>275</v>
       </c>
       <c r="P273" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Q273">
         <v>2.11</v>
@@ -57885,7 +57900,7 @@
         <v>0.46</v>
       </c>
       <c r="AP273">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ273">
         <v>0.59</v>
@@ -58219,7 +58234,7 @@
         <v>93</v>
       </c>
       <c r="P275" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="Q275">
         <v>8.25</v>
@@ -58425,7 +58440,7 @@
         <v>93</v>
       </c>
       <c r="P276" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Q276">
         <v>2.88</v>
@@ -58837,7 +58852,7 @@
         <v>93</v>
       </c>
       <c r="P278" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q278">
         <v>3.9</v>
@@ -58915,7 +58930,7 @@
         <v>2.31</v>
       </c>
       <c r="AP278">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ278">
         <v>2.47</v>
@@ -59124,7 +59139,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ279">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR279">
         <v>1.46</v>
@@ -59330,7 +59345,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ280">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR280">
         <v>1.44</v>
@@ -59661,7 +59676,7 @@
         <v>278</v>
       </c>
       <c r="P282" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="Q282">
         <v>1.63</v>
@@ -59742,7 +59757,7 @@
         <v>3</v>
       </c>
       <c r="AQ282">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR282">
         <v>2.2</v>
@@ -59867,7 +59882,7 @@
         <v>125</v>
       </c>
       <c r="P283" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="Q283">
         <v>3</v>
@@ -59948,7 +59963,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ283">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR283">
         <v>1.45</v>
@@ -60073,7 +60088,7 @@
         <v>279</v>
       </c>
       <c r="P284" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Q284">
         <v>2.95</v>
@@ -60154,7 +60169,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ284">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR284">
         <v>1.35</v>
@@ -60360,7 +60375,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ285">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR285">
         <v>1.62</v>
@@ -60691,7 +60706,7 @@
         <v>282</v>
       </c>
       <c r="P287" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q287">
         <v>2.4</v>
@@ -60769,7 +60784,7 @@
         <v>0.71</v>
       </c>
       <c r="AP287">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ287">
         <v>0.65</v>
@@ -60897,7 +60912,7 @@
         <v>183</v>
       </c>
       <c r="P288" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="Q288">
         <v>4.3</v>
@@ -60975,7 +60990,7 @@
         <v>1.29</v>
       </c>
       <c r="AP288">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ288">
         <v>1.41</v>
@@ -61181,7 +61196,7 @@
         <v>0.85</v>
       </c>
       <c r="AP289">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ289">
         <v>0.76</v>
@@ -62417,7 +62432,7 @@
         <v>1.14</v>
       </c>
       <c r="AP295">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ295">
         <v>1.29</v>
@@ -62545,7 +62560,7 @@
         <v>288</v>
       </c>
       <c r="P296" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q296">
         <v>2.45</v>
@@ -62751,7 +62766,7 @@
         <v>289</v>
       </c>
       <c r="P297" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="Q297">
         <v>2.3</v>
@@ -62829,7 +62844,7 @@
         <v>0.93</v>
       </c>
       <c r="AP297">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ297">
         <v>0.9399999999999999</v>
@@ -63369,7 +63384,7 @@
         <v>292</v>
       </c>
       <c r="P300" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="Q300">
         <v>5.4</v>
@@ -63575,7 +63590,7 @@
         <v>293</v>
       </c>
       <c r="P301" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="Q301">
         <v>4.75</v>
@@ -63781,7 +63796,7 @@
         <v>93</v>
       </c>
       <c r="P302" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Q302">
         <v>3.6</v>
@@ -63859,10 +63874,10 @@
         <v>0.64</v>
       </c>
       <c r="AP302">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ302">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR302">
         <v>1.23</v>
@@ -63987,7 +64002,7 @@
         <v>93</v>
       </c>
       <c r="P303" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="Q303">
         <v>3</v>
@@ -64068,7 +64083,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ303">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR303">
         <v>1.18</v>
@@ -64686,7 +64701,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ306">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR306">
         <v>1.46</v>
@@ -64811,7 +64826,7 @@
         <v>235</v>
       </c>
       <c r="P307" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="Q307">
         <v>4</v>
@@ -64892,7 +64907,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ307">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR307">
         <v>1.35</v>
@@ -65017,7 +65032,7 @@
         <v>295</v>
       </c>
       <c r="P308" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="Q308">
         <v>1.67</v>
@@ -65098,7 +65113,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ308">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR308">
         <v>1.92</v>
@@ -65223,7 +65238,7 @@
         <v>93</v>
       </c>
       <c r="P309" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q309">
         <v>2.75</v>
@@ -65301,7 +65316,7 @@
         <v>1.4</v>
       </c>
       <c r="AP309">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ309">
         <v>1.41</v>
@@ -65507,7 +65522,7 @@
         <v>0.73</v>
       </c>
       <c r="AP310">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ310">
         <v>0.71</v>
@@ -66047,7 +66062,7 @@
         <v>93</v>
       </c>
       <c r="P313" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="Q313">
         <v>2.6</v>
@@ -66331,7 +66346,7 @@
         <v>0.93</v>
       </c>
       <c r="AP314">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AQ314">
         <v>0.82</v>
@@ -66743,7 +66758,7 @@
         <v>0.47</v>
       </c>
       <c r="AP316">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ316">
         <v>0.47</v>
@@ -66871,7 +66886,7 @@
         <v>298</v>
       </c>
       <c r="P317" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="Q317">
         <v>3.24</v>
@@ -67077,7 +67092,7 @@
         <v>93</v>
       </c>
       <c r="P318" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="Q318">
         <v>1.95</v>
@@ -67489,7 +67504,7 @@
         <v>110</v>
       </c>
       <c r="P320" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="Q320">
         <v>5.75</v>
@@ -67695,7 +67710,7 @@
         <v>93</v>
       </c>
       <c r="P321" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="Q321">
         <v>5.3</v>
@@ -67979,7 +67994,7 @@
         <v>0.8</v>
       </c>
       <c r="AP322">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ322">
         <v>0.76</v>
@@ -68107,7 +68122,7 @@
         <v>111</v>
       </c>
       <c r="P323" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="Q323">
         <v>5.44</v>
@@ -68185,10 +68200,10 @@
         <v>0.38</v>
       </c>
       <c r="AP323">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AQ323">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR323">
         <v>1.21</v>
@@ -68313,7 +68328,7 @@
         <v>93</v>
       </c>
       <c r="P324" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Q324">
         <v>2.59</v>
@@ -68394,7 +68409,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ324">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR324">
         <v>1.38</v>
@@ -68519,7 +68534,7 @@
         <v>99</v>
       </c>
       <c r="P325" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="Q325">
         <v>3.5</v>
@@ -68597,10 +68612,10 @@
         <v>1.5</v>
       </c>
       <c r="AP325">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ325">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AR325">
         <v>1.43</v>
@@ -68725,7 +68740,7 @@
         <v>301</v>
       </c>
       <c r="P326" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q326">
         <v>2.75</v>
@@ -68803,10 +68818,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP326">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ326">
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
       <c r="AR326">
         <v>1.42</v>
@@ -69012,7 +69027,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ327">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR327">
         <v>1.36</v>
@@ -69755,7 +69770,7 @@
         <v>306</v>
       </c>
       <c r="P331" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="Q331">
         <v>6.5</v>
@@ -69961,7 +69976,7 @@
         <v>93</v>
       </c>
       <c r="P332" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="Q332">
         <v>5.02</v>
@@ -70579,7 +70594,7 @@
         <v>182</v>
       </c>
       <c r="P335" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="Q335">
         <v>3.3</v>
@@ -70991,7 +71006,7 @@
         <v>308</v>
       </c>
       <c r="P337" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="Q337">
         <v>2.6</v>
@@ -71403,7 +71418,7 @@
         <v>310</v>
       </c>
       <c r="P339" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="Q339">
         <v>1.93</v>
@@ -71609,7 +71624,7 @@
         <v>311</v>
       </c>
       <c r="P340" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="Q340">
         <v>2.65</v>
@@ -71972,6 +71987,1036 @@
       </c>
       <c r="BP341">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="342" spans="1:68">
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>6956824</v>
+      </c>
+      <c r="C342" t="s">
+        <v>68</v>
+      </c>
+      <c r="D342" t="s">
+        <v>69</v>
+      </c>
+      <c r="E342" s="2">
+        <v>45415.58333333334</v>
+      </c>
+      <c r="F342">
+        <v>35</v>
+      </c>
+      <c r="G342" t="s">
+        <v>88</v>
+      </c>
+      <c r="H342" t="s">
+        <v>78</v>
+      </c>
+      <c r="I342">
+        <v>1</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342">
+        <v>1</v>
+      </c>
+      <c r="L342">
+        <v>1</v>
+      </c>
+      <c r="M342">
+        <v>1</v>
+      </c>
+      <c r="N342">
+        <v>2</v>
+      </c>
+      <c r="O342" t="s">
+        <v>166</v>
+      </c>
+      <c r="P342" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q342">
+        <v>2.55</v>
+      </c>
+      <c r="R342">
+        <v>2.1</v>
+      </c>
+      <c r="S342">
+        <v>3.95</v>
+      </c>
+      <c r="T342">
+        <v>1.38</v>
+      </c>
+      <c r="U342">
+        <v>2.8</v>
+      </c>
+      <c r="V342">
+        <v>2.75</v>
+      </c>
+      <c r="W342">
+        <v>1.4</v>
+      </c>
+      <c r="X342">
+        <v>6.5</v>
+      </c>
+      <c r="Y342">
+        <v>1.08</v>
+      </c>
+      <c r="Z342">
+        <v>2.11</v>
+      </c>
+      <c r="AA342">
+        <v>3.2</v>
+      </c>
+      <c r="AB342">
+        <v>3.2</v>
+      </c>
+      <c r="AC342">
+        <v>1.04</v>
+      </c>
+      <c r="AD342">
+        <v>10.06</v>
+      </c>
+      <c r="AE342">
+        <v>1.29</v>
+      </c>
+      <c r="AF342">
+        <v>3.44</v>
+      </c>
+      <c r="AG342">
+        <v>1.88</v>
+      </c>
+      <c r="AH342">
+        <v>2</v>
+      </c>
+      <c r="AI342">
+        <v>1.73</v>
+      </c>
+      <c r="AJ342">
+        <v>2</v>
+      </c>
+      <c r="AK342">
+        <v>1.3</v>
+      </c>
+      <c r="AL342">
+        <v>1.25</v>
+      </c>
+      <c r="AM342">
+        <v>1.75</v>
+      </c>
+      <c r="AN342">
+        <v>1.47</v>
+      </c>
+      <c r="AO342">
+        <v>1.24</v>
+      </c>
+      <c r="AP342">
+        <v>1.44</v>
+      </c>
+      <c r="AQ342">
+        <v>1.22</v>
+      </c>
+      <c r="AR342">
+        <v>1.35</v>
+      </c>
+      <c r="AS342">
+        <v>1.22</v>
+      </c>
+      <c r="AT342">
+        <v>2.57</v>
+      </c>
+      <c r="AU342">
+        <v>5</v>
+      </c>
+      <c r="AV342">
+        <v>6</v>
+      </c>
+      <c r="AW342">
+        <v>3</v>
+      </c>
+      <c r="AX342">
+        <v>4</v>
+      </c>
+      <c r="AY342">
+        <v>8</v>
+      </c>
+      <c r="AZ342">
+        <v>10</v>
+      </c>
+      <c r="BA342">
+        <v>5</v>
+      </c>
+      <c r="BB342">
+        <v>2</v>
+      </c>
+      <c r="BC342">
+        <v>7</v>
+      </c>
+      <c r="BD342">
+        <v>1.73</v>
+      </c>
+      <c r="BE342">
+        <v>8</v>
+      </c>
+      <c r="BF342">
+        <v>2.5</v>
+      </c>
+      <c r="BG342">
+        <v>1.35</v>
+      </c>
+      <c r="BH342">
+        <v>2.93</v>
+      </c>
+      <c r="BI342">
+        <v>1.7</v>
+      </c>
+      <c r="BJ342">
+        <v>2.05</v>
+      </c>
+      <c r="BK342">
+        <v>2.08</v>
+      </c>
+      <c r="BL342">
+        <v>1.67</v>
+      </c>
+      <c r="BM342">
+        <v>2.75</v>
+      </c>
+      <c r="BN342">
+        <v>1.37</v>
+      </c>
+      <c r="BO342">
+        <v>3.84</v>
+      </c>
+      <c r="BP342">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:68">
+      <c r="A343" s="1">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>6956830</v>
+      </c>
+      <c r="C343" t="s">
+        <v>68</v>
+      </c>
+      <c r="D343" t="s">
+        <v>69</v>
+      </c>
+      <c r="E343" s="2">
+        <v>45415.58333333334</v>
+      </c>
+      <c r="F343">
+        <v>35</v>
+      </c>
+      <c r="G343" t="s">
+        <v>87</v>
+      </c>
+      <c r="H343" t="s">
+        <v>82</v>
+      </c>
+      <c r="I343">
+        <v>1</v>
+      </c>
+      <c r="J343">
+        <v>1</v>
+      </c>
+      <c r="K343">
+        <v>2</v>
+      </c>
+      <c r="L343">
+        <v>3</v>
+      </c>
+      <c r="M343">
+        <v>2</v>
+      </c>
+      <c r="N343">
+        <v>5</v>
+      </c>
+      <c r="O343" t="s">
+        <v>313</v>
+      </c>
+      <c r="P343" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q343">
+        <v>2.25</v>
+      </c>
+      <c r="R343">
+        <v>2.25</v>
+      </c>
+      <c r="S343">
+        <v>4.2</v>
+      </c>
+      <c r="T343">
+        <v>1.3</v>
+      </c>
+      <c r="U343">
+        <v>3.2</v>
+      </c>
+      <c r="V343">
+        <v>2.35</v>
+      </c>
+      <c r="W343">
+        <v>1.53</v>
+      </c>
+      <c r="X343">
+        <v>5.25</v>
+      </c>
+      <c r="Y343">
+        <v>1.12</v>
+      </c>
+      <c r="Z343">
+        <v>1.75</v>
+      </c>
+      <c r="AA343">
+        <v>3.6</v>
+      </c>
+      <c r="AB343">
+        <v>3.9</v>
+      </c>
+      <c r="AC343">
+        <v>1.03</v>
+      </c>
+      <c r="AD343">
+        <v>17</v>
+      </c>
+      <c r="AE343">
+        <v>1.17</v>
+      </c>
+      <c r="AF343">
+        <v>4.75</v>
+      </c>
+      <c r="AG343">
+        <v>1.6</v>
+      </c>
+      <c r="AH343">
+        <v>2.2</v>
+      </c>
+      <c r="AI343">
+        <v>1.55</v>
+      </c>
+      <c r="AJ343">
+        <v>2.3</v>
+      </c>
+      <c r="AK343">
+        <v>1.22</v>
+      </c>
+      <c r="AL343">
+        <v>1.2</v>
+      </c>
+      <c r="AM343">
+        <v>1.95</v>
+      </c>
+      <c r="AN343">
+        <v>1.76</v>
+      </c>
+      <c r="AO343">
+        <v>0.75</v>
+      </c>
+      <c r="AP343">
+        <v>1.83</v>
+      </c>
+      <c r="AQ343">
+        <v>0.71</v>
+      </c>
+      <c r="AR343">
+        <v>1.62</v>
+      </c>
+      <c r="AS343">
+        <v>1.23</v>
+      </c>
+      <c r="AT343">
+        <v>2.85</v>
+      </c>
+      <c r="AU343">
+        <v>8</v>
+      </c>
+      <c r="AV343">
+        <v>4</v>
+      </c>
+      <c r="AW343">
+        <v>8</v>
+      </c>
+      <c r="AX343">
+        <v>5</v>
+      </c>
+      <c r="AY343">
+        <v>16</v>
+      </c>
+      <c r="AZ343">
+        <v>9</v>
+      </c>
+      <c r="BA343">
+        <v>7</v>
+      </c>
+      <c r="BB343">
+        <v>3</v>
+      </c>
+      <c r="BC343">
+        <v>10</v>
+      </c>
+      <c r="BD343">
+        <v>1.67</v>
+      </c>
+      <c r="BE343">
+        <v>8</v>
+      </c>
+      <c r="BF343">
+        <v>2.5</v>
+      </c>
+      <c r="BG343">
+        <v>1.24</v>
+      </c>
+      <c r="BH343">
+        <v>3.48</v>
+      </c>
+      <c r="BI343">
+        <v>1.47</v>
+      </c>
+      <c r="BJ343">
+        <v>2.49</v>
+      </c>
+      <c r="BK343">
+        <v>1.95</v>
+      </c>
+      <c r="BL343">
+        <v>1.77</v>
+      </c>
+      <c r="BM343">
+        <v>2.34</v>
+      </c>
+      <c r="BN343">
+        <v>1.53</v>
+      </c>
+      <c r="BO343">
+        <v>3.08</v>
+      </c>
+      <c r="BP343">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:68">
+      <c r="A344" s="1">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>6956825</v>
+      </c>
+      <c r="C344" t="s">
+        <v>68</v>
+      </c>
+      <c r="D344" t="s">
+        <v>69</v>
+      </c>
+      <c r="E344" s="2">
+        <v>45416.41666666666</v>
+      </c>
+      <c r="F344">
+        <v>35</v>
+      </c>
+      <c r="G344" t="s">
+        <v>81</v>
+      </c>
+      <c r="H344" t="s">
+        <v>76</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="J344">
+        <v>1</v>
+      </c>
+      <c r="K344">
+        <v>1</v>
+      </c>
+      <c r="L344">
+        <v>0</v>
+      </c>
+      <c r="M344">
+        <v>1</v>
+      </c>
+      <c r="N344">
+        <v>1</v>
+      </c>
+      <c r="O344" t="s">
+        <v>93</v>
+      </c>
+      <c r="P344" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q344">
+        <v>5.01</v>
+      </c>
+      <c r="R344">
+        <v>2.61</v>
+      </c>
+      <c r="S344">
+        <v>2.16</v>
+      </c>
+      <c r="T344">
+        <v>1.25</v>
+      </c>
+      <c r="U344">
+        <v>3.5</v>
+      </c>
+      <c r="V344">
+        <v>2.35</v>
+      </c>
+      <c r="W344">
+        <v>1.62</v>
+      </c>
+      <c r="X344">
+        <v>5</v>
+      </c>
+      <c r="Y344">
+        <v>1.14</v>
+      </c>
+      <c r="Z344">
+        <v>4.33</v>
+      </c>
+      <c r="AA344">
+        <v>3.7</v>
+      </c>
+      <c r="AB344">
+        <v>1.61</v>
+      </c>
+      <c r="AC344">
+        <v>1.03</v>
+      </c>
+      <c r="AD344">
+        <v>11</v>
+      </c>
+      <c r="AE344">
+        <v>1.17</v>
+      </c>
+      <c r="AF344">
+        <v>5</v>
+      </c>
+      <c r="AG344">
+        <v>1.6</v>
+      </c>
+      <c r="AH344">
+        <v>2.2</v>
+      </c>
+      <c r="AI344">
+        <v>1.55</v>
+      </c>
+      <c r="AJ344">
+        <v>2.3</v>
+      </c>
+      <c r="AK344">
+        <v>2.2</v>
+      </c>
+      <c r="AL344">
+        <v>1.17</v>
+      </c>
+      <c r="AM344">
+        <v>1.18</v>
+      </c>
+      <c r="AN344">
+        <v>0.53</v>
+      </c>
+      <c r="AO344">
+        <v>0.59</v>
+      </c>
+      <c r="AP344">
+        <v>0.5</v>
+      </c>
+      <c r="AQ344">
+        <v>0.72</v>
+      </c>
+      <c r="AR344">
+        <v>1.22</v>
+      </c>
+      <c r="AS344">
+        <v>1.36</v>
+      </c>
+      <c r="AT344">
+        <v>2.58</v>
+      </c>
+      <c r="AU344">
+        <v>7</v>
+      </c>
+      <c r="AV344">
+        <v>4</v>
+      </c>
+      <c r="AW344">
+        <v>5</v>
+      </c>
+      <c r="AX344">
+        <v>7</v>
+      </c>
+      <c r="AY344">
+        <v>12</v>
+      </c>
+      <c r="AZ344">
+        <v>11</v>
+      </c>
+      <c r="BA344">
+        <v>7</v>
+      </c>
+      <c r="BB344">
+        <v>5</v>
+      </c>
+      <c r="BC344">
+        <v>12</v>
+      </c>
+      <c r="BD344">
+        <v>3</v>
+      </c>
+      <c r="BE344">
+        <v>9</v>
+      </c>
+      <c r="BF344">
+        <v>1.5</v>
+      </c>
+      <c r="BG344">
+        <v>1.15</v>
+      </c>
+      <c r="BH344">
+        <v>4.5</v>
+      </c>
+      <c r="BI344">
+        <v>1.31</v>
+      </c>
+      <c r="BJ344">
+        <v>3.04</v>
+      </c>
+      <c r="BK344">
+        <v>1.57</v>
+      </c>
+      <c r="BL344">
+        <v>2.25</v>
+      </c>
+      <c r="BM344">
+        <v>1.95</v>
+      </c>
+      <c r="BN344">
+        <v>1.77</v>
+      </c>
+      <c r="BO344">
+        <v>2.52</v>
+      </c>
+      <c r="BP344">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="345" spans="1:68">
+      <c r="A345" s="1">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>6956827</v>
+      </c>
+      <c r="C345" t="s">
+        <v>68</v>
+      </c>
+      <c r="D345" t="s">
+        <v>69</v>
+      </c>
+      <c r="E345" s="2">
+        <v>45416.54166666666</v>
+      </c>
+      <c r="F345">
+        <v>35</v>
+      </c>
+      <c r="G345" t="s">
+        <v>89</v>
+      </c>
+      <c r="H345" t="s">
+        <v>70</v>
+      </c>
+      <c r="I345">
+        <v>3</v>
+      </c>
+      <c r="J345">
+        <v>1</v>
+      </c>
+      <c r="K345">
+        <v>4</v>
+      </c>
+      <c r="L345">
+        <v>3</v>
+      </c>
+      <c r="M345">
+        <v>1</v>
+      </c>
+      <c r="N345">
+        <v>4</v>
+      </c>
+      <c r="O345" t="s">
+        <v>314</v>
+      </c>
+      <c r="P345" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q345">
+        <v>3.44</v>
+      </c>
+      <c r="R345">
+        <v>2.29</v>
+      </c>
+      <c r="S345">
+        <v>3.16</v>
+      </c>
+      <c r="T345">
+        <v>1.38</v>
+      </c>
+      <c r="U345">
+        <v>3.16</v>
+      </c>
+      <c r="V345">
+        <v>2.84</v>
+      </c>
+      <c r="W345">
+        <v>1.45</v>
+      </c>
+      <c r="X345">
+        <v>6.75</v>
+      </c>
+      <c r="Y345">
+        <v>1.09</v>
+      </c>
+      <c r="Z345">
+        <v>2.65</v>
+      </c>
+      <c r="AA345">
+        <v>3.2</v>
+      </c>
+      <c r="AB345">
+        <v>2.45</v>
+      </c>
+      <c r="AC345">
+        <v>1.03</v>
+      </c>
+      <c r="AD345">
+        <v>10.65</v>
+      </c>
+      <c r="AE345">
+        <v>1.27</v>
+      </c>
+      <c r="AF345">
+        <v>3.61</v>
+      </c>
+      <c r="AG345">
+        <v>1.83</v>
+      </c>
+      <c r="AH345">
+        <v>1.98</v>
+      </c>
+      <c r="AI345">
+        <v>1.69</v>
+      </c>
+      <c r="AJ345">
+        <v>2.09</v>
+      </c>
+      <c r="AK345">
+        <v>1.56</v>
+      </c>
+      <c r="AL345">
+        <v>1.31</v>
+      </c>
+      <c r="AM345">
+        <v>1.44</v>
+      </c>
+      <c r="AN345">
+        <v>1.82</v>
+      </c>
+      <c r="AO345">
+        <v>1.59</v>
+      </c>
+      <c r="AP345">
+        <v>1.89</v>
+      </c>
+      <c r="AQ345">
+        <v>1.5</v>
+      </c>
+      <c r="AR345">
+        <v>1.46</v>
+      </c>
+      <c r="AS345">
+        <v>1.24</v>
+      </c>
+      <c r="AT345">
+        <v>2.7</v>
+      </c>
+      <c r="AU345">
+        <v>2</v>
+      </c>
+      <c r="AV345">
+        <v>4</v>
+      </c>
+      <c r="AW345">
+        <v>2</v>
+      </c>
+      <c r="AX345">
+        <v>1</v>
+      </c>
+      <c r="AY345">
+        <v>4</v>
+      </c>
+      <c r="AZ345">
+        <v>5</v>
+      </c>
+      <c r="BA345">
+        <v>3</v>
+      </c>
+      <c r="BB345">
+        <v>2</v>
+      </c>
+      <c r="BC345">
+        <v>5</v>
+      </c>
+      <c r="BD345">
+        <v>1.95</v>
+      </c>
+      <c r="BE345">
+        <v>7.5</v>
+      </c>
+      <c r="BF345">
+        <v>2.1</v>
+      </c>
+      <c r="BG345">
+        <v>1.38</v>
+      </c>
+      <c r="BH345">
+        <v>2.8</v>
+      </c>
+      <c r="BI345">
+        <v>1.7</v>
+      </c>
+      <c r="BJ345">
+        <v>2.05</v>
+      </c>
+      <c r="BK345">
+        <v>2.16</v>
+      </c>
+      <c r="BL345">
+        <v>1.62</v>
+      </c>
+      <c r="BM345">
+        <v>2.88</v>
+      </c>
+      <c r="BN345">
+        <v>1.34</v>
+      </c>
+      <c r="BO345">
+        <v>4.1</v>
+      </c>
+      <c r="BP345">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="346" spans="1:68">
+      <c r="A346" s="1">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>6956826</v>
+      </c>
+      <c r="C346" t="s">
+        <v>68</v>
+      </c>
+      <c r="D346" t="s">
+        <v>69</v>
+      </c>
+      <c r="E346" s="2">
+        <v>45416.54166666666</v>
+      </c>
+      <c r="F346">
+        <v>35</v>
+      </c>
+      <c r="G346" t="s">
+        <v>73</v>
+      </c>
+      <c r="H346" t="s">
+        <v>79</v>
+      </c>
+      <c r="I346">
+        <v>1</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="K346">
+        <v>1</v>
+      </c>
+      <c r="L346">
+        <v>2</v>
+      </c>
+      <c r="M346">
+        <v>2</v>
+      </c>
+      <c r="N346">
+        <v>4</v>
+      </c>
+      <c r="O346" t="s">
+        <v>315</v>
+      </c>
+      <c r="P346" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q346">
+        <v>2.94</v>
+      </c>
+      <c r="R346">
+        <v>2.38</v>
+      </c>
+      <c r="S346">
+        <v>3.53</v>
+      </c>
+      <c r="T346">
+        <v>1.34</v>
+      </c>
+      <c r="U346">
+        <v>3.37</v>
+      </c>
+      <c r="V346">
+        <v>2.62</v>
+      </c>
+      <c r="W346">
+        <v>1.51</v>
+      </c>
+      <c r="X346">
+        <v>5.8</v>
+      </c>
+      <c r="Y346">
+        <v>1.09</v>
+      </c>
+      <c r="Z346">
+        <v>2.32</v>
+      </c>
+      <c r="AA346">
+        <v>3.2</v>
+      </c>
+      <c r="AB346">
+        <v>2.85</v>
+      </c>
+      <c r="AC346">
+        <v>1.05</v>
+      </c>
+      <c r="AD346">
+        <v>13</v>
+      </c>
+      <c r="AE346">
+        <v>1.21</v>
+      </c>
+      <c r="AF346">
+        <v>4.22</v>
+      </c>
+      <c r="AG346">
+        <v>1.79</v>
+      </c>
+      <c r="AH346">
+        <v>2.02</v>
+      </c>
+      <c r="AI346">
+        <v>1.52</v>
+      </c>
+      <c r="AJ346">
+        <v>2.35</v>
+      </c>
+      <c r="AK346">
+        <v>1.38</v>
+      </c>
+      <c r="AL346">
+        <v>1.38</v>
+      </c>
+      <c r="AM346">
+        <v>1.55</v>
+      </c>
+      <c r="AN346">
+        <v>1.41</v>
+      </c>
+      <c r="AO346">
+        <v>0.53</v>
+      </c>
+      <c r="AP346">
+        <v>1.39</v>
+      </c>
+      <c r="AQ346">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR346">
+        <v>1.43</v>
+      </c>
+      <c r="AS346">
+        <v>1.25</v>
+      </c>
+      <c r="AT346">
+        <v>2.68</v>
+      </c>
+      <c r="AU346">
+        <v>6</v>
+      </c>
+      <c r="AV346">
+        <v>4</v>
+      </c>
+      <c r="AW346">
+        <v>5</v>
+      </c>
+      <c r="AX346">
+        <v>6</v>
+      </c>
+      <c r="AY346">
+        <v>11</v>
+      </c>
+      <c r="AZ346">
+        <v>10</v>
+      </c>
+      <c r="BA346">
+        <v>3</v>
+      </c>
+      <c r="BB346">
+        <v>3</v>
+      </c>
+      <c r="BC346">
+        <v>6</v>
+      </c>
+      <c r="BD346">
+        <v>1.83</v>
+      </c>
+      <c r="BE346">
+        <v>8</v>
+      </c>
+      <c r="BF346">
+        <v>2.25</v>
+      </c>
+      <c r="BG346">
+        <v>1.29</v>
+      </c>
+      <c r="BH346">
+        <v>3.14</v>
+      </c>
+      <c r="BI346">
+        <v>1.56</v>
+      </c>
+      <c r="BJ346">
+        <v>2.27</v>
+      </c>
+      <c r="BK346">
+        <v>1.95</v>
+      </c>
+      <c r="BL346">
+        <v>1.77</v>
+      </c>
+      <c r="BM346">
+        <v>2.57</v>
+      </c>
+      <c r="BN346">
+        <v>1.44</v>
+      </c>
+      <c r="BO346">
+        <v>3.48</v>
+      </c>
+      <c r="BP346">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="455">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -964,6 +964,9 @@
     <t>['3', '64']</t>
   </si>
   <si>
+    <t>['15', '24', '69', '86']</t>
+  </si>
+  <si>
     <t>['73', '78']</t>
   </si>
   <si>
@@ -1737,7 +1740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP346"/>
+  <dimension ref="A1:BP347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2202,7 +2205,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q3">
         <v>2.85</v>
@@ -2820,7 +2823,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -3438,7 +3441,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q9">
         <v>1.67</v>
@@ -4056,7 +4059,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4262,7 +4265,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -4755,7 +4758,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ15">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5086,7 +5089,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -5164,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ17">
         <v>0.5600000000000001</v>
@@ -5292,7 +5295,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q18">
         <v>2.8</v>
@@ -5498,7 +5501,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q19">
         <v>1.68</v>
@@ -5910,7 +5913,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -6322,7 +6325,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q23">
         <v>2.3</v>
@@ -6528,7 +6531,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -7146,7 +7149,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q27">
         <v>2.85</v>
@@ -7764,7 +7767,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -8048,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ31">
         <v>0.9399999999999999</v>
@@ -8382,7 +8385,7 @@
         <v>93</v>
       </c>
       <c r="P33" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -9000,7 +9003,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q36">
         <v>3.7</v>
@@ -9206,7 +9209,7 @@
         <v>93</v>
       </c>
       <c r="P37" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q37">
         <v>4.5</v>
@@ -9618,7 +9621,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q39">
         <v>2.55</v>
@@ -10030,7 +10033,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q41">
         <v>1.77</v>
@@ -10236,7 +10239,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q42">
         <v>1.9</v>
@@ -10442,7 +10445,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q43">
         <v>3.6</v>
@@ -10854,7 +10857,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q45">
         <v>2.7</v>
@@ -10935,7 +10938,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ45">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR45">
         <v>1.98</v>
@@ -11266,7 +11269,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -12090,7 +12093,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q51">
         <v>4.33</v>
@@ -12168,7 +12171,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ51">
         <v>2.47</v>
@@ -12708,7 +12711,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q54">
         <v>2.83</v>
@@ -13738,7 +13741,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -14150,7 +14153,7 @@
         <v>94</v>
       </c>
       <c r="P61" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q61">
         <v>2.8</v>
@@ -14562,7 +14565,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q63">
         <v>3.3</v>
@@ -15180,7 +15183,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q66">
         <v>2.9</v>
@@ -15261,7 +15264,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ66">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR66">
         <v>0.74</v>
@@ -15592,7 +15595,7 @@
         <v>93</v>
       </c>
       <c r="P68" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -16622,7 +16625,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -17112,7 +17115,7 @@
         <v>0.75</v>
       </c>
       <c r="AP75">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ75">
         <v>0.82</v>
@@ -17240,7 +17243,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q76">
         <v>4.96</v>
@@ -18064,7 +18067,7 @@
         <v>93</v>
       </c>
       <c r="P80" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18270,7 +18273,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -18682,7 +18685,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q83">
         <v>2.3</v>
@@ -18888,7 +18891,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q84">
         <v>2.2</v>
@@ -19175,7 +19178,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ85">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR85">
         <v>1.16</v>
@@ -19712,7 +19715,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q88">
         <v>1.62</v>
@@ -20330,7 +20333,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20536,7 +20539,7 @@
         <v>156</v>
       </c>
       <c r="P92" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q92">
         <v>2.3</v>
@@ -20742,7 +20745,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q93">
         <v>2.6</v>
@@ -21978,7 +21981,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q99">
         <v>6.5</v>
@@ -22471,7 +22474,7 @@
         <v>3</v>
       </c>
       <c r="AQ101">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR101">
         <v>2.15</v>
@@ -22596,7 +22599,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q102">
         <v>2.85</v>
@@ -23008,7 +23011,7 @@
         <v>165</v>
       </c>
       <c r="P104" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q104">
         <v>1.79</v>
@@ -23214,7 +23217,7 @@
         <v>166</v>
       </c>
       <c r="P105" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -23420,7 +23423,7 @@
         <v>167</v>
       </c>
       <c r="P106" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q106">
         <v>2.9</v>
@@ -23498,7 +23501,7 @@
         <v>0.8</v>
       </c>
       <c r="AP106">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ106">
         <v>0.76</v>
@@ -23832,7 +23835,7 @@
         <v>169</v>
       </c>
       <c r="P108" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q108">
         <v>3.72</v>
@@ -24450,7 +24453,7 @@
         <v>171</v>
       </c>
       <c r="P111" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24656,7 +24659,7 @@
         <v>172</v>
       </c>
       <c r="P112" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q112">
         <v>2.15</v>
@@ -24862,7 +24865,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -25068,7 +25071,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q114">
         <v>2.8</v>
@@ -25274,7 +25277,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q115">
         <v>2.8</v>
@@ -25686,7 +25689,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q117">
         <v>5.75</v>
@@ -27003,7 +27006,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ123">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR123">
         <v>1.43</v>
@@ -27128,7 +27131,7 @@
         <v>93</v>
       </c>
       <c r="P124" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q124">
         <v>2.88</v>
@@ -27746,7 +27749,7 @@
         <v>183</v>
       </c>
       <c r="P127" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -28442,7 +28445,7 @@
         <v>1.33</v>
       </c>
       <c r="AP130">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ130">
         <v>0.71</v>
@@ -28570,7 +28573,7 @@
         <v>186</v>
       </c>
       <c r="P131" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -28982,7 +28985,7 @@
         <v>188</v>
       </c>
       <c r="P133" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q133">
         <v>3.42</v>
@@ -29188,7 +29191,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q134">
         <v>2.88</v>
@@ -29394,7 +29397,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29600,7 +29603,7 @@
         <v>191</v>
       </c>
       <c r="P136" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q136">
         <v>2.05</v>
@@ -29806,7 +29809,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q137">
         <v>6.5</v>
@@ -30012,7 +30015,7 @@
         <v>192</v>
       </c>
       <c r="P138" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q138">
         <v>2.48</v>
@@ -30424,7 +30427,7 @@
         <v>193</v>
       </c>
       <c r="P140" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q140">
         <v>4.05</v>
@@ -30836,7 +30839,7 @@
         <v>195</v>
       </c>
       <c r="P142" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q142">
         <v>1.67</v>
@@ -31248,7 +31251,7 @@
         <v>197</v>
       </c>
       <c r="P144" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q144">
         <v>2.7</v>
@@ -31329,7 +31332,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ144">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR144">
         <v>1.37</v>
@@ -31454,7 +31457,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -32150,7 +32153,7 @@
         <v>0.86</v>
       </c>
       <c r="AP148">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ148">
         <v>0.65</v>
@@ -32278,7 +32281,7 @@
         <v>144</v>
       </c>
       <c r="P149" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q149">
         <v>3.6</v>
@@ -32484,7 +32487,7 @@
         <v>93</v>
       </c>
       <c r="P150" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q150">
         <v>2.48</v>
@@ -32974,7 +32977,7 @@
         <v>1.63</v>
       </c>
       <c r="AP152">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ152">
         <v>1.29</v>
@@ -33102,7 +33105,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q153">
         <v>4.9</v>
@@ -33308,7 +33311,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q154">
         <v>3.41</v>
@@ -33514,7 +33517,7 @@
         <v>204</v>
       </c>
       <c r="P155" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q155">
         <v>5.5</v>
@@ -33801,7 +33804,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ156">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR156">
         <v>1.29</v>
@@ -34750,7 +34753,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -35162,7 +35165,7 @@
         <v>93</v>
       </c>
       <c r="P163" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -36192,7 +36195,7 @@
         <v>210</v>
       </c>
       <c r="P168" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q168">
         <v>2.55</v>
@@ -36810,7 +36813,7 @@
         <v>144</v>
       </c>
       <c r="P171" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q171">
         <v>3.7</v>
@@ -37016,7 +37019,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q172">
         <v>2.6</v>
@@ -37428,7 +37431,7 @@
         <v>123</v>
       </c>
       <c r="P174" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q174">
         <v>2.05</v>
@@ -37509,7 +37512,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ174">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR174">
         <v>1.68</v>
@@ -37918,7 +37921,7 @@
         <v>0.63</v>
       </c>
       <c r="AP176">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ176">
         <v>0.72</v>
@@ -38458,7 +38461,7 @@
         <v>104</v>
       </c>
       <c r="P179" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q179">
         <v>2.6</v>
@@ -38664,7 +38667,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q180">
         <v>9</v>
@@ -39282,7 +39285,7 @@
         <v>93</v>
       </c>
       <c r="P183" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q183">
         <v>3.8</v>
@@ -39488,7 +39491,7 @@
         <v>93</v>
       </c>
       <c r="P184" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39694,7 +39697,7 @@
         <v>93</v>
       </c>
       <c r="P185" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q185">
         <v>3.19</v>
@@ -40312,7 +40315,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q188">
         <v>1.65</v>
@@ -40518,7 +40521,7 @@
         <v>221</v>
       </c>
       <c r="P189" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q189">
         <v>1.8</v>
@@ -41136,7 +41139,7 @@
         <v>176</v>
       </c>
       <c r="P192" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -41423,7 +41426,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ193">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR193">
         <v>1.28</v>
@@ -41548,7 +41551,7 @@
         <v>224</v>
       </c>
       <c r="P194" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q194">
         <v>2.69</v>
@@ -41626,7 +41629,7 @@
         <v>1</v>
       </c>
       <c r="AP194">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ194">
         <v>1.22</v>
@@ -42372,7 +42375,7 @@
         <v>155</v>
       </c>
       <c r="P198" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q198">
         <v>3.2</v>
@@ -42990,7 +42993,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q201">
         <v>1.68</v>
@@ -43402,7 +43405,7 @@
         <v>229</v>
       </c>
       <c r="P203" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43608,7 +43611,7 @@
         <v>230</v>
       </c>
       <c r="P204" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q204">
         <v>2.88</v>
@@ -43814,7 +43817,7 @@
         <v>231</v>
       </c>
       <c r="P205" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q205">
         <v>2.7</v>
@@ -44226,7 +44229,7 @@
         <v>233</v>
       </c>
       <c r="P207" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q207">
         <v>2.55</v>
@@ -44432,7 +44435,7 @@
         <v>103</v>
       </c>
       <c r="P208" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q208">
         <v>1.66</v>
@@ -44638,7 +44641,7 @@
         <v>234</v>
       </c>
       <c r="P209" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q209">
         <v>3.63</v>
@@ -44844,7 +44847,7 @@
         <v>235</v>
       </c>
       <c r="P210" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q210">
         <v>4.5</v>
@@ -45462,7 +45465,7 @@
         <v>236</v>
       </c>
       <c r="P213" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q213">
         <v>3.1</v>
@@ -45543,7 +45546,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ213">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR213">
         <v>1.15</v>
@@ -46286,7 +46289,7 @@
         <v>239</v>
       </c>
       <c r="P217" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q217">
         <v>2.38</v>
@@ -46492,7 +46495,7 @@
         <v>93</v>
       </c>
       <c r="P218" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q218">
         <v>5.25</v>
@@ -46570,7 +46573,7 @@
         <v>2.8</v>
       </c>
       <c r="AP218">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ218">
         <v>2.76</v>
@@ -46904,7 +46907,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q220">
         <v>1.5</v>
@@ -47728,7 +47731,7 @@
         <v>243</v>
       </c>
       <c r="P224" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q224">
         <v>3.1</v>
@@ -48346,7 +48349,7 @@
         <v>246</v>
       </c>
       <c r="P227" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q227">
         <v>1.61</v>
@@ -48552,7 +48555,7 @@
         <v>153</v>
       </c>
       <c r="P228" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q228">
         <v>3.2</v>
@@ -49170,7 +49173,7 @@
         <v>249</v>
       </c>
       <c r="P231" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q231">
         <v>2.2</v>
@@ -49251,7 +49254,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ231">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR231">
         <v>1.47</v>
@@ -49788,7 +49791,7 @@
         <v>93</v>
       </c>
       <c r="P234" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q234">
         <v>4.6</v>
@@ -50278,7 +50281,7 @@
         <v>0.45</v>
       </c>
       <c r="AP236">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ236">
         <v>0.59</v>
@@ -50612,7 +50615,7 @@
         <v>93</v>
       </c>
       <c r="P238" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q238">
         <v>4.5</v>
@@ -50818,7 +50821,7 @@
         <v>252</v>
       </c>
       <c r="P239" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q239">
         <v>2.5</v>
@@ -51024,7 +51027,7 @@
         <v>253</v>
       </c>
       <c r="P240" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q240">
         <v>2.62</v>
@@ -51436,7 +51439,7 @@
         <v>99</v>
       </c>
       <c r="P242" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q242">
         <v>2.73</v>
@@ -51517,7 +51520,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ242">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR242">
         <v>1.45</v>
@@ -52260,7 +52263,7 @@
         <v>244</v>
       </c>
       <c r="P246" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q246">
         <v>3.4</v>
@@ -52672,7 +52675,7 @@
         <v>259</v>
       </c>
       <c r="P248" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q248">
         <v>1.62</v>
@@ -53702,7 +53705,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q253">
         <v>1.98</v>
@@ -54114,7 +54117,7 @@
         <v>264</v>
       </c>
       <c r="P255" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q255">
         <v>5.25</v>
@@ -54320,7 +54323,7 @@
         <v>265</v>
       </c>
       <c r="P256" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q256">
         <v>2.61</v>
@@ -54732,7 +54735,7 @@
         <v>93</v>
       </c>
       <c r="P258" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q258">
         <v>3.75</v>
@@ -54938,7 +54941,7 @@
         <v>93</v>
       </c>
       <c r="P259" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q259">
         <v>6.44</v>
@@ -55350,7 +55353,7 @@
         <v>268</v>
       </c>
       <c r="P261" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q261">
         <v>2.3</v>
@@ -55428,7 +55431,7 @@
         <v>1</v>
       </c>
       <c r="AP261">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ261">
         <v>1.12</v>
@@ -55762,7 +55765,7 @@
         <v>270</v>
       </c>
       <c r="P263" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q263">
         <v>2.95</v>
@@ -55968,7 +55971,7 @@
         <v>93</v>
       </c>
       <c r="P264" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q264">
         <v>3.25</v>
@@ -56380,7 +56383,7 @@
         <v>272</v>
       </c>
       <c r="P266" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q266">
         <v>1.52</v>
@@ -56461,7 +56464,7 @@
         <v>2.47</v>
       </c>
       <c r="AQ266">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR266">
         <v>1.9</v>
@@ -57204,7 +57207,7 @@
         <v>93</v>
       </c>
       <c r="P270" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q270">
         <v>5.5</v>
@@ -57410,7 +57413,7 @@
         <v>274</v>
       </c>
       <c r="P271" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q271">
         <v>1.73</v>
@@ -57822,7 +57825,7 @@
         <v>275</v>
       </c>
       <c r="P273" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q273">
         <v>2.11</v>
@@ -58234,7 +58237,7 @@
         <v>93</v>
       </c>
       <c r="P275" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q275">
         <v>8.25</v>
@@ -58440,7 +58443,7 @@
         <v>93</v>
       </c>
       <c r="P276" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q276">
         <v>2.88</v>
@@ -58724,7 +58727,7 @@
         <v>0.54</v>
       </c>
       <c r="AP277">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ277">
         <v>0.47</v>
@@ -58852,7 +58855,7 @@
         <v>93</v>
       </c>
       <c r="P278" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q278">
         <v>3.9</v>
@@ -59676,7 +59679,7 @@
         <v>278</v>
       </c>
       <c r="P282" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q282">
         <v>1.63</v>
@@ -59882,7 +59885,7 @@
         <v>125</v>
       </c>
       <c r="P283" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q283">
         <v>3</v>
@@ -60088,7 +60091,7 @@
         <v>279</v>
       </c>
       <c r="P284" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q284">
         <v>2.95</v>
@@ -60578,7 +60581,7 @@
         <v>1</v>
       </c>
       <c r="AP286">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ286">
         <v>0.9399999999999999</v>
@@ -60706,7 +60709,7 @@
         <v>282</v>
       </c>
       <c r="P287" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q287">
         <v>2.4</v>
@@ -60912,7 +60915,7 @@
         <v>183</v>
       </c>
       <c r="P288" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q288">
         <v>4.3</v>
@@ -60993,7 +60996,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ288">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR288">
         <v>1.24</v>
@@ -62560,7 +62563,7 @@
         <v>288</v>
       </c>
       <c r="P296" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q296">
         <v>2.45</v>
@@ -62766,7 +62769,7 @@
         <v>289</v>
       </c>
       <c r="P297" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q297">
         <v>2.3</v>
@@ -63384,7 +63387,7 @@
         <v>292</v>
       </c>
       <c r="P300" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q300">
         <v>5.4</v>
@@ -63590,7 +63593,7 @@
         <v>293</v>
       </c>
       <c r="P301" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q301">
         <v>4.75</v>
@@ -63796,7 +63799,7 @@
         <v>93</v>
       </c>
       <c r="P302" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q302">
         <v>3.6</v>
@@ -64002,7 +64005,7 @@
         <v>93</v>
       </c>
       <c r="P303" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q303">
         <v>3</v>
@@ -64826,7 +64829,7 @@
         <v>235</v>
       </c>
       <c r="P307" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q307">
         <v>4</v>
@@ -65032,7 +65035,7 @@
         <v>295</v>
       </c>
       <c r="P308" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q308">
         <v>1.67</v>
@@ -65238,7 +65241,7 @@
         <v>93</v>
       </c>
       <c r="P309" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q309">
         <v>2.75</v>
@@ -65319,7 +65322,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ309">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR309">
         <v>1.45</v>
@@ -65728,7 +65731,7 @@
         <v>1.33</v>
       </c>
       <c r="AP311">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ311">
         <v>1.24</v>
@@ -66062,7 +66065,7 @@
         <v>93</v>
       </c>
       <c r="P313" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q313">
         <v>2.6</v>
@@ -66886,7 +66889,7 @@
         <v>298</v>
       </c>
       <c r="P317" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q317">
         <v>3.24</v>
@@ -67092,7 +67095,7 @@
         <v>93</v>
       </c>
       <c r="P318" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q318">
         <v>1.95</v>
@@ -67504,7 +67507,7 @@
         <v>110</v>
       </c>
       <c r="P320" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q320">
         <v>5.75</v>
@@ -67710,7 +67713,7 @@
         <v>93</v>
       </c>
       <c r="P321" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q321">
         <v>5.3</v>
@@ -68122,7 +68125,7 @@
         <v>111</v>
       </c>
       <c r="P323" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q323">
         <v>5.44</v>
@@ -68328,7 +68331,7 @@
         <v>93</v>
       </c>
       <c r="P324" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q324">
         <v>2.59</v>
@@ -68534,7 +68537,7 @@
         <v>99</v>
       </c>
       <c r="P325" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q325">
         <v>3.5</v>
@@ -68740,7 +68743,7 @@
         <v>301</v>
       </c>
       <c r="P326" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q326">
         <v>2.75</v>
@@ -69024,7 +69027,7 @@
         <v>0.8</v>
       </c>
       <c r="AP327">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ327">
         <v>0.71</v>
@@ -69645,7 +69648,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ330">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR330">
         <v>1.22</v>
@@ -69770,7 +69773,7 @@
         <v>306</v>
       </c>
       <c r="P331" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q331">
         <v>6.5</v>
@@ -69976,7 +69979,7 @@
         <v>93</v>
       </c>
       <c r="P332" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q332">
         <v>5.02</v>
@@ -70594,7 +70597,7 @@
         <v>182</v>
       </c>
       <c r="P335" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q335">
         <v>3.3</v>
@@ -71006,7 +71009,7 @@
         <v>308</v>
       </c>
       <c r="P337" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q337">
         <v>2.6</v>
@@ -71418,7 +71421,7 @@
         <v>310</v>
       </c>
       <c r="P339" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q339">
         <v>1.93</v>
@@ -71624,7 +71627,7 @@
         <v>311</v>
       </c>
       <c r="P340" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q340">
         <v>2.65</v>
@@ -72129,22 +72132,22 @@
         <v>2.57</v>
       </c>
       <c r="AU342">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV342">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW342">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX342">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY342">
         <v>8</v>
       </c>
       <c r="AZ342">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA342">
         <v>5</v>
@@ -72242,7 +72245,7 @@
         <v>313</v>
       </c>
       <c r="P343" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q343">
         <v>2.25</v>
@@ -72335,22 +72338,22 @@
         <v>2.85</v>
       </c>
       <c r="AU343">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV343">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW343">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX343">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY343">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ343">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA343">
         <v>7</v>
@@ -72544,19 +72547,19 @@
         <v>7</v>
       </c>
       <c r="AV344">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW344">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX344">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY344">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ344">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA344">
         <v>7</v>
@@ -72747,22 +72750,22 @@
         <v>2.7</v>
       </c>
       <c r="AU345">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV345">
         <v>4</v>
       </c>
       <c r="AW345">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX345">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY345">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AZ345">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA345">
         <v>3</v>
@@ -72860,7 +72863,7 @@
         <v>315</v>
       </c>
       <c r="P346" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q346">
         <v>2.94</v>
@@ -72956,19 +72959,19 @@
         <v>6</v>
       </c>
       <c r="AV346">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW346">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX346">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY346">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ346">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA346">
         <v>3</v>
@@ -73017,6 +73020,212 @@
       </c>
       <c r="BP346">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="347" spans="1:68">
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>6956823</v>
+      </c>
+      <c r="C347" t="s">
+        <v>68</v>
+      </c>
+      <c r="D347" t="s">
+        <v>69</v>
+      </c>
+      <c r="E347" s="2">
+        <v>45417.41666666666</v>
+      </c>
+      <c r="F347">
+        <v>35</v>
+      </c>
+      <c r="G347" t="s">
+        <v>85</v>
+      </c>
+      <c r="H347" t="s">
+        <v>71</v>
+      </c>
+      <c r="I347">
+        <v>2</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>2</v>
+      </c>
+      <c r="L347">
+        <v>4</v>
+      </c>
+      <c r="M347">
+        <v>1</v>
+      </c>
+      <c r="N347">
+        <v>5</v>
+      </c>
+      <c r="O347" t="s">
+        <v>316</v>
+      </c>
+      <c r="P347" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q347">
+        <v>2.4</v>
+      </c>
+      <c r="R347">
+        <v>2.2</v>
+      </c>
+      <c r="S347">
+        <v>4</v>
+      </c>
+      <c r="T347">
+        <v>1.33</v>
+      </c>
+      <c r="U347">
+        <v>3</v>
+      </c>
+      <c r="V347">
+        <v>2.45</v>
+      </c>
+      <c r="W347">
+        <v>1.48</v>
+      </c>
+      <c r="X347">
+        <v>5.5</v>
+      </c>
+      <c r="Y347">
+        <v>1.11</v>
+      </c>
+      <c r="Z347">
+        <v>2</v>
+      </c>
+      <c r="AA347">
+        <v>3.65</v>
+      </c>
+      <c r="AB347">
+        <v>3.44</v>
+      </c>
+      <c r="AC347">
+        <v>1.05</v>
+      </c>
+      <c r="AD347">
+        <v>13</v>
+      </c>
+      <c r="AE347">
+        <v>1.22</v>
+      </c>
+      <c r="AF347">
+        <v>4.12</v>
+      </c>
+      <c r="AG347">
+        <v>1.68</v>
+      </c>
+      <c r="AH347">
+        <v>2.11</v>
+      </c>
+      <c r="AI347">
+        <v>1.57</v>
+      </c>
+      <c r="AJ347">
+        <v>2.25</v>
+      </c>
+      <c r="AK347">
+        <v>1.25</v>
+      </c>
+      <c r="AL347">
+        <v>1.25</v>
+      </c>
+      <c r="AM347">
+        <v>1.8</v>
+      </c>
+      <c r="AN347">
+        <v>1.76</v>
+      </c>
+      <c r="AO347">
+        <v>1.41</v>
+      </c>
+      <c r="AP347">
+        <v>1.83</v>
+      </c>
+      <c r="AQ347">
+        <v>1.33</v>
+      </c>
+      <c r="AR347">
+        <v>1.35</v>
+      </c>
+      <c r="AS347">
+        <v>1.42</v>
+      </c>
+      <c r="AT347">
+        <v>2.77</v>
+      </c>
+      <c r="AU347">
+        <v>7</v>
+      </c>
+      <c r="AV347">
+        <v>3</v>
+      </c>
+      <c r="AW347">
+        <v>10</v>
+      </c>
+      <c r="AX347">
+        <v>6</v>
+      </c>
+      <c r="AY347">
+        <v>17</v>
+      </c>
+      <c r="AZ347">
+        <v>9</v>
+      </c>
+      <c r="BA347">
+        <v>5</v>
+      </c>
+      <c r="BB347">
+        <v>4</v>
+      </c>
+      <c r="BC347">
+        <v>9</v>
+      </c>
+      <c r="BD347">
+        <v>1.73</v>
+      </c>
+      <c r="BE347">
+        <v>8</v>
+      </c>
+      <c r="BF347">
+        <v>2.38</v>
+      </c>
+      <c r="BG347">
+        <v>1.29</v>
+      </c>
+      <c r="BH347">
+        <v>3.25</v>
+      </c>
+      <c r="BI347">
+        <v>1.52</v>
+      </c>
+      <c r="BJ347">
+        <v>2.33</v>
+      </c>
+      <c r="BK347">
+        <v>1.95</v>
+      </c>
+      <c r="BL347">
+        <v>1.77</v>
+      </c>
+      <c r="BM347">
+        <v>2.45</v>
+      </c>
+      <c r="BN347">
+        <v>1.47</v>
+      </c>
+      <c r="BO347">
+        <v>3.3</v>
+      </c>
+      <c r="BP347">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="466">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -973,6 +973,27 @@
     <t>['13']</t>
   </si>
   <si>
+    <t>['65', '74']</t>
+  </si>
+  <si>
+    <t>['16', '37', '82']</t>
+  </si>
+  <si>
+    <t>['71', '90']</t>
+  </si>
+  <si>
+    <t>['21', '28', '38']</t>
+  </si>
+  <si>
+    <t>['34', '83']</t>
+  </si>
+  <si>
+    <t>['6', '7', '49']</t>
+  </si>
+  <si>
+    <t>['18', '43', '59']</t>
+  </si>
+  <si>
     <t>['73', '78']</t>
   </si>
   <si>
@@ -1386,6 +1407,12 @@
   <si>
     <t>['15', '45+6']</t>
   </si>
+  <si>
+    <t>['45+4', '70', '90']</t>
+  </si>
+  <si>
+    <t>['11', '32', '45+7', '67', '77', '90']</t>
+  </si>
 </sst>
 </file>
 
@@ -1746,7 +1773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP351"/>
+  <dimension ref="A1:BP361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2083,10 +2110,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ2">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2211,7 +2238,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="Q3">
         <v>2.85</v>
@@ -2289,10 +2316,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ3">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2495,10 +2522,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ4">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2704,7 +2731,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ5">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2829,7 +2856,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2907,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ6">
         <v>0.67</v>
@@ -3113,10 +3140,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ7">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3319,10 +3346,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ8">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3447,7 +3474,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q9">
         <v>1.67</v>
@@ -3525,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ9">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3731,10 +3758,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ10">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3937,10 +3964,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4065,7 +4092,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4271,7 +4298,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -4352,7 +4379,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ13">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4761,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ15">
         <v>1.33</v>
@@ -5095,7 +5122,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -5301,7 +5328,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Q18">
         <v>2.8</v>
@@ -5507,7 +5534,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q19">
         <v>1.68</v>
@@ -5919,7 +5946,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -6203,10 +6230,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ22">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR22">
         <v>1.84</v>
@@ -6331,7 +6358,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q23">
         <v>2.3</v>
@@ -6409,7 +6436,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ23">
         <v>0.83</v>
@@ -6537,7 +6564,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -6615,10 +6642,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ24">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR24">
         <v>1.38</v>
@@ -6821,10 +6848,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ25">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR25">
         <v>0.7</v>
@@ -7030,7 +7057,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ26">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR26">
         <v>1.25</v>
@@ -7155,7 +7182,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q27">
         <v>2.85</v>
@@ -7233,10 +7260,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR27">
         <v>0.32</v>
@@ -7439,7 +7466,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ28">
         <v>0.67</v>
@@ -7773,7 +7800,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7851,7 +7878,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ30">
         <v>1.5</v>
@@ -8263,7 +8290,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ32">
         <v>1.22</v>
@@ -8391,7 +8418,7 @@
         <v>93</v>
       </c>
       <c r="P33" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -8472,7 +8499,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ33">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR33">
         <v>1.42</v>
@@ -8678,7 +8705,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ34">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR34">
         <v>1.55</v>
@@ -9009,7 +9036,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="Q36">
         <v>3.7</v>
@@ -9087,7 +9114,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ36">
         <v>0.72</v>
@@ -9215,7 +9242,7 @@
         <v>93</v>
       </c>
       <c r="P37" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="Q37">
         <v>4.5</v>
@@ -9502,7 +9529,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ38">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR38">
         <v>1.37</v>
@@ -9627,7 +9654,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="Q39">
         <v>2.55</v>
@@ -9705,10 +9732,10 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ39">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR39">
         <v>1.86</v>
@@ -9911,7 +9938,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ40">
         <v>0.83</v>
@@ -10039,7 +10066,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Q41">
         <v>1.77</v>
@@ -10120,7 +10147,7 @@
         <v>3</v>
       </c>
       <c r="AQ41">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR41">
         <v>1.54</v>
@@ -10245,7 +10272,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="Q42">
         <v>1.9</v>
@@ -10323,10 +10350,10 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ42">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR42">
         <v>1.97</v>
@@ -10451,7 +10478,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="Q43">
         <v>3.6</v>
@@ -10532,7 +10559,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ43">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR43">
         <v>0.99</v>
@@ -10735,10 +10762,10 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ44">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR44">
         <v>1.64</v>
@@ -10863,7 +10890,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="Q45">
         <v>2.7</v>
@@ -10941,7 +10968,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ45">
         <v>1.33</v>
@@ -11147,7 +11174,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
         <v>0.67</v>
@@ -11275,7 +11302,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11353,10 +11380,10 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ47">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR47">
         <v>0.72</v>
@@ -11562,7 +11589,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ48">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR48">
         <v>1.5</v>
@@ -11765,7 +11792,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ49">
         <v>0.5600000000000001</v>
@@ -12099,7 +12126,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="Q51">
         <v>4.33</v>
@@ -12180,7 +12207,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ51">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR51">
         <v>1.37</v>
@@ -12386,7 +12413,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ52">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR52">
         <v>1.74</v>
@@ -12592,7 +12619,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ53">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR53">
         <v>1.87</v>
@@ -12717,7 +12744,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="Q54">
         <v>2.83</v>
@@ -13001,7 +13028,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ55">
         <v>2.67</v>
@@ -13207,7 +13234,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ56">
         <v>0.72</v>
@@ -13413,7 +13440,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ57">
         <v>1.5</v>
@@ -13622,7 +13649,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ58">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR58">
         <v>0.85</v>
@@ -13747,7 +13774,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13825,10 +13852,10 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ59">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR59">
         <v>1.73</v>
@@ -14031,10 +14058,10 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ60">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR60">
         <v>2.09</v>
@@ -14159,7 +14186,7 @@
         <v>94</v>
       </c>
       <c r="P61" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="Q61">
         <v>2.8</v>
@@ -14240,7 +14267,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ61">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR61">
         <v>0.61</v>
@@ -14443,7 +14470,7 @@
         <v>1.67</v>
       </c>
       <c r="AP62">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ62">
         <v>0.67</v>
@@ -14571,7 +14598,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="Q63">
         <v>3.3</v>
@@ -14652,7 +14679,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ63">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR63">
         <v>0.84</v>
@@ -14855,7 +14882,7 @@
         <v>0.67</v>
       </c>
       <c r="AP64">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ64">
         <v>0.83</v>
@@ -15064,7 +15091,7 @@
         <v>3</v>
       </c>
       <c r="AQ65">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR65">
         <v>1.45</v>
@@ -15189,7 +15216,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="Q66">
         <v>2.9</v>
@@ -15267,7 +15294,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66">
         <v>1.33</v>
@@ -15473,10 +15500,10 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ67">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR67">
         <v>1.97</v>
@@ -15601,7 +15628,7 @@
         <v>93</v>
       </c>
       <c r="P68" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15679,10 +15706,10 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ68">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR68">
         <v>1.55</v>
@@ -15885,7 +15912,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ69">
         <v>1.22</v>
@@ -16094,7 +16121,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ70">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR70">
         <v>1.27</v>
@@ -16297,7 +16324,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ71">
         <v>0.5600000000000001</v>
@@ -16503,7 +16530,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ72">
         <v>1.5</v>
@@ -16631,7 +16658,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16709,7 +16736,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ73">
         <v>1.22</v>
@@ -16918,7 +16945,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ74">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR74">
         <v>1.13</v>
@@ -17124,7 +17151,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ75">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR75">
         <v>1.15</v>
@@ -17249,7 +17276,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="Q76">
         <v>4.96</v>
@@ -17330,7 +17357,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ76">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR76">
         <v>1.48</v>
@@ -17536,7 +17563,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ77">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR77">
         <v>1.31</v>
@@ -17742,7 +17769,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ78">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR78">
         <v>2.05</v>
@@ -17945,7 +17972,7 @@
         <v>1.67</v>
       </c>
       <c r="AP79">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ79">
         <v>0.9399999999999999</v>
@@ -18073,7 +18100,7 @@
         <v>93</v>
       </c>
       <c r="P80" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18151,7 +18178,7 @@
         <v>3</v>
       </c>
       <c r="AP80">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ80">
         <v>2.67</v>
@@ -18279,7 +18306,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -18360,7 +18387,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ81">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR81">
         <v>1.23</v>
@@ -18566,7 +18593,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ82">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR82">
         <v>1.46</v>
@@ -18691,7 +18718,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="Q83">
         <v>2.3</v>
@@ -18769,7 +18796,7 @@
         <v>0.5</v>
       </c>
       <c r="AP83">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ83">
         <v>0.83</v>
@@ -18897,7 +18924,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="Q84">
         <v>2.2</v>
@@ -18978,7 +19005,7 @@
         <v>3</v>
       </c>
       <c r="AQ84">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR84">
         <v>2.1</v>
@@ -19181,7 +19208,7 @@
         <v>1.67</v>
       </c>
       <c r="AP85">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ85">
         <v>1.33</v>
@@ -19390,7 +19417,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ86">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR86">
         <v>0.82</v>
@@ -19596,7 +19623,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ87">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR87">
         <v>1.06</v>
@@ -19721,7 +19748,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Q88">
         <v>1.62</v>
@@ -19799,7 +19826,7 @@
         <v>1.5</v>
       </c>
       <c r="AP88">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ88">
         <v>0.67</v>
@@ -20005,7 +20032,7 @@
         <v>0.67</v>
       </c>
       <c r="AP89">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ89">
         <v>1.22</v>
@@ -20211,7 +20238,7 @@
         <v>0.67</v>
       </c>
       <c r="AP90">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ90">
         <v>0.72</v>
@@ -20339,7 +20366,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20417,10 +20444,10 @@
         <v>0.5</v>
       </c>
       <c r="AP91">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ91">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR91">
         <v>1.14</v>
@@ -20545,7 +20572,7 @@
         <v>156</v>
       </c>
       <c r="P92" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="Q92">
         <v>2.3</v>
@@ -20623,10 +20650,10 @@
         <v>0.33</v>
       </c>
       <c r="AP92">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ92">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR92">
         <v>1.45</v>
@@ -20751,7 +20778,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="Q93">
         <v>2.6</v>
@@ -20829,7 +20856,7 @@
         <v>1.75</v>
       </c>
       <c r="AP93">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ93">
         <v>1.22</v>
@@ -21038,7 +21065,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ94">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR94">
         <v>1.24</v>
@@ -21241,7 +21268,7 @@
         <v>1.25</v>
       </c>
       <c r="AP95">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ95">
         <v>0.9399999999999999</v>
@@ -21447,7 +21474,7 @@
         <v>0.75</v>
       </c>
       <c r="AP96">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ96">
         <v>1.5</v>
@@ -21656,7 +21683,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ97">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR97">
         <v>1.23</v>
@@ -21862,7 +21889,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ98">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR98">
         <v>1.46</v>
@@ -21987,7 +22014,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="Q99">
         <v>6.5</v>
@@ -22065,7 +22092,7 @@
         <v>3</v>
       </c>
       <c r="AP99">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ99">
         <v>2.67</v>
@@ -22274,7 +22301,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ100">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR100">
         <v>1.99</v>
@@ -22605,7 +22632,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="Q102">
         <v>2.85</v>
@@ -23017,7 +23044,7 @@
         <v>165</v>
       </c>
       <c r="P104" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="Q104">
         <v>1.79</v>
@@ -23095,7 +23122,7 @@
         <v>0.8</v>
       </c>
       <c r="AP104">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ104">
         <v>1.5</v>
@@ -23223,7 +23250,7 @@
         <v>166</v>
       </c>
       <c r="P105" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -23301,7 +23328,7 @@
         <v>0.5</v>
       </c>
       <c r="AP105">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ105">
         <v>0.72</v>
@@ -23429,7 +23456,7 @@
         <v>167</v>
       </c>
       <c r="P106" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="Q106">
         <v>2.9</v>
@@ -23510,7 +23537,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ106">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR106">
         <v>1.1</v>
@@ -23713,7 +23740,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ107">
         <v>0.5600000000000001</v>
@@ -23841,7 +23868,7 @@
         <v>169</v>
       </c>
       <c r="P108" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="Q108">
         <v>3.72</v>
@@ -23922,7 +23949,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ108">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR108">
         <v>1.37</v>
@@ -24334,7 +24361,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ110">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR110">
         <v>1.37</v>
@@ -24459,7 +24486,7 @@
         <v>171</v>
       </c>
       <c r="P111" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24540,7 +24567,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ111">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR111">
         <v>1.36</v>
@@ -24665,7 +24692,7 @@
         <v>172</v>
       </c>
       <c r="P112" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="Q112">
         <v>2.15</v>
@@ -24743,7 +24770,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ112">
         <v>0.9399999999999999</v>
@@ -24871,7 +24898,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -24952,7 +24979,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ113">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR113">
         <v>1.28</v>
@@ -25077,7 +25104,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="Q114">
         <v>2.8</v>
@@ -25155,10 +25182,10 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ114">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR114">
         <v>1.57</v>
@@ -25283,7 +25310,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="Q115">
         <v>2.8</v>
@@ -25361,10 +25388,10 @@
         <v>0.5</v>
       </c>
       <c r="AP115">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ115">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR115">
         <v>1.4</v>
@@ -25567,7 +25594,7 @@
         <v>2</v>
       </c>
       <c r="AP116">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ116">
         <v>1.22</v>
@@ -25695,7 +25722,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="Q117">
         <v>5.75</v>
@@ -25773,10 +25800,10 @@
         <v>2.67</v>
       </c>
       <c r="AP117">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ117">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR117">
         <v>1.35</v>
@@ -25979,10 +26006,10 @@
         <v>0.17</v>
       </c>
       <c r="AP118">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ118">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR118">
         <v>1.1</v>
@@ -26188,7 +26215,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ119">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR119">
         <v>1.95</v>
@@ -26394,7 +26421,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ120">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR120">
         <v>1.23</v>
@@ -26597,7 +26624,7 @@
         <v>3</v>
       </c>
       <c r="AP121">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ121">
         <v>2.67</v>
@@ -27009,7 +27036,7 @@
         <v>1.6</v>
       </c>
       <c r="AP123">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ123">
         <v>1.33</v>
@@ -27137,7 +27164,7 @@
         <v>93</v>
       </c>
       <c r="P124" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="Q124">
         <v>2.88</v>
@@ -27218,7 +27245,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ124">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR124">
         <v>1.35</v>
@@ -27755,7 +27782,7 @@
         <v>183</v>
       </c>
       <c r="P127" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27836,7 +27863,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ127">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR127">
         <v>1.37</v>
@@ -28042,7 +28069,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ128">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR128">
         <v>1.27</v>
@@ -28245,7 +28272,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ129">
         <v>0.5600000000000001</v>
@@ -28579,7 +28606,7 @@
         <v>186</v>
       </c>
       <c r="P131" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -28657,7 +28684,7 @@
         <v>1.17</v>
       </c>
       <c r="AP131">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ131">
         <v>1.5</v>
@@ -28863,10 +28890,10 @@
         <v>0.17</v>
       </c>
       <c r="AP132">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ132">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR132">
         <v>1.16</v>
@@ -28991,7 +29018,7 @@
         <v>188</v>
       </c>
       <c r="P133" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="Q133">
         <v>3.42</v>
@@ -29069,10 +29096,10 @@
         <v>1.17</v>
       </c>
       <c r="AP133">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ133">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR133">
         <v>1.28</v>
@@ -29197,7 +29224,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="Q134">
         <v>2.88</v>
@@ -29275,7 +29302,7 @@
         <v>0.83</v>
       </c>
       <c r="AP134">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ134">
         <v>0.9399999999999999</v>
@@ -29403,7 +29430,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29484,7 +29511,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ135">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR135">
         <v>1.19</v>
@@ -29609,7 +29636,7 @@
         <v>191</v>
       </c>
       <c r="P136" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="Q136">
         <v>2.05</v>
@@ -29687,10 +29714,10 @@
         <v>0.14</v>
       </c>
       <c r="AP136">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ136">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR136">
         <v>1.55</v>
@@ -29815,7 +29842,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="Q137">
         <v>6.5</v>
@@ -29893,10 +29920,10 @@
         <v>2.29</v>
       </c>
       <c r="AP137">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ137">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR137">
         <v>1.11</v>
@@ -30021,7 +30048,7 @@
         <v>192</v>
       </c>
       <c r="P138" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="Q138">
         <v>2.48</v>
@@ -30099,10 +30126,10 @@
         <v>0.86</v>
       </c>
       <c r="AP138">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ138">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR138">
         <v>1.66</v>
@@ -30305,10 +30332,10 @@
         <v>1.33</v>
       </c>
       <c r="AP139">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ139">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR139">
         <v>1.42</v>
@@ -30433,7 +30460,7 @@
         <v>193</v>
       </c>
       <c r="P140" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="Q140">
         <v>4.05</v>
@@ -30514,7 +30541,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ140">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR140">
         <v>1.23</v>
@@ -30717,7 +30744,7 @@
         <v>1.67</v>
       </c>
       <c r="AP141">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ141">
         <v>1.22</v>
@@ -30845,7 +30872,7 @@
         <v>195</v>
       </c>
       <c r="P142" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="Q142">
         <v>1.67</v>
@@ -31257,7 +31284,7 @@
         <v>197</v>
       </c>
       <c r="P144" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="Q144">
         <v>2.7</v>
@@ -31463,7 +31490,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -32287,7 +32314,7 @@
         <v>144</v>
       </c>
       <c r="P149" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="Q149">
         <v>3.6</v>
@@ -32493,7 +32520,7 @@
         <v>93</v>
       </c>
       <c r="P150" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="Q150">
         <v>2.48</v>
@@ -32571,7 +32598,7 @@
         <v>1.43</v>
       </c>
       <c r="AP150">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ150">
         <v>1.22</v>
@@ -32780,7 +32807,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ151">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR151">
         <v>1.22</v>
@@ -33111,7 +33138,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="Q153">
         <v>4.9</v>
@@ -33317,7 +33344,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="Q154">
         <v>3.41</v>
@@ -33523,7 +33550,7 @@
         <v>204</v>
       </c>
       <c r="P155" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="Q155">
         <v>5.5</v>
@@ -34759,7 +34786,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -35043,10 +35070,10 @@
         <v>0.14</v>
       </c>
       <c r="AP162">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ162">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR162">
         <v>1.58</v>
@@ -35171,7 +35198,7 @@
         <v>93</v>
       </c>
       <c r="P163" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -35249,10 +35276,10 @@
         <v>0.75</v>
       </c>
       <c r="AP163">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ163">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR163">
         <v>1.22</v>
@@ -35455,10 +35482,10 @@
         <v>0.63</v>
       </c>
       <c r="AP164">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ164">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR164">
         <v>1.44</v>
@@ -35661,10 +35688,10 @@
         <v>1.57</v>
       </c>
       <c r="AP165">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ165">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR165">
         <v>1.45</v>
@@ -35867,10 +35894,10 @@
         <v>1.14</v>
       </c>
       <c r="AP166">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ166">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR166">
         <v>1.51</v>
@@ -36073,10 +36100,10 @@
         <v>2.38</v>
       </c>
       <c r="AP167">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ167">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR167">
         <v>1.79</v>
@@ -36201,7 +36228,7 @@
         <v>210</v>
       </c>
       <c r="P168" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="Q168">
         <v>2.55</v>
@@ -36279,10 +36306,10 @@
         <v>1</v>
       </c>
       <c r="AP168">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ168">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR168">
         <v>1.71</v>
@@ -36485,10 +36512,10 @@
         <v>0.5</v>
       </c>
       <c r="AP169">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ169">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR169">
         <v>1.48</v>
@@ -36691,10 +36718,10 @@
         <v>1.14</v>
       </c>
       <c r="AP170">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ170">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR170">
         <v>1.05</v>
@@ -36819,7 +36846,7 @@
         <v>144</v>
       </c>
       <c r="P171" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="Q171">
         <v>3.7</v>
@@ -36897,10 +36924,10 @@
         <v>1.25</v>
       </c>
       <c r="AP171">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ171">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR171">
         <v>1.35</v>
@@ -37025,7 +37052,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="Q172">
         <v>2.6</v>
@@ -37437,7 +37464,7 @@
         <v>123</v>
       </c>
       <c r="P174" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="Q174">
         <v>2.05</v>
@@ -38467,7 +38494,7 @@
         <v>104</v>
       </c>
       <c r="P179" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="Q179">
         <v>2.6</v>
@@ -38673,7 +38700,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="Q180">
         <v>9</v>
@@ -39163,10 +39190,10 @@
         <v>1.13</v>
       </c>
       <c r="AP182">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ182">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR182">
         <v>1.51</v>
@@ -39291,7 +39318,7 @@
         <v>93</v>
       </c>
       <c r="P183" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="Q183">
         <v>3.8</v>
@@ -39369,10 +39396,10 @@
         <v>1</v>
       </c>
       <c r="AP183">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ183">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR183">
         <v>1.08</v>
@@ -39497,7 +39524,7 @@
         <v>93</v>
       </c>
       <c r="P184" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39578,7 +39605,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ184">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR184">
         <v>1.27</v>
@@ -39703,7 +39730,7 @@
         <v>93</v>
       </c>
       <c r="P185" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="Q185">
         <v>3.19</v>
@@ -39781,10 +39808,10 @@
         <v>0.67</v>
       </c>
       <c r="AP185">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ185">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR185">
         <v>1.76</v>
@@ -39987,10 +40014,10 @@
         <v>1.38</v>
       </c>
       <c r="AP186">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ186">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR186">
         <v>1.23</v>
@@ -40193,10 +40220,10 @@
         <v>1</v>
       </c>
       <c r="AP187">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ187">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR187">
         <v>1.29</v>
@@ -40321,7 +40348,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="Q188">
         <v>1.65</v>
@@ -40399,7 +40426,7 @@
         <v>0.78</v>
       </c>
       <c r="AP188">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ188">
         <v>0.9399999999999999</v>
@@ -40527,7 +40554,7 @@
         <v>221</v>
       </c>
       <c r="P189" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="Q189">
         <v>1.8</v>
@@ -40605,10 +40632,10 @@
         <v>0.13</v>
       </c>
       <c r="AP189">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ189">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR189">
         <v>1.42</v>
@@ -40811,10 +40838,10 @@
         <v>2.22</v>
       </c>
       <c r="AP190">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ190">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR190">
         <v>1.59</v>
@@ -41017,10 +41044,10 @@
         <v>0.44</v>
       </c>
       <c r="AP191">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ191">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR191">
         <v>1.43</v>
@@ -41145,7 +41172,7 @@
         <v>176</v>
       </c>
       <c r="P192" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -41223,7 +41250,7 @@
         <v>0.9</v>
       </c>
       <c r="AP192">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ192">
         <v>0.83</v>
@@ -41557,7 +41584,7 @@
         <v>224</v>
       </c>
       <c r="P194" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="Q194">
         <v>2.69</v>
@@ -42381,7 +42408,7 @@
         <v>155</v>
       </c>
       <c r="P198" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="Q198">
         <v>3.2</v>
@@ -42999,7 +43026,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q201">
         <v>1.68</v>
@@ -43080,7 +43107,7 @@
         <v>3</v>
       </c>
       <c r="AQ201">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR201">
         <v>2.24</v>
@@ -43283,7 +43310,7 @@
         <v>0.7</v>
       </c>
       <c r="AP202">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ202">
         <v>0.67</v>
@@ -43411,7 +43438,7 @@
         <v>229</v>
       </c>
       <c r="P203" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43489,10 +43516,10 @@
         <v>1</v>
       </c>
       <c r="AP203">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ203">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR203">
         <v>1.45</v>
@@ -43617,7 +43644,7 @@
         <v>230</v>
       </c>
       <c r="P204" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="Q204">
         <v>2.88</v>
@@ -43695,10 +43722,10 @@
         <v>0.9</v>
       </c>
       <c r="AP204">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ204">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR204">
         <v>1.3</v>
@@ -43823,7 +43850,7 @@
         <v>231</v>
       </c>
       <c r="P205" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="Q205">
         <v>2.7</v>
@@ -43901,10 +43928,10 @@
         <v>1.11</v>
       </c>
       <c r="AP205">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ205">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR205">
         <v>1.45</v>
@@ -44107,10 +44134,10 @@
         <v>1.6</v>
       </c>
       <c r="AP206">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ206">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR206">
         <v>1.14</v>
@@ -44235,7 +44262,7 @@
         <v>233</v>
       </c>
       <c r="P207" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="Q207">
         <v>2.55</v>
@@ -44313,10 +44340,10 @@
         <v>1</v>
       </c>
       <c r="AP207">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ207">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR207">
         <v>1.59</v>
@@ -44441,7 +44468,7 @@
         <v>103</v>
       </c>
       <c r="P208" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="Q208">
         <v>1.66</v>
@@ -44519,10 +44546,10 @@
         <v>0.4</v>
       </c>
       <c r="AP208">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ208">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR208">
         <v>1.74</v>
@@ -44647,7 +44674,7 @@
         <v>234</v>
       </c>
       <c r="P209" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="Q209">
         <v>3.63</v>
@@ -44725,10 +44752,10 @@
         <v>1.22</v>
       </c>
       <c r="AP209">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ209">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR209">
         <v>1.41</v>
@@ -44853,7 +44880,7 @@
         <v>235</v>
       </c>
       <c r="P210" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="Q210">
         <v>4.5</v>
@@ -44931,10 +44958,10 @@
         <v>2.1</v>
       </c>
       <c r="AP210">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ210">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR210">
         <v>1.48</v>
@@ -45140,7 +45167,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ211">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR211">
         <v>1.47</v>
@@ -45343,7 +45370,7 @@
         <v>0.9</v>
       </c>
       <c r="AP212">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ212">
         <v>1.22</v>
@@ -45471,7 +45498,7 @@
         <v>236</v>
       </c>
       <c r="P213" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="Q213">
         <v>3.1</v>
@@ -45549,7 +45576,7 @@
         <v>1.2</v>
       </c>
       <c r="AP213">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ213">
         <v>1.33</v>
@@ -46501,7 +46528,7 @@
         <v>93</v>
       </c>
       <c r="P218" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q218">
         <v>5.25</v>
@@ -46788,7 +46815,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ219">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR219">
         <v>1.43</v>
@@ -46913,7 +46940,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="Q220">
         <v>1.5</v>
@@ -46994,7 +47021,7 @@
         <v>3</v>
       </c>
       <c r="AQ220">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR220">
         <v>2.28</v>
@@ -47403,7 +47430,7 @@
         <v>0.91</v>
       </c>
       <c r="AP222">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ222">
         <v>0.83</v>
@@ -47609,7 +47636,7 @@
         <v>0.64</v>
       </c>
       <c r="AP223">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ223">
         <v>0.67</v>
@@ -47737,7 +47764,7 @@
         <v>243</v>
       </c>
       <c r="P224" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="Q224">
         <v>3.1</v>
@@ -47815,10 +47842,10 @@
         <v>0.91</v>
       </c>
       <c r="AP224">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ224">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR224">
         <v>1.39</v>
@@ -48021,10 +48048,10 @@
         <v>1.45</v>
       </c>
       <c r="AP225">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ225">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR225">
         <v>1.57</v>
@@ -48227,10 +48254,10 @@
         <v>0.9</v>
       </c>
       <c r="AP226">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ226">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR226">
         <v>1.32</v>
@@ -48433,10 +48460,10 @@
         <v>1.1</v>
       </c>
       <c r="AP227">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ227">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR227">
         <v>1.79</v>
@@ -48561,7 +48588,7 @@
         <v>153</v>
       </c>
       <c r="P228" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="Q228">
         <v>3.2</v>
@@ -48642,7 +48669,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ228">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR228">
         <v>1.25</v>
@@ -48848,7 +48875,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ229">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR229">
         <v>1.44</v>
@@ -49054,7 +49081,7 @@
         <v>3</v>
       </c>
       <c r="AQ230">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR230">
         <v>2.21</v>
@@ -49179,7 +49206,7 @@
         <v>249</v>
       </c>
       <c r="P231" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="Q231">
         <v>2.2</v>
@@ -49257,7 +49284,7 @@
         <v>1.09</v>
       </c>
       <c r="AP231">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ231">
         <v>1.33</v>
@@ -49669,7 +49696,7 @@
         <v>0.45</v>
       </c>
       <c r="AP233">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ233">
         <v>0.5600000000000001</v>
@@ -49797,7 +49824,7 @@
         <v>93</v>
       </c>
       <c r="P234" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="Q234">
         <v>4.6</v>
@@ -49878,7 +49905,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ234">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR234">
         <v>1.44</v>
@@ -50290,7 +50317,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ236">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR236">
         <v>1.18</v>
@@ -50496,7 +50523,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ237">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR237">
         <v>1.2</v>
@@ -50621,7 +50648,7 @@
         <v>93</v>
       </c>
       <c r="P238" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="Q238">
         <v>4.5</v>
@@ -50827,7 +50854,7 @@
         <v>252</v>
       </c>
       <c r="P239" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="Q239">
         <v>2.5</v>
@@ -50905,7 +50932,7 @@
         <v>0.64</v>
       </c>
       <c r="AP239">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ239">
         <v>0.72</v>
@@ -51033,7 +51060,7 @@
         <v>253</v>
       </c>
       <c r="P240" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="Q240">
         <v>2.62</v>
@@ -51111,7 +51138,7 @@
         <v>0.91</v>
       </c>
       <c r="AP240">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ240">
         <v>1.22</v>
@@ -51445,7 +51472,7 @@
         <v>99</v>
       </c>
       <c r="P242" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="Q242">
         <v>2.73</v>
@@ -51523,7 +51550,7 @@
         <v>1.25</v>
       </c>
       <c r="AP242">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ242">
         <v>1.33</v>
@@ -51729,7 +51756,7 @@
         <v>0.92</v>
       </c>
       <c r="AP243">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ243">
         <v>0.83</v>
@@ -51938,7 +51965,7 @@
         <v>3</v>
       </c>
       <c r="AQ244">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR244">
         <v>2.26</v>
@@ -52141,10 +52168,10 @@
         <v>0.82</v>
       </c>
       <c r="AP245">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ245">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR245">
         <v>1.53</v>
@@ -52269,7 +52296,7 @@
         <v>244</v>
       </c>
       <c r="P246" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="Q246">
         <v>3.4</v>
@@ -52350,7 +52377,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ246">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR246">
         <v>1.25</v>
@@ -52553,10 +52580,10 @@
         <v>1</v>
       </c>
       <c r="AP247">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ247">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR247">
         <v>1.38</v>
@@ -52681,7 +52708,7 @@
         <v>259</v>
       </c>
       <c r="P248" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="Q248">
         <v>1.62</v>
@@ -52759,7 +52786,7 @@
         <v>0.83</v>
       </c>
       <c r="AP248">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ248">
         <v>1.22</v>
@@ -52965,7 +52992,7 @@
         <v>0.83</v>
       </c>
       <c r="AP249">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ249">
         <v>0.67</v>
@@ -53174,7 +53201,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ250">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR250">
         <v>1.45</v>
@@ -53380,7 +53407,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ251">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR251">
         <v>1.46</v>
@@ -53583,7 +53610,7 @@
         <v>0.42</v>
       </c>
       <c r="AP252">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ252">
         <v>0.5600000000000001</v>
@@ -53711,7 +53738,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="Q253">
         <v>1.98</v>
@@ -53792,7 +53819,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ253">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR253">
         <v>1.43</v>
@@ -53995,7 +54022,7 @@
         <v>1.31</v>
       </c>
       <c r="AP254">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ254">
         <v>1.22</v>
@@ -54123,7 +54150,7 @@
         <v>264</v>
       </c>
       <c r="P255" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="Q255">
         <v>5.25</v>
@@ -54329,7 +54356,7 @@
         <v>265</v>
       </c>
       <c r="P256" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="Q256">
         <v>2.61</v>
@@ -54407,7 +54434,7 @@
         <v>0.58</v>
       </c>
       <c r="AP256">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ256">
         <v>0.72</v>
@@ -54616,7 +54643,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ257">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR257">
         <v>1.2</v>
@@ -54741,7 +54768,7 @@
         <v>93</v>
       </c>
       <c r="P258" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="Q258">
         <v>3.75</v>
@@ -54819,7 +54846,7 @@
         <v>1.38</v>
       </c>
       <c r="AP258">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ258">
         <v>1.5</v>
@@ -54947,7 +54974,7 @@
         <v>93</v>
       </c>
       <c r="P259" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="Q259">
         <v>6.44</v>
@@ -55028,7 +55055,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ259">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR259">
         <v>1.28</v>
@@ -55359,7 +55386,7 @@
         <v>268</v>
       </c>
       <c r="P261" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="Q261">
         <v>2.3</v>
@@ -55440,7 +55467,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ261">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR261">
         <v>1.26</v>
@@ -55646,7 +55673,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ262">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR262">
         <v>1.45</v>
@@ -55771,7 +55798,7 @@
         <v>270</v>
       </c>
       <c r="P263" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="Q263">
         <v>2.95</v>
@@ -55852,7 +55879,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ263">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR263">
         <v>1.46</v>
@@ -55977,7 +56004,7 @@
         <v>93</v>
       </c>
       <c r="P264" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="Q264">
         <v>3.25</v>
@@ -56058,7 +56085,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ264">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR264">
         <v>1.18</v>
@@ -56261,7 +56288,7 @@
         <v>0.77</v>
       </c>
       <c r="AP265">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ265">
         <v>0.67</v>
@@ -56389,7 +56416,7 @@
         <v>272</v>
       </c>
       <c r="P266" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="Q266">
         <v>1.52</v>
@@ -56467,7 +56494,7 @@
         <v>1.38</v>
       </c>
       <c r="AP266">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ266">
         <v>1.33</v>
@@ -56673,7 +56700,7 @@
         <v>0.85</v>
       </c>
       <c r="AP267">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ267">
         <v>0.83</v>
@@ -56879,7 +56906,7 @@
         <v>0.62</v>
       </c>
       <c r="AP268">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ268">
         <v>0.72</v>
@@ -57085,7 +57112,7 @@
         <v>0.85</v>
       </c>
       <c r="AP269">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ269">
         <v>1.22</v>
@@ -57213,7 +57240,7 @@
         <v>93</v>
       </c>
       <c r="P270" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="Q270">
         <v>5.5</v>
@@ -57294,7 +57321,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ270">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR270">
         <v>1.21</v>
@@ -57419,7 +57446,7 @@
         <v>274</v>
       </c>
       <c r="P271" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="Q271">
         <v>1.73</v>
@@ -57500,7 +57527,7 @@
         <v>3</v>
       </c>
       <c r="AQ271">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR271">
         <v>2.23</v>
@@ -57703,7 +57730,7 @@
         <v>1.29</v>
       </c>
       <c r="AP272">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ272">
         <v>1.22</v>
@@ -57831,7 +57858,7 @@
         <v>275</v>
       </c>
       <c r="P273" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="Q273">
         <v>2.11</v>
@@ -57912,7 +57939,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ273">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR273">
         <v>1.27</v>
@@ -58118,7 +58145,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ274">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR274">
         <v>1.39</v>
@@ -58243,7 +58270,7 @@
         <v>93</v>
       </c>
       <c r="P275" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="Q275">
         <v>8.25</v>
@@ -58321,7 +58348,7 @@
         <v>2.85</v>
       </c>
       <c r="AP275">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ275">
         <v>2.67</v>
@@ -58449,7 +58476,7 @@
         <v>93</v>
       </c>
       <c r="P276" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="Q276">
         <v>2.88</v>
@@ -58527,7 +58554,7 @@
         <v>0.71</v>
       </c>
       <c r="AP276">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ276">
         <v>0.9399999999999999</v>
@@ -58736,7 +58763,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ277">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR277">
         <v>1.31</v>
@@ -58861,7 +58888,7 @@
         <v>93</v>
       </c>
       <c r="P278" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="Q278">
         <v>3.9</v>
@@ -58942,7 +58969,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ278">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR278">
         <v>1.62</v>
@@ -59145,7 +59172,7 @@
         <v>0.46</v>
       </c>
       <c r="AP279">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ279">
         <v>0.5600000000000001</v>
@@ -59351,7 +59378,7 @@
         <v>1.5</v>
       </c>
       <c r="AP280">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ280">
         <v>1.5</v>
@@ -59560,7 +59587,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ281">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR281">
         <v>1.44</v>
@@ -59685,7 +59712,7 @@
         <v>278</v>
       </c>
       <c r="P282" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="Q282">
         <v>1.63</v>
@@ -59766,7 +59793,7 @@
         <v>3</v>
       </c>
       <c r="AQ282">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR282">
         <v>2.2</v>
@@ -59891,7 +59918,7 @@
         <v>125</v>
       </c>
       <c r="P283" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="Q283">
         <v>3</v>
@@ -59969,7 +59996,7 @@
         <v>0.86</v>
       </c>
       <c r="AP283">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ283">
         <v>1.22</v>
@@ -60097,7 +60124,7 @@
         <v>279</v>
       </c>
       <c r="P284" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="Q284">
         <v>2.95</v>
@@ -60175,7 +60202,7 @@
         <v>0.57</v>
       </c>
       <c r="AP284">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ284">
         <v>0.72</v>
@@ -60381,7 +60408,7 @@
         <v>0.43</v>
       </c>
       <c r="AP285">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ285">
         <v>0.5600000000000001</v>
@@ -60590,7 +60617,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ286">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR286">
         <v>1.32</v>
@@ -60715,7 +60742,7 @@
         <v>282</v>
       </c>
       <c r="P287" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="Q287">
         <v>2.4</v>
@@ -60921,7 +60948,7 @@
         <v>183</v>
       </c>
       <c r="P288" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="Q288">
         <v>4.3</v>
@@ -61208,7 +61235,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ289">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR289">
         <v>1.43</v>
@@ -61411,7 +61438,7 @@
         <v>0.79</v>
       </c>
       <c r="AP290">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ290">
         <v>0.83</v>
@@ -61620,7 +61647,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ291">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR291">
         <v>1.2</v>
@@ -61823,7 +61850,7 @@
         <v>0.87</v>
       </c>
       <c r="AP292">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ292">
         <v>0.9399999999999999</v>
@@ -62029,10 +62056,10 @@
         <v>0.5</v>
       </c>
       <c r="AP293">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ293">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR293">
         <v>1.16</v>
@@ -62235,10 +62262,10 @@
         <v>1.07</v>
       </c>
       <c r="AP294">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ294">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR294">
         <v>1.43</v>
@@ -62444,7 +62471,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ295">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR295">
         <v>1.3</v>
@@ -62569,7 +62596,7 @@
         <v>288</v>
       </c>
       <c r="P296" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="Q296">
         <v>2.45</v>
@@ -62647,7 +62674,7 @@
         <v>1.27</v>
       </c>
       <c r="AP296">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ296">
         <v>1.22</v>
@@ -62775,7 +62802,7 @@
         <v>289</v>
       </c>
       <c r="P297" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="Q297">
         <v>2.3</v>
@@ -62856,7 +62883,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ297">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR297">
         <v>1.58</v>
@@ -63062,7 +63089,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ298">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR298">
         <v>1.44</v>
@@ -63265,10 +63292,10 @@
         <v>0.5</v>
       </c>
       <c r="AP299">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ299">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR299">
         <v>1.26</v>
@@ -63393,7 +63420,7 @@
         <v>292</v>
       </c>
       <c r="P300" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="Q300">
         <v>5.4</v>
@@ -63471,10 +63498,10 @@
         <v>2.36</v>
       </c>
       <c r="AP300">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ300">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR300">
         <v>1.61</v>
@@ -63599,7 +63626,7 @@
         <v>293</v>
       </c>
       <c r="P301" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="Q301">
         <v>4.75</v>
@@ -63677,7 +63704,7 @@
         <v>2.86</v>
       </c>
       <c r="AP301">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ301">
         <v>2.67</v>
@@ -63805,7 +63832,7 @@
         <v>93</v>
       </c>
       <c r="P302" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="Q302">
         <v>3.6</v>
@@ -63886,7 +63913,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ302">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR302">
         <v>1.23</v>
@@ -64011,7 +64038,7 @@
         <v>93</v>
       </c>
       <c r="P303" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="Q303">
         <v>3</v>
@@ -64504,7 +64531,7 @@
         <v>1.61</v>
       </c>
       <c r="AQ305">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR305">
         <v>1.5</v>
@@ -64707,7 +64734,7 @@
         <v>0.4</v>
       </c>
       <c r="AP306">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ306">
         <v>0.5600000000000001</v>
@@ -64835,7 +64862,7 @@
         <v>235</v>
       </c>
       <c r="P307" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="Q307">
         <v>4</v>
@@ -64913,7 +64940,7 @@
         <v>1.4</v>
       </c>
       <c r="AP307">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ307">
         <v>1.5</v>
@@ -65041,7 +65068,7 @@
         <v>295</v>
       </c>
       <c r="P308" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="Q308">
         <v>1.67</v>
@@ -65119,7 +65146,7 @@
         <v>0.6</v>
       </c>
       <c r="AP308">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ308">
         <v>0.72</v>
@@ -65247,7 +65274,7 @@
         <v>93</v>
       </c>
       <c r="P309" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="Q309">
         <v>2.75</v>
@@ -65740,7 +65767,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ311">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR311">
         <v>1.34</v>
@@ -65943,7 +65970,7 @@
         <v>1.19</v>
       </c>
       <c r="AP312">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ312">
         <v>1.22</v>
@@ -66071,7 +66098,7 @@
         <v>93</v>
       </c>
       <c r="P313" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="Q313">
         <v>2.6</v>
@@ -66149,7 +66176,7 @@
         <v>0.88</v>
       </c>
       <c r="AP313">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ313">
         <v>0.9399999999999999</v>
@@ -66358,7 +66385,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ314">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR314">
         <v>1.31</v>
@@ -66561,10 +66588,10 @@
         <v>1</v>
       </c>
       <c r="AP315">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ315">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR315">
         <v>1.47</v>
@@ -66770,7 +66797,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ316">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR316">
         <v>1.62</v>
@@ -66895,7 +66922,7 @@
         <v>298</v>
       </c>
       <c r="P317" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="Q317">
         <v>3.24</v>
@@ -66973,10 +67000,10 @@
         <v>1.07</v>
       </c>
       <c r="AP317">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AQ317">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR317">
         <v>1.19</v>
@@ -67101,7 +67128,7 @@
         <v>93</v>
       </c>
       <c r="P318" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="Q318">
         <v>1.95</v>
@@ -67179,10 +67206,10 @@
         <v>0.47</v>
       </c>
       <c r="AP318">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ318">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR318">
         <v>1.24</v>
@@ -67388,7 +67415,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ319">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR319">
         <v>1.45</v>
@@ -67513,7 +67540,7 @@
         <v>110</v>
       </c>
       <c r="P320" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="Q320">
         <v>5.75</v>
@@ -67591,7 +67618,7 @@
         <v>2.87</v>
       </c>
       <c r="AP320">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ320">
         <v>2.67</v>
@@ -67719,7 +67746,7 @@
         <v>93</v>
       </c>
       <c r="P321" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="Q321">
         <v>5.3</v>
@@ -67797,10 +67824,10 @@
         <v>2.4</v>
       </c>
       <c r="AP321">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ321">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR321">
         <v>1.41</v>
@@ -68006,7 +68033,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ322">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR322">
         <v>1.61</v>
@@ -68131,7 +68158,7 @@
         <v>111</v>
       </c>
       <c r="P323" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="Q323">
         <v>5.44</v>
@@ -68337,7 +68364,7 @@
         <v>93</v>
       </c>
       <c r="P324" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="Q324">
         <v>2.59</v>
@@ -68415,7 +68442,7 @@
         <v>1.13</v>
       </c>
       <c r="AP324">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ324">
         <v>1.22</v>
@@ -68543,7 +68570,7 @@
         <v>99</v>
       </c>
       <c r="P325" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="Q325">
         <v>3.5</v>
@@ -68749,7 +68776,7 @@
         <v>301</v>
       </c>
       <c r="P326" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="Q326">
         <v>2.75</v>
@@ -69036,7 +69063,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ327">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR327">
         <v>1.36</v>
@@ -69779,7 +69806,7 @@
         <v>306</v>
       </c>
       <c r="P331" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="Q331">
         <v>6.5</v>
@@ -69857,7 +69884,7 @@
         <v>2.88</v>
       </c>
       <c r="AP331">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ331">
         <v>2.67</v>
@@ -69985,7 +70012,7 @@
         <v>93</v>
       </c>
       <c r="P332" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="Q332">
         <v>5.02</v>
@@ -70063,10 +70090,10 @@
         <v>2.44</v>
       </c>
       <c r="AP332">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ332">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR332">
         <v>1.5</v>
@@ -70269,10 +70296,10 @@
         <v>0.5</v>
       </c>
       <c r="AP333">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ333">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AR333">
         <v>1.57</v>
@@ -70475,7 +70502,7 @@
         <v>1</v>
       </c>
       <c r="AP334">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ334">
         <v>0.9399999999999999</v>
@@ -70603,7 +70630,7 @@
         <v>182</v>
       </c>
       <c r="P335" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="Q335">
         <v>3.3</v>
@@ -70681,10 +70708,10 @@
         <v>1.19</v>
       </c>
       <c r="AP335">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ335">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AR335">
         <v>1.24</v>
@@ -70887,10 +70914,10 @@
         <v>1.31</v>
       </c>
       <c r="AP336">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AQ336">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR336">
         <v>1.92</v>
@@ -71015,7 +71042,7 @@
         <v>308</v>
       </c>
       <c r="P337" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="Q337">
         <v>2.6</v>
@@ -71093,10 +71120,10 @@
         <v>1</v>
       </c>
       <c r="AP337">
+        <v>1.17</v>
+      </c>
+      <c r="AQ337">
         <v>1.06</v>
-      </c>
-      <c r="AQ337">
-        <v>1.12</v>
       </c>
       <c r="AR337">
         <v>1.23</v>
@@ -71299,10 +71326,10 @@
         <v>0.63</v>
       </c>
       <c r="AP338">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AQ338">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR338">
         <v>1.39</v>
@@ -71427,7 +71454,7 @@
         <v>310</v>
       </c>
       <c r="P339" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="Q339">
         <v>1.93</v>
@@ -71505,10 +71532,10 @@
         <v>0.88</v>
       </c>
       <c r="AP339">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AQ339">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR339">
         <v>1.66</v>
@@ -71633,7 +71660,7 @@
         <v>311</v>
       </c>
       <c r="P340" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="Q340">
         <v>2.65</v>
@@ -71714,7 +71741,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ340">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AR340">
         <v>1.45</v>
@@ -71917,10 +71944,10 @@
         <v>1</v>
       </c>
       <c r="AP341">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ341">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR341">
         <v>1.3</v>
@@ -72251,7 +72278,7 @@
         <v>313</v>
       </c>
       <c r="P343" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="Q343">
         <v>2.25</v>
@@ -72332,7 +72359,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ343">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR343">
         <v>1.62</v>
@@ -72869,7 +72896,7 @@
         <v>315</v>
       </c>
       <c r="P346" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="Q346">
         <v>2.94</v>
@@ -73487,7 +73514,7 @@
         <v>95</v>
       </c>
       <c r="P349" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="Q349">
         <v>2.8</v>
@@ -73771,7 +73798,7 @@
         <v>2.76</v>
       </c>
       <c r="AP350">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ350">
         <v>2.67</v>
@@ -73899,7 +73926,7 @@
         <v>318</v>
       </c>
       <c r="P351" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="Q351">
         <v>2.85</v>
@@ -74056,6 +74083,2066 @@
       </c>
       <c r="BP351">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="352" spans="1:68">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>6956840</v>
+      </c>
+      <c r="C352" t="s">
+        <v>68</v>
+      </c>
+      <c r="D352" t="s">
+        <v>69</v>
+      </c>
+      <c r="E352" s="2">
+        <v>45424.54166666666</v>
+      </c>
+      <c r="F352">
+        <v>36</v>
+      </c>
+      <c r="G352" t="s">
+        <v>74</v>
+      </c>
+      <c r="H352" t="s">
+        <v>82</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <v>1</v>
+      </c>
+      <c r="K352">
+        <v>1</v>
+      </c>
+      <c r="L352">
+        <v>2</v>
+      </c>
+      <c r="M352">
+        <v>1</v>
+      </c>
+      <c r="N352">
+        <v>3</v>
+      </c>
+      <c r="O352" t="s">
+        <v>319</v>
+      </c>
+      <c r="P352" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q352">
+        <v>2.52</v>
+      </c>
+      <c r="R352">
+        <v>2.51</v>
+      </c>
+      <c r="S352">
+        <v>4</v>
+      </c>
+      <c r="T352">
+        <v>1.28</v>
+      </c>
+      <c r="U352">
+        <v>3.44</v>
+      </c>
+      <c r="V352">
+        <v>2.38</v>
+      </c>
+      <c r="W352">
+        <v>1.6</v>
+      </c>
+      <c r="X352">
+        <v>5.4</v>
+      </c>
+      <c r="Y352">
+        <v>1.13</v>
+      </c>
+      <c r="Z352">
+        <v>2.52</v>
+      </c>
+      <c r="AA352">
+        <v>3.66</v>
+      </c>
+      <c r="AB352">
+        <v>2.62</v>
+      </c>
+      <c r="AC352">
+        <v>1.04</v>
+      </c>
+      <c r="AD352">
+        <v>15</v>
+      </c>
+      <c r="AE352">
+        <v>1.17</v>
+      </c>
+      <c r="AF352">
+        <v>4.75</v>
+      </c>
+      <c r="AG352">
+        <v>1.65</v>
+      </c>
+      <c r="AH352">
+        <v>2.25</v>
+      </c>
+      <c r="AI352">
+        <v>1.5</v>
+      </c>
+      <c r="AJ352">
+        <v>2.4</v>
+      </c>
+      <c r="AK352">
+        <v>1.32</v>
+      </c>
+      <c r="AL352">
+        <v>1.26</v>
+      </c>
+      <c r="AM352">
+        <v>1.81</v>
+      </c>
+      <c r="AN352">
+        <v>1.06</v>
+      </c>
+      <c r="AO352">
+        <v>0.71</v>
+      </c>
+      <c r="AP352">
+        <v>1.17</v>
+      </c>
+      <c r="AQ352">
+        <v>0.67</v>
+      </c>
+      <c r="AR352">
+        <v>1.26</v>
+      </c>
+      <c r="AS352">
+        <v>1.24</v>
+      </c>
+      <c r="AT352">
+        <v>2.5</v>
+      </c>
+      <c r="AU352">
+        <v>3</v>
+      </c>
+      <c r="AV352">
+        <v>4</v>
+      </c>
+      <c r="AW352">
+        <v>5</v>
+      </c>
+      <c r="AX352">
+        <v>6</v>
+      </c>
+      <c r="AY352">
+        <v>8</v>
+      </c>
+      <c r="AZ352">
+        <v>10</v>
+      </c>
+      <c r="BA352">
+        <v>7</v>
+      </c>
+      <c r="BB352">
+        <v>3</v>
+      </c>
+      <c r="BC352">
+        <v>10</v>
+      </c>
+      <c r="BD352">
+        <v>1.71</v>
+      </c>
+      <c r="BE352">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF352">
+        <v>2.53</v>
+      </c>
+      <c r="BG352">
+        <v>1.3</v>
+      </c>
+      <c r="BH352">
+        <v>3.08</v>
+      </c>
+      <c r="BI352">
+        <v>1.56</v>
+      </c>
+      <c r="BJ352">
+        <v>2.41</v>
+      </c>
+      <c r="BK352">
+        <v>1.9</v>
+      </c>
+      <c r="BL352">
+        <v>1.9</v>
+      </c>
+      <c r="BM352">
+        <v>2.39</v>
+      </c>
+      <c r="BN352">
+        <v>1.56</v>
+      </c>
+      <c r="BO352">
+        <v>3.56</v>
+      </c>
+      <c r="BP352">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="353" spans="1:68">
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>6956838</v>
+      </c>
+      <c r="C353" t="s">
+        <v>68</v>
+      </c>
+      <c r="D353" t="s">
+        <v>69</v>
+      </c>
+      <c r="E353" s="2">
+        <v>45424.54166666666</v>
+      </c>
+      <c r="F353">
+        <v>36</v>
+      </c>
+      <c r="G353" t="s">
+        <v>78</v>
+      </c>
+      <c r="H353" t="s">
+        <v>87</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="K353">
+        <v>0</v>
+      </c>
+      <c r="L353">
+        <v>1</v>
+      </c>
+      <c r="M353">
+        <v>1</v>
+      </c>
+      <c r="N353">
+        <v>2</v>
+      </c>
+      <c r="O353" t="s">
+        <v>235</v>
+      </c>
+      <c r="P353" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q353">
+        <v>3.2</v>
+      </c>
+      <c r="R353">
+        <v>2.15</v>
+      </c>
+      <c r="S353">
+        <v>2.95</v>
+      </c>
+      <c r="T353">
+        <v>1.33</v>
+      </c>
+      <c r="U353">
+        <v>3</v>
+      </c>
+      <c r="V353">
+        <v>2.45</v>
+      </c>
+      <c r="W353">
+        <v>1.48</v>
+      </c>
+      <c r="X353">
+        <v>5.5</v>
+      </c>
+      <c r="Y353">
+        <v>1.11</v>
+      </c>
+      <c r="Z353">
+        <v>2.99</v>
+      </c>
+      <c r="AA353">
+        <v>3.52</v>
+      </c>
+      <c r="AB353">
+        <v>2.3</v>
+      </c>
+      <c r="AC353">
+        <v>1.05</v>
+      </c>
+      <c r="AD353">
+        <v>13</v>
+      </c>
+      <c r="AE353">
+        <v>1.22</v>
+      </c>
+      <c r="AF353">
+        <v>4.12</v>
+      </c>
+      <c r="AG353">
+        <v>1.74</v>
+      </c>
+      <c r="AH353">
+        <v>2.09</v>
+      </c>
+      <c r="AI353">
+        <v>1.55</v>
+      </c>
+      <c r="AJ353">
+        <v>2.3</v>
+      </c>
+      <c r="AK353">
+        <v>1.53</v>
+      </c>
+      <c r="AL353">
+        <v>1.25</v>
+      </c>
+      <c r="AM353">
+        <v>1.44</v>
+      </c>
+      <c r="AN353">
+        <v>1.59</v>
+      </c>
+      <c r="AO353">
+        <v>1.24</v>
+      </c>
+      <c r="AP353">
+        <v>1.56</v>
+      </c>
+      <c r="AQ353">
+        <v>1.22</v>
+      </c>
+      <c r="AR353">
+        <v>1.42</v>
+      </c>
+      <c r="AS353">
+        <v>1.27</v>
+      </c>
+      <c r="AT353">
+        <v>2.69</v>
+      </c>
+      <c r="AU353">
+        <v>8</v>
+      </c>
+      <c r="AV353">
+        <v>3</v>
+      </c>
+      <c r="AW353">
+        <v>6</v>
+      </c>
+      <c r="AX353">
+        <v>3</v>
+      </c>
+      <c r="AY353">
+        <v>14</v>
+      </c>
+      <c r="AZ353">
+        <v>6</v>
+      </c>
+      <c r="BA353">
+        <v>3</v>
+      </c>
+      <c r="BB353">
+        <v>1</v>
+      </c>
+      <c r="BC353">
+        <v>4</v>
+      </c>
+      <c r="BD353">
+        <v>1.98</v>
+      </c>
+      <c r="BE353">
+        <v>8.9</v>
+      </c>
+      <c r="BF353">
+        <v>2.1</v>
+      </c>
+      <c r="BG353">
+        <v>1.24</v>
+      </c>
+      <c r="BH353">
+        <v>3.48</v>
+      </c>
+      <c r="BI353">
+        <v>1.52</v>
+      </c>
+      <c r="BJ353">
+        <v>2.5</v>
+      </c>
+      <c r="BK353">
+        <v>2</v>
+      </c>
+      <c r="BL353">
+        <v>1.8</v>
+      </c>
+      <c r="BM353">
+        <v>2.3</v>
+      </c>
+      <c r="BN353">
+        <v>1.61</v>
+      </c>
+      <c r="BO353">
+        <v>3.08</v>
+      </c>
+      <c r="BP353">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:68">
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>6956837</v>
+      </c>
+      <c r="C354" t="s">
+        <v>68</v>
+      </c>
+      <c r="D354" t="s">
+        <v>69</v>
+      </c>
+      <c r="E354" s="2">
+        <v>45424.54166666666</v>
+      </c>
+      <c r="F354">
+        <v>36</v>
+      </c>
+      <c r="G354" t="s">
+        <v>71</v>
+      </c>
+      <c r="H354" t="s">
+        <v>80</v>
+      </c>
+      <c r="I354">
+        <v>2</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>2</v>
+      </c>
+      <c r="L354">
+        <v>3</v>
+      </c>
+      <c r="M354">
+        <v>1</v>
+      </c>
+      <c r="N354">
+        <v>4</v>
+      </c>
+      <c r="O354" t="s">
+        <v>320</v>
+      </c>
+      <c r="P354" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q354">
+        <v>2.57</v>
+      </c>
+      <c r="R354">
+        <v>2.48</v>
+      </c>
+      <c r="S354">
+        <v>3.96</v>
+      </c>
+      <c r="T354">
+        <v>1.3</v>
+      </c>
+      <c r="U354">
+        <v>3.34</v>
+      </c>
+      <c r="V354">
+        <v>2.45</v>
+      </c>
+      <c r="W354">
+        <v>1.57</v>
+      </c>
+      <c r="X354">
+        <v>5.55</v>
+      </c>
+      <c r="Y354">
+        <v>1.13</v>
+      </c>
+      <c r="Z354">
+        <v>2.13</v>
+      </c>
+      <c r="AA354">
+        <v>3.58</v>
+      </c>
+      <c r="AB354">
+        <v>3.28</v>
+      </c>
+      <c r="AC354">
+        <v>1.04</v>
+      </c>
+      <c r="AD354">
+        <v>15</v>
+      </c>
+      <c r="AE354">
+        <v>1.19</v>
+      </c>
+      <c r="AF354">
+        <v>4.5</v>
+      </c>
+      <c r="AG354">
+        <v>1.68</v>
+      </c>
+      <c r="AH354">
+        <v>2.18</v>
+      </c>
+      <c r="AI354">
+        <v>1.56</v>
+      </c>
+      <c r="AJ354">
+        <v>2.33</v>
+      </c>
+      <c r="AK354">
+        <v>1.3</v>
+      </c>
+      <c r="AL354">
+        <v>1.27</v>
+      </c>
+      <c r="AM354">
+        <v>1.83</v>
+      </c>
+      <c r="AN354">
+        <v>1.47</v>
+      </c>
+      <c r="AO354">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP354">
+        <v>1.56</v>
+      </c>
+      <c r="AQ354">
+        <v>0.89</v>
+      </c>
+      <c r="AR354">
+        <v>1.55</v>
+      </c>
+      <c r="AS354">
+        <v>1.25</v>
+      </c>
+      <c r="AT354">
+        <v>2.8</v>
+      </c>
+      <c r="AU354">
+        <v>7</v>
+      </c>
+      <c r="AV354">
+        <v>2</v>
+      </c>
+      <c r="AW354">
+        <v>4</v>
+      </c>
+      <c r="AX354">
+        <v>6</v>
+      </c>
+      <c r="AY354">
+        <v>11</v>
+      </c>
+      <c r="AZ354">
+        <v>8</v>
+      </c>
+      <c r="BA354">
+        <v>4</v>
+      </c>
+      <c r="BB354">
+        <v>5</v>
+      </c>
+      <c r="BC354">
+        <v>9</v>
+      </c>
+      <c r="BD354">
+        <v>1.69</v>
+      </c>
+      <c r="BE354">
+        <v>9.4</v>
+      </c>
+      <c r="BF354">
+        <v>2.53</v>
+      </c>
+      <c r="BG354">
+        <v>1.17</v>
+      </c>
+      <c r="BH354">
+        <v>4.2</v>
+      </c>
+      <c r="BI354">
+        <v>1.34</v>
+      </c>
+      <c r="BJ354">
+        <v>2.88</v>
+      </c>
+      <c r="BK354">
+        <v>1.68</v>
+      </c>
+      <c r="BL354">
+        <v>2.19</v>
+      </c>
+      <c r="BM354">
+        <v>2.06</v>
+      </c>
+      <c r="BN354">
+        <v>1.76</v>
+      </c>
+      <c r="BO354">
+        <v>2.65</v>
+      </c>
+      <c r="BP354">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="355" spans="1:68">
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>6956836</v>
+      </c>
+      <c r="C355" t="s">
+        <v>68</v>
+      </c>
+      <c r="D355" t="s">
+        <v>69</v>
+      </c>
+      <c r="E355" s="2">
+        <v>45424.54166666666</v>
+      </c>
+      <c r="F355">
+        <v>36</v>
+      </c>
+      <c r="G355" t="s">
+        <v>75</v>
+      </c>
+      <c r="H355" t="s">
+        <v>85</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="J355">
+        <v>1</v>
+      </c>
+      <c r="K355">
+        <v>1</v>
+      </c>
+      <c r="L355">
+        <v>0</v>
+      </c>
+      <c r="M355">
+        <v>1</v>
+      </c>
+      <c r="N355">
+        <v>1</v>
+      </c>
+      <c r="O355" t="s">
+        <v>93</v>
+      </c>
+      <c r="P355" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q355">
+        <v>3.9</v>
+      </c>
+      <c r="R355">
+        <v>2.05</v>
+      </c>
+      <c r="S355">
+        <v>2.7</v>
+      </c>
+      <c r="T355">
+        <v>1.42</v>
+      </c>
+      <c r="U355">
+        <v>2.65</v>
+      </c>
+      <c r="V355">
+        <v>2.88</v>
+      </c>
+      <c r="W355">
+        <v>1.36</v>
+      </c>
+      <c r="X355">
+        <v>7</v>
+      </c>
+      <c r="Y355">
+        <v>1.07</v>
+      </c>
+      <c r="Z355">
+        <v>3.06</v>
+      </c>
+      <c r="AA355">
+        <v>3.3</v>
+      </c>
+      <c r="AB355">
+        <v>2.36</v>
+      </c>
+      <c r="AC355">
+        <v>1.05</v>
+      </c>
+      <c r="AD355">
+        <v>9</v>
+      </c>
+      <c r="AE355">
+        <v>1.32</v>
+      </c>
+      <c r="AF355">
+        <v>3.25</v>
+      </c>
+      <c r="AG355">
+        <v>2.02</v>
+      </c>
+      <c r="AH355">
+        <v>1.79</v>
+      </c>
+      <c r="AI355">
+        <v>1.77</v>
+      </c>
+      <c r="AJ355">
+        <v>1.95</v>
+      </c>
+      <c r="AK355">
+        <v>1.67</v>
+      </c>
+      <c r="AL355">
+        <v>1.28</v>
+      </c>
+      <c r="AM355">
+        <v>1.3</v>
+      </c>
+      <c r="AN355">
+        <v>1.53</v>
+      </c>
+      <c r="AO355">
+        <v>1.29</v>
+      </c>
+      <c r="AP355">
+        <v>1.44</v>
+      </c>
+      <c r="AQ355">
+        <v>1.39</v>
+      </c>
+      <c r="AR355">
+        <v>1.41</v>
+      </c>
+      <c r="AS355">
+        <v>1.19</v>
+      </c>
+      <c r="AT355">
+        <v>2.6</v>
+      </c>
+      <c r="AU355">
+        <v>3</v>
+      </c>
+      <c r="AV355">
+        <v>5</v>
+      </c>
+      <c r="AW355">
+        <v>4</v>
+      </c>
+      <c r="AX355">
+        <v>4</v>
+      </c>
+      <c r="AY355">
+        <v>7</v>
+      </c>
+      <c r="AZ355">
+        <v>9</v>
+      </c>
+      <c r="BA355">
+        <v>10</v>
+      </c>
+      <c r="BB355">
+        <v>3</v>
+      </c>
+      <c r="BC355">
+        <v>13</v>
+      </c>
+      <c r="BD355">
+        <v>2.24</v>
+      </c>
+      <c r="BE355">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF355">
+        <v>1.88</v>
+      </c>
+      <c r="BG355">
+        <v>1.3</v>
+      </c>
+      <c r="BH355">
+        <v>3.08</v>
+      </c>
+      <c r="BI355">
+        <v>1.64</v>
+      </c>
+      <c r="BJ355">
+        <v>2.24</v>
+      </c>
+      <c r="BK355">
+        <v>2.01</v>
+      </c>
+      <c r="BL355">
+        <v>1.79</v>
+      </c>
+      <c r="BM355">
+        <v>2.62</v>
+      </c>
+      <c r="BN355">
+        <v>1.43</v>
+      </c>
+      <c r="BO355">
+        <v>3.56</v>
+      </c>
+      <c r="BP355">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="356" spans="1:68">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>6956839</v>
+      </c>
+      <c r="C356" t="s">
+        <v>68</v>
+      </c>
+      <c r="D356" t="s">
+        <v>69</v>
+      </c>
+      <c r="E356" s="2">
+        <v>45424.54166666666</v>
+      </c>
+      <c r="F356">
+        <v>36</v>
+      </c>
+      <c r="G356" t="s">
+        <v>83</v>
+      </c>
+      <c r="H356" t="s">
+        <v>88</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>0</v>
+      </c>
+      <c r="L356">
+        <v>2</v>
+      </c>
+      <c r="M356">
+        <v>1</v>
+      </c>
+      <c r="N356">
+        <v>3</v>
+      </c>
+      <c r="O356" t="s">
+        <v>321</v>
+      </c>
+      <c r="P356" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q356">
+        <v>3</v>
+      </c>
+      <c r="R356">
+        <v>2.1</v>
+      </c>
+      <c r="S356">
+        <v>3.2</v>
+      </c>
+      <c r="T356">
+        <v>1.36</v>
+      </c>
+      <c r="U356">
+        <v>2.85</v>
+      </c>
+      <c r="V356">
+        <v>2.65</v>
+      </c>
+      <c r="W356">
+        <v>1.42</v>
+      </c>
+      <c r="X356">
+        <v>6.25</v>
+      </c>
+      <c r="Y356">
+        <v>1.09</v>
+      </c>
+      <c r="Z356">
+        <v>2.59</v>
+      </c>
+      <c r="AA356">
+        <v>3.24</v>
+      </c>
+      <c r="AB356">
+        <v>2.79</v>
+      </c>
+      <c r="AC356">
+        <v>1.03</v>
+      </c>
+      <c r="AD356">
+        <v>10.65</v>
+      </c>
+      <c r="AE356">
+        <v>1.27</v>
+      </c>
+      <c r="AF356">
+        <v>3.61</v>
+      </c>
+      <c r="AG356">
+        <v>2.08</v>
+      </c>
+      <c r="AH356">
+        <v>1.75</v>
+      </c>
+      <c r="AI356">
+        <v>1.62</v>
+      </c>
+      <c r="AJ356">
+        <v>2.15</v>
+      </c>
+      <c r="AK356">
+        <v>1.44</v>
+      </c>
+      <c r="AL356">
+        <v>1.25</v>
+      </c>
+      <c r="AM356">
+        <v>1.53</v>
+      </c>
+      <c r="AN356">
+        <v>1.29</v>
+      </c>
+      <c r="AO356">
+        <v>0.76</v>
+      </c>
+      <c r="AP356">
+        <v>1.39</v>
+      </c>
+      <c r="AQ356">
+        <v>0.72</v>
+      </c>
+      <c r="AR356">
+        <v>1.28</v>
+      </c>
+      <c r="AS356">
+        <v>1.2</v>
+      </c>
+      <c r="AT356">
+        <v>2.48</v>
+      </c>
+      <c r="AU356">
+        <v>5</v>
+      </c>
+      <c r="AV356">
+        <v>6</v>
+      </c>
+      <c r="AW356">
+        <v>6</v>
+      </c>
+      <c r="AX356">
+        <v>6</v>
+      </c>
+      <c r="AY356">
+        <v>11</v>
+      </c>
+      <c r="AZ356">
+        <v>12</v>
+      </c>
+      <c r="BA356">
+        <v>2</v>
+      </c>
+      <c r="BB356">
+        <v>6</v>
+      </c>
+      <c r="BC356">
+        <v>8</v>
+      </c>
+      <c r="BD356">
+        <v>1.83</v>
+      </c>
+      <c r="BE356">
+        <v>8.5</v>
+      </c>
+      <c r="BF356">
+        <v>2.33</v>
+      </c>
+      <c r="BG356">
+        <v>1.38</v>
+      </c>
+      <c r="BH356">
+        <v>2.8</v>
+      </c>
+      <c r="BI356">
+        <v>1.76</v>
+      </c>
+      <c r="BJ356">
+        <v>2.06</v>
+      </c>
+      <c r="BK356">
+        <v>2.21</v>
+      </c>
+      <c r="BL356">
+        <v>1.67</v>
+      </c>
+      <c r="BM356">
+        <v>2.91</v>
+      </c>
+      <c r="BN356">
+        <v>1.33</v>
+      </c>
+      <c r="BO356">
+        <v>4.15</v>
+      </c>
+      <c r="BP356">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="357" spans="1:68">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>6956834</v>
+      </c>
+      <c r="C357" t="s">
+        <v>68</v>
+      </c>
+      <c r="D357" t="s">
+        <v>69</v>
+      </c>
+      <c r="E357" s="2">
+        <v>45424.54166666666</v>
+      </c>
+      <c r="F357">
+        <v>36</v>
+      </c>
+      <c r="G357" t="s">
+        <v>72</v>
+      </c>
+      <c r="H357" t="s">
+        <v>89</v>
+      </c>
+      <c r="I357">
+        <v>3</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>3</v>
+      </c>
+      <c r="L357">
+        <v>3</v>
+      </c>
+      <c r="M357">
+        <v>0</v>
+      </c>
+      <c r="N357">
+        <v>3</v>
+      </c>
+      <c r="O357" t="s">
+        <v>322</v>
+      </c>
+      <c r="P357" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q357">
+        <v>3.03</v>
+      </c>
+      <c r="R357">
+        <v>2.11</v>
+      </c>
+      <c r="S357">
+        <v>4.13</v>
+      </c>
+      <c r="T357">
+        <v>1.49</v>
+      </c>
+      <c r="U357">
+        <v>2.7</v>
+      </c>
+      <c r="V357">
+        <v>3.43</v>
+      </c>
+      <c r="W357">
+        <v>1.33</v>
+      </c>
+      <c r="X357">
+        <v>8</v>
+      </c>
+      <c r="Y357">
+        <v>1.05</v>
+      </c>
+      <c r="Z357">
+        <v>2.6</v>
+      </c>
+      <c r="AA357">
+        <v>3.1</v>
+      </c>
+      <c r="AB357">
+        <v>2.9</v>
+      </c>
+      <c r="AC357">
+        <v>1.07</v>
+      </c>
+      <c r="AD357">
+        <v>7.76</v>
+      </c>
+      <c r="AE357">
+        <v>1.41</v>
+      </c>
+      <c r="AF357">
+        <v>2.83</v>
+      </c>
+      <c r="AG357">
+        <v>2.25</v>
+      </c>
+      <c r="AH357">
+        <v>1.65</v>
+      </c>
+      <c r="AI357">
+        <v>1.91</v>
+      </c>
+      <c r="AJ357">
+        <v>1.83</v>
+      </c>
+      <c r="AK357">
+        <v>1.34</v>
+      </c>
+      <c r="AL357">
+        <v>1.35</v>
+      </c>
+      <c r="AM357">
+        <v>1.62</v>
+      </c>
+      <c r="AN357">
+        <v>1.18</v>
+      </c>
+      <c r="AO357">
+        <v>0.47</v>
+      </c>
+      <c r="AP357">
+        <v>1.28</v>
+      </c>
+      <c r="AQ357">
+        <v>0.44</v>
+      </c>
+      <c r="AR357">
+        <v>1.31</v>
+      </c>
+      <c r="AS357">
+        <v>1.24</v>
+      </c>
+      <c r="AT357">
+        <v>2.55</v>
+      </c>
+      <c r="AU357">
+        <v>5</v>
+      </c>
+      <c r="AV357">
+        <v>0</v>
+      </c>
+      <c r="AW357">
+        <v>1</v>
+      </c>
+      <c r="AX357">
+        <v>3</v>
+      </c>
+      <c r="AY357">
+        <v>6</v>
+      </c>
+      <c r="AZ357">
+        <v>3</v>
+      </c>
+      <c r="BA357">
+        <v>5</v>
+      </c>
+      <c r="BB357">
+        <v>6</v>
+      </c>
+      <c r="BC357">
+        <v>11</v>
+      </c>
+      <c r="BD357">
+        <v>1.96</v>
+      </c>
+      <c r="BE357">
+        <v>8.5</v>
+      </c>
+      <c r="BF357">
+        <v>2.15</v>
+      </c>
+      <c r="BG357">
+        <v>1.34</v>
+      </c>
+      <c r="BH357">
+        <v>2.88</v>
+      </c>
+      <c r="BI357">
+        <v>1.7</v>
+      </c>
+      <c r="BJ357">
+        <v>2.16</v>
+      </c>
+      <c r="BK357">
+        <v>2.11</v>
+      </c>
+      <c r="BL357">
+        <v>1.73</v>
+      </c>
+      <c r="BM357">
+        <v>2.8</v>
+      </c>
+      <c r="BN357">
+        <v>1.38</v>
+      </c>
+      <c r="BO357">
+        <v>3.88</v>
+      </c>
+      <c r="BP357">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:68">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>6956833</v>
+      </c>
+      <c r="C358" t="s">
+        <v>68</v>
+      </c>
+      <c r="D358" t="s">
+        <v>69</v>
+      </c>
+      <c r="E358" s="2">
+        <v>45424.54166666666</v>
+      </c>
+      <c r="F358">
+        <v>36</v>
+      </c>
+      <c r="G358" t="s">
+        <v>79</v>
+      </c>
+      <c r="H358" t="s">
+        <v>84</v>
+      </c>
+      <c r="I358">
+        <v>1</v>
+      </c>
+      <c r="J358">
+        <v>1</v>
+      </c>
+      <c r="K358">
+        <v>2</v>
+      </c>
+      <c r="L358">
+        <v>2</v>
+      </c>
+      <c r="M358">
+        <v>3</v>
+      </c>
+      <c r="N358">
+        <v>5</v>
+      </c>
+      <c r="O358" t="s">
+        <v>323</v>
+      </c>
+      <c r="P358" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q358">
+        <v>5.5</v>
+      </c>
+      <c r="R358">
+        <v>2.45</v>
+      </c>
+      <c r="S358">
+        <v>1.9</v>
+      </c>
+      <c r="T358">
+        <v>1.25</v>
+      </c>
+      <c r="U358">
+        <v>3.5</v>
+      </c>
+      <c r="V358">
+        <v>2.15</v>
+      </c>
+      <c r="W358">
+        <v>1.62</v>
+      </c>
+      <c r="X358">
+        <v>4.5</v>
+      </c>
+      <c r="Y358">
+        <v>1.17</v>
+      </c>
+      <c r="Z358">
+        <v>6.05</v>
+      </c>
+      <c r="AA358">
+        <v>4.68</v>
+      </c>
+      <c r="AB358">
+        <v>1.48</v>
+      </c>
+      <c r="AC358">
+        <v>1.02</v>
+      </c>
+      <c r="AD358">
+        <v>19</v>
+      </c>
+      <c r="AE358">
+        <v>1.15</v>
+      </c>
+      <c r="AF358">
+        <v>5.17</v>
+      </c>
+      <c r="AG358">
+        <v>1.44</v>
+      </c>
+      <c r="AH358">
+        <v>2.67</v>
+      </c>
+      <c r="AI358">
+        <v>1.6</v>
+      </c>
+      <c r="AJ358">
+        <v>2.2</v>
+      </c>
+      <c r="AK358">
+        <v>2.6</v>
+      </c>
+      <c r="AL358">
+        <v>1.15</v>
+      </c>
+      <c r="AM358">
+        <v>1.11</v>
+      </c>
+      <c r="AN358">
+        <v>1.59</v>
+      </c>
+      <c r="AO358">
+        <v>2.47</v>
+      </c>
+      <c r="AP358">
+        <v>1.5</v>
+      </c>
+      <c r="AQ358">
+        <v>2.5</v>
+      </c>
+      <c r="AR358">
+        <v>1.33</v>
+      </c>
+      <c r="AS358">
+        <v>1.76</v>
+      </c>
+      <c r="AT358">
+        <v>3.09</v>
+      </c>
+      <c r="AU358">
+        <v>4</v>
+      </c>
+      <c r="AV358">
+        <v>5</v>
+      </c>
+      <c r="AW358">
+        <v>10</v>
+      </c>
+      <c r="AX358">
+        <v>14</v>
+      </c>
+      <c r="AY358">
+        <v>14</v>
+      </c>
+      <c r="AZ358">
+        <v>19</v>
+      </c>
+      <c r="BA358">
+        <v>5</v>
+      </c>
+      <c r="BB358">
+        <v>10</v>
+      </c>
+      <c r="BC358">
+        <v>15</v>
+      </c>
+      <c r="BD358">
+        <v>2.99</v>
+      </c>
+      <c r="BE358">
+        <v>9.5</v>
+      </c>
+      <c r="BF358">
+        <v>1.53</v>
+      </c>
+      <c r="BG358">
+        <v>1.23</v>
+      </c>
+      <c r="BH358">
+        <v>3.56</v>
+      </c>
+      <c r="BI358">
+        <v>1.45</v>
+      </c>
+      <c r="BJ358">
+        <v>2.55</v>
+      </c>
+      <c r="BK358">
+        <v>1.95</v>
+      </c>
+      <c r="BL358">
+        <v>1.85</v>
+      </c>
+      <c r="BM358">
+        <v>2.22</v>
+      </c>
+      <c r="BN358">
+        <v>1.66</v>
+      </c>
+      <c r="BO358">
+        <v>3.04</v>
+      </c>
+      <c r="BP358">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="359" spans="1:68">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>6956832</v>
+      </c>
+      <c r="C359" t="s">
+        <v>68</v>
+      </c>
+      <c r="D359" t="s">
+        <v>69</v>
+      </c>
+      <c r="E359" s="2">
+        <v>45424.54166666666</v>
+      </c>
+      <c r="F359">
+        <v>36</v>
+      </c>
+      <c r="G359" t="s">
+        <v>70</v>
+      </c>
+      <c r="H359" t="s">
+        <v>81</v>
+      </c>
+      <c r="I359">
+        <v>2</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="K359">
+        <v>2</v>
+      </c>
+      <c r="L359">
+        <v>3</v>
+      </c>
+      <c r="M359">
+        <v>0</v>
+      </c>
+      <c r="N359">
+        <v>3</v>
+      </c>
+      <c r="O359" t="s">
+        <v>324</v>
+      </c>
+      <c r="P359" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q359">
+        <v>1.5</v>
+      </c>
+      <c r="R359">
+        <v>2.8</v>
+      </c>
+      <c r="S359">
+        <v>10</v>
+      </c>
+      <c r="T359">
+        <v>1.22</v>
+      </c>
+      <c r="U359">
+        <v>3.9</v>
+      </c>
+      <c r="V359">
+        <v>2</v>
+      </c>
+      <c r="W359">
+        <v>1.73</v>
+      </c>
+      <c r="X359">
+        <v>4</v>
+      </c>
+      <c r="Y359">
+        <v>1.2</v>
+      </c>
+      <c r="Z359">
+        <v>1.14</v>
+      </c>
+      <c r="AA359">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB359">
+        <v>17</v>
+      </c>
+      <c r="AC359">
+        <v>1.01</v>
+      </c>
+      <c r="AD359">
+        <v>26</v>
+      </c>
+      <c r="AE359">
+        <v>1.09</v>
+      </c>
+      <c r="AF359">
+        <v>6.89</v>
+      </c>
+      <c r="AG359">
+        <v>1.39</v>
+      </c>
+      <c r="AH359">
+        <v>2.86</v>
+      </c>
+      <c r="AI359">
+        <v>2.05</v>
+      </c>
+      <c r="AJ359">
+        <v>1.7</v>
+      </c>
+      <c r="AK359">
+        <v>1.02</v>
+      </c>
+      <c r="AL359">
+        <v>1.08</v>
+      </c>
+      <c r="AM359">
+        <v>5</v>
+      </c>
+      <c r="AN359">
+        <v>1.82</v>
+      </c>
+      <c r="AO359">
+        <v>0.59</v>
+      </c>
+      <c r="AP359">
+        <v>1.89</v>
+      </c>
+      <c r="AQ359">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR359">
+        <v>1.67</v>
+      </c>
+      <c r="AS359">
+        <v>1.11</v>
+      </c>
+      <c r="AT359">
+        <v>2.78</v>
+      </c>
+      <c r="AU359">
+        <v>3</v>
+      </c>
+      <c r="AV359">
+        <v>5</v>
+      </c>
+      <c r="AW359">
+        <v>3</v>
+      </c>
+      <c r="AX359">
+        <v>7</v>
+      </c>
+      <c r="AY359">
+        <v>6</v>
+      </c>
+      <c r="AZ359">
+        <v>12</v>
+      </c>
+      <c r="BA359">
+        <v>7</v>
+      </c>
+      <c r="BB359">
+        <v>12</v>
+      </c>
+      <c r="BC359">
+        <v>19</v>
+      </c>
+      <c r="BD359">
+        <v>1.1</v>
+      </c>
+      <c r="BE359">
+        <v>15</v>
+      </c>
+      <c r="BF359">
+        <v>8.4</v>
+      </c>
+      <c r="BG359">
+        <v>1.18</v>
+      </c>
+      <c r="BH359">
+        <v>4.05</v>
+      </c>
+      <c r="BI359">
+        <v>1.36</v>
+      </c>
+      <c r="BJ359">
+        <v>2.79</v>
+      </c>
+      <c r="BK359">
+        <v>1.82</v>
+      </c>
+      <c r="BL359">
+        <v>1.98</v>
+      </c>
+      <c r="BM359">
+        <v>2.04</v>
+      </c>
+      <c r="BN359">
+        <v>1.78</v>
+      </c>
+      <c r="BO359">
+        <v>2.72</v>
+      </c>
+      <c r="BP359">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:68">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>6956831</v>
+      </c>
+      <c r="C360" t="s">
+        <v>68</v>
+      </c>
+      <c r="D360" t="s">
+        <v>69</v>
+      </c>
+      <c r="E360" s="2">
+        <v>45424.54166666666</v>
+      </c>
+      <c r="F360">
+        <v>36</v>
+      </c>
+      <c r="G360" t="s">
+        <v>77</v>
+      </c>
+      <c r="H360" t="s">
+        <v>73</v>
+      </c>
+      <c r="I360">
+        <v>2</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360">
+        <v>2</v>
+      </c>
+      <c r="L360">
+        <v>3</v>
+      </c>
+      <c r="M360">
+        <v>0</v>
+      </c>
+      <c r="N360">
+        <v>3</v>
+      </c>
+      <c r="O360" t="s">
+        <v>325</v>
+      </c>
+      <c r="P360" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q360">
+        <v>1.46</v>
+      </c>
+      <c r="R360">
+        <v>3.6</v>
+      </c>
+      <c r="S360">
+        <v>10.66</v>
+      </c>
+      <c r="T360">
+        <v>1.17</v>
+      </c>
+      <c r="U360">
+        <v>4.7</v>
+      </c>
+      <c r="V360">
+        <v>1.83</v>
+      </c>
+      <c r="W360">
+        <v>2.01</v>
+      </c>
+      <c r="X360">
+        <v>3.64</v>
+      </c>
+      <c r="Y360">
+        <v>1.26</v>
+      </c>
+      <c r="Z360">
+        <v>1.14</v>
+      </c>
+      <c r="AA360">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB360">
+        <v>15</v>
+      </c>
+      <c r="AC360">
+        <v>1.01</v>
+      </c>
+      <c r="AD360">
+        <v>34</v>
+      </c>
+      <c r="AE360">
+        <v>1.06</v>
+      </c>
+      <c r="AF360">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="AG360">
+        <v>1.28</v>
+      </c>
+      <c r="AH360">
+        <v>3.47</v>
+      </c>
+      <c r="AI360">
+        <v>1.81</v>
+      </c>
+      <c r="AJ360">
+        <v>1.93</v>
+      </c>
+      <c r="AK360">
+        <v>1.02</v>
+      </c>
+      <c r="AL360">
+        <v>1.08</v>
+      </c>
+      <c r="AM360">
+        <v>5.05</v>
+      </c>
+      <c r="AN360">
+        <v>2.47</v>
+      </c>
+      <c r="AO360">
+        <v>1.12</v>
+      </c>
+      <c r="AP360">
+        <v>2.5</v>
+      </c>
+      <c r="AQ360">
+        <v>1.06</v>
+      </c>
+      <c r="AR360">
+        <v>1.92</v>
+      </c>
+      <c r="AS360">
+        <v>1.18</v>
+      </c>
+      <c r="AT360">
+        <v>3.1</v>
+      </c>
+      <c r="AU360">
+        <v>12</v>
+      </c>
+      <c r="AV360">
+        <v>4</v>
+      </c>
+      <c r="AW360">
+        <v>7</v>
+      </c>
+      <c r="AX360">
+        <v>4</v>
+      </c>
+      <c r="AY360">
+        <v>19</v>
+      </c>
+      <c r="AZ360">
+        <v>8</v>
+      </c>
+      <c r="BA360">
+        <v>7</v>
+      </c>
+      <c r="BB360">
+        <v>3</v>
+      </c>
+      <c r="BC360">
+        <v>10</v>
+      </c>
+      <c r="BD360">
+        <v>1.11</v>
+      </c>
+      <c r="BE360">
+        <v>14.25</v>
+      </c>
+      <c r="BF360">
+        <v>8.4</v>
+      </c>
+      <c r="BG360">
+        <v>1.31</v>
+      </c>
+      <c r="BH360">
+        <v>3.04</v>
+      </c>
+      <c r="BI360">
+        <v>1.57</v>
+      </c>
+      <c r="BJ360">
+        <v>2.36</v>
+      </c>
+      <c r="BK360">
+        <v>1.94</v>
+      </c>
+      <c r="BL360">
+        <v>1.86</v>
+      </c>
+      <c r="BM360">
+        <v>2.42</v>
+      </c>
+      <c r="BN360">
+        <v>1.54</v>
+      </c>
+      <c r="BO360">
+        <v>3.56</v>
+      </c>
+      <c r="BP360">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="361" spans="1:68">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>6956835</v>
+      </c>
+      <c r="C361" t="s">
+        <v>68</v>
+      </c>
+      <c r="D361" t="s">
+        <v>69</v>
+      </c>
+      <c r="E361" s="2">
+        <v>45424.54166666666</v>
+      </c>
+      <c r="F361">
+        <v>36</v>
+      </c>
+      <c r="G361" t="s">
+        <v>76</v>
+      </c>
+      <c r="H361" t="s">
+        <v>86</v>
+      </c>
+      <c r="I361">
+        <v>1</v>
+      </c>
+      <c r="J361">
+        <v>3</v>
+      </c>
+      <c r="K361">
+        <v>4</v>
+      </c>
+      <c r="L361">
+        <v>1</v>
+      </c>
+      <c r="M361">
+        <v>6</v>
+      </c>
+      <c r="N361">
+        <v>7</v>
+      </c>
+      <c r="O361" t="s">
+        <v>238</v>
+      </c>
+      <c r="P361" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q361">
+        <v>2.71</v>
+      </c>
+      <c r="R361">
+        <v>2.38</v>
+      </c>
+      <c r="S361">
+        <v>3.93</v>
+      </c>
+      <c r="T361">
+        <v>1.34</v>
+      </c>
+      <c r="U361">
+        <v>3.37</v>
+      </c>
+      <c r="V361">
+        <v>2.65</v>
+      </c>
+      <c r="W361">
+        <v>1.5</v>
+      </c>
+      <c r="X361">
+        <v>6.15</v>
+      </c>
+      <c r="Y361">
+        <v>1.1</v>
+      </c>
+      <c r="Z361">
+        <v>1.97</v>
+      </c>
+      <c r="AA361">
+        <v>3.7</v>
+      </c>
+      <c r="AB361">
+        <v>3.64</v>
+      </c>
+      <c r="AC361">
+        <v>1.04</v>
+      </c>
+      <c r="AD361">
+        <v>10.5</v>
+      </c>
+      <c r="AE361">
+        <v>1.21</v>
+      </c>
+      <c r="AF361">
+        <v>3.75</v>
+      </c>
+      <c r="AG361">
+        <v>1.74</v>
+      </c>
+      <c r="AH361">
+        <v>2.09</v>
+      </c>
+      <c r="AI361">
+        <v>1.62</v>
+      </c>
+      <c r="AJ361">
+        <v>2.2</v>
+      </c>
+      <c r="AK361">
+        <v>1.33</v>
+      </c>
+      <c r="AL361">
+        <v>1.29</v>
+      </c>
+      <c r="AM361">
+        <v>1.75</v>
+      </c>
+      <c r="AN361">
+        <v>1.82</v>
+      </c>
+      <c r="AO361">
+        <v>0.82</v>
+      </c>
+      <c r="AP361">
+        <v>1.72</v>
+      </c>
+      <c r="AQ361">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR361">
+        <v>1.5</v>
+      </c>
+      <c r="AS361">
+        <v>1.25</v>
+      </c>
+      <c r="AT361">
+        <v>2.75</v>
+      </c>
+      <c r="AU361">
+        <v>4</v>
+      </c>
+      <c r="AV361">
+        <v>6</v>
+      </c>
+      <c r="AW361">
+        <v>1</v>
+      </c>
+      <c r="AX361">
+        <v>4</v>
+      </c>
+      <c r="AY361">
+        <v>5</v>
+      </c>
+      <c r="AZ361">
+        <v>10</v>
+      </c>
+      <c r="BA361">
+        <v>0</v>
+      </c>
+      <c r="BB361">
+        <v>2</v>
+      </c>
+      <c r="BC361">
+        <v>2</v>
+      </c>
+      <c r="BD361">
+        <v>1.68</v>
+      </c>
+      <c r="BE361">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF361">
+        <v>2.57</v>
+      </c>
+      <c r="BG361">
+        <v>1.19</v>
+      </c>
+      <c r="BH361">
+        <v>3.95</v>
+      </c>
+      <c r="BI361">
+        <v>1.39</v>
+      </c>
+      <c r="BJ361">
+        <v>2.76</v>
+      </c>
+      <c r="BK361">
+        <v>1.74</v>
+      </c>
+      <c r="BL361">
+        <v>2.08</v>
+      </c>
+      <c r="BM361">
+        <v>2.15</v>
+      </c>
+      <c r="BN361">
+        <v>1.69</v>
+      </c>
+      <c r="BO361">
+        <v>2.78</v>
+      </c>
+      <c r="BP361">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
@@ -74225,22 +74225,22 @@
         <v>2.5</v>
       </c>
       <c r="AU352">
+        <v>7</v>
+      </c>
+      <c r="AV352">
         <v>3</v>
-      </c>
-      <c r="AV352">
-        <v>4</v>
       </c>
       <c r="AW352">
         <v>5</v>
       </c>
       <c r="AX352">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY352">
+        <v>12</v>
+      </c>
+      <c r="AZ352">
         <v>8</v>
-      </c>
-      <c r="AZ352">
-        <v>10</v>
       </c>
       <c r="BA352">
         <v>7</v>
@@ -74431,22 +74431,22 @@
         <v>2.69</v>
       </c>
       <c r="AU353">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV353">
         <v>3</v>
       </c>
       <c r="AW353">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX353">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY353">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ353">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA353">
         <v>3</v>
@@ -74637,7 +74637,7 @@
         <v>2.8</v>
       </c>
       <c r="AU354">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV354">
         <v>2</v>
@@ -74646,13 +74646,13 @@
         <v>4</v>
       </c>
       <c r="AX354">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY354">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ354">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA354">
         <v>4</v>
@@ -74846,7 +74846,7 @@
         <v>3</v>
       </c>
       <c r="AV355">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW355">
         <v>4</v>
@@ -74858,7 +74858,7 @@
         <v>7</v>
       </c>
       <c r="AZ355">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA355">
         <v>10</v>
@@ -75055,16 +75055,16 @@
         <v>6</v>
       </c>
       <c r="AW356">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX356">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY356">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ356">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA356">
         <v>2</v>
@@ -75255,7 +75255,7 @@
         <v>2.55</v>
       </c>
       <c r="AU357">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV357">
         <v>0</v>
@@ -75264,13 +75264,13 @@
         <v>1</v>
       </c>
       <c r="AX357">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY357">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ357">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA357">
         <v>5</v>
@@ -75461,22 +75461,22 @@
         <v>3.09</v>
       </c>
       <c r="AU358">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV358">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW358">
         <v>10</v>
       </c>
       <c r="AX358">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY358">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ358">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA358">
         <v>5</v>
@@ -75667,10 +75667,10 @@
         <v>2.78</v>
       </c>
       <c r="AU359">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV359">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW359">
         <v>3</v>
@@ -75679,10 +75679,10 @@
         <v>7</v>
       </c>
       <c r="AY359">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ359">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA359">
         <v>7</v>
@@ -75873,22 +75873,22 @@
         <v>3.1</v>
       </c>
       <c r="AU360">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AV360">
         <v>4</v>
       </c>
       <c r="AW360">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX360">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY360">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ360">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA360">
         <v>7</v>
@@ -76079,22 +76079,22 @@
         <v>2.75</v>
       </c>
       <c r="AU361">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV361">
+        <v>10</v>
+      </c>
+      <c r="AW361">
+        <v>1</v>
+      </c>
+      <c r="AX361">
         <v>6</v>
       </c>
-      <c r="AW361">
-        <v>1</v>
-      </c>
-      <c r="AX361">
-        <v>4</v>
-      </c>
       <c r="AY361">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ361">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA361">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="475">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -997,6 +997,18 @@
     <t>['30', '74']</t>
   </si>
   <si>
+    <t>['32', '77']</t>
+  </si>
+  <si>
+    <t>['50', '90+7']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['47', '90', '90+9']</t>
+  </si>
+  <si>
     <t>['73', '78']</t>
   </si>
   <si>
@@ -1004,9 +1016,6 @@
   </si>
   <si>
     <t>['45+5']</t>
-  </si>
-  <si>
-    <t>['60']</t>
   </si>
   <si>
     <t>['77']</t>
@@ -1422,6 +1431,15 @@
   <si>
     <t>['65']</t>
   </si>
+  <si>
+    <t>['36', '74']</t>
+  </si>
+  <si>
+    <t>['26', '55']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
 </sst>
 </file>
 
@@ -1782,7 +1800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP363"/>
+  <dimension ref="A1:BP370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2247,7 +2265,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q3">
         <v>2.85</v>
@@ -2737,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ5">
         <v>2.5</v>
@@ -2865,7 +2883,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2946,7 +2964,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3483,7 +3501,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q9">
         <v>1.67</v>
@@ -4101,7 +4119,7 @@
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -4182,7 +4200,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ12">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4307,7 +4325,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -4591,10 +4609,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4800,7 +4818,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5006,7 +5024,7 @@
         <v>3</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5131,7 +5149,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -5209,10 +5227,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ17">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5337,7 +5355,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q18">
         <v>2.8</v>
@@ -5415,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ18">
         <v>1.32</v>
@@ -5543,7 +5561,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q19">
         <v>1.68</v>
@@ -5621,10 +5639,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ19">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5827,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ20">
         <v>0.68</v>
@@ -5955,7 +5973,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -6033,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AQ21">
         <v>2.67</v>
@@ -6367,7 +6385,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q23">
         <v>2.3</v>
@@ -6448,7 +6466,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ23">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR23">
         <v>1.99</v>
@@ -6573,7 +6591,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -7063,7 +7081,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ26">
         <v>0.44</v>
@@ -7191,7 +7209,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q27">
         <v>2.85</v>
@@ -7478,7 +7496,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ28">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR28">
         <v>1.64</v>
@@ -7681,10 +7699,10 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR29">
         <v>0.98</v>
@@ -7809,7 +7827,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7890,7 +7908,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR30">
         <v>1.6</v>
@@ -8093,10 +8111,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ31">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR31">
         <v>1.59</v>
@@ -8302,7 +8320,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ32">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR32">
         <v>1.16</v>
@@ -8427,7 +8445,7 @@
         <v>93</v>
       </c>
       <c r="P33" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -8505,7 +8523,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ33">
         <v>2.5</v>
@@ -8917,7 +8935,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ35">
         <v>1.32</v>
@@ -9045,7 +9063,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q36">
         <v>3.7</v>
@@ -9251,7 +9269,7 @@
         <v>93</v>
       </c>
       <c r="P37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q37">
         <v>4.5</v>
@@ -9329,7 +9347,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ37">
         <v>2.67</v>
@@ -9535,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ38">
         <v>0.9399999999999999</v>
@@ -9663,7 +9681,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q39">
         <v>2.55</v>
@@ -9950,7 +9968,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ40">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR40">
         <v>1.42</v>
@@ -10075,7 +10093,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q41">
         <v>1.77</v>
@@ -10281,7 +10299,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q42">
         <v>1.9</v>
@@ -10487,7 +10505,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q43">
         <v>3.6</v>
@@ -10899,7 +10917,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q45">
         <v>2.7</v>
@@ -10980,7 +10998,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ45">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR45">
         <v>1.98</v>
@@ -11186,7 +11204,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR46">
         <v>0.63</v>
@@ -11311,7 +11329,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11595,7 +11613,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ48">
         <v>0.5600000000000001</v>
@@ -11804,7 +11822,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ49">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR49">
         <v>1.21</v>
@@ -12007,7 +12025,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>1.32</v>
@@ -12135,7 +12153,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q51">
         <v>4.33</v>
@@ -12213,7 +12231,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ51">
         <v>2.5</v>
@@ -12625,7 +12643,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ53">
         <v>1.06</v>
@@ -12753,7 +12771,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q54">
         <v>2.83</v>
@@ -12831,10 +12849,10 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ54">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR54">
         <v>1.27</v>
@@ -13452,7 +13470,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ57">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR57">
         <v>1.26</v>
@@ -13783,7 +13801,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -14195,7 +14213,7 @@
         <v>94</v>
       </c>
       <c r="P61" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q61">
         <v>2.8</v>
@@ -14273,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AQ61">
         <v>0.9399999999999999</v>
@@ -14482,7 +14500,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ62">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR62">
         <v>1.1</v>
@@ -14607,7 +14625,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q63">
         <v>3.3</v>
@@ -14894,7 +14912,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ64">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR64">
         <v>1.49</v>
@@ -15225,7 +15243,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q66">
         <v>2.9</v>
@@ -15306,7 +15324,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ66">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR66">
         <v>0.74</v>
@@ -15637,7 +15655,7 @@
         <v>93</v>
       </c>
       <c r="P68" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15924,7 +15942,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ69">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR69">
         <v>1.68</v>
@@ -16127,7 +16145,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ70">
         <v>1.39</v>
@@ -16336,7 +16354,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ71">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR71">
         <v>1.5</v>
@@ -16542,7 +16560,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ72">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR72">
         <v>1.72</v>
@@ -16667,7 +16685,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16951,7 +16969,7 @@
         <v>0.67</v>
       </c>
       <c r="AP74">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ74">
         <v>1.06</v>
@@ -17157,7 +17175,7 @@
         <v>0.75</v>
       </c>
       <c r="AP75">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ75">
         <v>0.9399999999999999</v>
@@ -17285,7 +17303,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q76">
         <v>4.96</v>
@@ -17569,7 +17587,7 @@
         <v>0.25</v>
       </c>
       <c r="AP77">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ77">
         <v>0.44</v>
@@ -17775,7 +17793,7 @@
         <v>0.5</v>
       </c>
       <c r="AP78">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ78">
         <v>0.5600000000000001</v>
@@ -17984,7 +18002,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ79">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR79">
         <v>1.18</v>
@@ -18109,7 +18127,7 @@
         <v>93</v>
       </c>
       <c r="P80" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18315,7 +18333,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -18393,7 +18411,7 @@
         <v>1.5</v>
       </c>
       <c r="AP81">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ81">
         <v>0.67</v>
@@ -18599,7 +18617,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ82">
         <v>0.89</v>
@@ -18727,7 +18745,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q83">
         <v>2.3</v>
@@ -18808,7 +18826,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ83">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR83">
         <v>1.38</v>
@@ -18933,7 +18951,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q84">
         <v>2.2</v>
@@ -19220,7 +19238,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ85">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR85">
         <v>1.16</v>
@@ -19629,7 +19647,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AQ87">
         <v>1.39</v>
@@ -19757,7 +19775,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q88">
         <v>1.62</v>
@@ -19838,7 +19856,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ88">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR88">
         <v>2.18</v>
@@ -20044,7 +20062,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ89">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR89">
         <v>1.39</v>
@@ -20375,7 +20393,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20581,7 +20599,7 @@
         <v>156</v>
       </c>
       <c r="P92" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q92">
         <v>2.3</v>
@@ -20787,7 +20805,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q93">
         <v>2.6</v>
@@ -21071,7 +21089,7 @@
         <v>2.6</v>
       </c>
       <c r="AP94">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ94">
         <v>2.5</v>
@@ -21280,7 +21298,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ95">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR95">
         <v>1.74</v>
@@ -21486,7 +21504,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ96">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR96">
         <v>1.11</v>
@@ -21689,7 +21707,7 @@
         <v>0.2</v>
       </c>
       <c r="AP97">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ97">
         <v>0.44</v>
@@ -22023,7 +22041,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q99">
         <v>6.5</v>
@@ -22307,7 +22325,7 @@
         <v>0.6</v>
       </c>
       <c r="AP100">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ100">
         <v>0.9399999999999999</v>
@@ -22516,7 +22534,7 @@
         <v>3</v>
       </c>
       <c r="AQ101">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR101">
         <v>2.15</v>
@@ -22641,7 +22659,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q102">
         <v>2.85</v>
@@ -22722,7 +22740,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ102">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR102">
         <v>0.84</v>
@@ -22925,10 +22943,10 @@
         <v>1.2</v>
       </c>
       <c r="AP103">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AQ103">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR103">
         <v>1.19</v>
@@ -23053,7 +23071,7 @@
         <v>165</v>
       </c>
       <c r="P104" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q104">
         <v>1.79</v>
@@ -23134,7 +23152,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ104">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR104">
         <v>2.09</v>
@@ -23259,7 +23277,7 @@
         <v>166</v>
       </c>
       <c r="P105" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -23465,7 +23483,7 @@
         <v>167</v>
       </c>
       <c r="P106" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q106">
         <v>2.9</v>
@@ -23543,7 +23561,7 @@
         <v>0.8</v>
       </c>
       <c r="AP106">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ106">
         <v>0.72</v>
@@ -23752,7 +23770,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ107">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR107">
         <v>1.49</v>
@@ -23877,7 +23895,7 @@
         <v>169</v>
       </c>
       <c r="P108" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q108">
         <v>3.72</v>
@@ -24161,10 +24179,10 @@
         <v>0.5</v>
       </c>
       <c r="AP109">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ109">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR109">
         <v>1.36</v>
@@ -24367,7 +24385,7 @@
         <v>1.2</v>
       </c>
       <c r="AP110">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ110">
         <v>0.67</v>
@@ -24495,7 +24513,7 @@
         <v>171</v>
       </c>
       <c r="P111" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24573,7 +24591,7 @@
         <v>0.25</v>
       </c>
       <c r="AP111">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AQ111">
         <v>0.5600000000000001</v>
@@ -24701,7 +24719,7 @@
         <v>172</v>
       </c>
       <c r="P112" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q112">
         <v>2.15</v>
@@ -24782,7 +24800,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ112">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR112">
         <v>1.39</v>
@@ -24907,7 +24925,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -24985,7 +25003,7 @@
         <v>0.8</v>
       </c>
       <c r="AP113">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ113">
         <v>0.89</v>
@@ -25113,7 +25131,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q114">
         <v>2.8</v>
@@ -25319,7 +25337,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q115">
         <v>2.8</v>
@@ -25731,7 +25749,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q117">
         <v>5.75</v>
@@ -26221,7 +26239,7 @@
         <v>0.83</v>
       </c>
       <c r="AP119">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ119">
         <v>1.39</v>
@@ -26427,7 +26445,7 @@
         <v>0.2</v>
       </c>
       <c r="AP120">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ120">
         <v>0.5600000000000001</v>
@@ -26842,7 +26860,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ122">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR122">
         <v>0.97</v>
@@ -27048,7 +27066,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ123">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR123">
         <v>1.43</v>
@@ -27173,7 +27191,7 @@
         <v>93</v>
       </c>
       <c r="P124" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q124">
         <v>2.88</v>
@@ -27251,7 +27269,7 @@
         <v>0.83</v>
       </c>
       <c r="AP124">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ124">
         <v>0.72</v>
@@ -27460,7 +27478,7 @@
         <v>3</v>
       </c>
       <c r="AQ125">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR125">
         <v>2.02</v>
@@ -27663,7 +27681,7 @@
         <v>0.6</v>
       </c>
       <c r="AP126">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ126">
         <v>0.68</v>
@@ -27791,7 +27809,7 @@
         <v>183</v>
       </c>
       <c r="P127" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27869,7 +27887,7 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AQ127">
         <v>1.22</v>
@@ -28284,7 +28302,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ129">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR129">
         <v>1.98</v>
@@ -28487,10 +28505,10 @@
         <v>1.33</v>
       </c>
       <c r="AP130">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ130">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR130">
         <v>1.12</v>
@@ -28615,7 +28633,7 @@
         <v>186</v>
       </c>
       <c r="P131" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -28696,7 +28714,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ131">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR131">
         <v>1.5</v>
@@ -29027,7 +29045,7 @@
         <v>188</v>
       </c>
       <c r="P133" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q133">
         <v>3.42</v>
@@ -29233,7 +29251,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q134">
         <v>2.88</v>
@@ -29314,7 +29332,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ134">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR134">
         <v>1.39</v>
@@ -29439,7 +29457,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29517,7 +29535,7 @@
         <v>0.71</v>
       </c>
       <c r="AP135">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ135">
         <v>1.39</v>
@@ -29645,7 +29663,7 @@
         <v>191</v>
       </c>
       <c r="P136" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q136">
         <v>2.05</v>
@@ -29851,7 +29869,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q137">
         <v>6.5</v>
@@ -30057,7 +30075,7 @@
         <v>192</v>
       </c>
       <c r="P138" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q138">
         <v>2.48</v>
@@ -30469,7 +30487,7 @@
         <v>193</v>
       </c>
       <c r="P140" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q140">
         <v>4.05</v>
@@ -30547,7 +30565,7 @@
         <v>1.29</v>
       </c>
       <c r="AP140">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ140">
         <v>1.22</v>
@@ -30881,7 +30899,7 @@
         <v>195</v>
       </c>
       <c r="P142" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q142">
         <v>1.67</v>
@@ -31168,7 +31186,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ143">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR143">
         <v>1.39</v>
@@ -31293,7 +31311,7 @@
         <v>197</v>
       </c>
       <c r="P144" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q144">
         <v>2.7</v>
@@ -31371,10 +31389,10 @@
         <v>1.33</v>
       </c>
       <c r="AP144">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AQ144">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR144">
         <v>1.37</v>
@@ -31499,7 +31517,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -31577,7 +31595,7 @@
         <v>2.67</v>
       </c>
       <c r="AP145">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ145">
         <v>2.67</v>
@@ -31786,7 +31804,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ146">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR146">
         <v>1.12</v>
@@ -31989,10 +32007,10 @@
         <v>1.14</v>
       </c>
       <c r="AP147">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ147">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR147">
         <v>1.41</v>
@@ -32195,10 +32213,10 @@
         <v>0.86</v>
       </c>
       <c r="AP148">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ148">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR148">
         <v>1.19</v>
@@ -32323,7 +32341,7 @@
         <v>144</v>
       </c>
       <c r="P149" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q149">
         <v>3.6</v>
@@ -32401,10 +32419,10 @@
         <v>1.14</v>
       </c>
       <c r="AP149">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ149">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR149">
         <v>1.32</v>
@@ -32529,7 +32547,7 @@
         <v>93</v>
       </c>
       <c r="P150" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q150">
         <v>2.48</v>
@@ -32813,7 +32831,7 @@
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ151">
         <v>0.67</v>
@@ -33019,7 +33037,7 @@
         <v>1.63</v>
       </c>
       <c r="AP152">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ152">
         <v>1.32</v>
@@ -33147,7 +33165,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q153">
         <v>4.9</v>
@@ -33228,7 +33246,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ153">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR153">
         <v>1.11</v>
@@ -33353,7 +33371,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q154">
         <v>3.41</v>
@@ -33431,7 +33449,7 @@
         <v>0.57</v>
       </c>
       <c r="AP154">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ154">
         <v>0.68</v>
@@ -33559,7 +33577,7 @@
         <v>204</v>
       </c>
       <c r="P155" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q155">
         <v>5.5</v>
@@ -33637,7 +33655,7 @@
         <v>2.71</v>
       </c>
       <c r="AP155">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ155">
         <v>2.67</v>
@@ -33846,7 +33864,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ156">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR156">
         <v>1.29</v>
@@ -34052,7 +34070,7 @@
         <v>3</v>
       </c>
       <c r="AQ157">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR157">
         <v>2.19</v>
@@ -34255,10 +34273,10 @@
         <v>1</v>
       </c>
       <c r="AP158">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ158">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR158">
         <v>1.3</v>
@@ -34461,10 +34479,10 @@
         <v>0.86</v>
       </c>
       <c r="AP159">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AQ159">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR159">
         <v>1.39</v>
@@ -34667,10 +34685,10 @@
         <v>0.75</v>
       </c>
       <c r="AP160">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ160">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR160">
         <v>1.26</v>
@@ -34795,7 +34813,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -34873,10 +34891,10 @@
         <v>0.71</v>
       </c>
       <c r="AP161">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ161">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR161">
         <v>1.71</v>
@@ -35207,7 +35225,7 @@
         <v>93</v>
       </c>
       <c r="P163" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -36237,7 +36255,7 @@
         <v>210</v>
       </c>
       <c r="P168" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q168">
         <v>2.55</v>
@@ -36855,7 +36873,7 @@
         <v>144</v>
       </c>
       <c r="P171" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q171">
         <v>3.7</v>
@@ -37061,7 +37079,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q172">
         <v>2.6</v>
@@ -37139,10 +37157,10 @@
         <v>0.89</v>
       </c>
       <c r="AP172">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ172">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR172">
         <v>1.31</v>
@@ -37348,7 +37366,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ173">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR173">
         <v>1.26</v>
@@ -37473,7 +37491,7 @@
         <v>123</v>
       </c>
       <c r="P174" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q174">
         <v>2.05</v>
@@ -37551,10 +37569,10 @@
         <v>1.13</v>
       </c>
       <c r="AP174">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ174">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR174">
         <v>1.68</v>
@@ -37757,10 +37775,10 @@
         <v>0.78</v>
       </c>
       <c r="AP175">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ175">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR175">
         <v>1.3</v>
@@ -37963,7 +37981,7 @@
         <v>0.63</v>
       </c>
       <c r="AP176">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ176">
         <v>0.68</v>
@@ -38169,10 +38187,10 @@
         <v>0.63</v>
       </c>
       <c r="AP177">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AQ177">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR177">
         <v>1.37</v>
@@ -38375,10 +38393,10 @@
         <v>1.56</v>
       </c>
       <c r="AP178">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ178">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR178">
         <v>1.25</v>
@@ -38503,7 +38521,7 @@
         <v>104</v>
       </c>
       <c r="P179" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q179">
         <v>2.6</v>
@@ -38581,7 +38599,7 @@
         <v>1.44</v>
       </c>
       <c r="AP179">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ179">
         <v>1.32</v>
@@ -38709,7 +38727,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q180">
         <v>9</v>
@@ -38996,7 +39014,7 @@
         <v>3</v>
       </c>
       <c r="AQ181">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR181">
         <v>2.17</v>
@@ -39327,7 +39345,7 @@
         <v>93</v>
       </c>
       <c r="P183" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q183">
         <v>3.8</v>
@@ -39533,7 +39551,7 @@
         <v>93</v>
       </c>
       <c r="P184" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39611,7 +39629,7 @@
         <v>1.44</v>
       </c>
       <c r="AP184">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ184">
         <v>1.22</v>
@@ -39739,7 +39757,7 @@
         <v>93</v>
       </c>
       <c r="P185" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q185">
         <v>3.19</v>
@@ -40357,7 +40375,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q188">
         <v>1.65</v>
@@ -40438,7 +40456,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ188">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR188">
         <v>1.67</v>
@@ -40563,7 +40581,7 @@
         <v>221</v>
       </c>
       <c r="P189" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q189">
         <v>1.8</v>
@@ -41181,7 +41199,7 @@
         <v>176</v>
       </c>
       <c r="P192" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -41262,7 +41280,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ192">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR192">
         <v>1.37</v>
@@ -41465,10 +41483,10 @@
         <v>1.33</v>
       </c>
       <c r="AP193">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ193">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR193">
         <v>1.28</v>
@@ -41593,7 +41611,7 @@
         <v>224</v>
       </c>
       <c r="P194" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q194">
         <v>2.69</v>
@@ -41671,10 +41689,10 @@
         <v>1</v>
       </c>
       <c r="AP194">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ194">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR194">
         <v>1.24</v>
@@ -41877,7 +41895,7 @@
         <v>0.67</v>
       </c>
       <c r="AP195">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ195">
         <v>0.68</v>
@@ -42083,10 +42101,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP196">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ196">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR196">
         <v>1.6</v>
@@ -42292,7 +42310,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ197">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR197">
         <v>1.15</v>
@@ -42417,7 +42435,7 @@
         <v>155</v>
       </c>
       <c r="P198" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q198">
         <v>3.2</v>
@@ -42498,7 +42516,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ198">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR198">
         <v>1.25</v>
@@ -42701,7 +42719,7 @@
         <v>1.6</v>
       </c>
       <c r="AP199">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AQ199">
         <v>1.32</v>
@@ -42907,7 +42925,7 @@
         <v>2.78</v>
       </c>
       <c r="AP200">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ200">
         <v>2.67</v>
@@ -43035,7 +43053,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q201">
         <v>1.68</v>
@@ -43322,7 +43340,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ202">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR202">
         <v>1.67</v>
@@ -43447,7 +43465,7 @@
         <v>229</v>
       </c>
       <c r="P203" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43653,7 +43671,7 @@
         <v>230</v>
       </c>
       <c r="P204" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q204">
         <v>2.88</v>
@@ -43859,7 +43877,7 @@
         <v>231</v>
       </c>
       <c r="P205" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q205">
         <v>2.7</v>
@@ -44271,7 +44289,7 @@
         <v>233</v>
       </c>
       <c r="P207" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q207">
         <v>2.55</v>
@@ -44477,7 +44495,7 @@
         <v>103</v>
       </c>
       <c r="P208" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q208">
         <v>1.66</v>
@@ -44683,7 +44701,7 @@
         <v>234</v>
       </c>
       <c r="P209" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q209">
         <v>3.63</v>
@@ -44889,7 +44907,7 @@
         <v>235</v>
       </c>
       <c r="P210" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="Q210">
         <v>4.5</v>
@@ -45173,7 +45191,7 @@
         <v>0.22</v>
       </c>
       <c r="AP211">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ211">
         <v>0.5600000000000001</v>
@@ -45382,7 +45400,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ212">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR212">
         <v>1.35</v>
@@ -45507,7 +45525,7 @@
         <v>236</v>
       </c>
       <c r="P213" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q213">
         <v>3.1</v>
@@ -45588,7 +45606,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ213">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR213">
         <v>1.15</v>
@@ -45791,7 +45809,7 @@
         <v>0.6</v>
       </c>
       <c r="AP214">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ214">
         <v>0.68</v>
@@ -45997,10 +46015,10 @@
         <v>0.5</v>
       </c>
       <c r="AP215">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ215">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR215">
         <v>1.31</v>
@@ -46203,10 +46221,10 @@
         <v>0.73</v>
       </c>
       <c r="AP216">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ216">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR216">
         <v>1.25</v>
@@ -46537,7 +46555,7 @@
         <v>93</v>
       </c>
       <c r="P218" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q218">
         <v>5.25</v>
@@ -46615,7 +46633,7 @@
         <v>2.8</v>
       </c>
       <c r="AP218">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ218">
         <v>2.67</v>
@@ -46821,7 +46839,7 @@
         <v>1.1</v>
       </c>
       <c r="AP219">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AQ219">
         <v>1.06</v>
@@ -46949,7 +46967,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q220">
         <v>1.5</v>
@@ -47233,10 +47251,10 @@
         <v>1.64</v>
       </c>
       <c r="AP221">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ221">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR221">
         <v>1.36</v>
@@ -47442,7 +47460,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ222">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR222">
         <v>1.5</v>
@@ -47648,7 +47666,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ223">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR223">
         <v>1.45</v>
@@ -47773,7 +47791,7 @@
         <v>243</v>
       </c>
       <c r="P224" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="Q224">
         <v>3.1</v>
@@ -48597,7 +48615,7 @@
         <v>153</v>
       </c>
       <c r="P228" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="Q228">
         <v>3.2</v>
@@ -48881,7 +48899,7 @@
         <v>1.2</v>
       </c>
       <c r="AP229">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ229">
         <v>0.89</v>
@@ -49215,7 +49233,7 @@
         <v>249</v>
       </c>
       <c r="P231" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q231">
         <v>2.2</v>
@@ -49296,7 +49314,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ231">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR231">
         <v>1.47</v>
@@ -49499,7 +49517,7 @@
         <v>1.33</v>
       </c>
       <c r="AP232">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ232">
         <v>1.32</v>
@@ -49708,7 +49726,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ233">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR233">
         <v>1.28</v>
@@ -49833,7 +49851,7 @@
         <v>93</v>
       </c>
       <c r="P234" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q234">
         <v>4.6</v>
@@ -49911,7 +49929,7 @@
         <v>2.18</v>
       </c>
       <c r="AP234">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AQ234">
         <v>2.5</v>
@@ -50117,10 +50135,10 @@
         <v>0.75</v>
       </c>
       <c r="AP235">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ235">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR235">
         <v>1.37</v>
@@ -50323,7 +50341,7 @@
         <v>0.45</v>
       </c>
       <c r="AP236">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ236">
         <v>0.5600000000000001</v>
@@ -50529,7 +50547,7 @@
         <v>1</v>
       </c>
       <c r="AP237">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ237">
         <v>1.06</v>
@@ -50657,7 +50675,7 @@
         <v>93</v>
       </c>
       <c r="P238" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="Q238">
         <v>4.5</v>
@@ -50863,7 +50881,7 @@
         <v>252</v>
       </c>
       <c r="P239" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Q239">
         <v>2.5</v>
@@ -51069,7 +51087,7 @@
         <v>253</v>
       </c>
       <c r="P240" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q240">
         <v>2.62</v>
@@ -51150,7 +51168,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ240">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR240">
         <v>1.63</v>
@@ -51353,10 +51371,10 @@
         <v>1.5</v>
       </c>
       <c r="AP241">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ241">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR241">
         <v>1.65</v>
@@ -51481,7 +51499,7 @@
         <v>99</v>
       </c>
       <c r="P242" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Q242">
         <v>2.73</v>
@@ -51562,7 +51580,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ242">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR242">
         <v>1.45</v>
@@ -51768,7 +51786,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ243">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR243">
         <v>1.33</v>
@@ -52305,7 +52323,7 @@
         <v>244</v>
       </c>
       <c r="P246" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Q246">
         <v>3.4</v>
@@ -52717,7 +52735,7 @@
         <v>259</v>
       </c>
       <c r="P248" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="Q248">
         <v>1.62</v>
@@ -52798,7 +52816,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ248">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR248">
         <v>1.85</v>
@@ -53004,7 +53022,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ249">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR249">
         <v>1.52</v>
@@ -53207,7 +53225,7 @@
         <v>1.18</v>
       </c>
       <c r="AP250">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AQ250">
         <v>0.89</v>
@@ -53413,7 +53431,7 @@
         <v>1.33</v>
       </c>
       <c r="AP251">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ251">
         <v>1.22</v>
@@ -53622,7 +53640,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ252">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR252">
         <v>1.68</v>
@@ -53747,7 +53765,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Q253">
         <v>1.98</v>
@@ -54159,7 +54177,7 @@
         <v>264</v>
       </c>
       <c r="P255" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="Q255">
         <v>5.25</v>
@@ -54237,7 +54255,7 @@
         <v>2.83</v>
       </c>
       <c r="AP255">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ255">
         <v>2.67</v>
@@ -54365,7 +54383,7 @@
         <v>265</v>
       </c>
       <c r="P256" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="Q256">
         <v>2.61</v>
@@ -54649,7 +54667,7 @@
         <v>0.5</v>
       </c>
       <c r="AP257">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ257">
         <v>0.44</v>
@@ -54777,7 +54795,7 @@
         <v>93</v>
       </c>
       <c r="P258" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Q258">
         <v>3.75</v>
@@ -54858,7 +54876,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ258">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR258">
         <v>1.2</v>
@@ -54983,7 +55001,7 @@
         <v>93</v>
       </c>
       <c r="P259" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="Q259">
         <v>6.44</v>
@@ -55061,7 +55079,7 @@
         <v>2.25</v>
       </c>
       <c r="AP259">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ259">
         <v>2.5</v>
@@ -55267,10 +55285,10 @@
         <v>0.77</v>
       </c>
       <c r="AP260">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ260">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR260">
         <v>1.59</v>
@@ -55395,7 +55413,7 @@
         <v>268</v>
       </c>
       <c r="P261" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="Q261">
         <v>2.3</v>
@@ -55473,7 +55491,7 @@
         <v>1</v>
       </c>
       <c r="AP261">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ261">
         <v>1.06</v>
@@ -55679,7 +55697,7 @@
         <v>0.75</v>
       </c>
       <c r="AP262">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AQ262">
         <v>0.67</v>
@@ -55807,7 +55825,7 @@
         <v>270</v>
       </c>
       <c r="P263" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="Q263">
         <v>2.95</v>
@@ -55885,7 +55903,7 @@
         <v>0.92</v>
       </c>
       <c r="AP263">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ263">
         <v>0.72</v>
@@ -56013,7 +56031,7 @@
         <v>93</v>
       </c>
       <c r="P264" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="Q264">
         <v>3.25</v>
@@ -56091,7 +56109,7 @@
         <v>1</v>
       </c>
       <c r="AP264">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ264">
         <v>1.39</v>
@@ -56300,7 +56318,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ265">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR265">
         <v>1.35</v>
@@ -56425,7 +56443,7 @@
         <v>272</v>
       </c>
       <c r="P266" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Q266">
         <v>1.52</v>
@@ -56506,7 +56524,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ266">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR266">
         <v>1.9</v>
@@ -56712,7 +56730,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ267">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR267">
         <v>1.47</v>
@@ -57124,7 +57142,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ269">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR269">
         <v>1.32</v>
@@ -57249,7 +57267,7 @@
         <v>93</v>
       </c>
       <c r="P270" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="Q270">
         <v>5.5</v>
@@ -57455,7 +57473,7 @@
         <v>274</v>
       </c>
       <c r="P271" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="Q271">
         <v>1.73</v>
@@ -57867,7 +57885,7 @@
         <v>275</v>
       </c>
       <c r="P273" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="Q273">
         <v>2.11</v>
@@ -57945,7 +57963,7 @@
         <v>0.46</v>
       </c>
       <c r="AP273">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ273">
         <v>0.5600000000000001</v>
@@ -58151,7 +58169,7 @@
         <v>1.15</v>
       </c>
       <c r="AP274">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ274">
         <v>1.06</v>
@@ -58279,7 +58297,7 @@
         <v>93</v>
       </c>
       <c r="P275" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q275">
         <v>8.25</v>
@@ -58485,7 +58503,7 @@
         <v>93</v>
       </c>
       <c r="P276" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="Q276">
         <v>2.88</v>
@@ -58566,7 +58584,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ276">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR276">
         <v>1.18</v>
@@ -58769,7 +58787,7 @@
         <v>0.54</v>
       </c>
       <c r="AP277">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ277">
         <v>0.44</v>
@@ -58897,7 +58915,7 @@
         <v>93</v>
       </c>
       <c r="P278" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q278">
         <v>3.9</v>
@@ -58975,7 +58993,7 @@
         <v>2.31</v>
       </c>
       <c r="AP278">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ278">
         <v>2.5</v>
@@ -59184,7 +59202,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ279">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR279">
         <v>1.46</v>
@@ -59390,7 +59408,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ280">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR280">
         <v>1.44</v>
@@ -59721,7 +59739,7 @@
         <v>278</v>
       </c>
       <c r="P282" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="Q282">
         <v>1.63</v>
@@ -59927,7 +59945,7 @@
         <v>125</v>
       </c>
       <c r="P283" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="Q283">
         <v>3</v>
@@ -60008,7 +60026,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ283">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR283">
         <v>1.45</v>
@@ -60133,7 +60151,7 @@
         <v>279</v>
       </c>
       <c r="P284" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="Q284">
         <v>2.95</v>
@@ -60420,7 +60438,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ285">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR285">
         <v>1.62</v>
@@ -60623,7 +60641,7 @@
         <v>1</v>
       </c>
       <c r="AP286">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ286">
         <v>0.89</v>
@@ -60751,7 +60769,7 @@
         <v>282</v>
       </c>
       <c r="P287" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q287">
         <v>2.4</v>
@@ -60829,10 +60847,10 @@
         <v>0.71</v>
       </c>
       <c r="AP287">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ287">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR287">
         <v>1.44</v>
@@ -60957,7 +60975,7 @@
         <v>183</v>
       </c>
       <c r="P288" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="Q288">
         <v>4.3</v>
@@ -61038,7 +61056,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ288">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR288">
         <v>1.24</v>
@@ -61241,7 +61259,7 @@
         <v>0.85</v>
       </c>
       <c r="AP289">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AQ289">
         <v>0.72</v>
@@ -61450,7 +61468,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ290">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR290">
         <v>1.9</v>
@@ -61653,7 +61671,7 @@
         <v>1.43</v>
       </c>
       <c r="AP291">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ291">
         <v>1.22</v>
@@ -61862,7 +61880,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ292">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR292">
         <v>1.27</v>
@@ -62477,7 +62495,7 @@
         <v>1.14</v>
       </c>
       <c r="AP295">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ295">
         <v>1.39</v>
@@ -62605,7 +62623,7 @@
         <v>288</v>
       </c>
       <c r="P296" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q296">
         <v>2.45</v>
@@ -62811,7 +62829,7 @@
         <v>289</v>
       </c>
       <c r="P297" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="Q297">
         <v>2.3</v>
@@ -62889,7 +62907,7 @@
         <v>0.93</v>
       </c>
       <c r="AP297">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ297">
         <v>0.89</v>
@@ -63095,7 +63113,7 @@
         <v>1</v>
       </c>
       <c r="AP298">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ298">
         <v>0.9399999999999999</v>
@@ -63429,7 +63447,7 @@
         <v>292</v>
       </c>
       <c r="P300" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Q300">
         <v>5.4</v>
@@ -63635,7 +63653,7 @@
         <v>293</v>
       </c>
       <c r="P301" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="Q301">
         <v>4.75</v>
@@ -63841,7 +63859,7 @@
         <v>93</v>
       </c>
       <c r="P302" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="Q302">
         <v>3.6</v>
@@ -64047,7 +64065,7 @@
         <v>93</v>
       </c>
       <c r="P303" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="Q303">
         <v>3</v>
@@ -64125,10 +64143,10 @@
         <v>1</v>
       </c>
       <c r="AP303">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ303">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR303">
         <v>1.18</v>
@@ -64334,7 +64352,7 @@
         <v>3</v>
       </c>
       <c r="AQ304">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR304">
         <v>2.2</v>
@@ -64746,7 +64764,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ306">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR306">
         <v>1.46</v>
@@ -64871,7 +64889,7 @@
         <v>235</v>
       </c>
       <c r="P307" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="Q307">
         <v>4</v>
@@ -64952,7 +64970,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ307">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR307">
         <v>1.35</v>
@@ -65077,7 +65095,7 @@
         <v>295</v>
       </c>
       <c r="P308" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="Q308">
         <v>1.67</v>
@@ -65283,7 +65301,7 @@
         <v>93</v>
       </c>
       <c r="P309" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="Q309">
         <v>2.75</v>
@@ -65361,10 +65379,10 @@
         <v>1.4</v>
       </c>
       <c r="AP309">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ309">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR309">
         <v>1.45</v>
@@ -65567,10 +65585,10 @@
         <v>0.73</v>
       </c>
       <c r="AP310">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AQ310">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR310">
         <v>1.46</v>
@@ -65773,7 +65791,7 @@
         <v>1.33</v>
       </c>
       <c r="AP311">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ311">
         <v>1.22</v>
@@ -66107,7 +66125,7 @@
         <v>93</v>
       </c>
       <c r="P313" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="Q313">
         <v>2.6</v>
@@ -66188,7 +66206,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ313">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR313">
         <v>1.63</v>
@@ -66391,7 +66409,7 @@
         <v>0.93</v>
       </c>
       <c r="AP314">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ314">
         <v>0.9399999999999999</v>
@@ -66803,7 +66821,7 @@
         <v>0.47</v>
       </c>
       <c r="AP316">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ316">
         <v>0.44</v>
@@ -66931,7 +66949,7 @@
         <v>298</v>
       </c>
       <c r="P317" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="Q317">
         <v>3.24</v>
@@ -67137,7 +67155,7 @@
         <v>93</v>
       </c>
       <c r="P318" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="Q318">
         <v>1.95</v>
@@ -67421,7 +67439,7 @@
         <v>1.07</v>
       </c>
       <c r="AP319">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ319">
         <v>0.89</v>
@@ -67549,7 +67567,7 @@
         <v>110</v>
       </c>
       <c r="P320" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="Q320">
         <v>5.75</v>
@@ -67755,7 +67773,7 @@
         <v>93</v>
       </c>
       <c r="P321" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="Q321">
         <v>5.3</v>
@@ -68039,7 +68057,7 @@
         <v>0.8</v>
       </c>
       <c r="AP322">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ322">
         <v>0.72</v>
@@ -68167,7 +68185,7 @@
         <v>111</v>
       </c>
       <c r="P323" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="Q323">
         <v>5.44</v>
@@ -68248,7 +68266,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ323">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR323">
         <v>1.21</v>
@@ -68373,7 +68391,7 @@
         <v>93</v>
       </c>
       <c r="P324" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="Q324">
         <v>2.59</v>
@@ -68454,7 +68472,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ324">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR324">
         <v>1.38</v>
@@ -68579,7 +68597,7 @@
         <v>99</v>
       </c>
       <c r="P325" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="Q325">
         <v>3.5</v>
@@ -68657,10 +68675,10 @@
         <v>1.5</v>
       </c>
       <c r="AP325">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ325">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR325">
         <v>1.43</v>
@@ -68785,7 +68803,7 @@
         <v>301</v>
       </c>
       <c r="P326" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q326">
         <v>2.75</v>
@@ -68863,7 +68881,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP326">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AQ326">
         <v>0.68</v>
@@ -69069,7 +69087,7 @@
         <v>0.8</v>
       </c>
       <c r="AP327">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ327">
         <v>0.67</v>
@@ -69278,7 +69296,7 @@
         <v>3</v>
       </c>
       <c r="AQ328">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR328">
         <v>2.17</v>
@@ -69484,7 +69502,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ329">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR329">
         <v>1.46</v>
@@ -69687,10 +69705,10 @@
         <v>1.5</v>
       </c>
       <c r="AP330">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ330">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR330">
         <v>1.22</v>
@@ -69815,7 +69833,7 @@
         <v>306</v>
       </c>
       <c r="P331" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="Q331">
         <v>6.5</v>
@@ -70021,7 +70039,7 @@
         <v>93</v>
       </c>
       <c r="P332" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="Q332">
         <v>5.02</v>
@@ -70514,7 +70532,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ334">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AR334">
         <v>1.46</v>
@@ -70639,7 +70657,7 @@
         <v>182</v>
       </c>
       <c r="P335" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="Q335">
         <v>3.3</v>
@@ -71051,7 +71069,7 @@
         <v>308</v>
       </c>
       <c r="P337" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="Q337">
         <v>2.6</v>
@@ -71463,7 +71481,7 @@
         <v>310</v>
       </c>
       <c r="P339" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="Q339">
         <v>1.93</v>
@@ -71669,7 +71687,7 @@
         <v>311</v>
       </c>
       <c r="P340" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="Q340">
         <v>2.65</v>
@@ -71747,7 +71765,7 @@
         <v>0.75</v>
       </c>
       <c r="AP340">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ340">
         <v>0.72</v>
@@ -72159,10 +72177,10 @@
         <v>1.24</v>
       </c>
       <c r="AP342">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ342">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR342">
         <v>1.35</v>
@@ -72287,7 +72305,7 @@
         <v>313</v>
       </c>
       <c r="P343" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="Q343">
         <v>2.25</v>
@@ -72365,7 +72383,7 @@
         <v>0.75</v>
       </c>
       <c r="AP343">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AQ343">
         <v>0.67</v>
@@ -72777,10 +72795,10 @@
         <v>1.59</v>
       </c>
       <c r="AP345">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AQ345">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR345">
         <v>1.46</v>
@@ -72905,7 +72923,7 @@
         <v>315</v>
       </c>
       <c r="P346" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="Q346">
         <v>2.94</v>
@@ -72983,10 +73001,10 @@
         <v>0.53</v>
       </c>
       <c r="AP346">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AQ346">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR346">
         <v>1.43</v>
@@ -73189,10 +73207,10 @@
         <v>1.41</v>
       </c>
       <c r="AP347">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ347">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AR347">
         <v>1.35</v>
@@ -73523,7 +73541,7 @@
         <v>95</v>
       </c>
       <c r="P349" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q349">
         <v>2.8</v>
@@ -73601,10 +73619,10 @@
         <v>0.65</v>
       </c>
       <c r="AP349">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AQ349">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AR349">
         <v>1.23</v>
@@ -73935,7 +73953,7 @@
         <v>318</v>
       </c>
       <c r="P351" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="Q351">
         <v>2.85</v>
@@ -74016,7 +74034,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ351">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR351">
         <v>1.44</v>
@@ -75377,7 +75395,7 @@
         <v>323</v>
       </c>
       <c r="P358" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="Q358">
         <v>5.5</v>
@@ -75995,7 +76013,7 @@
         <v>238</v>
       </c>
       <c r="P361" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="Q361">
         <v>2.71</v>
@@ -76201,7 +76219,7 @@
         <v>100</v>
       </c>
       <c r="P362" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="Q362">
         <v>3.75</v>
@@ -76407,7 +76425,7 @@
         <v>326</v>
       </c>
       <c r="P363" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="Q363">
         <v>2.8</v>
@@ -76500,19 +76518,19 @@
         <v>2.82</v>
       </c>
       <c r="AU363">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV363">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW363">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX363">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY363">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ363">
         <v>11</v>
@@ -76564,6 +76582,1448 @@
       </c>
       <c r="BP363">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="364" spans="1:68">
+      <c r="A364" s="1">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>6956850</v>
+      </c>
+      <c r="C364" t="s">
+        <v>68</v>
+      </c>
+      <c r="D364" t="s">
+        <v>69</v>
+      </c>
+      <c r="E364" s="2">
+        <v>45430.54166666666</v>
+      </c>
+      <c r="F364">
+        <v>37</v>
+      </c>
+      <c r="G364" t="s">
+        <v>73</v>
+      </c>
+      <c r="H364" t="s">
+        <v>72</v>
+      </c>
+      <c r="I364">
+        <v>1</v>
+      </c>
+      <c r="J364">
+        <v>1</v>
+      </c>
+      <c r="K364">
+        <v>2</v>
+      </c>
+      <c r="L364">
+        <v>2</v>
+      </c>
+      <c r="M364">
+        <v>2</v>
+      </c>
+      <c r="N364">
+        <v>4</v>
+      </c>
+      <c r="O364" t="s">
+        <v>327</v>
+      </c>
+      <c r="P364" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q364">
+        <v>3.5</v>
+      </c>
+      <c r="R364">
+        <v>1.95</v>
+      </c>
+      <c r="S364">
+        <v>3.5</v>
+      </c>
+      <c r="T364">
+        <v>1.6</v>
+      </c>
+      <c r="U364">
+        <v>2.45</v>
+      </c>
+      <c r="V364">
+        <v>3.25</v>
+      </c>
+      <c r="W364">
+        <v>1.38</v>
+      </c>
+      <c r="X364">
+        <v>9</v>
+      </c>
+      <c r="Y364">
+        <v>1.09</v>
+      </c>
+      <c r="Z364">
+        <v>2.6</v>
+      </c>
+      <c r="AA364">
+        <v>2.65</v>
+      </c>
+      <c r="AB364">
+        <v>3.25</v>
+      </c>
+      <c r="AC364">
+        <v>1.09</v>
+      </c>
+      <c r="AD364">
+        <v>6.89</v>
+      </c>
+      <c r="AE364">
+        <v>1.34</v>
+      </c>
+      <c r="AF364">
+        <v>3.12</v>
+      </c>
+      <c r="AG364">
+        <v>2</v>
+      </c>
+      <c r="AH364">
+        <v>1.78</v>
+      </c>
+      <c r="AI364">
+        <v>1.78</v>
+      </c>
+      <c r="AJ364">
+        <v>2</v>
+      </c>
+      <c r="AK364">
+        <v>1.37</v>
+      </c>
+      <c r="AL364">
+        <v>1.45</v>
+      </c>
+      <c r="AM364">
+        <v>1.37</v>
+      </c>
+      <c r="AN364">
+        <v>1.39</v>
+      </c>
+      <c r="AO364">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP364">
+        <v>1.37</v>
+      </c>
+      <c r="AQ364">
+        <v>0.95</v>
+      </c>
+      <c r="AR364">
+        <v>1.43</v>
+      </c>
+      <c r="AS364">
+        <v>1.11</v>
+      </c>
+      <c r="AT364">
+        <v>2.54</v>
+      </c>
+      <c r="AU364">
+        <v>3</v>
+      </c>
+      <c r="AV364">
+        <v>3</v>
+      </c>
+      <c r="AW364">
+        <v>2</v>
+      </c>
+      <c r="AX364">
+        <v>4</v>
+      </c>
+      <c r="AY364">
+        <v>5</v>
+      </c>
+      <c r="AZ364">
+        <v>7</v>
+      </c>
+      <c r="BA364">
+        <v>1</v>
+      </c>
+      <c r="BB364">
+        <v>9</v>
+      </c>
+      <c r="BC364">
+        <v>10</v>
+      </c>
+      <c r="BD364">
+        <v>1.9</v>
+      </c>
+      <c r="BE364">
+        <v>8.6</v>
+      </c>
+      <c r="BF364">
+        <v>2.22</v>
+      </c>
+      <c r="BG364">
+        <v>1.32</v>
+      </c>
+      <c r="BH364">
+        <v>2.98</v>
+      </c>
+      <c r="BI364">
+        <v>1.56</v>
+      </c>
+      <c r="BJ364">
+        <v>2.37</v>
+      </c>
+      <c r="BK364">
+        <v>1.92</v>
+      </c>
+      <c r="BL364">
+        <v>1.88</v>
+      </c>
+      <c r="BM364">
+        <v>2.4</v>
+      </c>
+      <c r="BN364">
+        <v>1.55</v>
+      </c>
+      <c r="BO364">
+        <v>3.74</v>
+      </c>
+      <c r="BP364">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="365" spans="1:68">
+      <c r="A365" s="1">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>6956841</v>
+      </c>
+      <c r="C365" t="s">
+        <v>68</v>
+      </c>
+      <c r="D365" t="s">
+        <v>69</v>
+      </c>
+      <c r="E365" s="2">
+        <v>45430.54166666666</v>
+      </c>
+      <c r="F365">
+        <v>37</v>
+      </c>
+      <c r="G365" t="s">
+        <v>87</v>
+      </c>
+      <c r="H365" t="s">
+        <v>83</v>
+      </c>
+      <c r="I365">
+        <v>0</v>
+      </c>
+      <c r="J365">
+        <v>1</v>
+      </c>
+      <c r="K365">
+        <v>1</v>
+      </c>
+      <c r="L365">
+        <v>2</v>
+      </c>
+      <c r="M365">
+        <v>2</v>
+      </c>
+      <c r="N365">
+        <v>4</v>
+      </c>
+      <c r="O365" t="s">
+        <v>328</v>
+      </c>
+      <c r="P365" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q365">
+        <v>2.1</v>
+      </c>
+      <c r="R365">
+        <v>2.4</v>
+      </c>
+      <c r="S365">
+        <v>5.5</v>
+      </c>
+      <c r="T365">
+        <v>1.36</v>
+      </c>
+      <c r="U365">
+        <v>3.4</v>
+      </c>
+      <c r="V365">
+        <v>2.65</v>
+      </c>
+      <c r="W365">
+        <v>1.53</v>
+      </c>
+      <c r="X365">
+        <v>6.5</v>
+      </c>
+      <c r="Y365">
+        <v>1.14</v>
+      </c>
+      <c r="Z365">
+        <v>1.52</v>
+      </c>
+      <c r="AA365">
+        <v>4.3</v>
+      </c>
+      <c r="AB365">
+        <v>5.6</v>
+      </c>
+      <c r="AC365">
+        <v>1.04</v>
+      </c>
+      <c r="AD365">
+        <v>15</v>
+      </c>
+      <c r="AE365">
+        <v>1.22</v>
+      </c>
+      <c r="AF365">
+        <v>4.12</v>
+      </c>
+      <c r="AG365">
+        <v>1.7</v>
+      </c>
+      <c r="AH365">
+        <v>2.05</v>
+      </c>
+      <c r="AI365">
+        <v>1.78</v>
+      </c>
+      <c r="AJ365">
+        <v>2</v>
+      </c>
+      <c r="AK365">
+        <v>1.15</v>
+      </c>
+      <c r="AL365">
+        <v>1.25</v>
+      </c>
+      <c r="AM365">
+        <v>2.6</v>
+      </c>
+      <c r="AN365">
+        <v>1.83</v>
+      </c>
+      <c r="AO365">
+        <v>0.67</v>
+      </c>
+      <c r="AP365">
+        <v>1.79</v>
+      </c>
+      <c r="AQ365">
+        <v>0.68</v>
+      </c>
+      <c r="AR365">
+        <v>1.65</v>
+      </c>
+      <c r="AS365">
+        <v>1.18</v>
+      </c>
+      <c r="AT365">
+        <v>2.83</v>
+      </c>
+      <c r="AU365">
+        <v>7</v>
+      </c>
+      <c r="AV365">
+        <v>2</v>
+      </c>
+      <c r="AW365">
+        <v>4</v>
+      </c>
+      <c r="AX365">
+        <v>3</v>
+      </c>
+      <c r="AY365">
+        <v>11</v>
+      </c>
+      <c r="AZ365">
+        <v>5</v>
+      </c>
+      <c r="BA365">
+        <v>7</v>
+      </c>
+      <c r="BB365">
+        <v>3</v>
+      </c>
+      <c r="BC365">
+        <v>10</v>
+      </c>
+      <c r="BD365">
+        <v>1.35</v>
+      </c>
+      <c r="BE365">
+        <v>10.25</v>
+      </c>
+      <c r="BF365">
+        <v>3.92</v>
+      </c>
+      <c r="BG365">
+        <v>1.26</v>
+      </c>
+      <c r="BH365">
+        <v>3.34</v>
+      </c>
+      <c r="BI365">
+        <v>1.55</v>
+      </c>
+      <c r="BJ365">
+        <v>2.44</v>
+      </c>
+      <c r="BK365">
+        <v>1.82</v>
+      </c>
+      <c r="BL365">
+        <v>1.98</v>
+      </c>
+      <c r="BM365">
+        <v>2.4</v>
+      </c>
+      <c r="BN365">
+        <v>1.56</v>
+      </c>
+      <c r="BO365">
+        <v>3.2</v>
+      </c>
+      <c r="BP365">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="366" spans="1:68">
+      <c r="A366" s="1">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>6956842</v>
+      </c>
+      <c r="C366" t="s">
+        <v>68</v>
+      </c>
+      <c r="D366" t="s">
+        <v>69</v>
+      </c>
+      <c r="E366" s="2">
+        <v>45430.54166666666</v>
+      </c>
+      <c r="F366">
+        <v>37</v>
+      </c>
+      <c r="G366" t="s">
+        <v>88</v>
+      </c>
+      <c r="H366" t="s">
+        <v>74</v>
+      </c>
+      <c r="I366">
+        <v>0</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
+      <c r="K366">
+        <v>0</v>
+      </c>
+      <c r="L366">
+        <v>0</v>
+      </c>
+      <c r="M366">
+        <v>0</v>
+      </c>
+      <c r="N366">
+        <v>0</v>
+      </c>
+      <c r="O366" t="s">
+        <v>93</v>
+      </c>
+      <c r="P366" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q366">
+        <v>2.8</v>
+      </c>
+      <c r="R366">
+        <v>2.25</v>
+      </c>
+      <c r="S366">
+        <v>3.6</v>
+      </c>
+      <c r="T366">
+        <v>1.36</v>
+      </c>
+      <c r="U366">
+        <v>3.4</v>
+      </c>
+      <c r="V366">
+        <v>2.7</v>
+      </c>
+      <c r="W366">
+        <v>1.52</v>
+      </c>
+      <c r="X366">
+        <v>7</v>
+      </c>
+      <c r="Y366">
+        <v>1.12</v>
+      </c>
+      <c r="Z366">
+        <v>2.16</v>
+      </c>
+      <c r="AA366">
+        <v>3.55</v>
+      </c>
+      <c r="AB366">
+        <v>3.05</v>
+      </c>
+      <c r="AC366">
+        <v>1.04</v>
+      </c>
+      <c r="AD366">
+        <v>15</v>
+      </c>
+      <c r="AE366">
+        <v>1.21</v>
+      </c>
+      <c r="AF366">
+        <v>4.22</v>
+      </c>
+      <c r="AG366">
+        <v>1.7</v>
+      </c>
+      <c r="AH366">
+        <v>2</v>
+      </c>
+      <c r="AI366">
+        <v>1.57</v>
+      </c>
+      <c r="AJ366">
+        <v>2.35</v>
+      </c>
+      <c r="AK366">
+        <v>1.4</v>
+      </c>
+      <c r="AL366">
+        <v>1.3</v>
+      </c>
+      <c r="AM366">
+        <v>1.72</v>
+      </c>
+      <c r="AN366">
+        <v>1.44</v>
+      </c>
+      <c r="AO366">
+        <v>0.83</v>
+      </c>
+      <c r="AP366">
+        <v>1.42</v>
+      </c>
+      <c r="AQ366">
+        <v>0.84</v>
+      </c>
+      <c r="AR366">
+        <v>1.34</v>
+      </c>
+      <c r="AS366">
+        <v>1.35</v>
+      </c>
+      <c r="AT366">
+        <v>2.69</v>
+      </c>
+      <c r="AU366">
+        <v>6</v>
+      </c>
+      <c r="AV366">
+        <v>3</v>
+      </c>
+      <c r="AW366">
+        <v>7</v>
+      </c>
+      <c r="AX366">
+        <v>3</v>
+      </c>
+      <c r="AY366">
+        <v>13</v>
+      </c>
+      <c r="AZ366">
+        <v>6</v>
+      </c>
+      <c r="BA366">
+        <v>4</v>
+      </c>
+      <c r="BB366">
+        <v>4</v>
+      </c>
+      <c r="BC366">
+        <v>8</v>
+      </c>
+      <c r="BD366">
+        <v>1.72</v>
+      </c>
+      <c r="BE366">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF366">
+        <v>2.51</v>
+      </c>
+      <c r="BG366">
+        <v>1.32</v>
+      </c>
+      <c r="BH366">
+        <v>2.98</v>
+      </c>
+      <c r="BI366">
+        <v>1.8</v>
+      </c>
+      <c r="BJ366">
+        <v>2</v>
+      </c>
+      <c r="BK366">
+        <v>2.04</v>
+      </c>
+      <c r="BL366">
+        <v>1.73</v>
+      </c>
+      <c r="BM366">
+        <v>2.69</v>
+      </c>
+      <c r="BN366">
+        <v>1.41</v>
+      </c>
+      <c r="BO366">
+        <v>3.65</v>
+      </c>
+      <c r="BP366">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="367" spans="1:68">
+      <c r="A367" s="1">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>6956843</v>
+      </c>
+      <c r="C367" t="s">
+        <v>68</v>
+      </c>
+      <c r="D367" t="s">
+        <v>69</v>
+      </c>
+      <c r="E367" s="2">
+        <v>45430.54166666666</v>
+      </c>
+      <c r="F367">
+        <v>37</v>
+      </c>
+      <c r="G367" t="s">
+        <v>82</v>
+      </c>
+      <c r="H367" t="s">
+        <v>71</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367">
+        <v>0</v>
+      </c>
+      <c r="L367">
+        <v>0</v>
+      </c>
+      <c r="M367">
+        <v>0</v>
+      </c>
+      <c r="N367">
+        <v>0</v>
+      </c>
+      <c r="O367" t="s">
+        <v>93</v>
+      </c>
+      <c r="P367" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q367">
+        <v>2.8</v>
+      </c>
+      <c r="R367">
+        <v>2.4</v>
+      </c>
+      <c r="S367">
+        <v>3.3</v>
+      </c>
+      <c r="T367">
+        <v>1.3</v>
+      </c>
+      <c r="U367">
+        <v>3.75</v>
+      </c>
+      <c r="V367">
+        <v>2.35</v>
+      </c>
+      <c r="W367">
+        <v>1.66</v>
+      </c>
+      <c r="X367">
+        <v>5.5</v>
+      </c>
+      <c r="Y367">
+        <v>1.18</v>
+      </c>
+      <c r="Z367">
+        <v>2.21</v>
+      </c>
+      <c r="AA367">
+        <v>3.55</v>
+      </c>
+      <c r="AB367">
+        <v>2.95</v>
+      </c>
+      <c r="AC367">
+        <v>1.03</v>
+      </c>
+      <c r="AD367">
+        <v>19</v>
+      </c>
+      <c r="AE367">
+        <v>1.15</v>
+      </c>
+      <c r="AF367">
+        <v>5.17</v>
+      </c>
+      <c r="AG367">
+        <v>1.45</v>
+      </c>
+      <c r="AH367">
+        <v>2.55</v>
+      </c>
+      <c r="AI367">
+        <v>1.47</v>
+      </c>
+      <c r="AJ367">
+        <v>2.7</v>
+      </c>
+      <c r="AK367">
+        <v>1.45</v>
+      </c>
+      <c r="AL367">
+        <v>1.3</v>
+      </c>
+      <c r="AM367">
+        <v>1.68</v>
+      </c>
+      <c r="AN367">
+        <v>2.06</v>
+      </c>
+      <c r="AO367">
+        <v>1.33</v>
+      </c>
+      <c r="AP367">
+        <v>2</v>
+      </c>
+      <c r="AQ367">
+        <v>1.32</v>
+      </c>
+      <c r="AR367">
+        <v>1.43</v>
+      </c>
+      <c r="AS367">
+        <v>1.39</v>
+      </c>
+      <c r="AT367">
+        <v>2.82</v>
+      </c>
+      <c r="AU367">
+        <v>5</v>
+      </c>
+      <c r="AV367">
+        <v>5</v>
+      </c>
+      <c r="AW367">
+        <v>1</v>
+      </c>
+      <c r="AX367">
+        <v>5</v>
+      </c>
+      <c r="AY367">
+        <v>6</v>
+      </c>
+      <c r="AZ367">
+        <v>10</v>
+      </c>
+      <c r="BA367">
+        <v>4</v>
+      </c>
+      <c r="BB367">
+        <v>3</v>
+      </c>
+      <c r="BC367">
+        <v>7</v>
+      </c>
+      <c r="BD367">
+        <v>1.74</v>
+      </c>
+      <c r="BE367">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF367">
+        <v>2.44</v>
+      </c>
+      <c r="BG367">
+        <v>1.21</v>
+      </c>
+      <c r="BH367">
+        <v>3.74</v>
+      </c>
+      <c r="BI367">
+        <v>1.41</v>
+      </c>
+      <c r="BJ367">
+        <v>2.69</v>
+      </c>
+      <c r="BK367">
+        <v>1.88</v>
+      </c>
+      <c r="BL367">
+        <v>1.92</v>
+      </c>
+      <c r="BM367">
+        <v>2.19</v>
+      </c>
+      <c r="BN367">
+        <v>1.6</v>
+      </c>
+      <c r="BO367">
+        <v>2.88</v>
+      </c>
+      <c r="BP367">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="368" spans="1:68">
+      <c r="A368" s="1">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>6956844</v>
+      </c>
+      <c r="C368" t="s">
+        <v>68</v>
+      </c>
+      <c r="D368" t="s">
+        <v>69</v>
+      </c>
+      <c r="E368" s="2">
+        <v>45430.54166666666</v>
+      </c>
+      <c r="F368">
+        <v>37</v>
+      </c>
+      <c r="G368" t="s">
+        <v>89</v>
+      </c>
+      <c r="H368" t="s">
+        <v>78</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>1</v>
+      </c>
+      <c r="K368">
+        <v>1</v>
+      </c>
+      <c r="L368">
+        <v>1</v>
+      </c>
+      <c r="M368">
+        <v>1</v>
+      </c>
+      <c r="N368">
+        <v>2</v>
+      </c>
+      <c r="O368" t="s">
+        <v>329</v>
+      </c>
+      <c r="P368" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q368">
+        <v>2.85</v>
+      </c>
+      <c r="R368">
+        <v>2.15</v>
+      </c>
+      <c r="S368">
+        <v>3.75</v>
+      </c>
+      <c r="T368">
+        <v>1.44</v>
+      </c>
+      <c r="U368">
+        <v>3</v>
+      </c>
+      <c r="V368">
+        <v>2.95</v>
+      </c>
+      <c r="W368">
+        <v>1.45</v>
+      </c>
+      <c r="X368">
+        <v>8</v>
+      </c>
+      <c r="Y368">
+        <v>1.11</v>
+      </c>
+      <c r="Z368">
+        <v>2.11</v>
+      </c>
+      <c r="AA368">
+        <v>3.4</v>
+      </c>
+      <c r="AB368">
+        <v>3.3</v>
+      </c>
+      <c r="AC368">
+        <v>1.03</v>
+      </c>
+      <c r="AD368">
+        <v>10.65</v>
+      </c>
+      <c r="AE368">
+        <v>1.27</v>
+      </c>
+      <c r="AF368">
+        <v>3.61</v>
+      </c>
+      <c r="AG368">
+        <v>1.85</v>
+      </c>
+      <c r="AH368">
+        <v>1.92</v>
+      </c>
+      <c r="AI368">
+        <v>1.72</v>
+      </c>
+      <c r="AJ368">
+        <v>2.1</v>
+      </c>
+      <c r="AK368">
+        <v>1.36</v>
+      </c>
+      <c r="AL368">
+        <v>1.33</v>
+      </c>
+      <c r="AM368">
+        <v>1.75</v>
+      </c>
+      <c r="AN368">
+        <v>1.89</v>
+      </c>
+      <c r="AO368">
+        <v>1.22</v>
+      </c>
+      <c r="AP368">
+        <v>1.84</v>
+      </c>
+      <c r="AQ368">
+        <v>1.21</v>
+      </c>
+      <c r="AR368">
+        <v>1.45</v>
+      </c>
+      <c r="AS368">
+        <v>1.25</v>
+      </c>
+      <c r="AT368">
+        <v>2.7</v>
+      </c>
+      <c r="AU368">
+        <v>3</v>
+      </c>
+      <c r="AV368">
+        <v>4</v>
+      </c>
+      <c r="AW368">
+        <v>2</v>
+      </c>
+      <c r="AX368">
+        <v>2</v>
+      </c>
+      <c r="AY368">
+        <v>5</v>
+      </c>
+      <c r="AZ368">
+        <v>6</v>
+      </c>
+      <c r="BA368">
+        <v>4</v>
+      </c>
+      <c r="BB368">
+        <v>1</v>
+      </c>
+      <c r="BC368">
+        <v>5</v>
+      </c>
+      <c r="BD368">
+        <v>1.57</v>
+      </c>
+      <c r="BE368">
+        <v>9.1</v>
+      </c>
+      <c r="BF368">
+        <v>2.88</v>
+      </c>
+      <c r="BG368">
+        <v>1.31</v>
+      </c>
+      <c r="BH368">
+        <v>3.04</v>
+      </c>
+      <c r="BI368">
+        <v>1.59</v>
+      </c>
+      <c r="BJ368">
+        <v>2.21</v>
+      </c>
+      <c r="BK368">
+        <v>2.02</v>
+      </c>
+      <c r="BL368">
+        <v>1.74</v>
+      </c>
+      <c r="BM368">
+        <v>2.65</v>
+      </c>
+      <c r="BN368">
+        <v>1.42</v>
+      </c>
+      <c r="BO368">
+        <v>3.65</v>
+      </c>
+      <c r="BP368">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="369" spans="1:68">
+      <c r="A369" s="1">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>6956846</v>
+      </c>
+      <c r="C369" t="s">
+        <v>68</v>
+      </c>
+      <c r="D369" t="s">
+        <v>69</v>
+      </c>
+      <c r="E369" s="2">
+        <v>45430.54166666666</v>
+      </c>
+      <c r="F369">
+        <v>37</v>
+      </c>
+      <c r="G369" t="s">
+        <v>86</v>
+      </c>
+      <c r="H369" t="s">
+        <v>79</v>
+      </c>
+      <c r="I369">
+        <v>0</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+      <c r="K369">
+        <v>0</v>
+      </c>
+      <c r="L369">
+        <v>3</v>
+      </c>
+      <c r="M369">
+        <v>1</v>
+      </c>
+      <c r="N369">
+        <v>4</v>
+      </c>
+      <c r="O369" t="s">
+        <v>330</v>
+      </c>
+      <c r="P369" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q369">
+        <v>3.1</v>
+      </c>
+      <c r="R369">
+        <v>2.15</v>
+      </c>
+      <c r="S369">
+        <v>3.4</v>
+      </c>
+      <c r="T369">
+        <v>1.44</v>
+      </c>
+      <c r="U369">
+        <v>3</v>
+      </c>
+      <c r="V369">
+        <v>2.95</v>
+      </c>
+      <c r="W369">
+        <v>1.45</v>
+      </c>
+      <c r="X369">
+        <v>8</v>
+      </c>
+      <c r="Y369">
+        <v>1.11</v>
+      </c>
+      <c r="Z369">
+        <v>2.46</v>
+      </c>
+      <c r="AA369">
+        <v>3.25</v>
+      </c>
+      <c r="AB369">
+        <v>2.8</v>
+      </c>
+      <c r="AC369">
+        <v>1.03</v>
+      </c>
+      <c r="AD369">
+        <v>10.65</v>
+      </c>
+      <c r="AE369">
+        <v>1.27</v>
+      </c>
+      <c r="AF369">
+        <v>3.61</v>
+      </c>
+      <c r="AG369">
+        <v>1.85</v>
+      </c>
+      <c r="AH369">
+        <v>1.92</v>
+      </c>
+      <c r="AI369">
+        <v>1.68</v>
+      </c>
+      <c r="AJ369">
+        <v>2.15</v>
+      </c>
+      <c r="AK369">
+        <v>1.47</v>
+      </c>
+      <c r="AL369">
+        <v>1.35</v>
+      </c>
+      <c r="AM369">
+        <v>1.57</v>
+      </c>
+      <c r="AN369">
+        <v>1.17</v>
+      </c>
+      <c r="AO369">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP369">
+        <v>1.26</v>
+      </c>
+      <c r="AQ369">
+        <v>0.53</v>
+      </c>
+      <c r="AR369">
+        <v>1.25</v>
+      </c>
+      <c r="AS369">
+        <v>1.27</v>
+      </c>
+      <c r="AT369">
+        <v>2.52</v>
+      </c>
+      <c r="AU369">
+        <v>2</v>
+      </c>
+      <c r="AV369">
+        <v>3</v>
+      </c>
+      <c r="AW369">
+        <v>4</v>
+      </c>
+      <c r="AX369">
+        <v>3</v>
+      </c>
+      <c r="AY369">
+        <v>6</v>
+      </c>
+      <c r="AZ369">
+        <v>6</v>
+      </c>
+      <c r="BA369">
+        <v>6</v>
+      </c>
+      <c r="BB369">
+        <v>12</v>
+      </c>
+      <c r="BC369">
+        <v>18</v>
+      </c>
+      <c r="BD369">
+        <v>1.91</v>
+      </c>
+      <c r="BE369">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF369">
+        <v>2.2</v>
+      </c>
+      <c r="BG369">
+        <v>1.27</v>
+      </c>
+      <c r="BH369">
+        <v>3.28</v>
+      </c>
+      <c r="BI369">
+        <v>1.52</v>
+      </c>
+      <c r="BJ369">
+        <v>2.36</v>
+      </c>
+      <c r="BK369">
+        <v>1.91</v>
+      </c>
+      <c r="BL369">
+        <v>1.83</v>
+      </c>
+      <c r="BM369">
+        <v>2.46</v>
+      </c>
+      <c r="BN369">
+        <v>1.48</v>
+      </c>
+      <c r="BO369">
+        <v>3.34</v>
+      </c>
+      <c r="BP369">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="370" spans="1:68">
+      <c r="A370" s="1">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>6956847</v>
+      </c>
+      <c r="C370" t="s">
+        <v>68</v>
+      </c>
+      <c r="D370" t="s">
+        <v>69</v>
+      </c>
+      <c r="E370" s="2">
+        <v>45430.54166666666</v>
+      </c>
+      <c r="F370">
+        <v>37</v>
+      </c>
+      <c r="G370" t="s">
+        <v>85</v>
+      </c>
+      <c r="H370" t="s">
+        <v>70</v>
+      </c>
+      <c r="I370">
+        <v>0</v>
+      </c>
+      <c r="J370">
+        <v>1</v>
+      </c>
+      <c r="K370">
+        <v>1</v>
+      </c>
+      <c r="L370">
+        <v>0</v>
+      </c>
+      <c r="M370">
+        <v>1</v>
+      </c>
+      <c r="N370">
+        <v>1</v>
+      </c>
+      <c r="O370" t="s">
+        <v>93</v>
+      </c>
+      <c r="P370" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q370">
+        <v>3.25</v>
+      </c>
+      <c r="R370">
+        <v>2.2</v>
+      </c>
+      <c r="S370">
+        <v>3.2</v>
+      </c>
+      <c r="T370">
+        <v>1.4</v>
+      </c>
+      <c r="U370">
+        <v>3.2</v>
+      </c>
+      <c r="V370">
+        <v>2.75</v>
+      </c>
+      <c r="W370">
+        <v>1.5</v>
+      </c>
+      <c r="X370">
+        <v>7.5</v>
+      </c>
+      <c r="Y370">
+        <v>1.12</v>
+      </c>
+      <c r="Z370">
+        <v>2.6</v>
+      </c>
+      <c r="AA370">
+        <v>3.35</v>
+      </c>
+      <c r="AB370">
+        <v>2.55</v>
+      </c>
+      <c r="AC370">
+        <v>1.05</v>
+      </c>
+      <c r="AD370">
+        <v>13</v>
+      </c>
+      <c r="AE370">
+        <v>1.25</v>
+      </c>
+      <c r="AF370">
+        <v>3.82</v>
+      </c>
+      <c r="AG370">
+        <v>1.79</v>
+      </c>
+      <c r="AH370">
+        <v>1.91</v>
+      </c>
+      <c r="AI370">
+        <v>1.63</v>
+      </c>
+      <c r="AJ370">
+        <v>2.25</v>
+      </c>
+      <c r="AK370">
+        <v>1.53</v>
+      </c>
+      <c r="AL370">
+        <v>1.33</v>
+      </c>
+      <c r="AM370">
+        <v>1.52</v>
+      </c>
+      <c r="AN370">
+        <v>1.83</v>
+      </c>
+      <c r="AO370">
+        <v>1.5</v>
+      </c>
+      <c r="AP370">
+        <v>1.74</v>
+      </c>
+      <c r="AQ370">
+        <v>1.58</v>
+      </c>
+      <c r="AR370">
+        <v>1.38</v>
+      </c>
+      <c r="AS370">
+        <v>1.22</v>
+      </c>
+      <c r="AT370">
+        <v>2.6</v>
+      </c>
+      <c r="AU370">
+        <v>5</v>
+      </c>
+      <c r="AV370">
+        <v>3</v>
+      </c>
+      <c r="AW370">
+        <v>4</v>
+      </c>
+      <c r="AX370">
+        <v>3</v>
+      </c>
+      <c r="AY370">
+        <v>9</v>
+      </c>
+      <c r="AZ370">
+        <v>6</v>
+      </c>
+      <c r="BA370">
+        <v>4</v>
+      </c>
+      <c r="BB370">
+        <v>2</v>
+      </c>
+      <c r="BC370">
+        <v>6</v>
+      </c>
+      <c r="BD370">
+        <v>2.04</v>
+      </c>
+      <c r="BE370">
+        <v>8.5</v>
+      </c>
+      <c r="BF370">
+        <v>2.06</v>
+      </c>
+      <c r="BG370">
+        <v>1.4</v>
+      </c>
+      <c r="BH370">
+        <v>2.72</v>
+      </c>
+      <c r="BI370">
+        <v>1.88</v>
+      </c>
+      <c r="BJ370">
+        <v>1.92</v>
+      </c>
+      <c r="BK370">
+        <v>2.23</v>
+      </c>
+      <c r="BL370">
+        <v>1.58</v>
+      </c>
+      <c r="BM370">
+        <v>2.98</v>
+      </c>
+      <c r="BN370">
+        <v>1.32</v>
+      </c>
+      <c r="BO370">
+        <v>4.25</v>
+      </c>
+      <c r="BP370">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
@@ -76518,19 +76518,19 @@
         <v>2.82</v>
       </c>
       <c r="AU363">
+        <v>6</v>
+      </c>
+      <c r="AV363">
+        <v>6</v>
+      </c>
+      <c r="AW363">
+        <v>6</v>
+      </c>
+      <c r="AX363">
         <v>5</v>
       </c>
-      <c r="AV363">
-        <v>8</v>
-      </c>
-      <c r="AW363">
-        <v>4</v>
-      </c>
-      <c r="AX363">
-        <v>3</v>
-      </c>
       <c r="AY363">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ363">
         <v>11</v>
@@ -76724,22 +76724,22 @@
         <v>2.54</v>
       </c>
       <c r="AU364">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV364">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW364">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX364">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY364">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ364">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BA364">
         <v>1</v>
@@ -76930,22 +76930,22 @@
         <v>2.83</v>
       </c>
       <c r="AU365">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV365">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW365">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AX365">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY365">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AZ365">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA365">
         <v>7</v>
@@ -77136,22 +77136,22 @@
         <v>2.69</v>
       </c>
       <c r="AU366">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV366">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW366">
+        <v>8</v>
+      </c>
+      <c r="AX366">
+        <v>5</v>
+      </c>
+      <c r="AY366">
+        <v>15</v>
+      </c>
+      <c r="AZ366">
         <v>7</v>
-      </c>
-      <c r="AX366">
-        <v>3</v>
-      </c>
-      <c r="AY366">
-        <v>13</v>
-      </c>
-      <c r="AZ366">
-        <v>6</v>
       </c>
       <c r="BA366">
         <v>4</v>
@@ -77342,31 +77342,31 @@
         <v>2.82</v>
       </c>
       <c r="AU367">
+        <v>3</v>
+      </c>
+      <c r="AV367">
+        <v>8</v>
+      </c>
+      <c r="AW367">
+        <v>8</v>
+      </c>
+      <c r="AX367">
+        <v>12</v>
+      </c>
+      <c r="AY367">
+        <v>11</v>
+      </c>
+      <c r="AZ367">
+        <v>20</v>
+      </c>
+      <c r="BA367">
         <v>5</v>
       </c>
-      <c r="AV367">
-        <v>5</v>
-      </c>
-      <c r="AW367">
-        <v>1</v>
-      </c>
-      <c r="AX367">
-        <v>5</v>
-      </c>
-      <c r="AY367">
-        <v>6</v>
-      </c>
-      <c r="AZ367">
-        <v>10</v>
-      </c>
-      <c r="BA367">
+      <c r="BB367">
         <v>4</v>
       </c>
-      <c r="BB367">
-        <v>3</v>
-      </c>
       <c r="BC367">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD367">
         <v>1.74</v>
@@ -77548,22 +77548,22 @@
         <v>2.7</v>
       </c>
       <c r="AU368">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV368">
         <v>4</v>
       </c>
       <c r="AW368">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX368">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY368">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AZ368">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA368">
         <v>4</v>
@@ -77754,22 +77754,22 @@
         <v>2.52</v>
       </c>
       <c r="AU369">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV369">
         <v>3</v>
       </c>
       <c r="AW369">
+        <v>9</v>
+      </c>
+      <c r="AX369">
         <v>4</v>
       </c>
-      <c r="AX369">
-        <v>3</v>
-      </c>
       <c r="AY369">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AZ369">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA369">
         <v>6</v>
@@ -77960,31 +77960,31 @@
         <v>2.6</v>
       </c>
       <c r="AU370">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV370">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW370">
+        <v>10</v>
+      </c>
+      <c r="AX370">
+        <v>9</v>
+      </c>
+      <c r="AY370">
+        <v>14</v>
+      </c>
+      <c r="AZ370">
+        <v>13</v>
+      </c>
+      <c r="BA370">
+        <v>6</v>
+      </c>
+      <c r="BB370">
         <v>4</v>
       </c>
-      <c r="AX370">
-        <v>3</v>
-      </c>
-      <c r="AY370">
-        <v>9</v>
-      </c>
-      <c r="AZ370">
-        <v>6</v>
-      </c>
-      <c r="BA370">
-        <v>4</v>
-      </c>
-      <c r="BB370">
-        <v>2</v>
-      </c>
       <c r="BC370">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD370">
         <v>2.04</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="475">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1800,7 +1800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP370"/>
+  <dimension ref="A1:BP371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="AQ16">
         <v>1.58</v>
@@ -6054,7 +6054,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ21">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -9350,7 +9350,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ37">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AR37">
         <v>1.5</v>
@@ -10171,7 +10171,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="AQ41">
         <v>0.44</v>
@@ -13058,7 +13058,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ55">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AR55">
         <v>1.85</v>
@@ -15115,7 +15115,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="AQ65">
         <v>0.72</v>
@@ -18208,7 +18208,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ80">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AR80">
         <v>1.66</v>
@@ -19029,7 +19029,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="AQ84">
         <v>1.22</v>
@@ -22122,7 +22122,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ99">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AR99">
         <v>1.3</v>
@@ -22531,7 +22531,7 @@
         <v>2</v>
       </c>
       <c r="AP101">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="AQ101">
         <v>1.32</v>
@@ -26654,7 +26654,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ121">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AR121">
         <v>1.72</v>
@@ -27475,7 +27475,7 @@
         <v>0.4</v>
       </c>
       <c r="AP125">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="AQ125">
         <v>1.21</v>
@@ -30977,7 +30977,7 @@
         <v>0.67</v>
       </c>
       <c r="AP142">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="AQ142">
         <v>0.68</v>
@@ -31598,7 +31598,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ145">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AR145">
         <v>1.91</v>
@@ -33658,7 +33658,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ155">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AR155">
         <v>1.43</v>
@@ -34067,7 +34067,7 @@
         <v>0.71</v>
       </c>
       <c r="AP157">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="AQ157">
         <v>0.53</v>
@@ -38808,7 +38808,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ180">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AR180">
         <v>1.08</v>
@@ -39011,7 +39011,7 @@
         <v>0.88</v>
       </c>
       <c r="AP181">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="AQ181">
         <v>0.95</v>
@@ -42928,7 +42928,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ200">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AR200">
         <v>1.27</v>
@@ -43131,7 +43131,7 @@
         <v>1.22</v>
       </c>
       <c r="AP201">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="AQ201">
         <v>1.06</v>
@@ -46636,7 +46636,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ218">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AR218">
         <v>1.24</v>
@@ -47045,7 +47045,7 @@
         <v>0.5</v>
       </c>
       <c r="AP220">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="AQ220">
         <v>0.5600000000000001</v>
@@ -49105,7 +49105,7 @@
         <v>1</v>
       </c>
       <c r="AP230">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="AQ230">
         <v>0.9399999999999999</v>
@@ -50756,7 +50756,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ238">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AR238">
         <v>1.43</v>
@@ -51989,7 +51989,7 @@
         <v>1.08</v>
       </c>
       <c r="AP244">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="AQ244">
         <v>1.39</v>
@@ -54258,7 +54258,7 @@
         <v>2</v>
       </c>
       <c r="AQ255">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AR255">
         <v>1.4</v>
@@ -57551,7 +57551,7 @@
         <v>1.08</v>
       </c>
       <c r="AP271">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="AQ271">
         <v>0.89</v>
@@ -58378,7 +58378,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ275">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AR275">
         <v>1.28</v>
@@ -59817,7 +59817,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP282">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="AQ282">
         <v>0.67</v>
@@ -63734,7 +63734,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ301">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AR301">
         <v>1.69</v>
@@ -64349,7 +64349,7 @@
         <v>0.73</v>
       </c>
       <c r="AP304">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="AQ304">
         <v>0.68</v>
@@ -67648,7 +67648,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ320">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AR320">
         <v>1.29</v>
@@ -69293,7 +69293,7 @@
         <v>0.75</v>
       </c>
       <c r="AP328">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="AQ328">
         <v>0.84</v>
@@ -69914,7 +69914,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ331">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AR331">
         <v>1.48</v>
@@ -73413,7 +73413,7 @@
         <v>1.29</v>
       </c>
       <c r="AP348">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="AQ348">
         <v>1.32</v>
@@ -73828,7 +73828,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ350">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="AR350">
         <v>1.34</v>
@@ -76724,22 +76724,22 @@
         <v>2.54</v>
       </c>
       <c r="AU364">
+        <v>3</v>
+      </c>
+      <c r="AV364">
+        <v>3</v>
+      </c>
+      <c r="AW364">
+        <v>2</v>
+      </c>
+      <c r="AX364">
         <v>4</v>
       </c>
-      <c r="AV364">
+      <c r="AY364">
+        <v>5</v>
+      </c>
+      <c r="AZ364">
         <v>7</v>
-      </c>
-      <c r="AW364">
-        <v>5</v>
-      </c>
-      <c r="AX364">
-        <v>8</v>
-      </c>
-      <c r="AY364">
-        <v>9</v>
-      </c>
-      <c r="AZ364">
-        <v>15</v>
       </c>
       <c r="BA364">
         <v>1</v>
@@ -77960,22 +77960,22 @@
         <v>2.6</v>
       </c>
       <c r="AU370">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV370">
         <v>4</v>
       </c>
       <c r="AW370">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AX370">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AY370">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ370">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BA370">
         <v>6</v>
@@ -78024,6 +78024,212 @@
       </c>
       <c r="BP370">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="371" spans="1:68">
+      <c r="A371" s="1">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>6956848</v>
+      </c>
+      <c r="C371" t="s">
+        <v>68</v>
+      </c>
+      <c r="D371" t="s">
+        <v>69</v>
+      </c>
+      <c r="E371" s="2">
+        <v>45431.54166666666</v>
+      </c>
+      <c r="F371">
+        <v>37</v>
+      </c>
+      <c r="G371" t="s">
+        <v>84</v>
+      </c>
+      <c r="H371" t="s">
+        <v>77</v>
+      </c>
+      <c r="I371">
+        <v>0</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>0</v>
+      </c>
+      <c r="L371">
+        <v>0</v>
+      </c>
+      <c r="M371">
+        <v>1</v>
+      </c>
+      <c r="N371">
+        <v>1</v>
+      </c>
+      <c r="O371" t="s">
+        <v>93</v>
+      </c>
+      <c r="P371" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q371">
+        <v>2.65</v>
+      </c>
+      <c r="R371">
+        <v>2.4</v>
+      </c>
+      <c r="S371">
+        <v>3.5</v>
+      </c>
+      <c r="T371">
+        <v>1.3</v>
+      </c>
+      <c r="U371">
+        <v>3.75</v>
+      </c>
+      <c r="V371">
+        <v>2.35</v>
+      </c>
+      <c r="W371">
+        <v>1.66</v>
+      </c>
+      <c r="X371">
+        <v>5.5</v>
+      </c>
+      <c r="Y371">
+        <v>1.18</v>
+      </c>
+      <c r="Z371">
+        <v>2.15</v>
+      </c>
+      <c r="AA371">
+        <v>3.7</v>
+      </c>
+      <c r="AB371">
+        <v>3</v>
+      </c>
+      <c r="AC371">
+        <v>1.02</v>
+      </c>
+      <c r="AD371">
+        <v>13</v>
+      </c>
+      <c r="AE371">
+        <v>1.13</v>
+      </c>
+      <c r="AF371">
+        <v>5.2</v>
+      </c>
+      <c r="AG371">
+        <v>1.52</v>
+      </c>
+      <c r="AH371">
+        <v>2.43</v>
+      </c>
+      <c r="AI371">
+        <v>1.47</v>
+      </c>
+      <c r="AJ371">
+        <v>2.7</v>
+      </c>
+      <c r="AK371">
+        <v>1.4</v>
+      </c>
+      <c r="AL371">
+        <v>1.28</v>
+      </c>
+      <c r="AM371">
+        <v>1.8</v>
+      </c>
+      <c r="AN371">
+        <v>3</v>
+      </c>
+      <c r="AO371">
+        <v>2.67</v>
+      </c>
+      <c r="AP371">
+        <v>2.84</v>
+      </c>
+      <c r="AQ371">
+        <v>2.68</v>
+      </c>
+      <c r="AR371">
+        <v>2.18</v>
+      </c>
+      <c r="AS371">
+        <v>1.95</v>
+      </c>
+      <c r="AT371">
+        <v>4.13</v>
+      </c>
+      <c r="AU371">
+        <v>0</v>
+      </c>
+      <c r="AV371">
+        <v>5</v>
+      </c>
+      <c r="AW371">
+        <v>10</v>
+      </c>
+      <c r="AX371">
+        <v>10</v>
+      </c>
+      <c r="AY371">
+        <v>10</v>
+      </c>
+      <c r="AZ371">
+        <v>15</v>
+      </c>
+      <c r="BA371">
+        <v>1</v>
+      </c>
+      <c r="BB371">
+        <v>5</v>
+      </c>
+      <c r="BC371">
+        <v>6</v>
+      </c>
+      <c r="BD371">
+        <v>1.88</v>
+      </c>
+      <c r="BE371">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF371">
+        <v>2.24</v>
+      </c>
+      <c r="BG371">
+        <v>1.31</v>
+      </c>
+      <c r="BH371">
+        <v>3.04</v>
+      </c>
+      <c r="BI371">
+        <v>1.59</v>
+      </c>
+      <c r="BJ371">
+        <v>2.21</v>
+      </c>
+      <c r="BK371">
+        <v>2.02</v>
+      </c>
+      <c r="BL371">
+        <v>1.74</v>
+      </c>
+      <c r="BM371">
+        <v>2.65</v>
+      </c>
+      <c r="BN371">
+        <v>1.42</v>
+      </c>
+      <c r="BO371">
+        <v>3.64</v>
+      </c>
+      <c r="BP371">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
@@ -982,6 +982,9 @@
     <t>['71', '90']</t>
   </si>
   <si>
+    <t>['18', '43', '59']</t>
+  </si>
+  <si>
     <t>['21', '28', '38']</t>
   </si>
   <si>
@@ -989,9 +992,6 @@
   </si>
   <si>
     <t>['6', '7', '49']</t>
-  </si>
-  <si>
-    <t>['18', '43', '59']</t>
   </si>
   <si>
     <t>['30', '74']</t>
@@ -72057,7 +72057,7 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>6956824</v>
+        <v>6956830</v>
       </c>
       <c r="C342" t="s">
         <v>68</v>
@@ -72072,154 +72072,154 @@
         <v>35</v>
       </c>
       <c r="G342" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H342" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I342">
         <v>1</v>
       </c>
       <c r="J342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L342">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N342">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O342" t="s">
-        <v>166</v>
+        <v>313</v>
       </c>
       <c r="P342" t="s">
-        <v>296</v>
+        <v>465</v>
       </c>
       <c r="Q342">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="R342">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S342">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="T342">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="U342">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="V342">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="W342">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="X342">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Y342">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="Z342">
-        <v>2.11</v>
+        <v>1.75</v>
       </c>
       <c r="AA342">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AB342">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="AC342">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD342">
-        <v>10.06</v>
+        <v>17</v>
       </c>
       <c r="AE342">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AF342">
-        <v>3.44</v>
+        <v>4.75</v>
       </c>
       <c r="AG342">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="AH342">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AI342">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="AJ342">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AK342">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AL342">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AM342">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AN342">
-        <v>1.47</v>
+        <v>1.76</v>
       </c>
       <c r="AO342">
-        <v>1.24</v>
+        <v>0.75</v>
       </c>
       <c r="AP342">
-        <v>1.42</v>
+        <v>1.79</v>
       </c>
       <c r="AQ342">
-        <v>1.21</v>
+        <v>0.67</v>
       </c>
       <c r="AR342">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
       <c r="AS342">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AT342">
-        <v>2.57</v>
+        <v>2.85</v>
       </c>
       <c r="AU342">
+        <v>10</v>
+      </c>
+      <c r="AV342">
         <v>6</v>
       </c>
-      <c r="AV342">
+      <c r="AW342">
         <v>7</v>
-      </c>
-      <c r="AW342">
-        <v>2</v>
       </c>
       <c r="AX342">
         <v>7</v>
       </c>
       <c r="AY342">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AZ342">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA342">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB342">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC342">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD342">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="BE342">
         <v>8</v>
@@ -72228,34 +72228,34 @@
         <v>2.5</v>
       </c>
       <c r="BG342">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="BH342">
-        <v>2.93</v>
+        <v>3.48</v>
       </c>
       <c r="BI342">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="BJ342">
-        <v>2.05</v>
+        <v>2.49</v>
       </c>
       <c r="BK342">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="BL342">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="BM342">
-        <v>2.75</v>
+        <v>2.34</v>
       </c>
       <c r="BN342">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="BO342">
-        <v>3.84</v>
+        <v>3.08</v>
       </c>
       <c r="BP342">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="343" spans="1:68">
@@ -72263,7 +72263,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>6956830</v>
+        <v>6956824</v>
       </c>
       <c r="C343" t="s">
         <v>68</v>
@@ -72278,154 +72278,154 @@
         <v>35</v>
       </c>
       <c r="G343" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H343" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I343">
         <v>1</v>
       </c>
       <c r="J343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K343">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L343">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M343">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N343">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O343" t="s">
-        <v>313</v>
+        <v>166</v>
       </c>
       <c r="P343" t="s">
-        <v>465</v>
+        <v>296</v>
       </c>
       <c r="Q343">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="R343">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S343">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="T343">
+        <v>1.38</v>
+      </c>
+      <c r="U343">
+        <v>2.8</v>
+      </c>
+      <c r="V343">
+        <v>2.75</v>
+      </c>
+      <c r="W343">
+        <v>1.4</v>
+      </c>
+      <c r="X343">
+        <v>6.5</v>
+      </c>
+      <c r="Y343">
+        <v>1.08</v>
+      </c>
+      <c r="Z343">
+        <v>2.11</v>
+      </c>
+      <c r="AA343">
+        <v>3.2</v>
+      </c>
+      <c r="AB343">
+        <v>3.2</v>
+      </c>
+      <c r="AC343">
+        <v>1.04</v>
+      </c>
+      <c r="AD343">
+        <v>10.06</v>
+      </c>
+      <c r="AE343">
+        <v>1.29</v>
+      </c>
+      <c r="AF343">
+        <v>3.44</v>
+      </c>
+      <c r="AG343">
+        <v>1.88</v>
+      </c>
+      <c r="AH343">
+        <v>2</v>
+      </c>
+      <c r="AI343">
+        <v>1.73</v>
+      </c>
+      <c r="AJ343">
+        <v>2</v>
+      </c>
+      <c r="AK343">
         <v>1.3</v>
       </c>
-      <c r="U343">
-        <v>3.2</v>
-      </c>
-      <c r="V343">
-        <v>2.35</v>
-      </c>
-      <c r="W343">
-        <v>1.53</v>
-      </c>
-      <c r="X343">
-        <v>5.25</v>
-      </c>
-      <c r="Y343">
-        <v>1.12</v>
-      </c>
-      <c r="Z343">
+      <c r="AL343">
+        <v>1.25</v>
+      </c>
+      <c r="AM343">
         <v>1.75</v>
       </c>
-      <c r="AA343">
-        <v>3.6</v>
-      </c>
-      <c r="AB343">
-        <v>3.9</v>
-      </c>
-      <c r="AC343">
-        <v>1.03</v>
-      </c>
-      <c r="AD343">
-        <v>17</v>
-      </c>
-      <c r="AE343">
-        <v>1.17</v>
-      </c>
-      <c r="AF343">
-        <v>4.75</v>
-      </c>
-      <c r="AG343">
-        <v>1.6</v>
-      </c>
-      <c r="AH343">
-        <v>2.2</v>
-      </c>
-      <c r="AI343">
-        <v>1.55</v>
-      </c>
-      <c r="AJ343">
-        <v>2.3</v>
-      </c>
-      <c r="AK343">
+      <c r="AN343">
+        <v>1.47</v>
+      </c>
+      <c r="AO343">
+        <v>1.24</v>
+      </c>
+      <c r="AP343">
+        <v>1.42</v>
+      </c>
+      <c r="AQ343">
+        <v>1.21</v>
+      </c>
+      <c r="AR343">
+        <v>1.35</v>
+      </c>
+      <c r="AS343">
         <v>1.22</v>
       </c>
-      <c r="AL343">
-        <v>1.2</v>
-      </c>
-      <c r="AM343">
-        <v>1.95</v>
-      </c>
-      <c r="AN343">
-        <v>1.76</v>
-      </c>
-      <c r="AO343">
-        <v>0.75</v>
-      </c>
-      <c r="AP343">
-        <v>1.79</v>
-      </c>
-      <c r="AQ343">
-        <v>0.67</v>
-      </c>
-      <c r="AR343">
-        <v>1.62</v>
-      </c>
-      <c r="AS343">
-        <v>1.23</v>
-      </c>
       <c r="AT343">
-        <v>2.85</v>
+        <v>2.57</v>
       </c>
       <c r="AU343">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AV343">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW343">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX343">
         <v>7</v>
       </c>
       <c r="AY343">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AZ343">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA343">
+        <v>5</v>
+      </c>
+      <c r="BB343">
+        <v>2</v>
+      </c>
+      <c r="BC343">
         <v>7</v>
       </c>
-      <c r="BB343">
-        <v>3</v>
-      </c>
-      <c r="BC343">
-        <v>10</v>
-      </c>
       <c r="BD343">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="BE343">
         <v>8</v>
@@ -72434,34 +72434,34 @@
         <v>2.5</v>
       </c>
       <c r="BG343">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="BH343">
-        <v>3.48</v>
+        <v>2.93</v>
       </c>
       <c r="BI343">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="BJ343">
-        <v>2.49</v>
+        <v>2.05</v>
       </c>
       <c r="BK343">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="BL343">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="BM343">
-        <v>2.34</v>
+        <v>2.75</v>
       </c>
       <c r="BN343">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="BO343">
-        <v>3.08</v>
+        <v>3.84</v>
       </c>
       <c r="BP343">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="344" spans="1:68">
@@ -73705,7 +73705,7 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>6956828</v>
+        <v>6956822</v>
       </c>
       <c r="C350" t="s">
         <v>68</v>
@@ -73720,82 +73720,82 @@
         <v>35</v>
       </c>
       <c r="G350" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H350" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J350">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K350">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M350">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N350">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O350" t="s">
-        <v>93</v>
+        <v>318</v>
       </c>
       <c r="P350" t="s">
-        <v>93</v>
+        <v>467</v>
       </c>
       <c r="Q350">
-        <v>6.5</v>
+        <v>2.85</v>
       </c>
       <c r="R350">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S350">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="T350">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="U350">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="V350">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="W350">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="X350">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y350">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="Z350">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="AA350">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="AB350">
-        <v>1.38</v>
+        <v>2.9</v>
       </c>
       <c r="AC350">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD350">
-        <v>18.25</v>
+        <v>13</v>
       </c>
       <c r="AE350">
         <v>1.22</v>
       </c>
       <c r="AF350">
-        <v>4.4</v>
+        <v>4.12</v>
       </c>
       <c r="AG350">
         <v>1.61</v>
@@ -73804,106 +73804,106 @@
         <v>2.25</v>
       </c>
       <c r="AI350">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AJ350">
-        <v>1.87</v>
+        <v>2.3</v>
       </c>
       <c r="AK350">
-        <v>3.2</v>
+        <v>1.42</v>
       </c>
       <c r="AL350">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AM350">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="AN350">
-        <v>1.19</v>
+        <v>1.71</v>
       </c>
       <c r="AO350">
-        <v>2.76</v>
+        <v>0.71</v>
       </c>
       <c r="AP350">
-        <v>1.28</v>
+        <v>1.68</v>
       </c>
       <c r="AQ350">
-        <v>2.68</v>
+        <v>0.84</v>
       </c>
       <c r="AR350">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="AS350">
-        <v>1.94</v>
+        <v>1.3</v>
       </c>
       <c r="AT350">
-        <v>3.28</v>
+        <v>2.74</v>
       </c>
       <c r="AU350">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AV350">
+        <v>11</v>
+      </c>
+      <c r="AW350">
+        <v>6</v>
+      </c>
+      <c r="AX350">
+        <v>7</v>
+      </c>
+      <c r="AY350">
+        <v>14</v>
+      </c>
+      <c r="AZ350">
+        <v>18</v>
+      </c>
+      <c r="BA350">
         <v>8</v>
       </c>
-      <c r="AW350">
-        <v>3</v>
-      </c>
-      <c r="AX350">
-        <v>8</v>
-      </c>
-      <c r="AY350">
-        <v>6</v>
-      </c>
-      <c r="AZ350">
-        <v>16</v>
-      </c>
-      <c r="BA350">
-        <v>2</v>
-      </c>
       <c r="BB350">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BC350">
         <v>13</v>
       </c>
       <c r="BD350">
-        <v>3.75</v>
+        <v>1.91</v>
       </c>
       <c r="BE350">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF350">
-        <v>1.33</v>
+        <v>2.2</v>
       </c>
       <c r="BG350">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="BH350">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="BI350">
-        <v>1.67</v>
+        <v>1.37</v>
       </c>
       <c r="BJ350">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="BK350">
-        <v>2.4</v>
+        <v>1.73</v>
       </c>
       <c r="BL350">
-        <v>1.49</v>
+        <v>2</v>
       </c>
       <c r="BM350">
-        <v>3.3</v>
+        <v>2.07</v>
       </c>
       <c r="BN350">
-        <v>1.28</v>
+        <v>1.66</v>
       </c>
       <c r="BO350">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="BP350">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="351" spans="1:68">
@@ -73911,7 +73911,7 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>6956822</v>
+        <v>6956828</v>
       </c>
       <c r="C351" t="s">
         <v>68</v>
@@ -73926,82 +73926,82 @@
         <v>35</v>
       </c>
       <c r="G351" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H351" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J351">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K351">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M351">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N351">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O351" t="s">
-        <v>318</v>
+        <v>93</v>
       </c>
       <c r="P351" t="s">
-        <v>467</v>
+        <v>93</v>
       </c>
       <c r="Q351">
-        <v>2.85</v>
+        <v>6.5</v>
       </c>
       <c r="R351">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="S351">
+        <v>1.9</v>
+      </c>
+      <c r="T351">
+        <v>1.35</v>
+      </c>
+      <c r="U351">
         <v>3.5</v>
       </c>
-      <c r="T351">
-        <v>1.34</v>
-      </c>
-      <c r="U351">
-        <v>3.35</v>
-      </c>
       <c r="V351">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="W351">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="X351">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y351">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="Z351">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="AA351">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="AB351">
-        <v>2.9</v>
+        <v>1.38</v>
       </c>
       <c r="AC351">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD351">
-        <v>13</v>
+        <v>18.25</v>
       </c>
       <c r="AE351">
         <v>1.22</v>
       </c>
       <c r="AF351">
-        <v>4.12</v>
+        <v>4.4</v>
       </c>
       <c r="AG351">
         <v>1.61</v>
@@ -74010,106 +74010,106 @@
         <v>2.25</v>
       </c>
       <c r="AI351">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AJ351">
-        <v>2.3</v>
+        <v>1.87</v>
       </c>
       <c r="AK351">
-        <v>1.42</v>
+        <v>3.2</v>
       </c>
       <c r="AL351">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AM351">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="AN351">
-        <v>1.71</v>
+        <v>1.19</v>
       </c>
       <c r="AO351">
-        <v>0.71</v>
+        <v>2.76</v>
       </c>
       <c r="AP351">
-        <v>1.68</v>
+        <v>1.28</v>
       </c>
       <c r="AQ351">
-        <v>0.84</v>
+        <v>2.68</v>
       </c>
       <c r="AR351">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="AS351">
-        <v>1.3</v>
+        <v>1.94</v>
       </c>
       <c r="AT351">
-        <v>2.74</v>
+        <v>3.28</v>
       </c>
       <c r="AU351">
+        <v>3</v>
+      </c>
+      <c r="AV351">
         <v>8</v>
       </c>
-      <c r="AV351">
+      <c r="AW351">
+        <v>3</v>
+      </c>
+      <c r="AX351">
+        <v>8</v>
+      </c>
+      <c r="AY351">
+        <v>6</v>
+      </c>
+      <c r="AZ351">
+        <v>16</v>
+      </c>
+      <c r="BA351">
+        <v>2</v>
+      </c>
+      <c r="BB351">
         <v>11</v>
-      </c>
-      <c r="AW351">
-        <v>6</v>
-      </c>
-      <c r="AX351">
-        <v>7</v>
-      </c>
-      <c r="AY351">
-        <v>14</v>
-      </c>
-      <c r="AZ351">
-        <v>18</v>
-      </c>
-      <c r="BA351">
-        <v>8</v>
-      </c>
-      <c r="BB351">
-        <v>5</v>
       </c>
       <c r="BC351">
         <v>13</v>
       </c>
       <c r="BD351">
-        <v>1.91</v>
+        <v>3.75</v>
       </c>
       <c r="BE351">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF351">
-        <v>2.2</v>
+        <v>1.33</v>
       </c>
       <c r="BG351">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="BH351">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="BI351">
-        <v>1.37</v>
+        <v>1.67</v>
       </c>
       <c r="BJ351">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="BK351">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="BL351">
-        <v>2</v>
+        <v>1.49</v>
       </c>
       <c r="BM351">
-        <v>2.07</v>
+        <v>3.3</v>
       </c>
       <c r="BN351">
-        <v>1.66</v>
+        <v>1.28</v>
       </c>
       <c r="BO351">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="BP351">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="352" spans="1:68">
@@ -74323,7 +74323,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>6956838</v>
+        <v>6956837</v>
       </c>
       <c r="C353" t="s">
         <v>68</v>
@@ -74338,190 +74338,190 @@
         <v>36</v>
       </c>
       <c r="G353" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H353" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I353">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J353">
         <v>0</v>
       </c>
       <c r="K353">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L353">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M353">
         <v>1</v>
       </c>
       <c r="N353">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O353" t="s">
-        <v>235</v>
+        <v>320</v>
       </c>
       <c r="P353" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="Q353">
-        <v>3.2</v>
+        <v>2.57</v>
       </c>
       <c r="R353">
-        <v>2.15</v>
+        <v>2.48</v>
       </c>
       <c r="S353">
-        <v>2.95</v>
+        <v>3.96</v>
       </c>
       <c r="T353">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U353">
-        <v>3</v>
+        <v>3.34</v>
       </c>
       <c r="V353">
         <v>2.45</v>
       </c>
       <c r="W353">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="X353">
-        <v>5.5</v>
+        <v>5.55</v>
       </c>
       <c r="Y353">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z353">
-        <v>2.99</v>
+        <v>2.13</v>
       </c>
       <c r="AA353">
-        <v>3.52</v>
+        <v>3.58</v>
       </c>
       <c r="AB353">
-        <v>2.3</v>
+        <v>3.28</v>
       </c>
       <c r="AC353">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD353">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE353">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AF353">
-        <v>4.12</v>
+        <v>4.5</v>
       </c>
       <c r="AG353">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="AH353">
-        <v>2.09</v>
+        <v>2.18</v>
       </c>
       <c r="AI353">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="AJ353">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="AK353">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="AL353">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AM353">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="AN353">
-        <v>1.59</v>
+        <v>1.47</v>
       </c>
       <c r="AO353">
-        <v>1.24</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP353">
         <v>1.56</v>
       </c>
       <c r="AQ353">
-        <v>1.22</v>
+        <v>0.89</v>
       </c>
       <c r="AR353">
+        <v>1.55</v>
+      </c>
+      <c r="AS353">
+        <v>1.25</v>
+      </c>
+      <c r="AT353">
+        <v>2.8</v>
+      </c>
+      <c r="AU353">
+        <v>10</v>
+      </c>
+      <c r="AV353">
+        <v>2</v>
+      </c>
+      <c r="AW353">
+        <v>4</v>
+      </c>
+      <c r="AX353">
+        <v>8</v>
+      </c>
+      <c r="AY353">
+        <v>14</v>
+      </c>
+      <c r="AZ353">
+        <v>10</v>
+      </c>
+      <c r="BA353">
+        <v>4</v>
+      </c>
+      <c r="BB353">
+        <v>5</v>
+      </c>
+      <c r="BC353">
+        <v>9</v>
+      </c>
+      <c r="BD353">
+        <v>1.69</v>
+      </c>
+      <c r="BE353">
+        <v>9.4</v>
+      </c>
+      <c r="BF353">
+        <v>2.53</v>
+      </c>
+      <c r="BG353">
+        <v>1.17</v>
+      </c>
+      <c r="BH353">
+        <v>4.2</v>
+      </c>
+      <c r="BI353">
+        <v>1.34</v>
+      </c>
+      <c r="BJ353">
+        <v>2.88</v>
+      </c>
+      <c r="BK353">
+        <v>1.68</v>
+      </c>
+      <c r="BL353">
+        <v>2.19</v>
+      </c>
+      <c r="BM353">
+        <v>2.06</v>
+      </c>
+      <c r="BN353">
+        <v>1.76</v>
+      </c>
+      <c r="BO353">
+        <v>2.65</v>
+      </c>
+      <c r="BP353">
         <v>1.42</v>
-      </c>
-      <c r="AS353">
-        <v>1.27</v>
-      </c>
-      <c r="AT353">
-        <v>2.69</v>
-      </c>
-      <c r="AU353">
-        <v>6</v>
-      </c>
-      <c r="AV353">
-        <v>3</v>
-      </c>
-      <c r="AW353">
-        <v>7</v>
-      </c>
-      <c r="AX353">
-        <v>5</v>
-      </c>
-      <c r="AY353">
-        <v>13</v>
-      </c>
-      <c r="AZ353">
-        <v>8</v>
-      </c>
-      <c r="BA353">
-        <v>3</v>
-      </c>
-      <c r="BB353">
-        <v>1</v>
-      </c>
-      <c r="BC353">
-        <v>4</v>
-      </c>
-      <c r="BD353">
-        <v>1.98</v>
-      </c>
-      <c r="BE353">
-        <v>8.9</v>
-      </c>
-      <c r="BF353">
-        <v>2.1</v>
-      </c>
-      <c r="BG353">
-        <v>1.24</v>
-      </c>
-      <c r="BH353">
-        <v>3.48</v>
-      </c>
-      <c r="BI353">
-        <v>1.52</v>
-      </c>
-      <c r="BJ353">
-        <v>2.5</v>
-      </c>
-      <c r="BK353">
-        <v>2</v>
-      </c>
-      <c r="BL353">
-        <v>1.8</v>
-      </c>
-      <c r="BM353">
-        <v>2.3</v>
-      </c>
-      <c r="BN353">
-        <v>1.61</v>
-      </c>
-      <c r="BO353">
-        <v>3.08</v>
-      </c>
-      <c r="BP353">
-        <v>1.3</v>
       </c>
     </row>
     <row r="354" spans="1:68">
@@ -74529,7 +74529,7 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>6956837</v>
+        <v>6956839</v>
       </c>
       <c r="C354" t="s">
         <v>68</v>
@@ -74544,190 +74544,190 @@
         <v>36</v>
       </c>
       <c r="G354" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="H354" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I354">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J354">
         <v>0</v>
       </c>
       <c r="K354">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L354">
+        <v>2</v>
+      </c>
+      <c r="M354">
+        <v>1</v>
+      </c>
+      <c r="N354">
         <v>3</v>
       </c>
-      <c r="M354">
-        <v>1</v>
-      </c>
-      <c r="N354">
-        <v>4</v>
-      </c>
       <c r="O354" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P354" t="s">
-        <v>281</v>
+        <v>111</v>
       </c>
       <c r="Q354">
-        <v>2.57</v>
+        <v>3</v>
       </c>
       <c r="R354">
+        <v>2.1</v>
+      </c>
+      <c r="S354">
+        <v>3.2</v>
+      </c>
+      <c r="T354">
+        <v>1.36</v>
+      </c>
+      <c r="U354">
+        <v>2.85</v>
+      </c>
+      <c r="V354">
+        <v>2.65</v>
+      </c>
+      <c r="W354">
+        <v>1.42</v>
+      </c>
+      <c r="X354">
+        <v>6.25</v>
+      </c>
+      <c r="Y354">
+        <v>1.09</v>
+      </c>
+      <c r="Z354">
+        <v>2.59</v>
+      </c>
+      <c r="AA354">
+        <v>3.24</v>
+      </c>
+      <c r="AB354">
+        <v>2.79</v>
+      </c>
+      <c r="AC354">
+        <v>1.03</v>
+      </c>
+      <c r="AD354">
+        <v>10.65</v>
+      </c>
+      <c r="AE354">
+        <v>1.27</v>
+      </c>
+      <c r="AF354">
+        <v>3.61</v>
+      </c>
+      <c r="AG354">
+        <v>2.08</v>
+      </c>
+      <c r="AH354">
+        <v>1.75</v>
+      </c>
+      <c r="AI354">
+        <v>1.62</v>
+      </c>
+      <c r="AJ354">
+        <v>2.15</v>
+      </c>
+      <c r="AK354">
+        <v>1.44</v>
+      </c>
+      <c r="AL354">
+        <v>1.25</v>
+      </c>
+      <c r="AM354">
+        <v>1.53</v>
+      </c>
+      <c r="AN354">
+        <v>1.29</v>
+      </c>
+      <c r="AO354">
+        <v>0.76</v>
+      </c>
+      <c r="AP354">
+        <v>1.39</v>
+      </c>
+      <c r="AQ354">
+        <v>0.72</v>
+      </c>
+      <c r="AR354">
+        <v>1.28</v>
+      </c>
+      <c r="AS354">
+        <v>1.2</v>
+      </c>
+      <c r="AT354">
         <v>2.48</v>
       </c>
-      <c r="S354">
-        <v>3.96</v>
-      </c>
-      <c r="T354">
-        <v>1.3</v>
-      </c>
-      <c r="U354">
-        <v>3.34</v>
-      </c>
-      <c r="V354">
-        <v>2.45</v>
-      </c>
-      <c r="W354">
-        <v>1.57</v>
-      </c>
-      <c r="X354">
-        <v>5.55</v>
-      </c>
-      <c r="Y354">
-        <v>1.13</v>
-      </c>
-      <c r="Z354">
-        <v>2.13</v>
-      </c>
-      <c r="AA354">
-        <v>3.58</v>
-      </c>
-      <c r="AB354">
-        <v>3.28</v>
-      </c>
-      <c r="AC354">
-        <v>1.04</v>
-      </c>
-      <c r="AD354">
-        <v>15</v>
-      </c>
-      <c r="AE354">
-        <v>1.19</v>
-      </c>
-      <c r="AF354">
-        <v>4.5</v>
-      </c>
-      <c r="AG354">
-        <v>1.68</v>
-      </c>
-      <c r="AH354">
-        <v>2.18</v>
-      </c>
-      <c r="AI354">
-        <v>1.56</v>
-      </c>
-      <c r="AJ354">
+      <c r="AU354">
+        <v>5</v>
+      </c>
+      <c r="AV354">
+        <v>6</v>
+      </c>
+      <c r="AW354">
+        <v>7</v>
+      </c>
+      <c r="AX354">
+        <v>7</v>
+      </c>
+      <c r="AY354">
+        <v>12</v>
+      </c>
+      <c r="AZ354">
+        <v>13</v>
+      </c>
+      <c r="BA354">
+        <v>2</v>
+      </c>
+      <c r="BB354">
+        <v>6</v>
+      </c>
+      <c r="BC354">
+        <v>8</v>
+      </c>
+      <c r="BD354">
+        <v>1.83</v>
+      </c>
+      <c r="BE354">
+        <v>8.5</v>
+      </c>
+      <c r="BF354">
         <v>2.33</v>
       </c>
-      <c r="AK354">
-        <v>1.3</v>
-      </c>
-      <c r="AL354">
-        <v>1.27</v>
-      </c>
-      <c r="AM354">
-        <v>1.83</v>
-      </c>
-      <c r="AN354">
-        <v>1.47</v>
-      </c>
-      <c r="AO354">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AP354">
-        <v>1.56</v>
-      </c>
-      <c r="AQ354">
-        <v>0.89</v>
-      </c>
-      <c r="AR354">
-        <v>1.55</v>
-      </c>
-      <c r="AS354">
-        <v>1.25</v>
-      </c>
-      <c r="AT354">
+      <c r="BG354">
+        <v>1.38</v>
+      </c>
+      <c r="BH354">
         <v>2.8</v>
       </c>
-      <c r="AU354">
-        <v>10</v>
-      </c>
-      <c r="AV354">
-        <v>2</v>
-      </c>
-      <c r="AW354">
-        <v>4</v>
-      </c>
-      <c r="AX354">
-        <v>8</v>
-      </c>
-      <c r="AY354">
-        <v>14</v>
-      </c>
-      <c r="AZ354">
-        <v>10</v>
-      </c>
-      <c r="BA354">
-        <v>4</v>
-      </c>
-      <c r="BB354">
-        <v>5</v>
-      </c>
-      <c r="BC354">
-        <v>9</v>
-      </c>
-      <c r="BD354">
-        <v>1.69</v>
-      </c>
-      <c r="BE354">
-        <v>9.4</v>
-      </c>
-      <c r="BF354">
-        <v>2.53</v>
-      </c>
-      <c r="BG354">
-        <v>1.17</v>
-      </c>
-      <c r="BH354">
-        <v>4.2</v>
-      </c>
       <c r="BI354">
-        <v>1.34</v>
+        <v>1.76</v>
       </c>
       <c r="BJ354">
-        <v>2.88</v>
+        <v>2.06</v>
       </c>
       <c r="BK354">
-        <v>1.68</v>
+        <v>2.21</v>
       </c>
       <c r="BL354">
-        <v>2.19</v>
+        <v>1.67</v>
       </c>
       <c r="BM354">
-        <v>2.06</v>
+        <v>2.91</v>
       </c>
       <c r="BN354">
-        <v>1.76</v>
+        <v>1.33</v>
       </c>
       <c r="BO354">
-        <v>2.65</v>
+        <v>4.15</v>
       </c>
       <c r="BP354">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="355" spans="1:68">
@@ -74735,7 +74735,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>6956836</v>
+        <v>6956838</v>
       </c>
       <c r="C355" t="s">
         <v>68</v>
@@ -74750,190 +74750,190 @@
         <v>36</v>
       </c>
       <c r="G355" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H355" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I355">
         <v>0</v>
       </c>
       <c r="J355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M355">
         <v>1</v>
       </c>
       <c r="N355">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O355" t="s">
-        <v>93</v>
+        <v>235</v>
       </c>
       <c r="P355" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="Q355">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="R355">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="S355">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="T355">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="U355">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="V355">
-        <v>2.88</v>
+        <v>2.45</v>
       </c>
       <c r="W355">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="X355">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Y355">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="Z355">
-        <v>3.06</v>
+        <v>2.99</v>
       </c>
       <c r="AA355">
-        <v>3.3</v>
+        <v>3.52</v>
       </c>
       <c r="AB355">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="AC355">
         <v>1.05</v>
       </c>
       <c r="AD355">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE355">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AF355">
-        <v>3.25</v>
+        <v>4.12</v>
       </c>
       <c r="AG355">
-        <v>2.02</v>
+        <v>1.74</v>
       </c>
       <c r="AH355">
-        <v>1.79</v>
+        <v>2.09</v>
       </c>
       <c r="AI355">
-        <v>1.77</v>
+        <v>1.55</v>
       </c>
       <c r="AJ355">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="AK355">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AL355">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM355">
+        <v>1.44</v>
+      </c>
+      <c r="AN355">
+        <v>1.59</v>
+      </c>
+      <c r="AO355">
+        <v>1.24</v>
+      </c>
+      <c r="AP355">
+        <v>1.56</v>
+      </c>
+      <c r="AQ355">
+        <v>1.22</v>
+      </c>
+      <c r="AR355">
+        <v>1.42</v>
+      </c>
+      <c r="AS355">
+        <v>1.27</v>
+      </c>
+      <c r="AT355">
+        <v>2.69</v>
+      </c>
+      <c r="AU355">
+        <v>6</v>
+      </c>
+      <c r="AV355">
+        <v>3</v>
+      </c>
+      <c r="AW355">
+        <v>7</v>
+      </c>
+      <c r="AX355">
+        <v>5</v>
+      </c>
+      <c r="AY355">
+        <v>13</v>
+      </c>
+      <c r="AZ355">
+        <v>8</v>
+      </c>
+      <c r="BA355">
+        <v>3</v>
+      </c>
+      <c r="BB355">
+        <v>1</v>
+      </c>
+      <c r="BC355">
+        <v>4</v>
+      </c>
+      <c r="BD355">
+        <v>1.98</v>
+      </c>
+      <c r="BE355">
+        <v>8.9</v>
+      </c>
+      <c r="BF355">
+        <v>2.1</v>
+      </c>
+      <c r="BG355">
+        <v>1.24</v>
+      </c>
+      <c r="BH355">
+        <v>3.48</v>
+      </c>
+      <c r="BI355">
+        <v>1.52</v>
+      </c>
+      <c r="BJ355">
+        <v>2.5</v>
+      </c>
+      <c r="BK355">
+        <v>2</v>
+      </c>
+      <c r="BL355">
+        <v>1.8</v>
+      </c>
+      <c r="BM355">
+        <v>2.3</v>
+      </c>
+      <c r="BN355">
+        <v>1.61</v>
+      </c>
+      <c r="BO355">
+        <v>3.08</v>
+      </c>
+      <c r="BP355">
         <v>1.3</v>
-      </c>
-      <c r="AN355">
-        <v>1.53</v>
-      </c>
-      <c r="AO355">
-        <v>1.29</v>
-      </c>
-      <c r="AP355">
-        <v>1.44</v>
-      </c>
-      <c r="AQ355">
-        <v>1.39</v>
-      </c>
-      <c r="AR355">
-        <v>1.41</v>
-      </c>
-      <c r="AS355">
-        <v>1.19</v>
-      </c>
-      <c r="AT355">
-        <v>2.6</v>
-      </c>
-      <c r="AU355">
-        <v>3</v>
-      </c>
-      <c r="AV355">
-        <v>7</v>
-      </c>
-      <c r="AW355">
-        <v>4</v>
-      </c>
-      <c r="AX355">
-        <v>4</v>
-      </c>
-      <c r="AY355">
-        <v>7</v>
-      </c>
-      <c r="AZ355">
-        <v>11</v>
-      </c>
-      <c r="BA355">
-        <v>10</v>
-      </c>
-      <c r="BB355">
-        <v>3</v>
-      </c>
-      <c r="BC355">
-        <v>13</v>
-      </c>
-      <c r="BD355">
-        <v>2.24</v>
-      </c>
-      <c r="BE355">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="BF355">
-        <v>1.88</v>
-      </c>
-      <c r="BG355">
-        <v>1.3</v>
-      </c>
-      <c r="BH355">
-        <v>3.08</v>
-      </c>
-      <c r="BI355">
-        <v>1.64</v>
-      </c>
-      <c r="BJ355">
-        <v>2.24</v>
-      </c>
-      <c r="BK355">
-        <v>2.01</v>
-      </c>
-      <c r="BL355">
-        <v>1.79</v>
-      </c>
-      <c r="BM355">
-        <v>2.62</v>
-      </c>
-      <c r="BN355">
-        <v>1.43</v>
-      </c>
-      <c r="BO355">
-        <v>3.56</v>
-      </c>
-      <c r="BP355">
-        <v>1.23</v>
       </c>
     </row>
     <row r="356" spans="1:68">
@@ -74941,7 +74941,7 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>6956839</v>
+        <v>6956836</v>
       </c>
       <c r="C356" t="s">
         <v>68</v>
@@ -74956,190 +74956,190 @@
         <v>36</v>
       </c>
       <c r="G356" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H356" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I356">
         <v>0</v>
       </c>
       <c r="J356">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K356">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L356">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M356">
         <v>1</v>
       </c>
       <c r="N356">
+        <v>1</v>
+      </c>
+      <c r="O356" t="s">
+        <v>93</v>
+      </c>
+      <c r="P356" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q356">
+        <v>3.9</v>
+      </c>
+      <c r="R356">
+        <v>2.05</v>
+      </c>
+      <c r="S356">
+        <v>2.7</v>
+      </c>
+      <c r="T356">
+        <v>1.42</v>
+      </c>
+      <c r="U356">
+        <v>2.65</v>
+      </c>
+      <c r="V356">
+        <v>2.88</v>
+      </c>
+      <c r="W356">
+        <v>1.36</v>
+      </c>
+      <c r="X356">
+        <v>7</v>
+      </c>
+      <c r="Y356">
+        <v>1.07</v>
+      </c>
+      <c r="Z356">
+        <v>3.06</v>
+      </c>
+      <c r="AA356">
+        <v>3.3</v>
+      </c>
+      <c r="AB356">
+        <v>2.36</v>
+      </c>
+      <c r="AC356">
+        <v>1.05</v>
+      </c>
+      <c r="AD356">
+        <v>9</v>
+      </c>
+      <c r="AE356">
+        <v>1.32</v>
+      </c>
+      <c r="AF356">
+        <v>3.25</v>
+      </c>
+      <c r="AG356">
+        <v>2.02</v>
+      </c>
+      <c r="AH356">
+        <v>1.79</v>
+      </c>
+      <c r="AI356">
+        <v>1.77</v>
+      </c>
+      <c r="AJ356">
+        <v>1.95</v>
+      </c>
+      <c r="AK356">
+        <v>1.67</v>
+      </c>
+      <c r="AL356">
+        <v>1.28</v>
+      </c>
+      <c r="AM356">
+        <v>1.3</v>
+      </c>
+      <c r="AN356">
+        <v>1.53</v>
+      </c>
+      <c r="AO356">
+        <v>1.29</v>
+      </c>
+      <c r="AP356">
+        <v>1.44</v>
+      </c>
+      <c r="AQ356">
+        <v>1.39</v>
+      </c>
+      <c r="AR356">
+        <v>1.41</v>
+      </c>
+      <c r="AS356">
+        <v>1.19</v>
+      </c>
+      <c r="AT356">
+        <v>2.6</v>
+      </c>
+      <c r="AU356">
         <v>3</v>
       </c>
-      <c r="O356" t="s">
-        <v>321</v>
-      </c>
-      <c r="P356" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q356">
+      <c r="AV356">
+        <v>7</v>
+      </c>
+      <c r="AW356">
+        <v>4</v>
+      </c>
+      <c r="AX356">
+        <v>4</v>
+      </c>
+      <c r="AY356">
+        <v>7</v>
+      </c>
+      <c r="AZ356">
+        <v>11</v>
+      </c>
+      <c r="BA356">
+        <v>10</v>
+      </c>
+      <c r="BB356">
         <v>3</v>
       </c>
-      <c r="R356">
-        <v>2.1</v>
-      </c>
-      <c r="S356">
-        <v>3.2</v>
-      </c>
-      <c r="T356">
-        <v>1.36</v>
-      </c>
-      <c r="U356">
-        <v>2.85</v>
-      </c>
-      <c r="V356">
-        <v>2.65</v>
-      </c>
-      <c r="W356">
-        <v>1.42</v>
-      </c>
-      <c r="X356">
-        <v>6.25</v>
-      </c>
-      <c r="Y356">
-        <v>1.09</v>
-      </c>
-      <c r="Z356">
-        <v>2.59</v>
-      </c>
-      <c r="AA356">
-        <v>3.24</v>
-      </c>
-      <c r="AB356">
-        <v>2.79</v>
-      </c>
-      <c r="AC356">
-        <v>1.03</v>
-      </c>
-      <c r="AD356">
-        <v>10.65</v>
-      </c>
-      <c r="AE356">
-        <v>1.27</v>
-      </c>
-      <c r="AF356">
-        <v>3.61</v>
-      </c>
-      <c r="AG356">
-        <v>2.08</v>
-      </c>
-      <c r="AH356">
-        <v>1.75</v>
-      </c>
-      <c r="AI356">
-        <v>1.62</v>
-      </c>
-      <c r="AJ356">
-        <v>2.15</v>
-      </c>
-      <c r="AK356">
-        <v>1.44</v>
-      </c>
-      <c r="AL356">
-        <v>1.25</v>
-      </c>
-      <c r="AM356">
-        <v>1.53</v>
-      </c>
-      <c r="AN356">
-        <v>1.29</v>
-      </c>
-      <c r="AO356">
-        <v>0.76</v>
-      </c>
-      <c r="AP356">
-        <v>1.39</v>
-      </c>
-      <c r="AQ356">
-        <v>0.72</v>
-      </c>
-      <c r="AR356">
-        <v>1.28</v>
-      </c>
-      <c r="AS356">
-        <v>1.2</v>
-      </c>
-      <c r="AT356">
-        <v>2.48</v>
-      </c>
-      <c r="AU356">
-        <v>5</v>
-      </c>
-      <c r="AV356">
-        <v>6</v>
-      </c>
-      <c r="AW356">
-        <v>7</v>
-      </c>
-      <c r="AX356">
-        <v>7</v>
-      </c>
-      <c r="AY356">
-        <v>12</v>
-      </c>
-      <c r="AZ356">
+      <c r="BC356">
         <v>13</v>
       </c>
-      <c r="BA356">
-        <v>2</v>
-      </c>
-      <c r="BB356">
-        <v>6</v>
-      </c>
-      <c r="BC356">
-        <v>8</v>
-      </c>
       <c r="BD356">
-        <v>1.83</v>
+        <v>2.24</v>
       </c>
       <c r="BE356">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF356">
-        <v>2.33</v>
+        <v>1.88</v>
       </c>
       <c r="BG356">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="BH356">
-        <v>2.8</v>
+        <v>3.08</v>
       </c>
       <c r="BI356">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="BJ356">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="BK356">
-        <v>2.21</v>
+        <v>2.01</v>
       </c>
       <c r="BL356">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="BM356">
-        <v>2.91</v>
+        <v>2.62</v>
       </c>
       <c r="BN356">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="BO356">
-        <v>4.15</v>
+        <v>3.56</v>
       </c>
       <c r="BP356">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="357" spans="1:68">
@@ -75147,7 +75147,7 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>6956834</v>
+        <v>6956831</v>
       </c>
       <c r="C357" t="s">
         <v>68</v>
@@ -75162,19 +75162,19 @@
         <v>36</v>
       </c>
       <c r="G357" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H357" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="I357">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J357">
         <v>0</v>
       </c>
       <c r="K357">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L357">
         <v>3</v>
@@ -75192,160 +75192,160 @@
         <v>93</v>
       </c>
       <c r="Q357">
-        <v>3.03</v>
+        <v>1.46</v>
       </c>
       <c r="R357">
-        <v>2.11</v>
+        <v>3.6</v>
       </c>
       <c r="S357">
-        <v>4.13</v>
+        <v>10.66</v>
       </c>
       <c r="T357">
-        <v>1.49</v>
+        <v>1.17</v>
       </c>
       <c r="U357">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="V357">
-        <v>3.43</v>
+        <v>1.83</v>
       </c>
       <c r="W357">
-        <v>1.33</v>
+        <v>2.01</v>
       </c>
       <c r="X357">
-        <v>8</v>
+        <v>3.64</v>
       </c>
       <c r="Y357">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="Z357">
-        <v>2.6</v>
+        <v>1.14</v>
       </c>
       <c r="AA357">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB357">
+        <v>15</v>
+      </c>
+      <c r="AC357">
+        <v>1.01</v>
+      </c>
+      <c r="AD357">
+        <v>34</v>
+      </c>
+      <c r="AE357">
+        <v>1.06</v>
+      </c>
+      <c r="AF357">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="AG357">
+        <v>1.28</v>
+      </c>
+      <c r="AH357">
+        <v>3.47</v>
+      </c>
+      <c r="AI357">
+        <v>1.81</v>
+      </c>
+      <c r="AJ357">
+        <v>1.93</v>
+      </c>
+      <c r="AK357">
+        <v>1.02</v>
+      </c>
+      <c r="AL357">
+        <v>1.08</v>
+      </c>
+      <c r="AM357">
+        <v>5.05</v>
+      </c>
+      <c r="AN357">
+        <v>2.47</v>
+      </c>
+      <c r="AO357">
+        <v>1.12</v>
+      </c>
+      <c r="AP357">
+        <v>2.5</v>
+      </c>
+      <c r="AQ357">
+        <v>1.06</v>
+      </c>
+      <c r="AR357">
+        <v>1.92</v>
+      </c>
+      <c r="AS357">
+        <v>1.18</v>
+      </c>
+      <c r="AT357">
         <v>3.1</v>
       </c>
-      <c r="AB357">
-        <v>2.9</v>
-      </c>
-      <c r="AC357">
-        <v>1.07</v>
-      </c>
-      <c r="AD357">
-        <v>7.76</v>
-      </c>
-      <c r="AE357">
-        <v>1.41</v>
-      </c>
-      <c r="AF357">
-        <v>2.83</v>
-      </c>
-      <c r="AG357">
-        <v>2.25</v>
-      </c>
-      <c r="AH357">
-        <v>1.65</v>
-      </c>
-      <c r="AI357">
-        <v>1.91</v>
-      </c>
-      <c r="AJ357">
-        <v>1.83</v>
-      </c>
-      <c r="AK357">
-        <v>1.34</v>
-      </c>
-      <c r="AL357">
-        <v>1.35</v>
-      </c>
-      <c r="AM357">
-        <v>1.62</v>
-      </c>
-      <c r="AN357">
-        <v>1.18</v>
-      </c>
-      <c r="AO357">
-        <v>0.47</v>
-      </c>
-      <c r="AP357">
-        <v>1.28</v>
-      </c>
-      <c r="AQ357">
-        <v>0.44</v>
-      </c>
-      <c r="AR357">
+      <c r="AU357">
+        <v>16</v>
+      </c>
+      <c r="AV357">
+        <v>4</v>
+      </c>
+      <c r="AW357">
+        <v>6</v>
+      </c>
+      <c r="AX357">
+        <v>6</v>
+      </c>
+      <c r="AY357">
+        <v>22</v>
+      </c>
+      <c r="AZ357">
+        <v>10</v>
+      </c>
+      <c r="BA357">
+        <v>7</v>
+      </c>
+      <c r="BB357">
+        <v>3</v>
+      </c>
+      <c r="BC357">
+        <v>10</v>
+      </c>
+      <c r="BD357">
+        <v>1.11</v>
+      </c>
+      <c r="BE357">
+        <v>14.25</v>
+      </c>
+      <c r="BF357">
+        <v>8.4</v>
+      </c>
+      <c r="BG357">
         <v>1.31</v>
       </c>
-      <c r="AS357">
-        <v>1.24</v>
-      </c>
-      <c r="AT357">
-        <v>2.55</v>
-      </c>
-      <c r="AU357">
-        <v>7</v>
-      </c>
-      <c r="AV357">
-        <v>0</v>
-      </c>
-      <c r="AW357">
-        <v>1</v>
-      </c>
-      <c r="AX357">
-        <v>4</v>
-      </c>
-      <c r="AY357">
-        <v>8</v>
-      </c>
-      <c r="AZ357">
-        <v>4</v>
-      </c>
-      <c r="BA357">
-        <v>5</v>
-      </c>
-      <c r="BB357">
-        <v>6</v>
-      </c>
-      <c r="BC357">
-        <v>11</v>
-      </c>
-      <c r="BD357">
-        <v>1.96</v>
-      </c>
-      <c r="BE357">
-        <v>8.5</v>
-      </c>
-      <c r="BF357">
-        <v>2.15</v>
-      </c>
-      <c r="BG357">
-        <v>1.34</v>
-      </c>
       <c r="BH357">
-        <v>2.88</v>
+        <v>3.04</v>
       </c>
       <c r="BI357">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="BJ357">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="BK357">
-        <v>2.11</v>
+        <v>1.94</v>
       </c>
       <c r="BL357">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="BM357">
-        <v>2.8</v>
+        <v>2.42</v>
       </c>
       <c r="BN357">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="BO357">
-        <v>3.88</v>
+        <v>3.56</v>
       </c>
       <c r="BP357">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="358" spans="1:68">
@@ -75353,7 +75353,7 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>6956833</v>
+        <v>6956834</v>
       </c>
       <c r="C358" t="s">
         <v>68</v>
@@ -75368,190 +75368,190 @@
         <v>36</v>
       </c>
       <c r="G358" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H358" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I358">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J358">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K358">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L358">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M358">
+        <v>0</v>
+      </c>
+      <c r="N358">
         <v>3</v>
-      </c>
-      <c r="N358">
-        <v>5</v>
       </c>
       <c r="O358" t="s">
         <v>323</v>
       </c>
       <c r="P358" t="s">
-        <v>468</v>
+        <v>93</v>
       </c>
       <c r="Q358">
-        <v>5.5</v>
+        <v>3.03</v>
       </c>
       <c r="R358">
-        <v>2.45</v>
+        <v>2.11</v>
       </c>
       <c r="S358">
-        <v>1.9</v>
+        <v>4.13</v>
       </c>
       <c r="T358">
-        <v>1.25</v>
+        <v>1.49</v>
       </c>
       <c r="U358">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="V358">
-        <v>2.15</v>
+        <v>3.43</v>
       </c>
       <c r="W358">
+        <v>1.33</v>
+      </c>
+      <c r="X358">
+        <v>8</v>
+      </c>
+      <c r="Y358">
+        <v>1.05</v>
+      </c>
+      <c r="Z358">
+        <v>2.6</v>
+      </c>
+      <c r="AA358">
+        <v>3.1</v>
+      </c>
+      <c r="AB358">
+        <v>2.9</v>
+      </c>
+      <c r="AC358">
+        <v>1.07</v>
+      </c>
+      <c r="AD358">
+        <v>7.76</v>
+      </c>
+      <c r="AE358">
+        <v>1.41</v>
+      </c>
+      <c r="AF358">
+        <v>2.83</v>
+      </c>
+      <c r="AG358">
+        <v>2.25</v>
+      </c>
+      <c r="AH358">
+        <v>1.65</v>
+      </c>
+      <c r="AI358">
+        <v>1.91</v>
+      </c>
+      <c r="AJ358">
+        <v>1.83</v>
+      </c>
+      <c r="AK358">
+        <v>1.34</v>
+      </c>
+      <c r="AL358">
+        <v>1.35</v>
+      </c>
+      <c r="AM358">
         <v>1.62</v>
       </c>
-      <c r="X358">
-        <v>4.5</v>
-      </c>
-      <c r="Y358">
-        <v>1.17</v>
-      </c>
-      <c r="Z358">
-        <v>6.05</v>
-      </c>
-      <c r="AA358">
-        <v>4.68</v>
-      </c>
-      <c r="AB358">
-        <v>1.48</v>
-      </c>
-      <c r="AC358">
-        <v>1.02</v>
-      </c>
-      <c r="AD358">
-        <v>19</v>
-      </c>
-      <c r="AE358">
-        <v>1.15</v>
-      </c>
-      <c r="AF358">
-        <v>5.17</v>
-      </c>
-      <c r="AG358">
-        <v>1.44</v>
-      </c>
-      <c r="AH358">
-        <v>2.67</v>
-      </c>
-      <c r="AI358">
-        <v>1.6</v>
-      </c>
-      <c r="AJ358">
-        <v>2.2</v>
-      </c>
-      <c r="AK358">
-        <v>2.6</v>
-      </c>
-      <c r="AL358">
-        <v>1.15</v>
-      </c>
-      <c r="AM358">
-        <v>1.11</v>
-      </c>
       <c r="AN358">
-        <v>1.59</v>
+        <v>1.18</v>
       </c>
       <c r="AO358">
-        <v>2.47</v>
+        <v>0.47</v>
       </c>
       <c r="AP358">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="AQ358">
-        <v>2.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR358">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AS358">
-        <v>1.76</v>
+        <v>1.24</v>
       </c>
       <c r="AT358">
-        <v>3.09</v>
+        <v>2.55</v>
       </c>
       <c r="AU358">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV358">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AW358">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AX358">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AY358">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AZ358">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="BA358">
         <v>5</v>
       </c>
       <c r="BB358">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BC358">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BD358">
-        <v>2.99</v>
+        <v>1.96</v>
       </c>
       <c r="BE358">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF358">
-        <v>1.53</v>
+        <v>2.15</v>
       </c>
       <c r="BG358">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="BH358">
-        <v>3.56</v>
+        <v>2.88</v>
       </c>
       <c r="BI358">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="BJ358">
-        <v>2.55</v>
+        <v>2.16</v>
       </c>
       <c r="BK358">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="BL358">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="BM358">
-        <v>2.22</v>
+        <v>2.8</v>
       </c>
       <c r="BN358">
-        <v>1.66</v>
+        <v>1.38</v>
       </c>
       <c r="BO358">
-        <v>3.04</v>
+        <v>3.88</v>
       </c>
       <c r="BP358">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="359" spans="1:68">
@@ -75559,7 +75559,7 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>6956832</v>
+        <v>6956833</v>
       </c>
       <c r="C359" t="s">
         <v>68</v>
@@ -75574,190 +75574,190 @@
         <v>36</v>
       </c>
       <c r="G359" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H359" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I359">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J359">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K359">
         <v>2</v>
       </c>
       <c r="L359">
+        <v>2</v>
+      </c>
+      <c r="M359">
         <v>3</v>
       </c>
-      <c r="M359">
-        <v>0</v>
-      </c>
       <c r="N359">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O359" t="s">
         <v>324</v>
       </c>
       <c r="P359" t="s">
-        <v>93</v>
+        <v>468</v>
       </c>
       <c r="Q359">
+        <v>5.5</v>
+      </c>
+      <c r="R359">
+        <v>2.45</v>
+      </c>
+      <c r="S359">
+        <v>1.9</v>
+      </c>
+      <c r="T359">
+        <v>1.25</v>
+      </c>
+      <c r="U359">
+        <v>3.5</v>
+      </c>
+      <c r="V359">
+        <v>2.15</v>
+      </c>
+      <c r="W359">
+        <v>1.62</v>
+      </c>
+      <c r="X359">
+        <v>4.5</v>
+      </c>
+      <c r="Y359">
+        <v>1.17</v>
+      </c>
+      <c r="Z359">
+        <v>6.05</v>
+      </c>
+      <c r="AA359">
+        <v>4.68</v>
+      </c>
+      <c r="AB359">
+        <v>1.48</v>
+      </c>
+      <c r="AC359">
+        <v>1.02</v>
+      </c>
+      <c r="AD359">
+        <v>19</v>
+      </c>
+      <c r="AE359">
+        <v>1.15</v>
+      </c>
+      <c r="AF359">
+        <v>5.17</v>
+      </c>
+      <c r="AG359">
+        <v>1.44</v>
+      </c>
+      <c r="AH359">
+        <v>2.67</v>
+      </c>
+      <c r="AI359">
+        <v>1.6</v>
+      </c>
+      <c r="AJ359">
+        <v>2.2</v>
+      </c>
+      <c r="AK359">
+        <v>2.6</v>
+      </c>
+      <c r="AL359">
+        <v>1.15</v>
+      </c>
+      <c r="AM359">
+        <v>1.11</v>
+      </c>
+      <c r="AN359">
+        <v>1.59</v>
+      </c>
+      <c r="AO359">
+        <v>2.47</v>
+      </c>
+      <c r="AP359">
         <v>1.5</v>
       </c>
-      <c r="R359">
-        <v>2.8</v>
-      </c>
-      <c r="S359">
-        <v>10</v>
-      </c>
-      <c r="T359">
-        <v>1.22</v>
-      </c>
-      <c r="U359">
-        <v>3.9</v>
-      </c>
-      <c r="V359">
-        <v>2</v>
-      </c>
-      <c r="W359">
-        <v>1.73</v>
-      </c>
-      <c r="X359">
-        <v>4</v>
-      </c>
-      <c r="Y359">
-        <v>1.2</v>
-      </c>
-      <c r="Z359">
-        <v>1.14</v>
-      </c>
-      <c r="AA359">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AB359">
-        <v>17</v>
-      </c>
-      <c r="AC359">
-        <v>1.01</v>
-      </c>
-      <c r="AD359">
-        <v>26</v>
-      </c>
-      <c r="AE359">
-        <v>1.09</v>
-      </c>
-      <c r="AF359">
-        <v>6.89</v>
-      </c>
-      <c r="AG359">
-        <v>1.39</v>
-      </c>
-      <c r="AH359">
-        <v>2.86</v>
-      </c>
-      <c r="AI359">
-        <v>2.05</v>
-      </c>
-      <c r="AJ359">
-        <v>1.7</v>
-      </c>
-      <c r="AK359">
-        <v>1.02</v>
-      </c>
-      <c r="AL359">
-        <v>1.08</v>
-      </c>
-      <c r="AM359">
-        <v>5</v>
-      </c>
-      <c r="AN359">
-        <v>1.82</v>
-      </c>
-      <c r="AO359">
-        <v>0.59</v>
-      </c>
-      <c r="AP359">
-        <v>1.89</v>
-      </c>
       <c r="AQ359">
-        <v>0.5600000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="AR359">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AS359">
-        <v>1.11</v>
+        <v>1.76</v>
       </c>
       <c r="AT359">
-        <v>2.78</v>
+        <v>3.09</v>
       </c>
       <c r="AU359">
         <v>6</v>
       </c>
       <c r="AV359">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW359">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AX359">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AY359">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AZ359">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="BA359">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB359">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BC359">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BD359">
-        <v>1.1</v>
+        <v>2.99</v>
       </c>
       <c r="BE359">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="BF359">
-        <v>8.4</v>
+        <v>1.53</v>
       </c>
       <c r="BG359">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="BH359">
-        <v>4.05</v>
+        <v>3.56</v>
       </c>
       <c r="BI359">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="BJ359">
-        <v>2.79</v>
+        <v>2.55</v>
       </c>
       <c r="BK359">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="BL359">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="BM359">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="BN359">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="BO359">
-        <v>2.72</v>
+        <v>3.04</v>
       </c>
       <c r="BP359">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="360" spans="1:68">
@@ -75765,7 +75765,7 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>6956831</v>
+        <v>6956832</v>
       </c>
       <c r="C360" t="s">
         <v>68</v>
@@ -75780,10 +75780,10 @@
         <v>36</v>
       </c>
       <c r="G360" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H360" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I360">
         <v>2</v>
@@ -75810,64 +75810,64 @@
         <v>93</v>
       </c>
       <c r="Q360">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="R360">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="S360">
-        <v>10.66</v>
+        <v>10</v>
       </c>
       <c r="T360">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="U360">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="V360">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W360">
-        <v>2.01</v>
+        <v>1.73</v>
       </c>
       <c r="X360">
-        <v>3.64</v>
+        <v>4</v>
       </c>
       <c r="Y360">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="Z360">
         <v>1.14</v>
       </c>
       <c r="AA360">
-        <v>9.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AB360">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC360">
         <v>1.01</v>
       </c>
       <c r="AD360">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AE360">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AF360">
-        <v>8.220000000000001</v>
+        <v>6.89</v>
       </c>
       <c r="AG360">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="AH360">
-        <v>3.47</v>
+        <v>2.86</v>
       </c>
       <c r="AI360">
-        <v>1.81</v>
+        <v>2.05</v>
       </c>
       <c r="AJ360">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="AK360">
         <v>1.02</v>
@@ -75876,94 +75876,94 @@
         <v>1.08</v>
       </c>
       <c r="AM360">
-        <v>5.05</v>
+        <v>5</v>
       </c>
       <c r="AN360">
-        <v>2.47</v>
+        <v>1.82</v>
       </c>
       <c r="AO360">
-        <v>1.12</v>
+        <v>0.59</v>
       </c>
       <c r="AP360">
-        <v>2.5</v>
+        <v>1.89</v>
       </c>
       <c r="AQ360">
-        <v>1.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR360">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="AS360">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT360">
-        <v>3.1</v>
+        <v>2.78</v>
       </c>
       <c r="AU360">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AV360">
         <v>4</v>
       </c>
       <c r="AW360">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX360">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY360">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="AZ360">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA360">
         <v>7</v>
       </c>
       <c r="BB360">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BC360">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="BD360">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="BE360">
-        <v>14.25</v>
+        <v>15</v>
       </c>
       <c r="BF360">
         <v>8.4</v>
       </c>
       <c r="BG360">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="BH360">
-        <v>3.04</v>
+        <v>4.05</v>
       </c>
       <c r="BI360">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="BJ360">
-        <v>2.36</v>
+        <v>2.79</v>
       </c>
       <c r="BK360">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="BL360">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="BM360">
-        <v>2.42</v>
+        <v>2.04</v>
       </c>
       <c r="BN360">
-        <v>1.54</v>
+        <v>1.78</v>
       </c>
       <c r="BO360">
-        <v>3.56</v>
+        <v>2.72</v>
       </c>
       <c r="BP360">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="361" spans="1:68">
@@ -76724,22 +76724,22 @@
         <v>2.54</v>
       </c>
       <c r="AU364">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV364">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW364">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX364">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY364">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ364">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BA364">
         <v>1</v>
@@ -77960,22 +77960,22 @@
         <v>2.6</v>
       </c>
       <c r="AU370">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV370">
         <v>4</v>
       </c>
       <c r="AW370">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AX370">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AY370">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ370">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA370">
         <v>6</v>
@@ -78169,19 +78169,19 @@
         <v>0</v>
       </c>
       <c r="AV371">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW371">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX371">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AY371">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AZ371">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BA371">
         <v>1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
@@ -78169,19 +78169,19 @@
         <v>0</v>
       </c>
       <c r="AV371">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW371">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX371">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY371">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ371">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA371">
         <v>1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="475">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1800,7 +1800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP371"/>
+  <dimension ref="A1:BP372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ10">
         <v>1.39</v>
@@ -7493,7 +7493,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ28">
         <v>0.68</v>
@@ -10995,7 +10995,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ45">
         <v>1.32</v>
@@ -13055,7 +13055,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ55">
         <v>2.68</v>
@@ -16351,7 +16351,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ71">
         <v>0.53</v>
@@ -20883,7 +20883,7 @@
         <v>1.75</v>
       </c>
       <c r="AP93">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ93">
         <v>1.32</v>
@@ -25415,7 +25415,7 @@
         <v>0.5</v>
       </c>
       <c r="AP115">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ115">
         <v>0.9399999999999999</v>
@@ -29329,7 +29329,7 @@
         <v>0.83</v>
       </c>
       <c r="AP134">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ134">
         <v>0.95</v>
@@ -36539,7 +36539,7 @@
         <v>0.5</v>
       </c>
       <c r="AP169">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ169">
         <v>0.44</v>
@@ -39217,7 +39217,7 @@
         <v>1.13</v>
       </c>
       <c r="AP182">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ182">
         <v>0.72</v>
@@ -43543,7 +43543,7 @@
         <v>1</v>
       </c>
       <c r="AP203">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ203">
         <v>0.67</v>
@@ -47457,7 +47457,7 @@
         <v>0.91</v>
       </c>
       <c r="AP222">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ222">
         <v>0.84</v>
@@ -54461,7 +54461,7 @@
         <v>0.58</v>
       </c>
       <c r="AP256">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ256">
         <v>0.68</v>
@@ -59405,7 +59405,7 @@
         <v>1.5</v>
       </c>
       <c r="AP280">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ280">
         <v>1.58</v>
@@ -62289,7 +62289,7 @@
         <v>1.07</v>
       </c>
       <c r="AP294">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ294">
         <v>1.06</v>
@@ -67851,7 +67851,7 @@
         <v>2.4</v>
       </c>
       <c r="AP321">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ321">
         <v>2.5</v>
@@ -71353,7 +71353,7 @@
         <v>0.63</v>
       </c>
       <c r="AP338">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ338">
         <v>0.5600000000000001</v>
@@ -74855,7 +74855,7 @@
         <v>1.24</v>
       </c>
       <c r="AP355">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AQ355">
         <v>1.22</v>
@@ -78230,6 +78230,212 @@
       </c>
       <c r="BP371">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="372" spans="1:68">
+      <c r="A372" s="1">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>6956857</v>
+      </c>
+      <c r="C372" t="s">
+        <v>68</v>
+      </c>
+      <c r="D372" t="s">
+        <v>69</v>
+      </c>
+      <c r="E372" s="2">
+        <v>45436.58333333334</v>
+      </c>
+      <c r="F372">
+        <v>38</v>
+      </c>
+      <c r="G372" t="s">
+        <v>78</v>
+      </c>
+      <c r="H372" t="s">
+        <v>80</v>
+      </c>
+      <c r="I372">
+        <v>1</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372">
+        <v>1</v>
+      </c>
+      <c r="L372">
+        <v>1</v>
+      </c>
+      <c r="M372">
+        <v>1</v>
+      </c>
+      <c r="N372">
+        <v>2</v>
+      </c>
+      <c r="O372" t="s">
+        <v>128</v>
+      </c>
+      <c r="P372" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q372">
+        <v>2.45</v>
+      </c>
+      <c r="R372">
+        <v>2.3</v>
+      </c>
+      <c r="S372">
+        <v>4.2</v>
+      </c>
+      <c r="T372">
+        <v>1.36</v>
+      </c>
+      <c r="U372">
+        <v>3.4</v>
+      </c>
+      <c r="V372">
+        <v>2.6</v>
+      </c>
+      <c r="W372">
+        <v>1.55</v>
+      </c>
+      <c r="X372">
+        <v>6.5</v>
+      </c>
+      <c r="Y372">
+        <v>1.14</v>
+      </c>
+      <c r="Z372">
+        <v>1.6</v>
+      </c>
+      <c r="AA372">
+        <v>4.1</v>
+      </c>
+      <c r="AB372">
+        <v>4.3</v>
+      </c>
+      <c r="AC372">
+        <v>1.04</v>
+      </c>
+      <c r="AD372">
+        <v>15</v>
+      </c>
+      <c r="AE372">
+        <v>1.19</v>
+      </c>
+      <c r="AF372">
+        <v>4.5</v>
+      </c>
+      <c r="AG372">
+        <v>1.6</v>
+      </c>
+      <c r="AH372">
+        <v>2.2</v>
+      </c>
+      <c r="AI372">
+        <v>1.6</v>
+      </c>
+      <c r="AJ372">
+        <v>2.3</v>
+      </c>
+      <c r="AK372">
+        <v>1.28</v>
+      </c>
+      <c r="AL372">
+        <v>1.3</v>
+      </c>
+      <c r="AM372">
+        <v>2</v>
+      </c>
+      <c r="AN372">
+        <v>1.56</v>
+      </c>
+      <c r="AO372">
+        <v>0.89</v>
+      </c>
+      <c r="AP372">
+        <v>1.53</v>
+      </c>
+      <c r="AQ372">
+        <v>0.89</v>
+      </c>
+      <c r="AR372">
+        <v>1.43</v>
+      </c>
+      <c r="AS372">
+        <v>1.24</v>
+      </c>
+      <c r="AT372">
+        <v>2.67</v>
+      </c>
+      <c r="AU372">
+        <v>4</v>
+      </c>
+      <c r="AV372">
+        <v>4</v>
+      </c>
+      <c r="AW372">
+        <v>10</v>
+      </c>
+      <c r="AX372">
+        <v>4</v>
+      </c>
+      <c r="AY372">
+        <v>14</v>
+      </c>
+      <c r="AZ372">
+        <v>8</v>
+      </c>
+      <c r="BA372">
+        <v>3</v>
+      </c>
+      <c r="BB372">
+        <v>2</v>
+      </c>
+      <c r="BC372">
+        <v>5</v>
+      </c>
+      <c r="BD372">
+        <v>1.83</v>
+      </c>
+      <c r="BE372">
+        <v>8</v>
+      </c>
+      <c r="BF372">
+        <v>2.25</v>
+      </c>
+      <c r="BG372">
+        <v>1.24</v>
+      </c>
+      <c r="BH372">
+        <v>3.48</v>
+      </c>
+      <c r="BI372">
+        <v>1.55</v>
+      </c>
+      <c r="BJ372">
+        <v>2.3</v>
+      </c>
+      <c r="BK372">
+        <v>1.98</v>
+      </c>
+      <c r="BL372">
+        <v>1.82</v>
+      </c>
+      <c r="BM372">
+        <v>2.4</v>
+      </c>
+      <c r="BN372">
+        <v>1.5</v>
+      </c>
+      <c r="BO372">
+        <v>3.14</v>
+      </c>
+      <c r="BP372">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="477">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1009,6 +1009,12 @@
     <t>['47', '90', '90+9']</t>
   </si>
   <si>
+    <t>['42', '50', '90+2']</t>
+  </si>
+  <si>
+    <t>['9', '53']</t>
+  </si>
+  <si>
     <t>['73', '78']</t>
   </si>
   <si>
@@ -1800,7 +1806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP372"/>
+  <dimension ref="A1:BP374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2265,7 +2271,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q3">
         <v>2.85</v>
@@ -2883,7 +2889,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -3167,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ7">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3501,7 +3507,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q9">
         <v>1.67</v>
@@ -3991,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ11">
         <v>1.22</v>
@@ -4325,7 +4331,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -4406,7 +4412,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ13">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -5149,7 +5155,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -5355,7 +5361,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q18">
         <v>2.8</v>
@@ -5561,7 +5567,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q19">
         <v>1.68</v>
@@ -5973,7 +5979,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -6385,7 +6391,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q23">
         <v>2.3</v>
@@ -6591,7 +6597,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -6875,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ25">
         <v>0.89</v>
@@ -7084,7 +7090,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ26">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR26">
         <v>1.25</v>
@@ -7209,7 +7215,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q27">
         <v>2.85</v>
@@ -7287,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ27">
         <v>0.72</v>
@@ -7827,7 +7833,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -8445,7 +8451,7 @@
         <v>93</v>
       </c>
       <c r="P33" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -8732,7 +8738,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ34">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.55</v>
@@ -9063,7 +9069,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q36">
         <v>3.7</v>
@@ -9681,7 +9687,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q39">
         <v>2.55</v>
@@ -10093,7 +10099,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q41">
         <v>1.77</v>
@@ -10174,7 +10180,7 @@
         <v>2.84</v>
       </c>
       <c r="AQ41">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR41">
         <v>1.54</v>
@@ -10299,7 +10305,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q42">
         <v>1.9</v>
@@ -10505,7 +10511,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q43">
         <v>3.6</v>
@@ -10917,7 +10923,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q45">
         <v>2.7</v>
@@ -11201,7 +11207,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ46">
         <v>0.68</v>
@@ -11329,7 +11335,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11407,7 +11413,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ47">
         <v>0.72</v>
@@ -12153,7 +12159,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q51">
         <v>4.33</v>
@@ -12440,7 +12446,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ52">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR52">
         <v>1.74</v>
@@ -12646,7 +12652,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ53">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.87</v>
@@ -12771,7 +12777,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q54">
         <v>2.83</v>
@@ -13801,7 +13807,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -14213,7 +14219,7 @@
         <v>94</v>
       </c>
       <c r="P61" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q61">
         <v>2.8</v>
@@ -14497,7 +14503,7 @@
         <v>1.67</v>
       </c>
       <c r="AP62">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ62">
         <v>0.68</v>
@@ -14625,7 +14631,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q63">
         <v>3.3</v>
@@ -15243,7 +15249,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q66">
         <v>2.9</v>
@@ -15321,7 +15327,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ66">
         <v>1.32</v>
@@ -15655,7 +15661,7 @@
         <v>93</v>
       </c>
       <c r="P68" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -16685,7 +16691,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16972,7 +16978,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ74">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR74">
         <v>1.13</v>
@@ -17303,7 +17309,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q76">
         <v>4.96</v>
@@ -17590,7 +17596,7 @@
         <v>2</v>
       </c>
       <c r="AQ77">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR77">
         <v>1.31</v>
@@ -18127,7 +18133,7 @@
         <v>93</v>
       </c>
       <c r="P80" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18333,7 +18339,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -18745,7 +18751,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q83">
         <v>2.3</v>
@@ -18951,7 +18957,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q84">
         <v>2.2</v>
@@ -19235,7 +19241,7 @@
         <v>1.67</v>
       </c>
       <c r="AP85">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ85">
         <v>1.32</v>
@@ -19775,7 +19781,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q88">
         <v>1.62</v>
@@ -20265,7 +20271,7 @@
         <v>0.67</v>
       </c>
       <c r="AP90">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ90">
         <v>0.68</v>
@@ -20393,7 +20399,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20474,7 +20480,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ91">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR91">
         <v>1.14</v>
@@ -20599,7 +20605,7 @@
         <v>156</v>
       </c>
       <c r="P92" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q92">
         <v>2.3</v>
@@ -20805,7 +20811,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q93">
         <v>2.6</v>
@@ -21501,7 +21507,7 @@
         <v>0.75</v>
       </c>
       <c r="AP96">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ96">
         <v>1.58</v>
@@ -21710,7 +21716,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ97">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR97">
         <v>1.23</v>
@@ -22041,7 +22047,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q99">
         <v>6.5</v>
@@ -22659,7 +22665,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q102">
         <v>2.85</v>
@@ -23071,7 +23077,7 @@
         <v>165</v>
       </c>
       <c r="P104" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q104">
         <v>1.79</v>
@@ -23277,7 +23283,7 @@
         <v>166</v>
       </c>
       <c r="P105" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -23355,7 +23361,7 @@
         <v>0.5</v>
       </c>
       <c r="AP105">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ105">
         <v>0.68</v>
@@ -23483,7 +23489,7 @@
         <v>167</v>
       </c>
       <c r="P106" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q106">
         <v>2.9</v>
@@ -23895,7 +23901,7 @@
         <v>169</v>
       </c>
       <c r="P108" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q108">
         <v>3.72</v>
@@ -24513,7 +24519,7 @@
         <v>171</v>
       </c>
       <c r="P111" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24719,7 +24725,7 @@
         <v>172</v>
       </c>
       <c r="P112" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q112">
         <v>2.15</v>
@@ -24925,7 +24931,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -25131,7 +25137,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q114">
         <v>2.8</v>
@@ -25212,7 +25218,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ114">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR114">
         <v>1.57</v>
@@ -25337,7 +25343,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q115">
         <v>2.8</v>
@@ -25621,7 +25627,7 @@
         <v>2</v>
       </c>
       <c r="AP116">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ116">
         <v>1.32</v>
@@ -25749,7 +25755,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q117">
         <v>5.75</v>
@@ -26036,7 +26042,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ118">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR118">
         <v>1.1</v>
@@ -27191,7 +27197,7 @@
         <v>93</v>
       </c>
       <c r="P124" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q124">
         <v>2.88</v>
@@ -27809,7 +27815,7 @@
         <v>183</v>
       </c>
       <c r="P127" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -28633,7 +28639,7 @@
         <v>186</v>
       </c>
       <c r="P131" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -28711,7 +28717,7 @@
         <v>1.17</v>
       </c>
       <c r="AP131">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ131">
         <v>1.58</v>
@@ -28917,7 +28923,7 @@
         <v>0.17</v>
       </c>
       <c r="AP132">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ132">
         <v>0.5600000000000001</v>
@@ -29045,7 +29051,7 @@
         <v>188</v>
       </c>
       <c r="P133" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q133">
         <v>3.42</v>
@@ -29251,7 +29257,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q134">
         <v>2.88</v>
@@ -29457,7 +29463,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29663,7 +29669,7 @@
         <v>191</v>
       </c>
       <c r="P136" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q136">
         <v>2.05</v>
@@ -29744,7 +29750,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ136">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR136">
         <v>1.55</v>
@@ -29869,7 +29875,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q137">
         <v>6.5</v>
@@ -30075,7 +30081,7 @@
         <v>192</v>
       </c>
       <c r="P138" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q138">
         <v>2.48</v>
@@ -30362,7 +30368,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ139">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR139">
         <v>1.42</v>
@@ -30487,7 +30493,7 @@
         <v>193</v>
       </c>
       <c r="P140" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q140">
         <v>4.05</v>
@@ -30899,7 +30905,7 @@
         <v>195</v>
       </c>
       <c r="P142" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q142">
         <v>1.67</v>
@@ -31311,7 +31317,7 @@
         <v>197</v>
       </c>
       <c r="P144" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q144">
         <v>2.7</v>
@@ -31517,7 +31523,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -32341,7 +32347,7 @@
         <v>144</v>
       </c>
       <c r="P149" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q149">
         <v>3.6</v>
@@ -32547,7 +32553,7 @@
         <v>93</v>
       </c>
       <c r="P150" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q150">
         <v>2.48</v>
@@ -33165,7 +33171,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q153">
         <v>4.9</v>
@@ -33371,7 +33377,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q154">
         <v>3.41</v>
@@ -33577,7 +33583,7 @@
         <v>204</v>
       </c>
       <c r="P155" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q155">
         <v>5.5</v>
@@ -34813,7 +34819,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -35097,7 +35103,7 @@
         <v>0.14</v>
       </c>
       <c r="AP162">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ162">
         <v>0.5600000000000001</v>
@@ -35225,7 +35231,7 @@
         <v>93</v>
       </c>
       <c r="P163" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -35303,7 +35309,7 @@
         <v>0.75</v>
       </c>
       <c r="AP163">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ163">
         <v>0.9399999999999999</v>
@@ -35718,7 +35724,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ165">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR165">
         <v>1.45</v>
@@ -36255,7 +36261,7 @@
         <v>210</v>
       </c>
       <c r="P168" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q168">
         <v>2.55</v>
@@ -36542,7 +36548,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ169">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR169">
         <v>1.48</v>
@@ -36873,7 +36879,7 @@
         <v>144</v>
       </c>
       <c r="P171" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q171">
         <v>3.7</v>
@@ -37079,7 +37085,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q172">
         <v>2.6</v>
@@ -37491,7 +37497,7 @@
         <v>123</v>
       </c>
       <c r="P174" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q174">
         <v>2.05</v>
@@ -38521,7 +38527,7 @@
         <v>104</v>
       </c>
       <c r="P179" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q179">
         <v>2.6</v>
@@ -38727,7 +38733,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q180">
         <v>9</v>
@@ -39345,7 +39351,7 @@
         <v>93</v>
       </c>
       <c r="P183" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q183">
         <v>3.8</v>
@@ -39551,7 +39557,7 @@
         <v>93</v>
       </c>
       <c r="P184" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39757,7 +39763,7 @@
         <v>93</v>
       </c>
       <c r="P185" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q185">
         <v>3.19</v>
@@ -40041,10 +40047,10 @@
         <v>1.38</v>
       </c>
       <c r="AP186">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ186">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR186">
         <v>1.23</v>
@@ -40375,7 +40381,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q188">
         <v>1.65</v>
@@ -40581,7 +40587,7 @@
         <v>221</v>
       </c>
       <c r="P189" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q189">
         <v>1.8</v>
@@ -40865,7 +40871,7 @@
         <v>2.22</v>
       </c>
       <c r="AP190">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ190">
         <v>2.5</v>
@@ -41074,7 +41080,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ191">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR191">
         <v>1.43</v>
@@ -41199,7 +41205,7 @@
         <v>176</v>
       </c>
       <c r="P192" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -41611,7 +41617,7 @@
         <v>224</v>
       </c>
       <c r="P194" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q194">
         <v>2.69</v>
@@ -42435,7 +42441,7 @@
         <v>155</v>
       </c>
       <c r="P198" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q198">
         <v>3.2</v>
@@ -43053,7 +43059,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q201">
         <v>1.68</v>
@@ -43134,7 +43140,7 @@
         <v>2.84</v>
       </c>
       <c r="AQ201">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR201">
         <v>2.24</v>
@@ -43465,7 +43471,7 @@
         <v>229</v>
       </c>
       <c r="P203" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43671,7 +43677,7 @@
         <v>230</v>
       </c>
       <c r="P204" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q204">
         <v>2.88</v>
@@ -43749,7 +43755,7 @@
         <v>0.9</v>
       </c>
       <c r="AP204">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ204">
         <v>1.39</v>
@@ -43877,7 +43883,7 @@
         <v>231</v>
       </c>
       <c r="P205" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q205">
         <v>2.7</v>
@@ -44289,7 +44295,7 @@
         <v>233</v>
       </c>
       <c r="P207" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q207">
         <v>2.55</v>
@@ -44367,7 +44373,7 @@
         <v>1</v>
       </c>
       <c r="AP207">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ207">
         <v>0.9399999999999999</v>
@@ -44495,7 +44501,7 @@
         <v>103</v>
       </c>
       <c r="P208" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q208">
         <v>1.66</v>
@@ -44576,7 +44582,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ208">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR208">
         <v>1.74</v>
@@ -44701,7 +44707,7 @@
         <v>234</v>
       </c>
       <c r="P209" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q209">
         <v>3.63</v>
@@ -44907,7 +44913,7 @@
         <v>235</v>
       </c>
       <c r="P210" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q210">
         <v>4.5</v>
@@ -45525,7 +45531,7 @@
         <v>236</v>
       </c>
       <c r="P213" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q213">
         <v>3.1</v>
@@ -46555,7 +46561,7 @@
         <v>93</v>
       </c>
       <c r="P218" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q218">
         <v>5.25</v>
@@ -46842,7 +46848,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ219">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR219">
         <v>1.43</v>
@@ -46967,7 +46973,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q220">
         <v>1.5</v>
@@ -47791,7 +47797,7 @@
         <v>243</v>
       </c>
       <c r="P224" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q224">
         <v>3.1</v>
@@ -48075,7 +48081,7 @@
         <v>1.45</v>
       </c>
       <c r="AP225">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ225">
         <v>1.22</v>
@@ -48281,7 +48287,7 @@
         <v>0.9</v>
       </c>
       <c r="AP226">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ226">
         <v>0.67</v>
@@ -48615,7 +48621,7 @@
         <v>153</v>
       </c>
       <c r="P228" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q228">
         <v>3.2</v>
@@ -48696,7 +48702,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ228">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR228">
         <v>1.25</v>
@@ -49233,7 +49239,7 @@
         <v>249</v>
       </c>
       <c r="P231" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q231">
         <v>2.2</v>
@@ -49851,7 +49857,7 @@
         <v>93</v>
       </c>
       <c r="P234" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q234">
         <v>4.6</v>
@@ -50550,7 +50556,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ237">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR237">
         <v>1.2</v>
@@ -50675,7 +50681,7 @@
         <v>93</v>
       </c>
       <c r="P238" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="Q238">
         <v>4.5</v>
@@ -50881,7 +50887,7 @@
         <v>252</v>
       </c>
       <c r="P239" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q239">
         <v>2.5</v>
@@ -51087,7 +51093,7 @@
         <v>253</v>
       </c>
       <c r="P240" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q240">
         <v>2.62</v>
@@ -51499,7 +51505,7 @@
         <v>99</v>
       </c>
       <c r="P242" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q242">
         <v>2.73</v>
@@ -51783,7 +51789,7 @@
         <v>0.92</v>
       </c>
       <c r="AP243">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ243">
         <v>0.84</v>
@@ -52195,7 +52201,7 @@
         <v>0.82</v>
       </c>
       <c r="AP245">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ245">
         <v>0.67</v>
@@ -52323,7 +52329,7 @@
         <v>244</v>
       </c>
       <c r="P246" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q246">
         <v>3.4</v>
@@ -52735,7 +52741,7 @@
         <v>259</v>
       </c>
       <c r="P248" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q248">
         <v>1.62</v>
@@ -53765,7 +53771,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q253">
         <v>1.98</v>
@@ -54177,7 +54183,7 @@
         <v>264</v>
       </c>
       <c r="P255" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q255">
         <v>5.25</v>
@@ -54383,7 +54389,7 @@
         <v>265</v>
       </c>
       <c r="P256" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q256">
         <v>2.61</v>
@@ -54670,7 +54676,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ257">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR257">
         <v>1.2</v>
@@ -54795,7 +54801,7 @@
         <v>93</v>
       </c>
       <c r="P258" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q258">
         <v>3.75</v>
@@ -55001,7 +55007,7 @@
         <v>93</v>
       </c>
       <c r="P259" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q259">
         <v>6.44</v>
@@ -55413,7 +55419,7 @@
         <v>268</v>
       </c>
       <c r="P261" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q261">
         <v>2.3</v>
@@ -55494,7 +55500,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ261">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR261">
         <v>1.26</v>
@@ -55825,7 +55831,7 @@
         <v>270</v>
       </c>
       <c r="P263" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q263">
         <v>2.95</v>
@@ -56031,7 +56037,7 @@
         <v>93</v>
       </c>
       <c r="P264" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Q264">
         <v>3.25</v>
@@ -56443,7 +56449,7 @@
         <v>272</v>
       </c>
       <c r="P266" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q266">
         <v>1.52</v>
@@ -56727,7 +56733,7 @@
         <v>0.85</v>
       </c>
       <c r="AP267">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ267">
         <v>0.84</v>
@@ -57139,7 +57145,7 @@
         <v>0.85</v>
       </c>
       <c r="AP269">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ269">
         <v>1.21</v>
@@ -57267,7 +57273,7 @@
         <v>93</v>
       </c>
       <c r="P270" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q270">
         <v>5.5</v>
@@ -57473,7 +57479,7 @@
         <v>274</v>
       </c>
       <c r="P271" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q271">
         <v>1.73</v>
@@ -57885,7 +57891,7 @@
         <v>275</v>
       </c>
       <c r="P273" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Q273">
         <v>2.11</v>
@@ -58172,7 +58178,7 @@
         <v>2</v>
       </c>
       <c r="AQ274">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR274">
         <v>1.39</v>
@@ -58297,7 +58303,7 @@
         <v>93</v>
       </c>
       <c r="P275" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q275">
         <v>8.25</v>
@@ -58503,7 +58509,7 @@
         <v>93</v>
       </c>
       <c r="P276" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q276">
         <v>2.88</v>
@@ -58790,7 +58796,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ277">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR277">
         <v>1.31</v>
@@ -58915,7 +58921,7 @@
         <v>93</v>
       </c>
       <c r="P278" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q278">
         <v>3.9</v>
@@ -59739,7 +59745,7 @@
         <v>278</v>
       </c>
       <c r="P282" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q282">
         <v>1.63</v>
@@ -59945,7 +59951,7 @@
         <v>125</v>
       </c>
       <c r="P283" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q283">
         <v>3</v>
@@ -60023,7 +60029,7 @@
         <v>0.86</v>
       </c>
       <c r="AP283">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ283">
         <v>1.21</v>
@@ -60151,7 +60157,7 @@
         <v>279</v>
       </c>
       <c r="P284" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q284">
         <v>2.95</v>
@@ -60769,7 +60775,7 @@
         <v>282</v>
       </c>
       <c r="P287" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q287">
         <v>2.4</v>
@@ -60975,7 +60981,7 @@
         <v>183</v>
       </c>
       <c r="P288" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q288">
         <v>4.3</v>
@@ -61877,7 +61883,7 @@
         <v>0.87</v>
       </c>
       <c r="AP292">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ292">
         <v>0.95</v>
@@ -62292,7 +62298,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ294">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR294">
         <v>1.43</v>
@@ -62623,7 +62629,7 @@
         <v>288</v>
       </c>
       <c r="P296" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q296">
         <v>2.45</v>
@@ -62829,7 +62835,7 @@
         <v>289</v>
       </c>
       <c r="P297" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q297">
         <v>2.3</v>
@@ -63322,7 +63328,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ299">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR299">
         <v>1.26</v>
@@ -63447,7 +63453,7 @@
         <v>292</v>
       </c>
       <c r="P300" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q300">
         <v>5.4</v>
@@ -63653,7 +63659,7 @@
         <v>293</v>
       </c>
       <c r="P301" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q301">
         <v>4.75</v>
@@ -63859,7 +63865,7 @@
         <v>93</v>
       </c>
       <c r="P302" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q302">
         <v>3.6</v>
@@ -64065,7 +64071,7 @@
         <v>93</v>
       </c>
       <c r="P303" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q303">
         <v>3</v>
@@ -64761,7 +64767,7 @@
         <v>0.4</v>
       </c>
       <c r="AP306">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ306">
         <v>0.53</v>
@@ -64889,7 +64895,7 @@
         <v>235</v>
       </c>
       <c r="P307" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q307">
         <v>4</v>
@@ -65095,7 +65101,7 @@
         <v>295</v>
       </c>
       <c r="P308" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q308">
         <v>1.67</v>
@@ -65301,7 +65307,7 @@
         <v>93</v>
       </c>
       <c r="P309" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q309">
         <v>2.75</v>
@@ -66125,7 +66131,7 @@
         <v>93</v>
       </c>
       <c r="P313" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Q313">
         <v>2.6</v>
@@ -66618,7 +66624,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ315">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR315">
         <v>1.47</v>
@@ -66824,7 +66830,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ316">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR316">
         <v>1.62</v>
@@ -66949,7 +66955,7 @@
         <v>298</v>
       </c>
       <c r="P317" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q317">
         <v>3.24</v>
@@ -67155,7 +67161,7 @@
         <v>93</v>
       </c>
       <c r="P318" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q318">
         <v>1.95</v>
@@ -67567,7 +67573,7 @@
         <v>110</v>
       </c>
       <c r="P320" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="Q320">
         <v>5.75</v>
@@ -67645,7 +67651,7 @@
         <v>2.87</v>
       </c>
       <c r="AP320">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ320">
         <v>2.68</v>
@@ -67773,7 +67779,7 @@
         <v>93</v>
       </c>
       <c r="P321" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="Q321">
         <v>5.3</v>
@@ -68185,7 +68191,7 @@
         <v>111</v>
       </c>
       <c r="P323" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q323">
         <v>5.44</v>
@@ -68391,7 +68397,7 @@
         <v>93</v>
       </c>
       <c r="P324" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q324">
         <v>2.59</v>
@@ -68597,7 +68603,7 @@
         <v>99</v>
       </c>
       <c r="P325" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q325">
         <v>3.5</v>
@@ -68803,7 +68809,7 @@
         <v>301</v>
       </c>
       <c r="P326" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q326">
         <v>2.75</v>
@@ -69833,7 +69839,7 @@
         <v>306</v>
       </c>
       <c r="P331" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Q331">
         <v>6.5</v>
@@ -69911,7 +69917,7 @@
         <v>2.88</v>
       </c>
       <c r="AP331">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ331">
         <v>2.68</v>
@@ -70039,7 +70045,7 @@
         <v>93</v>
       </c>
       <c r="P332" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q332">
         <v>5.02</v>
@@ -70326,7 +70332,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ333">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR333">
         <v>1.57</v>
@@ -70529,7 +70535,7 @@
         <v>1</v>
       </c>
       <c r="AP334">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ334">
         <v>0.95</v>
@@ -70657,7 +70663,7 @@
         <v>182</v>
       </c>
       <c r="P335" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q335">
         <v>3.3</v>
@@ -71069,7 +71075,7 @@
         <v>308</v>
       </c>
       <c r="P337" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q337">
         <v>2.6</v>
@@ -71150,7 +71156,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ337">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR337">
         <v>1.23</v>
@@ -71481,7 +71487,7 @@
         <v>310</v>
       </c>
       <c r="P339" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="Q339">
         <v>1.93</v>
@@ -71687,7 +71693,7 @@
         <v>311</v>
       </c>
       <c r="P340" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q340">
         <v>2.65</v>
@@ -71971,7 +71977,7 @@
         <v>1</v>
       </c>
       <c r="AP341">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ341">
         <v>0.89</v>
@@ -72099,7 +72105,7 @@
         <v>313</v>
       </c>
       <c r="P342" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q342">
         <v>2.25</v>
@@ -72923,7 +72929,7 @@
         <v>315</v>
       </c>
       <c r="P346" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Q346">
         <v>2.94</v>
@@ -73541,7 +73547,7 @@
         <v>95</v>
       </c>
       <c r="P349" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q349">
         <v>2.8</v>
@@ -73747,7 +73753,7 @@
         <v>318</v>
       </c>
       <c r="P350" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Q350">
         <v>2.85</v>
@@ -75061,7 +75067,7 @@
         <v>1.29</v>
       </c>
       <c r="AP356">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ356">
         <v>1.39</v>
@@ -75270,7 +75276,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ357">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR357">
         <v>1.92</v>
@@ -75476,7 +75482,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ358">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AR358">
         <v>1.31</v>
@@ -75601,7 +75607,7 @@
         <v>324</v>
       </c>
       <c r="P359" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q359">
         <v>5.5</v>
@@ -75679,7 +75685,7 @@
         <v>2.47</v>
       </c>
       <c r="AP359">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AQ359">
         <v>2.5</v>
@@ -76013,7 +76019,7 @@
         <v>238</v>
       </c>
       <c r="P361" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="Q361">
         <v>2.71</v>
@@ -76219,7 +76225,7 @@
         <v>100</v>
       </c>
       <c r="P362" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Q362">
         <v>3.75</v>
@@ -76425,7 +76431,7 @@
         <v>326</v>
       </c>
       <c r="P363" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Q363">
         <v>2.8</v>
@@ -76631,7 +76637,7 @@
         <v>327</v>
       </c>
       <c r="P364" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q364">
         <v>3.5</v>
@@ -76837,7 +76843,7 @@
         <v>328</v>
       </c>
       <c r="P365" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q365">
         <v>2.1</v>
@@ -77661,7 +77667,7 @@
         <v>330</v>
       </c>
       <c r="P369" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q369">
         <v>3.1</v>
@@ -78436,6 +78442,418 @@
       </c>
       <c r="BP372">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="373" spans="1:68">
+      <c r="A373" s="1">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>6956854</v>
+      </c>
+      <c r="C373" t="s">
+        <v>68</v>
+      </c>
+      <c r="D373" t="s">
+        <v>69</v>
+      </c>
+      <c r="E373" s="2">
+        <v>45437.41666666666</v>
+      </c>
+      <c r="F373">
+        <v>38</v>
+      </c>
+      <c r="G373" t="s">
+        <v>79</v>
+      </c>
+      <c r="H373" t="s">
+        <v>89</v>
+      </c>
+      <c r="I373">
+        <v>1</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+      <c r="K373">
+        <v>1</v>
+      </c>
+      <c r="L373">
+        <v>3</v>
+      </c>
+      <c r="M373">
+        <v>1</v>
+      </c>
+      <c r="N373">
+        <v>4</v>
+      </c>
+      <c r="O373" t="s">
+        <v>331</v>
+      </c>
+      <c r="P373" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q373">
+        <v>2.55</v>
+      </c>
+      <c r="R373">
+        <v>2.25</v>
+      </c>
+      <c r="S373">
+        <v>4.2</v>
+      </c>
+      <c r="T373">
+        <v>1.4</v>
+      </c>
+      <c r="U373">
+        <v>3.2</v>
+      </c>
+      <c r="V373">
+        <v>2.75</v>
+      </c>
+      <c r="W373">
+        <v>1.5</v>
+      </c>
+      <c r="X373">
+        <v>7.5</v>
+      </c>
+      <c r="Y373">
+        <v>1.12</v>
+      </c>
+      <c r="Z373">
+        <v>1.97</v>
+      </c>
+      <c r="AA373">
+        <v>3.26</v>
+      </c>
+      <c r="AB373">
+        <v>3.16</v>
+      </c>
+      <c r="AC373">
+        <v>1.05</v>
+      </c>
+      <c r="AD373">
+        <v>9.5</v>
+      </c>
+      <c r="AE373">
+        <v>1.25</v>
+      </c>
+      <c r="AF373">
+        <v>3.8</v>
+      </c>
+      <c r="AG373">
+        <v>1.77</v>
+      </c>
+      <c r="AH373">
+        <v>2.05</v>
+      </c>
+      <c r="AI373">
+        <v>1.65</v>
+      </c>
+      <c r="AJ373">
+        <v>2.1</v>
+      </c>
+      <c r="AK373">
+        <v>1.28</v>
+      </c>
+      <c r="AL373">
+        <v>1.22</v>
+      </c>
+      <c r="AM373">
+        <v>1.77</v>
+      </c>
+      <c r="AN373">
+        <v>1.5</v>
+      </c>
+      <c r="AO373">
+        <v>0.44</v>
+      </c>
+      <c r="AP373">
+        <v>1.58</v>
+      </c>
+      <c r="AQ373">
+        <v>0.42</v>
+      </c>
+      <c r="AR373">
+        <v>1.35</v>
+      </c>
+      <c r="AS373">
+        <v>1.2</v>
+      </c>
+      <c r="AT373">
+        <v>2.55</v>
+      </c>
+      <c r="AU373">
+        <v>9</v>
+      </c>
+      <c r="AV373">
+        <v>7</v>
+      </c>
+      <c r="AW373">
+        <v>7</v>
+      </c>
+      <c r="AX373">
+        <v>7</v>
+      </c>
+      <c r="AY373">
+        <v>16</v>
+      </c>
+      <c r="AZ373">
+        <v>14</v>
+      </c>
+      <c r="BA373">
+        <v>2</v>
+      </c>
+      <c r="BB373">
+        <v>7</v>
+      </c>
+      <c r="BC373">
+        <v>9</v>
+      </c>
+      <c r="BD373">
+        <v>1.91</v>
+      </c>
+      <c r="BE373">
+        <v>7.5</v>
+      </c>
+      <c r="BF373">
+        <v>2.1</v>
+      </c>
+      <c r="BG373">
+        <v>1.35</v>
+      </c>
+      <c r="BH373">
+        <v>2.88</v>
+      </c>
+      <c r="BI373">
+        <v>1.65</v>
+      </c>
+      <c r="BJ373">
+        <v>2.1</v>
+      </c>
+      <c r="BK373">
+        <v>2.1</v>
+      </c>
+      <c r="BL373">
+        <v>1.67</v>
+      </c>
+      <c r="BM373">
+        <v>2.65</v>
+      </c>
+      <c r="BN373">
+        <v>1.42</v>
+      </c>
+      <c r="BO373">
+        <v>3.8</v>
+      </c>
+      <c r="BP373">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="374" spans="1:68">
+      <c r="A374" s="1">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>6956851</v>
+      </c>
+      <c r="C374" t="s">
+        <v>68</v>
+      </c>
+      <c r="D374" t="s">
+        <v>69</v>
+      </c>
+      <c r="E374" s="2">
+        <v>45437.54166666666</v>
+      </c>
+      <c r="F374">
+        <v>38</v>
+      </c>
+      <c r="G374" t="s">
+        <v>75</v>
+      </c>
+      <c r="H374" t="s">
+        <v>73</v>
+      </c>
+      <c r="I374">
+        <v>1</v>
+      </c>
+      <c r="J374">
+        <v>1</v>
+      </c>
+      <c r="K374">
+        <v>2</v>
+      </c>
+      <c r="L374">
+        <v>2</v>
+      </c>
+      <c r="M374">
+        <v>1</v>
+      </c>
+      <c r="N374">
+        <v>3</v>
+      </c>
+      <c r="O374" t="s">
+        <v>332</v>
+      </c>
+      <c r="P374" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q374">
+        <v>2.75</v>
+      </c>
+      <c r="R374">
+        <v>2.25</v>
+      </c>
+      <c r="S374">
+        <v>3.75</v>
+      </c>
+      <c r="T374">
+        <v>1.4</v>
+      </c>
+      <c r="U374">
+        <v>3.2</v>
+      </c>
+      <c r="V374">
+        <v>2.85</v>
+      </c>
+      <c r="W374">
+        <v>1.47</v>
+      </c>
+      <c r="X374">
+        <v>7.5</v>
+      </c>
+      <c r="Y374">
+        <v>1.12</v>
+      </c>
+      <c r="Z374">
+        <v>2.05</v>
+      </c>
+      <c r="AA374">
+        <v>3.25</v>
+      </c>
+      <c r="AB374">
+        <v>3.4</v>
+      </c>
+      <c r="AC374">
+        <v>1.05</v>
+      </c>
+      <c r="AD374">
+        <v>13</v>
+      </c>
+      <c r="AE374">
+        <v>1.25</v>
+      </c>
+      <c r="AF374">
+        <v>3.82</v>
+      </c>
+      <c r="AG374">
+        <v>1.61</v>
+      </c>
+      <c r="AH374">
+        <v>2.23</v>
+      </c>
+      <c r="AI374">
+        <v>1.68</v>
+      </c>
+      <c r="AJ374">
+        <v>2.15</v>
+      </c>
+      <c r="AK374">
+        <v>1.35</v>
+      </c>
+      <c r="AL374">
+        <v>1.33</v>
+      </c>
+      <c r="AM374">
+        <v>1.8</v>
+      </c>
+      <c r="AN374">
+        <v>1.44</v>
+      </c>
+      <c r="AO374">
+        <v>1.06</v>
+      </c>
+      <c r="AP374">
+        <v>1.53</v>
+      </c>
+      <c r="AQ374">
+        <v>1</v>
+      </c>
+      <c r="AR374">
+        <v>1.38</v>
+      </c>
+      <c r="AS374">
+        <v>1.18</v>
+      </c>
+      <c r="AT374">
+        <v>2.56</v>
+      </c>
+      <c r="AU374">
+        <v>5</v>
+      </c>
+      <c r="AV374">
+        <v>10</v>
+      </c>
+      <c r="AW374">
+        <v>11</v>
+      </c>
+      <c r="AX374">
+        <v>6</v>
+      </c>
+      <c r="AY374">
+        <v>16</v>
+      </c>
+      <c r="AZ374">
+        <v>16</v>
+      </c>
+      <c r="BA374">
+        <v>10</v>
+      </c>
+      <c r="BB374">
+        <v>4</v>
+      </c>
+      <c r="BC374">
+        <v>14</v>
+      </c>
+      <c r="BD374">
+        <v>1.95</v>
+      </c>
+      <c r="BE374">
+        <v>7.5</v>
+      </c>
+      <c r="BF374">
+        <v>2.1</v>
+      </c>
+      <c r="BG374">
+        <v>1.4</v>
+      </c>
+      <c r="BH374">
+        <v>2.75</v>
+      </c>
+      <c r="BI374">
+        <v>1.67</v>
+      </c>
+      <c r="BJ374">
+        <v>2.1</v>
+      </c>
+      <c r="BK374">
+        <v>2.1</v>
+      </c>
+      <c r="BL374">
+        <v>1.67</v>
+      </c>
+      <c r="BM374">
+        <v>2.8</v>
+      </c>
+      <c r="BN374">
+        <v>1.37</v>
+      </c>
+      <c r="BO374">
+        <v>3.85</v>
+      </c>
+      <c r="BP374">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="485">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1015,6 +1015,21 @@
     <t>['9', '53']</t>
   </si>
   <si>
+    <t>['4', '61']</t>
+  </si>
+  <si>
+    <t>['37', '88']</t>
+  </si>
+  <si>
+    <t>['63', '87', '90', '90+7']</t>
+  </si>
+  <si>
+    <t>['8', '15', '35', '66', '76', '78']</t>
+  </si>
+  <si>
+    <t>['4', '57']</t>
+  </si>
+  <si>
     <t>['73', '78']</t>
   </si>
   <si>
@@ -1446,6 +1461,15 @@
   <si>
     <t>['67']</t>
   </si>
+  <si>
+    <t>['5', '13', '40', '44', '68', '90+1']</t>
+  </si>
+  <si>
+    <t>['25', '78']</t>
+  </si>
+  <si>
+    <t>['29', '51', '53']</t>
+  </si>
 </sst>
 </file>
 
@@ -1806,7 +1830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP374"/>
+  <dimension ref="A1:BP381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2143,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ2">
         <v>0.89</v>
@@ -2271,7 +2295,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q3">
         <v>2.85</v>
@@ -2349,10 +2373,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ3">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2555,10 +2579,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ4">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2764,7 +2788,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ5">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2889,7 +2913,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2967,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ6">
         <v>0.68</v>
@@ -3379,10 +3403,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ8">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3507,7 +3531,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q9">
         <v>1.67</v>
@@ -3585,10 +3609,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ9">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3794,7 +3818,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ10">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4000,7 +4024,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ11">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4331,7 +4355,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q13">
         <v>2.8</v>
@@ -4821,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ15">
         <v>1.32</v>
@@ -5155,7 +5179,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q17">
         <v>2.2</v>
@@ -5361,7 +5385,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q18">
         <v>2.8</v>
@@ -5567,7 +5591,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q19">
         <v>1.68</v>
@@ -5979,7 +6003,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -6263,10 +6287,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ22">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR22">
         <v>1.84</v>
@@ -6391,7 +6415,7 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q23">
         <v>2.3</v>
@@ -6469,7 +6493,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ23">
         <v>0.84</v>
@@ -6597,7 +6621,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -6675,10 +6699,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ24">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR24">
         <v>1.38</v>
@@ -7215,7 +7239,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q27">
         <v>2.85</v>
@@ -7296,7 +7320,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ27">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR27">
         <v>0.32</v>
@@ -7833,7 +7857,7 @@
         <v>111</v>
       </c>
       <c r="P30" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7911,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ30">
         <v>1.58</v>
@@ -8323,7 +8347,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ32">
         <v>1.21</v>
@@ -8451,7 +8475,7 @@
         <v>93</v>
       </c>
       <c r="P33" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -8532,7 +8556,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ33">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AR33">
         <v>1.42</v>
@@ -9069,7 +9093,7 @@
         <v>113</v>
       </c>
       <c r="P36" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q36">
         <v>3.7</v>
@@ -9147,7 +9171,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ36">
         <v>0.68</v>
@@ -9562,7 +9586,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ38">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR38">
         <v>1.37</v>
@@ -9687,7 +9711,7 @@
         <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q39">
         <v>2.55</v>
@@ -9765,10 +9789,10 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ39">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR39">
         <v>1.86</v>
@@ -9971,7 +9995,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ40">
         <v>0.84</v>
@@ -10099,7 +10123,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q41">
         <v>1.77</v>
@@ -10305,7 +10329,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q42">
         <v>1.9</v>
@@ -10383,7 +10407,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ42">
         <v>0.89</v>
@@ -10511,7 +10535,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q43">
         <v>3.6</v>
@@ -10592,7 +10616,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ43">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR43">
         <v>0.99</v>
@@ -10795,10 +10819,10 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ44">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR44">
         <v>1.64</v>
@@ -10923,7 +10947,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q45">
         <v>2.7</v>
@@ -11335,7 +11359,7 @@
         <v>121</v>
       </c>
       <c r="P47" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11416,7 +11440,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ47">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR47">
         <v>0.72</v>
@@ -11622,7 +11646,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ48">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR48">
         <v>1.5</v>
@@ -11825,7 +11849,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ49">
         <v>0.53</v>
@@ -12159,7 +12183,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q51">
         <v>4.33</v>
@@ -12240,7 +12264,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ51">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AR51">
         <v>1.37</v>
@@ -12777,7 +12801,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q54">
         <v>2.83</v>
@@ -13267,7 +13291,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ56">
         <v>0.68</v>
@@ -13473,7 +13497,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ57">
         <v>1.58</v>
@@ -13682,7 +13706,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ58">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AR58">
         <v>0.85</v>
@@ -13807,7 +13831,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13885,10 +13909,10 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ59">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR59">
         <v>1.73</v>
@@ -14091,10 +14115,10 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ60">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR60">
         <v>2.09</v>
@@ -14219,7 +14243,7 @@
         <v>94</v>
       </c>
       <c r="P61" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q61">
         <v>2.8</v>
@@ -14300,7 +14324,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ61">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR61">
         <v>0.61</v>
@@ -14631,7 +14655,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q63">
         <v>3.3</v>
@@ -14915,7 +14939,7 @@
         <v>0.67</v>
       </c>
       <c r="AP64">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ64">
         <v>0.84</v>
@@ -15124,7 +15148,7 @@
         <v>2.84</v>
       </c>
       <c r="AQ65">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR65">
         <v>1.45</v>
@@ -15249,7 +15273,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q66">
         <v>2.9</v>
@@ -15533,10 +15557,10 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ67">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR67">
         <v>1.97</v>
@@ -15661,7 +15685,7 @@
         <v>93</v>
       </c>
       <c r="P68" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15739,10 +15763,10 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ68">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR68">
         <v>1.55</v>
@@ -15945,7 +15969,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ69">
         <v>1.21</v>
@@ -16154,7 +16178,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ70">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR70">
         <v>1.27</v>
@@ -16563,7 +16587,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ72">
         <v>1.58</v>
@@ -16691,7 +16715,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q73">
         <v>3.1</v>
@@ -16769,7 +16793,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ73">
         <v>1.32</v>
@@ -17184,7 +17208,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ75">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR75">
         <v>1.15</v>
@@ -17309,7 +17333,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q76">
         <v>4.96</v>
@@ -17390,7 +17414,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ76">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AR76">
         <v>1.48</v>
@@ -17802,7 +17826,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ78">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR78">
         <v>2.05</v>
@@ -18005,7 +18029,7 @@
         <v>1.67</v>
       </c>
       <c r="AP79">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ79">
         <v>0.95</v>
@@ -18133,7 +18157,7 @@
         <v>93</v>
       </c>
       <c r="P80" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q80">
         <v>5</v>
@@ -18211,7 +18235,7 @@
         <v>3</v>
       </c>
       <c r="AP80">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ80">
         <v>2.68</v>
@@ -18339,7 +18363,7 @@
         <v>147</v>
       </c>
       <c r="P81" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q81">
         <v>2.88</v>
@@ -18420,7 +18444,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ81">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR81">
         <v>1.23</v>
@@ -18751,7 +18775,7 @@
         <v>149</v>
       </c>
       <c r="P83" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q83">
         <v>2.3</v>
@@ -18829,7 +18853,7 @@
         <v>0.5</v>
       </c>
       <c r="AP83">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ83">
         <v>0.84</v>
@@ -18957,7 +18981,7 @@
         <v>150</v>
       </c>
       <c r="P84" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q84">
         <v>2.2</v>
@@ -19038,7 +19062,7 @@
         <v>2.84</v>
       </c>
       <c r="AQ84">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR84">
         <v>2.1</v>
@@ -19450,7 +19474,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ86">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR86">
         <v>0.82</v>
@@ -19656,7 +19680,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ87">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR87">
         <v>1.06</v>
@@ -19781,7 +19805,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q88">
         <v>1.62</v>
@@ -19859,7 +19883,7 @@
         <v>1.5</v>
       </c>
       <c r="AP88">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ88">
         <v>0.68</v>
@@ -20065,7 +20089,7 @@
         <v>0.67</v>
       </c>
       <c r="AP89">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ89">
         <v>1.21</v>
@@ -20399,7 +20423,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q91">
         <v>2.7</v>
@@ -20477,7 +20501,7 @@
         <v>0.5</v>
       </c>
       <c r="AP91">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ91">
         <v>1</v>
@@ -20605,7 +20629,7 @@
         <v>156</v>
       </c>
       <c r="P92" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Q92">
         <v>2.3</v>
@@ -20683,10 +20707,10 @@
         <v>0.33</v>
       </c>
       <c r="AP92">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ92">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR92">
         <v>1.45</v>
@@ -20811,7 +20835,7 @@
         <v>157</v>
       </c>
       <c r="P93" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Q93">
         <v>2.6</v>
@@ -21098,7 +21122,7 @@
         <v>2</v>
       </c>
       <c r="AQ94">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AR94">
         <v>1.24</v>
@@ -21301,7 +21325,7 @@
         <v>1.25</v>
       </c>
       <c r="AP95">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ95">
         <v>0.95</v>
@@ -21922,7 +21946,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ98">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR98">
         <v>1.46</v>
@@ -22047,7 +22071,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q99">
         <v>6.5</v>
@@ -22125,7 +22149,7 @@
         <v>3</v>
       </c>
       <c r="AP99">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ99">
         <v>2.68</v>
@@ -22334,7 +22358,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ100">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR100">
         <v>1.99</v>
@@ -22665,7 +22689,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="Q102">
         <v>2.85</v>
@@ -23077,7 +23101,7 @@
         <v>165</v>
       </c>
       <c r="P104" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q104">
         <v>1.79</v>
@@ -23155,7 +23179,7 @@
         <v>0.8</v>
       </c>
       <c r="AP104">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ104">
         <v>1.58</v>
@@ -23283,7 +23307,7 @@
         <v>166</v>
       </c>
       <c r="P105" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q105">
         <v>3.3</v>
@@ -23489,7 +23513,7 @@
         <v>167</v>
       </c>
       <c r="P106" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Q106">
         <v>2.9</v>
@@ -23570,7 +23594,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ106">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR106">
         <v>1.1</v>
@@ -23773,7 +23797,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ107">
         <v>0.53</v>
@@ -23901,7 +23925,7 @@
         <v>169</v>
       </c>
       <c r="P108" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Q108">
         <v>3.72</v>
@@ -23982,7 +24006,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ108">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR108">
         <v>1.37</v>
@@ -24394,7 +24418,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ110">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR110">
         <v>1.37</v>
@@ -24519,7 +24543,7 @@
         <v>171</v>
       </c>
       <c r="P111" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q111">
         <v>2.4</v>
@@ -24600,7 +24624,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ111">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR111">
         <v>1.36</v>
@@ -24725,7 +24749,7 @@
         <v>172</v>
       </c>
       <c r="P112" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q112">
         <v>2.15</v>
@@ -24803,7 +24827,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ112">
         <v>0.95</v>
@@ -24931,7 +24955,7 @@
         <v>93</v>
       </c>
       <c r="P113" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q113">
         <v>3.2</v>
@@ -25137,7 +25161,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q114">
         <v>2.8</v>
@@ -25215,7 +25239,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ114">
         <v>1</v>
@@ -25343,7 +25367,7 @@
         <v>93</v>
       </c>
       <c r="P115" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q115">
         <v>2.8</v>
@@ -25424,7 +25448,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ115">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR115">
         <v>1.4</v>
@@ -25755,7 +25779,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q117">
         <v>5.75</v>
@@ -25833,10 +25857,10 @@
         <v>2.67</v>
       </c>
       <c r="AP117">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ117">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AR117">
         <v>1.35</v>
@@ -26039,7 +26063,7 @@
         <v>0.17</v>
       </c>
       <c r="AP118">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ118">
         <v>0.42</v>
@@ -26248,7 +26272,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ119">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR119">
         <v>1.95</v>
@@ -26454,7 +26478,7 @@
         <v>2</v>
       </c>
       <c r="AQ120">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR120">
         <v>1.23</v>
@@ -26657,7 +26681,7 @@
         <v>3</v>
       </c>
       <c r="AP121">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ121">
         <v>2.68</v>
@@ -27069,7 +27093,7 @@
         <v>1.6</v>
       </c>
       <c r="AP123">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ123">
         <v>1.32</v>
@@ -27197,7 +27221,7 @@
         <v>93</v>
       </c>
       <c r="P124" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q124">
         <v>2.88</v>
@@ -27278,7 +27302,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ124">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR124">
         <v>1.35</v>
@@ -27815,7 +27839,7 @@
         <v>183</v>
       </c>
       <c r="P127" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27896,7 +27920,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ127">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR127">
         <v>1.37</v>
@@ -28102,7 +28126,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ128">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR128">
         <v>1.27</v>
@@ -28305,7 +28329,7 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ129">
         <v>0.53</v>
@@ -28639,7 +28663,7 @@
         <v>186</v>
       </c>
       <c r="P131" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -28926,7 +28950,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ132">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR132">
         <v>1.16</v>
@@ -29051,7 +29075,7 @@
         <v>188</v>
       </c>
       <c r="P133" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="Q133">
         <v>3.42</v>
@@ -29129,7 +29153,7 @@
         <v>1.17</v>
       </c>
       <c r="AP133">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ133">
         <v>0.89</v>
@@ -29257,7 +29281,7 @@
         <v>189</v>
       </c>
       <c r="P134" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q134">
         <v>2.88</v>
@@ -29463,7 +29487,7 @@
         <v>190</v>
       </c>
       <c r="P135" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29544,7 +29568,7 @@
         <v>2</v>
       </c>
       <c r="AQ135">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR135">
         <v>1.19</v>
@@ -29669,7 +29693,7 @@
         <v>191</v>
       </c>
       <c r="P136" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="Q136">
         <v>2.05</v>
@@ -29747,7 +29771,7 @@
         <v>0.14</v>
       </c>
       <c r="AP136">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ136">
         <v>0.42</v>
@@ -29875,7 +29899,7 @@
         <v>93</v>
       </c>
       <c r="P137" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Q137">
         <v>6.5</v>
@@ -29953,10 +29977,10 @@
         <v>2.29</v>
       </c>
       <c r="AP137">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ137">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AR137">
         <v>1.11</v>
@@ -30081,7 +30105,7 @@
         <v>192</v>
       </c>
       <c r="P138" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Q138">
         <v>2.48</v>
@@ -30159,10 +30183,10 @@
         <v>0.86</v>
       </c>
       <c r="AP138">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ138">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR138">
         <v>1.66</v>
@@ -30365,7 +30389,7 @@
         <v>1.33</v>
       </c>
       <c r="AP139">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ139">
         <v>1</v>
@@ -30493,7 +30517,7 @@
         <v>193</v>
       </c>
       <c r="P140" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Q140">
         <v>4.05</v>
@@ -30574,7 +30598,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ140">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR140">
         <v>1.23</v>
@@ -30777,7 +30801,7 @@
         <v>1.67</v>
       </c>
       <c r="AP141">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ141">
         <v>1.32</v>
@@ -30905,7 +30929,7 @@
         <v>195</v>
       </c>
       <c r="P142" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q142">
         <v>1.67</v>
@@ -31317,7 +31341,7 @@
         <v>197</v>
       </c>
       <c r="P144" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Q144">
         <v>2.7</v>
@@ -31523,7 +31547,7 @@
         <v>198</v>
       </c>
       <c r="P145" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -32347,7 +32371,7 @@
         <v>144</v>
       </c>
       <c r="P149" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="Q149">
         <v>3.6</v>
@@ -32553,7 +32577,7 @@
         <v>93</v>
       </c>
       <c r="P150" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Q150">
         <v>2.48</v>
@@ -32631,7 +32655,7 @@
         <v>1.43</v>
       </c>
       <c r="AP150">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ150">
         <v>1.32</v>
@@ -32840,7 +32864,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ151">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR151">
         <v>1.22</v>
@@ -33171,7 +33195,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Q153">
         <v>4.9</v>
@@ -33377,7 +33401,7 @@
         <v>203</v>
       </c>
       <c r="P154" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="Q154">
         <v>3.41</v>
@@ -33583,7 +33607,7 @@
         <v>204</v>
       </c>
       <c r="P155" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="Q155">
         <v>5.5</v>
@@ -34819,7 +34843,7 @@
         <v>207</v>
       </c>
       <c r="P161" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -35106,7 +35130,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ162">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR162">
         <v>1.58</v>
@@ -35231,7 +35255,7 @@
         <v>93</v>
       </c>
       <c r="P163" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="Q163">
         <v>2.88</v>
@@ -35312,7 +35336,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ163">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR163">
         <v>1.22</v>
@@ -35515,10 +35539,10 @@
         <v>0.63</v>
       </c>
       <c r="AP164">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ164">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR164">
         <v>1.44</v>
@@ -35721,7 +35745,7 @@
         <v>1.57</v>
       </c>
       <c r="AP165">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -35927,7 +35951,7 @@
         <v>1.14</v>
       </c>
       <c r="AP166">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ166">
         <v>0.89</v>
@@ -36133,10 +36157,10 @@
         <v>2.38</v>
       </c>
       <c r="AP167">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ167">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AR167">
         <v>1.79</v>
@@ -36261,7 +36285,7 @@
         <v>210</v>
       </c>
       <c r="P168" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Q168">
         <v>2.55</v>
@@ -36339,10 +36363,10 @@
         <v>1</v>
       </c>
       <c r="AP168">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ168">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR168">
         <v>1.71</v>
@@ -36751,10 +36775,10 @@
         <v>1.14</v>
       </c>
       <c r="AP170">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ170">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR170">
         <v>1.05</v>
@@ -36879,7 +36903,7 @@
         <v>144</v>
       </c>
       <c r="P171" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Q171">
         <v>3.7</v>
@@ -36957,10 +36981,10 @@
         <v>1.25</v>
       </c>
       <c r="AP171">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ171">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR171">
         <v>1.35</v>
@@ -37085,7 +37109,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="Q172">
         <v>2.6</v>
@@ -37497,7 +37521,7 @@
         <v>123</v>
       </c>
       <c r="P174" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="Q174">
         <v>2.05</v>
@@ -38527,7 +38551,7 @@
         <v>104</v>
       </c>
       <c r="P179" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="Q179">
         <v>2.6</v>
@@ -38733,7 +38757,7 @@
         <v>216</v>
       </c>
       <c r="P180" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="Q180">
         <v>9</v>
@@ -39226,7 +39250,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ182">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR182">
         <v>1.51</v>
@@ -39351,7 +39375,7 @@
         <v>93</v>
       </c>
       <c r="P183" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="Q183">
         <v>3.8</v>
@@ -39429,7 +39453,7 @@
         <v>1</v>
       </c>
       <c r="AP183">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ183">
         <v>0.89</v>
@@ -39557,7 +39581,7 @@
         <v>93</v>
       </c>
       <c r="P184" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="Q184">
         <v>3.2</v>
@@ -39638,7 +39662,7 @@
         <v>2</v>
       </c>
       <c r="AQ184">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR184">
         <v>1.27</v>
@@ -39763,7 +39787,7 @@
         <v>93</v>
       </c>
       <c r="P185" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="Q185">
         <v>3.19</v>
@@ -39841,10 +39865,10 @@
         <v>0.67</v>
       </c>
       <c r="AP185">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ185">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR185">
         <v>1.76</v>
@@ -40253,10 +40277,10 @@
         <v>1</v>
       </c>
       <c r="AP187">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ187">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR187">
         <v>1.29</v>
@@ -40381,7 +40405,7 @@
         <v>220</v>
       </c>
       <c r="P188" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="Q188">
         <v>1.65</v>
@@ -40459,7 +40483,7 @@
         <v>0.78</v>
       </c>
       <c r="AP188">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ188">
         <v>0.95</v>
@@ -40587,7 +40611,7 @@
         <v>221</v>
       </c>
       <c r="P189" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="Q189">
         <v>1.8</v>
@@ -40665,10 +40689,10 @@
         <v>0.13</v>
       </c>
       <c r="AP189">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ189">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR189">
         <v>1.42</v>
@@ -40874,7 +40898,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ190">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AR190">
         <v>1.59</v>
@@ -41077,7 +41101,7 @@
         <v>0.44</v>
       </c>
       <c r="AP191">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ191">
         <v>0.42</v>
@@ -41205,7 +41229,7 @@
         <v>176</v>
       </c>
       <c r="P192" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -41283,7 +41307,7 @@
         <v>0.9</v>
       </c>
       <c r="AP192">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ192">
         <v>0.84</v>
@@ -41617,7 +41641,7 @@
         <v>224</v>
       </c>
       <c r="P194" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="Q194">
         <v>2.69</v>
@@ -42441,7 +42465,7 @@
         <v>155</v>
       </c>
       <c r="P198" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="Q198">
         <v>3.2</v>
@@ -43059,7 +43083,7 @@
         <v>227</v>
       </c>
       <c r="P201" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q201">
         <v>1.68</v>
@@ -43343,7 +43367,7 @@
         <v>0.7</v>
       </c>
       <c r="AP202">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ202">
         <v>0.68</v>
@@ -43471,7 +43495,7 @@
         <v>229</v>
       </c>
       <c r="P203" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="Q203">
         <v>2.95</v>
@@ -43552,7 +43576,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ203">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR203">
         <v>1.45</v>
@@ -43677,7 +43701,7 @@
         <v>230</v>
       </c>
       <c r="P204" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="Q204">
         <v>2.88</v>
@@ -43758,7 +43782,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ204">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR204">
         <v>1.3</v>
@@ -43883,7 +43907,7 @@
         <v>231</v>
       </c>
       <c r="P205" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="Q205">
         <v>2.7</v>
@@ -43961,10 +43985,10 @@
         <v>1.11</v>
       </c>
       <c r="AP205">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ205">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR205">
         <v>1.45</v>
@@ -44167,10 +44191,10 @@
         <v>1.6</v>
       </c>
       <c r="AP206">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ206">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR206">
         <v>1.14</v>
@@ -44295,7 +44319,7 @@
         <v>233</v>
       </c>
       <c r="P207" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="Q207">
         <v>2.55</v>
@@ -44376,7 +44400,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ207">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR207">
         <v>1.59</v>
@@ -44501,7 +44525,7 @@
         <v>103</v>
       </c>
       <c r="P208" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="Q208">
         <v>1.66</v>
@@ -44579,7 +44603,7 @@
         <v>0.4</v>
       </c>
       <c r="AP208">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ208">
         <v>0.42</v>
@@ -44707,7 +44731,7 @@
         <v>234</v>
       </c>
       <c r="P209" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q209">
         <v>3.63</v>
@@ -44785,7 +44809,7 @@
         <v>1.22</v>
       </c>
       <c r="AP209">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ209">
         <v>0.89</v>
@@ -44913,7 +44937,7 @@
         <v>235</v>
       </c>
       <c r="P210" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="Q210">
         <v>4.5</v>
@@ -44991,10 +45015,10 @@
         <v>2.1</v>
       </c>
       <c r="AP210">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ210">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AR210">
         <v>1.48</v>
@@ -45200,7 +45224,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ211">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR211">
         <v>1.47</v>
@@ -45403,7 +45427,7 @@
         <v>0.9</v>
       </c>
       <c r="AP212">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ212">
         <v>1.21</v>
@@ -45531,7 +45555,7 @@
         <v>236</v>
       </c>
       <c r="P213" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="Q213">
         <v>3.1</v>
@@ -45609,7 +45633,7 @@
         <v>1.2</v>
       </c>
       <c r="AP213">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ213">
         <v>1.32</v>
@@ -46561,7 +46585,7 @@
         <v>93</v>
       </c>
       <c r="P218" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q218">
         <v>5.25</v>
@@ -46973,7 +46997,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q220">
         <v>1.5</v>
@@ -47054,7 +47078,7 @@
         <v>2.84</v>
       </c>
       <c r="AQ220">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR220">
         <v>2.28</v>
@@ -47669,7 +47693,7 @@
         <v>0.64</v>
       </c>
       <c r="AP223">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ223">
         <v>0.68</v>
@@ -47797,7 +47821,7 @@
         <v>243</v>
       </c>
       <c r="P224" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="Q224">
         <v>3.1</v>
@@ -47875,10 +47899,10 @@
         <v>0.91</v>
       </c>
       <c r="AP224">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ224">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR224">
         <v>1.39</v>
@@ -48084,7 +48108,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ225">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR225">
         <v>1.57</v>
@@ -48290,7 +48314,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ226">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR226">
         <v>1.32</v>
@@ -48493,10 +48517,10 @@
         <v>1.1</v>
       </c>
       <c r="AP227">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ227">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR227">
         <v>1.79</v>
@@ -48621,7 +48645,7 @@
         <v>153</v>
       </c>
       <c r="P228" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="Q228">
         <v>3.2</v>
@@ -49114,7 +49138,7 @@
         <v>2.84</v>
       </c>
       <c r="AQ230">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR230">
         <v>2.21</v>
@@ -49239,7 +49263,7 @@
         <v>249</v>
       </c>
       <c r="P231" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="Q231">
         <v>2.2</v>
@@ -49317,7 +49341,7 @@
         <v>1.09</v>
       </c>
       <c r="AP231">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ231">
         <v>1.32</v>
@@ -49729,7 +49753,7 @@
         <v>0.45</v>
       </c>
       <c r="AP233">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ233">
         <v>0.53</v>
@@ -49857,7 +49881,7 @@
         <v>93</v>
       </c>
       <c r="P234" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="Q234">
         <v>4.6</v>
@@ -49938,7 +49962,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ234">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AR234">
         <v>1.44</v>
@@ -50350,7 +50374,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ236">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR236">
         <v>1.18</v>
@@ -50681,7 +50705,7 @@
         <v>93</v>
       </c>
       <c r="P238" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="Q238">
         <v>4.5</v>
@@ -50887,7 +50911,7 @@
         <v>252</v>
       </c>
       <c r="P239" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="Q239">
         <v>2.5</v>
@@ -50965,7 +50989,7 @@
         <v>0.64</v>
       </c>
       <c r="AP239">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ239">
         <v>0.68</v>
@@ -51093,7 +51117,7 @@
         <v>253</v>
       </c>
       <c r="P240" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q240">
         <v>2.62</v>
@@ -51171,7 +51195,7 @@
         <v>0.91</v>
       </c>
       <c r="AP240">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ240">
         <v>1.21</v>
@@ -51505,7 +51529,7 @@
         <v>99</v>
       </c>
       <c r="P242" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="Q242">
         <v>2.73</v>
@@ -51583,7 +51607,7 @@
         <v>1.25</v>
       </c>
       <c r="AP242">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ242">
         <v>1.32</v>
@@ -51998,7 +52022,7 @@
         <v>2.84</v>
       </c>
       <c r="AQ244">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR244">
         <v>2.26</v>
@@ -52204,7 +52228,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ245">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR245">
         <v>1.53</v>
@@ -52329,7 +52353,7 @@
         <v>244</v>
       </c>
       <c r="P246" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="Q246">
         <v>3.4</v>
@@ -52410,7 +52434,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ246">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR246">
         <v>1.25</v>
@@ -52613,10 +52637,10 @@
         <v>1</v>
       </c>
       <c r="AP247">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ247">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR247">
         <v>1.38</v>
@@ -52741,7 +52765,7 @@
         <v>259</v>
       </c>
       <c r="P248" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="Q248">
         <v>1.62</v>
@@ -52819,7 +52843,7 @@
         <v>0.83</v>
       </c>
       <c r="AP248">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ248">
         <v>1.21</v>
@@ -53025,7 +53049,7 @@
         <v>0.83</v>
       </c>
       <c r="AP249">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ249">
         <v>0.68</v>
@@ -53440,7 +53464,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ251">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR251">
         <v>1.46</v>
@@ -53643,7 +53667,7 @@
         <v>0.42</v>
       </c>
       <c r="AP252">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ252">
         <v>0.53</v>
@@ -53771,7 +53795,7 @@
         <v>262</v>
       </c>
       <c r="P253" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="Q253">
         <v>1.98</v>
@@ -53852,7 +53876,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ253">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR253">
         <v>1.43</v>
@@ -54055,7 +54079,7 @@
         <v>1.31</v>
       </c>
       <c r="AP254">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ254">
         <v>1.32</v>
@@ -54183,7 +54207,7 @@
         <v>264</v>
       </c>
       <c r="P255" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="Q255">
         <v>5.25</v>
@@ -54389,7 +54413,7 @@
         <v>265</v>
       </c>
       <c r="P256" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="Q256">
         <v>2.61</v>
@@ -54801,7 +54825,7 @@
         <v>93</v>
       </c>
       <c r="P258" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="Q258">
         <v>3.75</v>
@@ -54879,7 +54903,7 @@
         <v>1.38</v>
       </c>
       <c r="AP258">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ258">
         <v>1.58</v>
@@ -55007,7 +55031,7 @@
         <v>93</v>
       </c>
       <c r="P259" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="Q259">
         <v>6.44</v>
@@ -55088,7 +55112,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ259">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AR259">
         <v>1.28</v>
@@ -55419,7 +55443,7 @@
         <v>268</v>
       </c>
       <c r="P261" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="Q261">
         <v>2.3</v>
@@ -55706,7 +55730,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ262">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR262">
         <v>1.45</v>
@@ -55831,7 +55855,7 @@
         <v>270</v>
       </c>
       <c r="P263" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="Q263">
         <v>2.95</v>
@@ -55912,7 +55936,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ263">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR263">
         <v>1.46</v>
@@ -56037,7 +56061,7 @@
         <v>93</v>
       </c>
       <c r="P264" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="Q264">
         <v>3.25</v>
@@ -56118,7 +56142,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ264">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR264">
         <v>1.18</v>
@@ -56321,7 +56345,7 @@
         <v>0.77</v>
       </c>
       <c r="AP265">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ265">
         <v>0.68</v>
@@ -56449,7 +56473,7 @@
         <v>272</v>
       </c>
       <c r="P266" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="Q266">
         <v>1.52</v>
@@ -56527,7 +56551,7 @@
         <v>1.38</v>
       </c>
       <c r="AP266">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ266">
         <v>1.32</v>
@@ -56939,7 +56963,7 @@
         <v>0.62</v>
       </c>
       <c r="AP268">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ268">
         <v>0.68</v>
@@ -57273,7 +57297,7 @@
         <v>93</v>
       </c>
       <c r="P270" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="Q270">
         <v>5.5</v>
@@ -57354,7 +57378,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ270">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR270">
         <v>1.21</v>
@@ -57479,7 +57503,7 @@
         <v>274</v>
       </c>
       <c r="P271" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="Q271">
         <v>1.73</v>
@@ -57763,7 +57787,7 @@
         <v>1.29</v>
       </c>
       <c r="AP272">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ272">
         <v>1.32</v>
@@ -57891,7 +57915,7 @@
         <v>275</v>
       </c>
       <c r="P273" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="Q273">
         <v>2.11</v>
@@ -57972,7 +57996,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ273">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR273">
         <v>1.27</v>
@@ -58303,7 +58327,7 @@
         <v>93</v>
       </c>
       <c r="P275" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="Q275">
         <v>8.25</v>
@@ -58381,7 +58405,7 @@
         <v>2.85</v>
       </c>
       <c r="AP275">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ275">
         <v>2.68</v>
@@ -58509,7 +58533,7 @@
         <v>93</v>
       </c>
       <c r="P276" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="Q276">
         <v>2.88</v>
@@ -58587,7 +58611,7 @@
         <v>0.71</v>
       </c>
       <c r="AP276">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ276">
         <v>0.95</v>
@@ -58921,7 +58945,7 @@
         <v>93</v>
       </c>
       <c r="P278" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="Q278">
         <v>3.9</v>
@@ -59002,7 +59026,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ278">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AR278">
         <v>1.62</v>
@@ -59205,7 +59229,7 @@
         <v>0.46</v>
       </c>
       <c r="AP279">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ279">
         <v>0.53</v>
@@ -59620,7 +59644,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ281">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR281">
         <v>1.44</v>
@@ -59745,7 +59769,7 @@
         <v>278</v>
       </c>
       <c r="P282" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="Q282">
         <v>1.63</v>
@@ -59826,7 +59850,7 @@
         <v>2.84</v>
       </c>
       <c r="AQ282">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR282">
         <v>2.2</v>
@@ -59951,7 +59975,7 @@
         <v>125</v>
       </c>
       <c r="P283" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="Q283">
         <v>3</v>
@@ -60157,7 +60181,7 @@
         <v>279</v>
       </c>
       <c r="P284" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="Q284">
         <v>2.95</v>
@@ -60235,7 +60259,7 @@
         <v>0.57</v>
       </c>
       <c r="AP284">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ284">
         <v>0.68</v>
@@ -60441,7 +60465,7 @@
         <v>0.43</v>
       </c>
       <c r="AP285">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ285">
         <v>0.53</v>
@@ -60775,7 +60799,7 @@
         <v>282</v>
       </c>
       <c r="P287" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="Q287">
         <v>2.4</v>
@@ -60981,7 +61005,7 @@
         <v>183</v>
       </c>
       <c r="P288" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="Q288">
         <v>4.3</v>
@@ -61268,7 +61292,7 @@
         <v>1.84</v>
       </c>
       <c r="AQ289">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR289">
         <v>1.43</v>
@@ -61471,7 +61495,7 @@
         <v>0.79</v>
       </c>
       <c r="AP290">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ290">
         <v>0.84</v>
@@ -61680,7 +61704,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ291">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR291">
         <v>1.2</v>
@@ -62089,10 +62113,10 @@
         <v>0.5</v>
       </c>
       <c r="AP293">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ293">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR293">
         <v>1.16</v>
@@ -62504,7 +62528,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ295">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR295">
         <v>1.3</v>
@@ -62629,7 +62653,7 @@
         <v>288</v>
       </c>
       <c r="P296" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="Q296">
         <v>2.45</v>
@@ -62707,7 +62731,7 @@
         <v>1.27</v>
       </c>
       <c r="AP296">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ296">
         <v>1.32</v>
@@ -62835,7 +62859,7 @@
         <v>289</v>
       </c>
       <c r="P297" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="Q297">
         <v>2.3</v>
@@ -63122,7 +63146,7 @@
         <v>2</v>
       </c>
       <c r="AQ298">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR298">
         <v>1.44</v>
@@ -63325,7 +63349,7 @@
         <v>0.5</v>
       </c>
       <c r="AP299">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ299">
         <v>0.42</v>
@@ -63453,7 +63477,7 @@
         <v>292</v>
       </c>
       <c r="P300" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="Q300">
         <v>5.4</v>
@@ -63531,10 +63555,10 @@
         <v>2.36</v>
       </c>
       <c r="AP300">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ300">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AR300">
         <v>1.61</v>
@@ -63659,7 +63683,7 @@
         <v>293</v>
       </c>
       <c r="P301" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="Q301">
         <v>4.75</v>
@@ -63737,7 +63761,7 @@
         <v>2.86</v>
       </c>
       <c r="AP301">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ301">
         <v>2.68</v>
@@ -63865,7 +63889,7 @@
         <v>93</v>
       </c>
       <c r="P302" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="Q302">
         <v>3.6</v>
@@ -63946,7 +63970,7 @@
         <v>0.47</v>
       </c>
       <c r="AQ302">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR302">
         <v>1.23</v>
@@ -64071,7 +64095,7 @@
         <v>93</v>
       </c>
       <c r="P303" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="Q303">
         <v>3</v>
@@ -64564,7 +64588,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ305">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR305">
         <v>1.5</v>
@@ -64895,7 +64919,7 @@
         <v>235</v>
       </c>
       <c r="P307" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="Q307">
         <v>4</v>
@@ -64973,7 +64997,7 @@
         <v>1.4</v>
       </c>
       <c r="AP307">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ307">
         <v>1.58</v>
@@ -65101,7 +65125,7 @@
         <v>295</v>
       </c>
       <c r="P308" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="Q308">
         <v>1.67</v>
@@ -65179,7 +65203,7 @@
         <v>0.6</v>
       </c>
       <c r="AP308">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ308">
         <v>0.68</v>
@@ -65307,7 +65331,7 @@
         <v>93</v>
       </c>
       <c r="P309" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="Q309">
         <v>2.75</v>
@@ -65800,7 +65824,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ311">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR311">
         <v>1.34</v>
@@ -66003,7 +66027,7 @@
         <v>1.19</v>
       </c>
       <c r="AP312">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ312">
         <v>1.32</v>
@@ -66131,7 +66155,7 @@
         <v>93</v>
       </c>
       <c r="P313" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="Q313">
         <v>2.6</v>
@@ -66209,7 +66233,7 @@
         <v>0.88</v>
       </c>
       <c r="AP313">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ313">
         <v>0.95</v>
@@ -66418,7 +66442,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ314">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR314">
         <v>1.31</v>
@@ -66621,7 +66645,7 @@
         <v>1</v>
       </c>
       <c r="AP315">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ315">
         <v>1</v>
@@ -66955,7 +66979,7 @@
         <v>298</v>
       </c>
       <c r="P317" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="Q317">
         <v>3.24</v>
@@ -67033,10 +67057,10 @@
         <v>1.07</v>
       </c>
       <c r="AP317">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ317">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR317">
         <v>1.19</v>
@@ -67161,7 +67185,7 @@
         <v>93</v>
       </c>
       <c r="P318" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="Q318">
         <v>1.95</v>
@@ -67239,10 +67263,10 @@
         <v>0.47</v>
       </c>
       <c r="AP318">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ318">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR318">
         <v>1.24</v>
@@ -67573,7 +67597,7 @@
         <v>110</v>
       </c>
       <c r="P320" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="Q320">
         <v>5.75</v>
@@ -67779,7 +67803,7 @@
         <v>93</v>
       </c>
       <c r="P321" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="Q321">
         <v>5.3</v>
@@ -67860,7 +67884,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ321">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AR321">
         <v>1.41</v>
@@ -68066,7 +68090,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ322">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR322">
         <v>1.61</v>
@@ -68191,7 +68215,7 @@
         <v>111</v>
       </c>
       <c r="P323" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="Q323">
         <v>5.44</v>
@@ -68397,7 +68421,7 @@
         <v>93</v>
       </c>
       <c r="P324" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="Q324">
         <v>2.59</v>
@@ -68475,7 +68499,7 @@
         <v>1.13</v>
       </c>
       <c r="AP324">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ324">
         <v>1.21</v>
@@ -68603,7 +68627,7 @@
         <v>99</v>
       </c>
       <c r="P325" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="Q325">
         <v>3.5</v>
@@ -68809,7 +68833,7 @@
         <v>301</v>
       </c>
       <c r="P326" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q326">
         <v>2.75</v>
@@ -69096,7 +69120,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ327">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR327">
         <v>1.36</v>
@@ -69839,7 +69863,7 @@
         <v>306</v>
       </c>
       <c r="P331" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="Q331">
         <v>6.5</v>
@@ -70045,7 +70069,7 @@
         <v>93</v>
       </c>
       <c r="P332" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="Q332">
         <v>5.02</v>
@@ -70123,10 +70147,10 @@
         <v>2.44</v>
       </c>
       <c r="AP332">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ332">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AR332">
         <v>1.5</v>
@@ -70329,7 +70353,7 @@
         <v>0.5</v>
       </c>
       <c r="AP333">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ333">
         <v>0.42</v>
@@ -70663,7 +70687,7 @@
         <v>182</v>
       </c>
       <c r="P335" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="Q335">
         <v>3.3</v>
@@ -70741,10 +70765,10 @@
         <v>1.19</v>
       </c>
       <c r="AP335">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ335">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR335">
         <v>1.24</v>
@@ -70947,10 +70971,10 @@
         <v>1.31</v>
       </c>
       <c r="AP336">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ336">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR336">
         <v>1.92</v>
@@ -71075,7 +71099,7 @@
         <v>308</v>
       </c>
       <c r="P337" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="Q337">
         <v>2.6</v>
@@ -71153,7 +71177,7 @@
         <v>1</v>
       </c>
       <c r="AP337">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ337">
         <v>1</v>
@@ -71362,7 +71386,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ338">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR338">
         <v>1.39</v>
@@ -71487,7 +71511,7 @@
         <v>310</v>
       </c>
       <c r="P339" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="Q339">
         <v>1.93</v>
@@ -71565,10 +71589,10 @@
         <v>0.88</v>
       </c>
       <c r="AP339">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ339">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR339">
         <v>1.66</v>
@@ -71693,7 +71717,7 @@
         <v>311</v>
       </c>
       <c r="P340" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="Q340">
         <v>2.65</v>
@@ -71774,7 +71798,7 @@
         <v>2</v>
       </c>
       <c r="AQ340">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR340">
         <v>1.45</v>
@@ -72105,7 +72129,7 @@
         <v>313</v>
       </c>
       <c r="P342" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="Q342">
         <v>2.25</v>
@@ -72186,7 +72210,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ342">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR342">
         <v>1.62</v>
@@ -72929,7 +72953,7 @@
         <v>315</v>
       </c>
       <c r="P346" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="Q346">
         <v>2.94</v>
@@ -73547,7 +73571,7 @@
         <v>95</v>
       </c>
       <c r="P349" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Q349">
         <v>2.8</v>
@@ -73753,7 +73777,7 @@
         <v>318</v>
       </c>
       <c r="P350" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="Q350">
         <v>2.85</v>
@@ -74037,7 +74061,7 @@
         <v>2.76</v>
       </c>
       <c r="AP351">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ351">
         <v>2.68</v>
@@ -74243,10 +74267,10 @@
         <v>0.71</v>
       </c>
       <c r="AP352">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AQ352">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR352">
         <v>1.26</v>
@@ -74449,7 +74473,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP353">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AQ353">
         <v>0.89</v>
@@ -74655,10 +74679,10 @@
         <v>0.76</v>
       </c>
       <c r="AP354">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ354">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AR354">
         <v>1.28</v>
@@ -74864,7 +74888,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ355">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AR355">
         <v>1.42</v>
@@ -75070,7 +75094,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ356">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AR356">
         <v>1.41</v>
@@ -75273,7 +75297,7 @@
         <v>1.12</v>
       </c>
       <c r="AP357">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ357">
         <v>1</v>
@@ -75479,7 +75503,7 @@
         <v>0.47</v>
       </c>
       <c r="AP358">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AQ358">
         <v>0.42</v>
@@ -75607,7 +75631,7 @@
         <v>324</v>
       </c>
       <c r="P359" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="Q359">
         <v>5.5</v>
@@ -75688,7 +75712,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ359">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AR359">
         <v>1.33</v>
@@ -75891,10 +75915,10 @@
         <v>0.59</v>
       </c>
       <c r="AP360">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ360">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AR360">
         <v>1.67</v>
@@ -76019,7 +76043,7 @@
         <v>238</v>
       </c>
       <c r="P361" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="Q361">
         <v>2.71</v>
@@ -76097,10 +76121,10 @@
         <v>0.82</v>
       </c>
       <c r="AP361">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ361">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR361">
         <v>1.5</v>
@@ -76225,7 +76249,7 @@
         <v>100</v>
       </c>
       <c r="P362" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="Q362">
         <v>3.75</v>
@@ -76431,7 +76455,7 @@
         <v>326</v>
       </c>
       <c r="P363" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="Q363">
         <v>2.8</v>
@@ -76637,7 +76661,7 @@
         <v>327</v>
       </c>
       <c r="P364" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="Q364">
         <v>3.5</v>
@@ -76843,7 +76867,7 @@
         <v>328</v>
       </c>
       <c r="P365" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="Q365">
         <v>2.1</v>
@@ -77667,7 +77691,7 @@
         <v>330</v>
       </c>
       <c r="P369" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="Q369">
         <v>3.1</v>
@@ -78491,7 +78515,7 @@
         <v>331</v>
       </c>
       <c r="P373" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q373">
         <v>2.55</v>
@@ -78853,6 +78877,1448 @@
         <v>3.85</v>
       </c>
       <c r="BP374">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="375" spans="1:68">
+      <c r="A375" s="1">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>6956858</v>
+      </c>
+      <c r="C375" t="s">
+        <v>68</v>
+      </c>
+      <c r="D375" t="s">
+        <v>69</v>
+      </c>
+      <c r="E375" s="2">
+        <v>45438.54166666666</v>
+      </c>
+      <c r="F375">
+        <v>38</v>
+      </c>
+      <c r="G375" t="s">
+        <v>71</v>
+      </c>
+      <c r="H375" t="s">
+        <v>87</v>
+      </c>
+      <c r="I375">
+        <v>1</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="K375">
+        <v>1</v>
+      </c>
+      <c r="L375">
+        <v>2</v>
+      </c>
+      <c r="M375">
+        <v>1</v>
+      </c>
+      <c r="N375">
+        <v>3</v>
+      </c>
+      <c r="O375" t="s">
+        <v>333</v>
+      </c>
+      <c r="P375" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q375">
+        <v>3.6</v>
+      </c>
+      <c r="R375">
+        <v>2.4</v>
+      </c>
+      <c r="S375">
+        <v>2.55</v>
+      </c>
+      <c r="T375">
+        <v>1.3</v>
+      </c>
+      <c r="U375">
+        <v>3.75</v>
+      </c>
+      <c r="V375">
+        <v>2.3</v>
+      </c>
+      <c r="W375">
+        <v>1.68</v>
+      </c>
+      <c r="X375">
+        <v>5.5</v>
+      </c>
+      <c r="Y375">
+        <v>1.18</v>
+      </c>
+      <c r="Z375">
+        <v>2.56</v>
+      </c>
+      <c r="AA375">
+        <v>4.05</v>
+      </c>
+      <c r="AB375">
+        <v>2.34</v>
+      </c>
+      <c r="AC375">
+        <v>1.03</v>
+      </c>
+      <c r="AD375">
+        <v>19</v>
+      </c>
+      <c r="AE375">
+        <v>1.15</v>
+      </c>
+      <c r="AF375">
+        <v>5.17</v>
+      </c>
+      <c r="AG375">
+        <v>1.48</v>
+      </c>
+      <c r="AH375">
+        <v>2.54</v>
+      </c>
+      <c r="AI375">
+        <v>1.47</v>
+      </c>
+      <c r="AJ375">
+        <v>2.7</v>
+      </c>
+      <c r="AK375">
+        <v>1.83</v>
+      </c>
+      <c r="AL375">
+        <v>1.3</v>
+      </c>
+      <c r="AM375">
+        <v>1.36</v>
+      </c>
+      <c r="AN375">
+        <v>1.56</v>
+      </c>
+      <c r="AO375">
+        <v>1.22</v>
+      </c>
+      <c r="AP375">
+        <v>1.63</v>
+      </c>
+      <c r="AQ375">
+        <v>1.16</v>
+      </c>
+      <c r="AR375">
+        <v>1.57</v>
+      </c>
+      <c r="AS375">
+        <v>1.26</v>
+      </c>
+      <c r="AT375">
+        <v>2.83</v>
+      </c>
+      <c r="AU375">
+        <v>11</v>
+      </c>
+      <c r="AV375">
+        <v>5</v>
+      </c>
+      <c r="AW375">
+        <v>10</v>
+      </c>
+      <c r="AX375">
+        <v>2</v>
+      </c>
+      <c r="AY375">
+        <v>21</v>
+      </c>
+      <c r="AZ375">
+        <v>7</v>
+      </c>
+      <c r="BA375">
+        <v>8</v>
+      </c>
+      <c r="BB375">
+        <v>2</v>
+      </c>
+      <c r="BC375">
+        <v>10</v>
+      </c>
+      <c r="BD375">
+        <v>2.18</v>
+      </c>
+      <c r="BE375">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF375">
+        <v>1.9</v>
+      </c>
+      <c r="BG375">
+        <v>1.17</v>
+      </c>
+      <c r="BH375">
+        <v>4.2</v>
+      </c>
+      <c r="BI375">
+        <v>1.34</v>
+      </c>
+      <c r="BJ375">
+        <v>2.88</v>
+      </c>
+      <c r="BK375">
+        <v>1.68</v>
+      </c>
+      <c r="BL375">
+        <v>2.17</v>
+      </c>
+      <c r="BM375">
+        <v>2.05</v>
+      </c>
+      <c r="BN375">
+        <v>1.76</v>
+      </c>
+      <c r="BO375">
+        <v>2.69</v>
+      </c>
+      <c r="BP375">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="376" spans="1:68">
+      <c r="A376" s="1">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>6956856</v>
+      </c>
+      <c r="C376" t="s">
+        <v>68</v>
+      </c>
+      <c r="D376" t="s">
+        <v>69</v>
+      </c>
+      <c r="E376" s="2">
+        <v>45438.54166666666</v>
+      </c>
+      <c r="F376">
+        <v>38</v>
+      </c>
+      <c r="G376" t="s">
+        <v>76</v>
+      </c>
+      <c r="H376" t="s">
+        <v>85</v>
+      </c>
+      <c r="I376">
+        <v>1</v>
+      </c>
+      <c r="J376">
+        <v>4</v>
+      </c>
+      <c r="K376">
+        <v>5</v>
+      </c>
+      <c r="L376">
+        <v>2</v>
+      </c>
+      <c r="M376">
+        <v>6</v>
+      </c>
+      <c r="N376">
+        <v>8</v>
+      </c>
+      <c r="O376" t="s">
+        <v>334</v>
+      </c>
+      <c r="P376" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q376">
+        <v>4</v>
+      </c>
+      <c r="R376">
+        <v>2.4</v>
+      </c>
+      <c r="S376">
+        <v>2.45</v>
+      </c>
+      <c r="T376">
+        <v>1.33</v>
+      </c>
+      <c r="U376">
+        <v>3.6</v>
+      </c>
+      <c r="V376">
+        <v>2.35</v>
+      </c>
+      <c r="W376">
+        <v>1.65</v>
+      </c>
+      <c r="X376">
+        <v>5.5</v>
+      </c>
+      <c r="Y376">
+        <v>1.17</v>
+      </c>
+      <c r="Z376">
+        <v>3.06</v>
+      </c>
+      <c r="AA376">
+        <v>4</v>
+      </c>
+      <c r="AB376">
+        <v>2.05</v>
+      </c>
+      <c r="AC376">
+        <v>1.03</v>
+      </c>
+      <c r="AD376">
+        <v>17</v>
+      </c>
+      <c r="AE376">
+        <v>1.15</v>
+      </c>
+      <c r="AF376">
+        <v>5.17</v>
+      </c>
+      <c r="AG376">
+        <v>1.51</v>
+      </c>
+      <c r="AH376">
+        <v>2.46</v>
+      </c>
+      <c r="AI376">
+        <v>1.52</v>
+      </c>
+      <c r="AJ376">
+        <v>2.55</v>
+      </c>
+      <c r="AK376">
+        <v>1.95</v>
+      </c>
+      <c r="AL376">
+        <v>1.28</v>
+      </c>
+      <c r="AM376">
+        <v>1.3</v>
+      </c>
+      <c r="AN376">
+        <v>1.72</v>
+      </c>
+      <c r="AO376">
+        <v>1.39</v>
+      </c>
+      <c r="AP376">
+        <v>1.63</v>
+      </c>
+      <c r="AQ376">
+        <v>1.47</v>
+      </c>
+      <c r="AR376">
+        <v>1.47</v>
+      </c>
+      <c r="AS376">
+        <v>1.21</v>
+      </c>
+      <c r="AT376">
+        <v>2.68</v>
+      </c>
+      <c r="AU376">
+        <v>9</v>
+      </c>
+      <c r="AV376">
+        <v>9</v>
+      </c>
+      <c r="AW376">
+        <v>7</v>
+      </c>
+      <c r="AX376">
+        <v>6</v>
+      </c>
+      <c r="AY376">
+        <v>16</v>
+      </c>
+      <c r="AZ376">
+        <v>15</v>
+      </c>
+      <c r="BA376">
+        <v>2</v>
+      </c>
+      <c r="BB376">
+        <v>1</v>
+      </c>
+      <c r="BC376">
+        <v>3</v>
+      </c>
+      <c r="BD376">
+        <v>2.3</v>
+      </c>
+      <c r="BE376">
+        <v>8</v>
+      </c>
+      <c r="BF376">
+        <v>1.8</v>
+      </c>
+      <c r="BG376">
+        <v>1.25</v>
+      </c>
+      <c r="BH376">
+        <v>3.5</v>
+      </c>
+      <c r="BI376">
+        <v>1.47</v>
+      </c>
+      <c r="BJ376">
+        <v>2.48</v>
+      </c>
+      <c r="BK376">
+        <v>1.77</v>
+      </c>
+      <c r="BL376">
+        <v>1.93</v>
+      </c>
+      <c r="BM376">
+        <v>2.3</v>
+      </c>
+      <c r="BN376">
+        <v>1.53</v>
+      </c>
+      <c r="BO376">
+        <v>3.05</v>
+      </c>
+      <c r="BP376">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:68">
+      <c r="A377" s="1">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>6956859</v>
+      </c>
+      <c r="C377" t="s">
+        <v>68</v>
+      </c>
+      <c r="D377" t="s">
+        <v>69</v>
+      </c>
+      <c r="E377" s="2">
+        <v>45438.54166666666</v>
+      </c>
+      <c r="F377">
+        <v>38</v>
+      </c>
+      <c r="G377" t="s">
+        <v>70</v>
+      </c>
+      <c r="H377" t="s">
+        <v>88</v>
+      </c>
+      <c r="I377">
+        <v>0</v>
+      </c>
+      <c r="J377">
+        <v>1</v>
+      </c>
+      <c r="K377">
+        <v>1</v>
+      </c>
+      <c r="L377">
+        <v>4</v>
+      </c>
+      <c r="M377">
+        <v>2</v>
+      </c>
+      <c r="N377">
+        <v>6</v>
+      </c>
+      <c r="O377" t="s">
+        <v>335</v>
+      </c>
+      <c r="P377" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q377">
+        <v>3.5</v>
+      </c>
+      <c r="R377">
+        <v>2.3</v>
+      </c>
+      <c r="S377">
+        <v>2.8</v>
+      </c>
+      <c r="T377">
+        <v>1.36</v>
+      </c>
+      <c r="U377">
+        <v>3.4</v>
+      </c>
+      <c r="V377">
+        <v>2.65</v>
+      </c>
+      <c r="W377">
+        <v>1.53</v>
+      </c>
+      <c r="X377">
+        <v>6.5</v>
+      </c>
+      <c r="Y377">
+        <v>1.14</v>
+      </c>
+      <c r="Z377">
+        <v>2.83</v>
+      </c>
+      <c r="AA377">
+        <v>3.75</v>
+      </c>
+      <c r="AB377">
+        <v>2.25</v>
+      </c>
+      <c r="AC377">
+        <v>1.04</v>
+      </c>
+      <c r="AD377">
+        <v>15</v>
+      </c>
+      <c r="AE377">
+        <v>1.21</v>
+      </c>
+      <c r="AF377">
+        <v>4.22</v>
+      </c>
+      <c r="AG377">
+        <v>1.65</v>
+      </c>
+      <c r="AH377">
+        <v>2.16</v>
+      </c>
+      <c r="AI377">
+        <v>1.57</v>
+      </c>
+      <c r="AJ377">
+        <v>2.35</v>
+      </c>
+      <c r="AK377">
+        <v>1.7</v>
+      </c>
+      <c r="AL377">
+        <v>1.3</v>
+      </c>
+      <c r="AM377">
+        <v>1.42</v>
+      </c>
+      <c r="AN377">
+        <v>1.89</v>
+      </c>
+      <c r="AO377">
+        <v>0.72</v>
+      </c>
+      <c r="AP377">
+        <v>1.95</v>
+      </c>
+      <c r="AQ377">
+        <v>0.68</v>
+      </c>
+      <c r="AR377">
+        <v>1.65</v>
+      </c>
+      <c r="AS377">
+        <v>1.22</v>
+      </c>
+      <c r="AT377">
+        <v>2.87</v>
+      </c>
+      <c r="AU377">
+        <v>6</v>
+      </c>
+      <c r="AV377">
+        <v>9</v>
+      </c>
+      <c r="AW377">
+        <v>7</v>
+      </c>
+      <c r="AX377">
+        <v>7</v>
+      </c>
+      <c r="AY377">
+        <v>13</v>
+      </c>
+      <c r="AZ377">
+        <v>16</v>
+      </c>
+      <c r="BA377">
+        <v>3</v>
+      </c>
+      <c r="BB377">
+        <v>6</v>
+      </c>
+      <c r="BC377">
+        <v>9</v>
+      </c>
+      <c r="BD377">
+        <v>2.05</v>
+      </c>
+      <c r="BE377">
+        <v>7.5</v>
+      </c>
+      <c r="BF377">
+        <v>2</v>
+      </c>
+      <c r="BG377">
+        <v>1.35</v>
+      </c>
+      <c r="BH377">
+        <v>2.88</v>
+      </c>
+      <c r="BI377">
+        <v>1.63</v>
+      </c>
+      <c r="BJ377">
+        <v>2.1</v>
+      </c>
+      <c r="BK377">
+        <v>2.05</v>
+      </c>
+      <c r="BL377">
+        <v>1.7</v>
+      </c>
+      <c r="BM377">
+        <v>2.75</v>
+      </c>
+      <c r="BN377">
+        <v>1.38</v>
+      </c>
+      <c r="BO377">
+        <v>3.8</v>
+      </c>
+      <c r="BP377">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="378" spans="1:68">
+      <c r="A378" s="1">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>6956853</v>
+      </c>
+      <c r="C378" t="s">
+        <v>68</v>
+      </c>
+      <c r="D378" t="s">
+        <v>69</v>
+      </c>
+      <c r="E378" s="2">
+        <v>45438.54166666666</v>
+      </c>
+      <c r="F378">
+        <v>38</v>
+      </c>
+      <c r="G378" t="s">
+        <v>72</v>
+      </c>
+      <c r="H378" t="s">
+        <v>84</v>
+      </c>
+      <c r="I378">
+        <v>0</v>
+      </c>
+      <c r="J378">
+        <v>1</v>
+      </c>
+      <c r="K378">
+        <v>1</v>
+      </c>
+      <c r="L378">
+        <v>1</v>
+      </c>
+      <c r="M378">
+        <v>3</v>
+      </c>
+      <c r="N378">
+        <v>4</v>
+      </c>
+      <c r="O378" t="s">
+        <v>212</v>
+      </c>
+      <c r="P378" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q378">
+        <v>6.15</v>
+      </c>
+      <c r="R378">
+        <v>2.22</v>
+      </c>
+      <c r="S378">
+        <v>2.14</v>
+      </c>
+      <c r="T378">
+        <v>1.35</v>
+      </c>
+      <c r="U378">
+        <v>3.05</v>
+      </c>
+      <c r="V378">
+        <v>2.54</v>
+      </c>
+      <c r="W378">
+        <v>1.48</v>
+      </c>
+      <c r="X378">
+        <v>6</v>
+      </c>
+      <c r="Y378">
+        <v>1.09</v>
+      </c>
+      <c r="Z378">
+        <v>4.58</v>
+      </c>
+      <c r="AA378">
+        <v>2.25</v>
+      </c>
+      <c r="AB378">
+        <v>2.06</v>
+      </c>
+      <c r="AC378">
+        <v>1.03</v>
+      </c>
+      <c r="AD378">
+        <v>9</v>
+      </c>
+      <c r="AE378">
+        <v>1.19</v>
+      </c>
+      <c r="AF378">
+        <v>4.29</v>
+      </c>
+      <c r="AG378">
+        <v>1.82</v>
+      </c>
+      <c r="AH378">
+        <v>2</v>
+      </c>
+      <c r="AI378">
+        <v>1.57</v>
+      </c>
+      <c r="AJ378">
+        <v>2.25</v>
+      </c>
+      <c r="AK378">
+        <v>1.73</v>
+      </c>
+      <c r="AL378">
+        <v>1.53</v>
+      </c>
+      <c r="AM378">
+        <v>1.15</v>
+      </c>
+      <c r="AN378">
+        <v>1.28</v>
+      </c>
+      <c r="AO378">
+        <v>2.5</v>
+      </c>
+      <c r="AP378">
+        <v>1.21</v>
+      </c>
+      <c r="AQ378">
+        <v>2.53</v>
+      </c>
+      <c r="AR378">
+        <v>1.3</v>
+      </c>
+      <c r="AS378">
+        <v>1.78</v>
+      </c>
+      <c r="AT378">
+        <v>3.08</v>
+      </c>
+      <c r="AU378">
+        <v>5</v>
+      </c>
+      <c r="AV378">
+        <v>9</v>
+      </c>
+      <c r="AW378">
+        <v>6</v>
+      </c>
+      <c r="AX378">
+        <v>16</v>
+      </c>
+      <c r="AY378">
+        <v>11</v>
+      </c>
+      <c r="AZ378">
+        <v>25</v>
+      </c>
+      <c r="BA378">
+        <v>4</v>
+      </c>
+      <c r="BB378">
+        <v>10</v>
+      </c>
+      <c r="BC378">
+        <v>14</v>
+      </c>
+      <c r="BD378">
+        <v>5</v>
+      </c>
+      <c r="BE378">
+        <v>10</v>
+      </c>
+      <c r="BF378">
+        <v>1.22</v>
+      </c>
+      <c r="BG378">
+        <v>1.25</v>
+      </c>
+      <c r="BH378">
+        <v>3.42</v>
+      </c>
+      <c r="BI378">
+        <v>1.48</v>
+      </c>
+      <c r="BJ378">
+        <v>2.47</v>
+      </c>
+      <c r="BK378">
+        <v>1.98</v>
+      </c>
+      <c r="BL378">
+        <v>1.82</v>
+      </c>
+      <c r="BM378">
+        <v>2.36</v>
+      </c>
+      <c r="BN378">
+        <v>1.52</v>
+      </c>
+      <c r="BO378">
+        <v>3.14</v>
+      </c>
+      <c r="BP378">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="379" spans="1:68">
+      <c r="A379" s="1">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>6956852</v>
+      </c>
+      <c r="C379" t="s">
+        <v>68</v>
+      </c>
+      <c r="D379" t="s">
+        <v>69</v>
+      </c>
+      <c r="E379" s="2">
+        <v>45438.54166666666</v>
+      </c>
+      <c r="F379">
+        <v>38</v>
+      </c>
+      <c r="G379" t="s">
+        <v>77</v>
+      </c>
+      <c r="H379" t="s">
+        <v>81</v>
+      </c>
+      <c r="I379">
+        <v>3</v>
+      </c>
+      <c r="J379">
+        <v>0</v>
+      </c>
+      <c r="K379">
+        <v>3</v>
+      </c>
+      <c r="L379">
+        <v>6</v>
+      </c>
+      <c r="M379">
+        <v>0</v>
+      </c>
+      <c r="N379">
+        <v>6</v>
+      </c>
+      <c r="O379" t="s">
+        <v>336</v>
+      </c>
+      <c r="P379" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q379">
+        <v>1.23</v>
+      </c>
+      <c r="R379">
+        <v>4.55</v>
+      </c>
+      <c r="S379">
+        <v>14.85</v>
+      </c>
+      <c r="T379">
+        <v>1.12</v>
+      </c>
+      <c r="U379">
+        <v>5.85</v>
+      </c>
+      <c r="V379">
+        <v>1.53</v>
+      </c>
+      <c r="W379">
+        <v>2.35</v>
+      </c>
+      <c r="X379">
+        <v>2.78</v>
+      </c>
+      <c r="Y379">
+        <v>1.39</v>
+      </c>
+      <c r="Z379">
+        <v>1.05</v>
+      </c>
+      <c r="AA379">
+        <v>12.71</v>
+      </c>
+      <c r="AB379">
+        <v>16.62</v>
+      </c>
+      <c r="AC379">
+        <v>1.01</v>
+      </c>
+      <c r="AD379">
+        <v>73</v>
+      </c>
+      <c r="AE379">
+        <v>1.02</v>
+      </c>
+      <c r="AF379">
+        <v>10</v>
+      </c>
+      <c r="AG379">
+        <v>1.17</v>
+      </c>
+      <c r="AH379">
+        <v>4.66</v>
+      </c>
+      <c r="AI379">
+        <v>2.09</v>
+      </c>
+      <c r="AJ379">
+        <v>1.69</v>
+      </c>
+      <c r="AK379">
+        <v>1.01</v>
+      </c>
+      <c r="AL379">
+        <v>1.01</v>
+      </c>
+      <c r="AM379">
+        <v>10.25</v>
+      </c>
+      <c r="AN379">
+        <v>2.5</v>
+      </c>
+      <c r="AO379">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP379">
+        <v>2.53</v>
+      </c>
+      <c r="AQ379">
+        <v>0.53</v>
+      </c>
+      <c r="AR379">
+        <v>1.97</v>
+      </c>
+      <c r="AS379">
+        <v>1.12</v>
+      </c>
+      <c r="AT379">
+        <v>3.09</v>
+      </c>
+      <c r="AU379">
+        <v>14</v>
+      </c>
+      <c r="AV379">
+        <v>2</v>
+      </c>
+      <c r="AW379">
+        <v>11</v>
+      </c>
+      <c r="AX379">
+        <v>9</v>
+      </c>
+      <c r="AY379">
+        <v>25</v>
+      </c>
+      <c r="AZ379">
+        <v>11</v>
+      </c>
+      <c r="BA379">
+        <v>4</v>
+      </c>
+      <c r="BB379">
+        <v>5</v>
+      </c>
+      <c r="BC379">
+        <v>9</v>
+      </c>
+      <c r="BD379">
+        <v>1.02</v>
+      </c>
+      <c r="BE379">
+        <v>23</v>
+      </c>
+      <c r="BF379">
+        <v>21</v>
+      </c>
+      <c r="BG379">
+        <v>1.15</v>
+      </c>
+      <c r="BH379">
+        <v>4.45</v>
+      </c>
+      <c r="BI379">
+        <v>1.31</v>
+      </c>
+      <c r="BJ379">
+        <v>3.04</v>
+      </c>
+      <c r="BK379">
+        <v>1.9</v>
+      </c>
+      <c r="BL379">
+        <v>1.8</v>
+      </c>
+      <c r="BM379">
+        <v>1.95</v>
+      </c>
+      <c r="BN379">
+        <v>1.77</v>
+      </c>
+      <c r="BO379">
+        <v>2.44</v>
+      </c>
+      <c r="BP379">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="380" spans="1:68">
+      <c r="A380" s="1">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>6956855</v>
+      </c>
+      <c r="C380" t="s">
+        <v>68</v>
+      </c>
+      <c r="D380" t="s">
+        <v>69</v>
+      </c>
+      <c r="E380" s="2">
+        <v>45438.54166666666</v>
+      </c>
+      <c r="F380">
+        <v>38</v>
+      </c>
+      <c r="G380" t="s">
+        <v>74</v>
+      </c>
+      <c r="H380" t="s">
+        <v>86</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <v>1</v>
+      </c>
+      <c r="K380">
+        <v>1</v>
+      </c>
+      <c r="L380">
+        <v>0</v>
+      </c>
+      <c r="M380">
+        <v>1</v>
+      </c>
+      <c r="N380">
+        <v>1</v>
+      </c>
+      <c r="O380" t="s">
+        <v>93</v>
+      </c>
+      <c r="P380" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q380">
+        <v>3.55</v>
+      </c>
+      <c r="R380">
+        <v>2.25</v>
+      </c>
+      <c r="S380">
+        <v>2.55</v>
+      </c>
+      <c r="T380">
+        <v>1.38</v>
+      </c>
+      <c r="U380">
+        <v>3.25</v>
+      </c>
+      <c r="V380">
+        <v>2.5</v>
+      </c>
+      <c r="W380">
+        <v>1.6</v>
+      </c>
+      <c r="X380">
+        <v>6</v>
+      </c>
+      <c r="Y380">
+        <v>1.16</v>
+      </c>
+      <c r="Z380">
+        <v>3.01</v>
+      </c>
+      <c r="AA380">
+        <v>3.25</v>
+      </c>
+      <c r="AB380">
+        <v>2.35</v>
+      </c>
+      <c r="AC380">
+        <v>1.01</v>
+      </c>
+      <c r="AD380">
+        <v>12</v>
+      </c>
+      <c r="AE380">
+        <v>1.16</v>
+      </c>
+      <c r="AF380">
+        <v>4.6</v>
+      </c>
+      <c r="AG380">
+        <v>1.6</v>
+      </c>
+      <c r="AH380">
+        <v>2.25</v>
+      </c>
+      <c r="AI380">
+        <v>1.5</v>
+      </c>
+      <c r="AJ380">
+        <v>2.55</v>
+      </c>
+      <c r="AK380">
+        <v>1.65</v>
+      </c>
+      <c r="AL380">
+        <v>1.36</v>
+      </c>
+      <c r="AM380">
+        <v>1.4</v>
+      </c>
+      <c r="AN380">
+        <v>1.17</v>
+      </c>
+      <c r="AO380">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP380">
+        <v>1.11</v>
+      </c>
+      <c r="AQ380">
+        <v>1.05</v>
+      </c>
+      <c r="AR380">
+        <v>1.28</v>
+      </c>
+      <c r="AS380">
+        <v>1.28</v>
+      </c>
+      <c r="AT380">
+        <v>2.56</v>
+      </c>
+      <c r="AU380">
+        <v>3</v>
+      </c>
+      <c r="AV380">
+        <v>6</v>
+      </c>
+      <c r="AW380">
+        <v>7</v>
+      </c>
+      <c r="AX380">
+        <v>7</v>
+      </c>
+      <c r="AY380">
+        <v>10</v>
+      </c>
+      <c r="AZ380">
+        <v>13</v>
+      </c>
+      <c r="BA380">
+        <v>2</v>
+      </c>
+      <c r="BB380">
+        <v>3</v>
+      </c>
+      <c r="BC380">
+        <v>5</v>
+      </c>
+      <c r="BD380">
+        <v>2.25</v>
+      </c>
+      <c r="BE380">
+        <v>8</v>
+      </c>
+      <c r="BF380">
+        <v>1.83</v>
+      </c>
+      <c r="BG380">
+        <v>1.29</v>
+      </c>
+      <c r="BH380">
+        <v>3.25</v>
+      </c>
+      <c r="BI380">
+        <v>1.52</v>
+      </c>
+      <c r="BJ380">
+        <v>2.33</v>
+      </c>
+      <c r="BK380">
+        <v>1.95</v>
+      </c>
+      <c r="BL380">
+        <v>1.77</v>
+      </c>
+      <c r="BM380">
+        <v>2.45</v>
+      </c>
+      <c r="BN380">
+        <v>1.47</v>
+      </c>
+      <c r="BO380">
+        <v>3.3</v>
+      </c>
+      <c r="BP380">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="381" spans="1:68">
+      <c r="A381" s="1">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>6956860</v>
+      </c>
+      <c r="C381" t="s">
+        <v>68</v>
+      </c>
+      <c r="D381" t="s">
+        <v>69</v>
+      </c>
+      <c r="E381" s="2">
+        <v>45438.54166666666</v>
+      </c>
+      <c r="F381">
+        <v>38</v>
+      </c>
+      <c r="G381" t="s">
+        <v>83</v>
+      </c>
+      <c r="H381" t="s">
+        <v>82</v>
+      </c>
+      <c r="I381">
+        <v>1</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381">
+        <v>1</v>
+      </c>
+      <c r="L381">
+        <v>2</v>
+      </c>
+      <c r="M381">
+        <v>0</v>
+      </c>
+      <c r="N381">
+        <v>2</v>
+      </c>
+      <c r="O381" t="s">
+        <v>337</v>
+      </c>
+      <c r="P381" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q381">
+        <v>2.05</v>
+      </c>
+      <c r="R381">
+        <v>2.55</v>
+      </c>
+      <c r="S381">
+        <v>5</v>
+      </c>
+      <c r="T381">
+        <v>1.3</v>
+      </c>
+      <c r="U381">
+        <v>3.75</v>
+      </c>
+      <c r="V381">
+        <v>2.4</v>
+      </c>
+      <c r="W381">
+        <v>1.63</v>
+      </c>
+      <c r="X381">
+        <v>5.5</v>
+      </c>
+      <c r="Y381">
+        <v>1.18</v>
+      </c>
+      <c r="Z381">
+        <v>1.46</v>
+      </c>
+      <c r="AA381">
+        <v>4.8</v>
+      </c>
+      <c r="AB381">
+        <v>5.82</v>
+      </c>
+      <c r="AC381">
+        <v>1.02</v>
+      </c>
+      <c r="AD381">
+        <v>19</v>
+      </c>
+      <c r="AE381">
+        <v>1.17</v>
+      </c>
+      <c r="AF381">
+        <v>4.75</v>
+      </c>
+      <c r="AG381">
+        <v>1.5</v>
+      </c>
+      <c r="AH381">
+        <v>2.48</v>
+      </c>
+      <c r="AI381">
+        <v>1.63</v>
+      </c>
+      <c r="AJ381">
+        <v>2.25</v>
+      </c>
+      <c r="AK381">
+        <v>1.1</v>
+      </c>
+      <c r="AL381">
+        <v>1.2</v>
+      </c>
+      <c r="AM381">
+        <v>2.5</v>
+      </c>
+      <c r="AN381">
+        <v>1.39</v>
+      </c>
+      <c r="AO381">
+        <v>0.67</v>
+      </c>
+      <c r="AP381">
+        <v>1.47</v>
+      </c>
+      <c r="AQ381">
+        <v>0.63</v>
+      </c>
+      <c r="AR381">
+        <v>1.29</v>
+      </c>
+      <c r="AS381">
+        <v>1.23</v>
+      </c>
+      <c r="AT381">
+        <v>2.52</v>
+      </c>
+      <c r="AU381">
+        <v>7</v>
+      </c>
+      <c r="AV381">
+        <v>4</v>
+      </c>
+      <c r="AW381">
+        <v>7</v>
+      </c>
+      <c r="AX381">
+        <v>6</v>
+      </c>
+      <c r="AY381">
+        <v>14</v>
+      </c>
+      <c r="AZ381">
+        <v>10</v>
+      </c>
+      <c r="BA381">
+        <v>2</v>
+      </c>
+      <c r="BB381">
+        <v>4</v>
+      </c>
+      <c r="BC381">
+        <v>6</v>
+      </c>
+      <c r="BD381">
+        <v>1.62</v>
+      </c>
+      <c r="BE381">
+        <v>8</v>
+      </c>
+      <c r="BF381">
+        <v>2.75</v>
+      </c>
+      <c r="BG381">
+        <v>1.35</v>
+      </c>
+      <c r="BH381">
+        <v>2.88</v>
+      </c>
+      <c r="BI381">
+        <v>1.63</v>
+      </c>
+      <c r="BJ381">
+        <v>2.1</v>
+      </c>
+      <c r="BK381">
+        <v>2.05</v>
+      </c>
+      <c r="BL381">
+        <v>1.7</v>
+      </c>
+      <c r="BM381">
+        <v>2.75</v>
+      </c>
+      <c r="BN381">
+        <v>1.38</v>
+      </c>
+      <c r="BO381">
+        <v>3.8</v>
+      </c>
+      <c r="BP381">
         <v>1.21</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
@@ -79020,31 +79020,31 @@
         <v>2.83</v>
       </c>
       <c r="AU375">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AV375">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW375">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AX375">
         <v>2</v>
       </c>
       <c r="AY375">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AZ375">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA375">
         <v>8</v>
       </c>
       <c r="BB375">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC375">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD375">
         <v>2.18</v>
@@ -79226,22 +79226,22 @@
         <v>2.68</v>
       </c>
       <c r="AU376">
+        <v>3</v>
+      </c>
+      <c r="AV376">
+        <v>4</v>
+      </c>
+      <c r="AW376">
+        <v>3</v>
+      </c>
+      <c r="AX376">
+        <v>5</v>
+      </c>
+      <c r="AY376">
+        <v>6</v>
+      </c>
+      <c r="AZ376">
         <v>9</v>
-      </c>
-      <c r="AV376">
-        <v>9</v>
-      </c>
-      <c r="AW376">
-        <v>7</v>
-      </c>
-      <c r="AX376">
-        <v>6</v>
-      </c>
-      <c r="AY376">
-        <v>16</v>
-      </c>
-      <c r="AZ376">
-        <v>15</v>
       </c>
       <c r="BA376">
         <v>2</v>
@@ -79432,22 +79432,22 @@
         <v>2.87</v>
       </c>
       <c r="AU377">
+        <v>2</v>
+      </c>
+      <c r="AV377">
+        <v>5</v>
+      </c>
+      <c r="AW377">
+        <v>4</v>
+      </c>
+      <c r="AX377">
+        <v>4</v>
+      </c>
+      <c r="AY377">
         <v>6</v>
       </c>
-      <c r="AV377">
+      <c r="AZ377">
         <v>9</v>
-      </c>
-      <c r="AW377">
-        <v>7</v>
-      </c>
-      <c r="AX377">
-        <v>7</v>
-      </c>
-      <c r="AY377">
-        <v>13</v>
-      </c>
-      <c r="AZ377">
-        <v>16</v>
       </c>
       <c r="BA377">
         <v>3</v>
@@ -79638,31 +79638,31 @@
         <v>3.08</v>
       </c>
       <c r="AU378">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV378">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AW378">
+        <v>7</v>
+      </c>
+      <c r="AX378">
         <v>6</v>
       </c>
-      <c r="AX378">
-        <v>16</v>
-      </c>
       <c r="AY378">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AZ378">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BA378">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB378">
         <v>10</v>
       </c>
       <c r="BC378">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD378">
         <v>5</v>
@@ -79844,22 +79844,22 @@
         <v>3.09</v>
       </c>
       <c r="AU379">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AV379">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW379">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AX379">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AY379">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AZ379">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA379">
         <v>4</v>
@@ -80050,22 +80050,22 @@
         <v>2.56</v>
       </c>
       <c r="AU380">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV380">
+        <v>5</v>
+      </c>
+      <c r="AW380">
         <v>6</v>
       </c>
-      <c r="AW380">
+      <c r="AX380">
+        <v>2</v>
+      </c>
+      <c r="AY380">
+        <v>8</v>
+      </c>
+      <c r="AZ380">
         <v>7</v>
-      </c>
-      <c r="AX380">
-        <v>7</v>
-      </c>
-      <c r="AY380">
-        <v>10</v>
-      </c>
-      <c r="AZ380">
-        <v>13</v>
       </c>
       <c r="BA380">
         <v>2</v>
@@ -80256,22 +80256,22 @@
         <v>2.52</v>
       </c>
       <c r="AU381">
+        <v>6</v>
+      </c>
+      <c r="AV381">
+        <v>3</v>
+      </c>
+      <c r="AW381">
+        <v>6</v>
+      </c>
+      <c r="AX381">
+        <v>4</v>
+      </c>
+      <c r="AY381">
+        <v>12</v>
+      </c>
+      <c r="AZ381">
         <v>7</v>
-      </c>
-      <c r="AV381">
-        <v>4</v>
-      </c>
-      <c r="AW381">
-        <v>7</v>
-      </c>
-      <c r="AX381">
-        <v>6</v>
-      </c>
-      <c r="AY381">
-        <v>14</v>
-      </c>
-      <c r="AZ381">
-        <v>10</v>
       </c>
       <c r="BA381">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20232024.xlsx
@@ -79020,22 +79020,22 @@
         <v>2.83</v>
       </c>
       <c r="AU375">
+        <v>11</v>
+      </c>
+      <c r="AV375">
+        <v>5</v>
+      </c>
+      <c r="AW375">
+        <v>10</v>
+      </c>
+      <c r="AX375">
+        <v>2</v>
+      </c>
+      <c r="AY375">
+        <v>21</v>
+      </c>
+      <c r="AZ375">
         <v>7</v>
-      </c>
-      <c r="AV375">
-        <v>4</v>
-      </c>
-      <c r="AW375">
-        <v>7</v>
-      </c>
-      <c r="AX375">
-        <v>2</v>
-      </c>
-      <c r="AY375">
-        <v>14</v>
-      </c>
-      <c r="AZ375">
-        <v>6</v>
       </c>
       <c r="BA375">
         <v>8</v>
@@ -79226,22 +79226,22 @@
         <v>2.68</v>
       </c>
       <c r="AU376">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AV376">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AW376">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX376">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY376">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AZ376">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA376">
         <v>2</v>
@@ -79432,22 +79432,22 @@
         <v>2.87</v>
       </c>
       <c r="AU377">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV377">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AW377">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX377">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY377">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AZ377">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BA377">
         <v>3</v>
@@ -79638,22 +79638,22 @@
         <v>3.08</v>
       </c>
       <c r="AU378">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV378">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AW378">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX378">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AY378">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ378">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="BA378">
         <v>3</v>
@@ -79844,22 +79844,22 @@
         <v>3.09</v>
       </c>
       <c r="AU379">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AV379">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW379">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AX379">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY379">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AZ379">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA379">
         <v>4</v>
@@ -80050,22 +80050,22 @@
         <v>2.56</v>
       </c>
       <c r="AU380">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV380">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW380">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX380">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AY380">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ380">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA380">
         <v>2</v>
@@ -80256,22 +80256,22 @@
         <v>2.52</v>
       </c>
       <c r="AU381">
+        <v>7</v>
+      </c>
+      <c r="AV381">
+        <v>4</v>
+      </c>
+      <c r="AW381">
+        <v>7</v>
+      </c>
+      <c r="AX381">
         <v>6</v>
       </c>
-      <c r="AV381">
-        <v>3</v>
-      </c>
-      <c r="AW381">
-        <v>6</v>
-      </c>
-      <c r="AX381">
-        <v>4</v>
-      </c>
       <c r="AY381">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ381">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA381">
         <v>2</v>
